--- a/results/prediction_validation_set.xlsx
+++ b/results/prediction_validation_set.xlsx
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MKEIILWPAYIDLKRTKNEGRKVPKEIAIQNPKLKEIASKIKKMGLEYSVENKKSYPKESWEICGYIKVKVDESTSKLQFLKEICINMK</t>
+          <t>DAPGHPGKHYLQVNVPSDVRTIGVAGGGVQQCFRVTPGAWNDTRALVSNGAQVEVWGYTVADCANRTTANQKYYDKAAAP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,20 +466,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MNDNNSCKLTMLTRRLENMTQEYGQPDLPVPFLNGDEPGKLKLPLSERHEDVDYLTKEQCIQYFNGYSIHLIPPRISS</t>
+          <t>RRRRRRRRSLVSSDESSSGSSHSSGEHS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MNIDIETYSSNDISKCGAYKYTEAEDFEILIIAYSIDGGAISAIDMTKVDNEPFHADFETFKIALFDPAVKKVCIQC</t>
+          <t>MGDIIKVVFAMIIYLYMLTIVTNAVTICDSDQDCRRYRCDPPEYPRCLGILCKCVYVSG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LPRLLRLDSRMATVDFPKKDPTTSLGRPFFLFRPRN</t>
+          <t>GDAQTIQEVFEMFALDSDGCCWHPACGRHYC</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,24 +505,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VRIWFCASRTCSAPADCNPCTCESGVCVDWL</t>
+          <t>MIQSPTSFLIVLILLWCKLVLSCFIECLVALQQLIHVLLQIINSNLQSRLLLWHSLD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YVPKIPKPQPNKPNFPSFPGHGPFNPHASRFPRSPKDNGKIVFDAKKEGGKTQWNVETQQ</t>
+          <t>MSERQGAGATNGKDKTSGENDGQKKVQEEFDIDMDAPETERAAVAIQSQFRKFQKKKAGSQS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -531,37 +531,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFETITPLFPGLPGGPELLVVLLIVVLLFGANKIPKLARSSGQAIGEFQRGREEIEDELQDMTGDDDEDDATSESSADSVSTDSVSTESSN</t>
+          <t>MDTKTLIDKYNIENFTNYINFIIRNHQAGKGNLRFLVNLLKTTGGSNLKELDINPVEIENFNIDIYLDFLEFCLDSKFIF</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>APVTAGRGGALAKMYTRGNHWAVGHLM</t>
+          <t>MGAVFAIIGGFALDSPILRLYLDQLSLNHFTDIVGATKVSSLNIPWPLRIPRRIRLPGRLYNMKYCFINRLIHFPNCRNSNNFYNSEKPSPQNEK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MTWKLFICFLSFGVIFLRVSSLTEKSHTTSYTILHNNNFYSNSCSADTYVPSIKTFSSVWAILNVIIFFCASLFYLRHLCIVKFISNLTK</t>
+          <t>MLKMGVVLFIFLVLFPLATLQLNADQPVERNAENIQDLNPDKRVIKIPVPRRRGPYRRYGNCYCPIG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,33 +570,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MAQGPLKKTKPSTAKRPTALAPKRGPRQIAPKKATLIKQQKITKKLTAGLTAKTERTLAQRAGHLELLAGGKKDKKAEKEKGKEKGGKKN</t>
+          <t>MKLITYVKEGESIDRVLKKCKQKFDKARIIRKLRERQQYIKPSERKRKILAKAKYREFRKLLADD</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ASSTWGGSYPACENNCRKQYDDCIKCQGKWAGKRGKCAAHCAVQTTSCNDKCKKH</t>
+          <t>MGDIGAPELIIIILVVVVLFGSKRLPDAARSLGRSLRIFKSEIKGLHDDEAPAPTAAVAAAPTQVTGPAPAAPHTPPSAEPATPATGGSGNRSA</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MKKAKAIFLFILIVSGFLLVACQANYIRDVQGGTVAPSSSSELTGIAVQ</t>
+          <t>MKVAILILSILVLAVASETIEEYRDDFAVEELERATCAGQDKPCKETCDCCGERGECVCALSYEGKYRCICRQGNFLIAWHKLASCKK</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,33 +609,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MVSPRVRLAALALSVCAILCLGMHASAFPPKPDNPGDNASPEQMARYKAAVRHYINLITRQRYGKRALTPENWIYRDPAEERVTYGLDDYAMW</t>
+          <t>WNPFKKIANRNCYPKTTCETAGGKKTCKDFSCCQIVLFGKKTRAKCTVVT</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MNHNVIIVIALIIVVISMLAMLIRVVLGPSLADRVVALDAIGLQLMAVIALFSILLNIKYMIVVIMMIGILAFLGTAVFSKFMDKGKVIEHDQNHTD</t>
+          <t>KKIKRETEEDENENEEERNERSEMKRYAFGYPSGEEKKIKRETEEDENENEEERNEEGSEMKRYAFGYPSGEAKRMKRKPAEEETE</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQRLILLLLSISLLLDRDLPVRSEFELHRICGYGTARCRKKCQNQEYKIGRCHNTYACCLKKWDESLLNLTKH</t>
+          <t>FRVPLRIRPCVVAPRLVMVRHTFGRIARWVAGPLETR</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VAEKAKDERELLEKTSELIAGMGDKIGEHLGDKYKAIAKDIADNIKNFQGKTIRSFDDAM</t>
+          <t>TYDAYDECQTELDCPKNIDCVYPKSMKCIDKKCICVGARMIIPRVL</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LPRDTSRCVGYHGYCIRSKVCPKPFAAFGTCSWRQKTCCVDTTSDFHTCQDKGGHCVSPKIRCLEEQLGLCPLKRWTCCK</t>
+          <t>MTDNARKEYLNQFFGSKRYLYQDNERVAHIHVANGNYYFHGHIVPGWQGVKKTFDTAEELEIYIKQHGLEYEKQKQLTLF</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MAPLKMLALVTLLLGASLQHIHAARGTNVGRECCLEYFKGAIPLRKLKTWYQTSEDCSRDAIVFVTVQGRAICSDPNNKRVKNAVKYLQSLERS</t>
+          <t>MFLSSAVRKDSNGVRHLPSVQRWTPGSPPTRAHGHVSYVAQCATAQCREAVGRTYPGVVKKGLENTDKVRGFI</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,59 +687,59 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MKTHVKKDLDKGWHMLIQEARSIGLGIHDVRQFLESETASRKKNHKKTVRQD</t>
+          <t>MVRVIGSLVFGGLILLLASSNAHMVETRFGPLIMLAPHFVVLGITFFLGFAIGIVLVFANVMKRRKHKLPGKNIVIKR</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MTVYAVTGGAEFLGRYIVKLLISADDVQEIRVINVVEDPQPLVSKVKVINYIQCDINDLIR</t>
+          <t>MKKIVFLILGLAAFAFGADGEMIRSYSVIAGGIGLGLAALGGAIGMGNTAAATISGTARNPGVGSKLMTTMFIALAMIEAQVIYALVITLIVLYANPMLG</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EIKEALAKIRELDSPLFKEFEKDSRSGVQKEIEKRKKSIQAEIDENLRLEGMLAYEKELYA</t>
+          <t>MKVSAALLCLLLMAATFSPQGLAQPDSVSIPITCCFNVINRKIPIQRLESYTRITNIQCPKEAVIFKTKRGKEVCADPKERWVRDSMKHLDQIFQNLKP</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MADLKPSLTGLTEEEAKEFHGIFVTSTVLYLATAVIVHYLVWTARPWIAPIPKGWVNLEGVQSALSYLV</t>
+          <t>MEIVLEAKERTDKKRSTLRRIRSQGGIPAILYGKKVENKMIFVTAAELEKVLREGGRTS</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MKFTATLLLLFIFVLMVDLGEGRRKKKGSKRKGSKGKGSKGKGRWLDRIGKAGGIIIGGALDHLGQGQVQGPDYDYQEGEELNKRSDDDDSPSLIFFD</t>
+          <t>VTQYLVTTFKDSTGLPHEHITVARDNQTFTVVEAESKEEAKEKYEARNVPVDGATNLNDIKSNIGIFHVEKVEPNEGMVDINIETMKPFEEADDD</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,33 +752,33 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MKKEITNNETVKNLEFKGLLDESQKLAKVNDLWYFVKSKENRWILGSGH</t>
+          <t>MKGSSALLLVALSLLCVCGLTRAEDDNEFFMEFLQTLLVGTPEELYEGPLGKYNVNDMAKSALRELKSCIDELQPVHKEQLVKLLVQVLDAQEDT</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MAKCTLTSLILLLIVLVLIQESHIVEGRPLKSSRISNVSKKFAAGNSNLSSKLTTEDHSLDAFRPTNPGNSPGIGH</t>
+          <t>GFKLKGMARISCLPNGQWSNFPPKCIRECAMV</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MNTPAARPDRYQSFAHIPCDAMALKLLTHLEQLLQAEDTLEPFWQLFLQKAAIAKQPQPGQADALKLICSNSYYIFDLFAAQQDQAGEAMMDELEYQCC</t>
+          <t>MILDYINSRIKILWYTDPFLISREGVIVLETEKTFLIKLEEKNKFIRIFKAHGIFEITFKGKSFIIAGYKLVRKPWKRI</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,24 +791,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MAQLIIFVYALMVFLSIFLVESYKTKTPCKSLNDCPKAIKPIFVKCLGNICQYSIGRI</t>
+          <t>MQPCVLWWLALGLLLGIPAGAKPTPEEADPNAQPPAMPYWPFSTSDFWNYVQYFQSQGAYPQIEDMARTFFAHFPLGSTLGFHVPYQED</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MVLSDFTGVGVGFGFGVGCGFGVGWGFGGMPMNILGVGAGGGCGVGLGLGWGFGTAFGSHYRSSRLTFQGIELETADKREEVVANMSKNST</t>
+          <t>MKFTATLLLLFIFVLMVDLGEGRRKKKGSKRKGSKGKGSKGKGRWLDRIGKAGGIIIGGALDHLGQGQVQGPDYDYQEGEELNKRSDDDDSPSLIFFD</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,59 +817,59 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MKTLTHHIAVQCTCGATGQTGDFLVDIEHFKLTGELIALDGMVFRSLTALYAYANTYGLPTKRLNTPIVYQS</t>
+          <t>MILQILGERKYDCKDSTEEPIVKPFIELIDGVQFLLEQENAFSLLNSKHEEITRVPNSPYEYRTEKEGYKTFVNSVYVLNDEGKTLRRLFERGL</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ANIKLSVQMKLFKRHLKWKIIVKLNDGRELSLDA</t>
+          <t>MASWRMLCFVLLFTSILICHDARPLPSSLSSSNGSPAFVESVKQVVKEIMRRKQLLGTQYSTNRLSPSGPDPHHH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MKIFYYLLHFLCYMTFILPAICTLVDPERCSKMYGQCRTRCYKIEKQIDICYSPSKICCIQRAFEEDLS</t>
+          <t>ETLQQTLDASRGVTTLPLGVERRTDNPIYVTWTGADTVLGDVPKSPRFALVTETRVTK</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VSWGEGCDRDGKYGFYTHVFRLKKWIQKVIDQFGE</t>
+          <t>MSLLTEVETYVLPTRNEWECRCSGSSDPLVVASSIIGILHLILWILDRLFFKCIYRRLKYGLKRGPSTEGVPESMREEYRQEQQSAVDVDDGHFVNIELE</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MKKRSSRKLAQVIGRKTGNYFPASIEGETKKEHKHHYSTASKEKESLRKRAKEFDVLVHSLLDKHVPQNSDQVLIFTYQNGFVETDFHNFGRYSVKL</t>
+          <t>MVQLWHVVWHPPLGPPQTLPPANPHYPQSTTQPESLSRLNLCKSTCRWSRPRQSRVTLTVP</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,24 +882,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MSIRLRVCVGCVYVRVTVSLPAFNPMRNKIGECTQSHTMCLRAVLLTPHNKKKKHTSCP</t>
+          <t>MALTVETKKRPEGSKPKALRRSGFIPANLYGHNGRESISLVVDAKVVERLLKAAAVKKTEIELNIPELEWTGKTVLQEVQIHPAKGTPYHISFLATAKG</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PVNIYVIMADQGPAHLPVSLAVHTDMLEYVPVSKDEYFQKLKKA</t>
+          <t>MLYLLYIFLGLLIILGVNLLVTAFWALHDMYVHKDEEACDLNTFKKYFVKNNNIPTKMSDIFN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -908,37 +908,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MQLGTGLLLAAVLSLQLAAAEAIWCHQCTGFGGCSHGSRCLRDSTHCVTTATRVLSNTEDLPLVTKMCHIGCPDIPSLGLGPYVSIACCQTSLCNHD</t>
+          <t>MVAGIQKISLSKGKPVKGVNIKTGEEITFQTVSEVISYGFDKSHVASCARGESKTHKGFIWKYV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RRRQRRKRGGDIMGEWGNEIFGAIAGFLG</t>
+          <t>MSMQPTDHIRLTAFVHGHVQGVGFRWWTRSQALELGLAGSATNLDDGRVCVVAEGPEDRCRELLTRLGEQPSRHRRVGTVSTVIEQWSEPRGVEGFTER</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SGERPWKCCDLQTCTKSIPAFCRCRDLLEQCSDACKECGKVRDSDPPRYICQDVYRGIPAPMCHEHQ</t>
+          <t>MNPIVEFCLSNMAKGGDYVFNQLENDPDVDVLEYGCLTHCGICSAGLYALVNGDIVEGDSPEELLQNIYAHIKETWIF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -947,33 +947,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MNVAAWLHNGEWHLFTDEMNRVVSDQAYYQAGLKGPDKRDLVLLRMTAKRRNTAYWFHFRKDNPFNKYMPVAYTEEIPKELQALLTIYGL</t>
+          <t>SGKSFKAGVCPPKKSAQCLRYKKPECQSDWQCPGKKR</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MLLLSAVKTLLLAWLGIVLVFMSIIKSAMLDFLQEAGKLEGIETYKKEAQTSFMAPSWALGHLMGRK</t>
+          <t>METCQMSRSPRERLLLLLLLLLLVPWGTGPASGVALPLAGVFSLRAPGRAWAGLGSPLSRRSLALADDAAFRERARLLAALERRRWLDSYMQKLLLLDAP</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MCSYYHMKKRSVSGCNITIFAVMFSHLSAGKSPCGNQANVLCISRLEFVQYQS</t>
+          <t>KELLDADGDILRNGGPAYPGLMPGVERDLPASGWGLPRRTGDESCPLNVKAVR</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KRRIRRERNKMAAAKSRNRRRELTDTGC</t>
+          <t>MMALNGGWRKTFVSILTTCFLVVVVIVSLSCEAKGGVVPRLRPPFCFPYDREYCTPFHCGKVCQEYNFPAKNGGYCDKRGDPWKCCCPY</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,24 +999,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFKTILVLVVALNLLGAFTYASPRPDDKKNQGSASVDVQRERGEGTKVDARVRQELWRSDDGRTRAEAYGHWDRTYGGRNHGERSHGGGVRLEHTWGK</t>
+          <t>MAKFANYLTLFLLVASLVMMEVHSSSSTEVPDQGRRLLMNPDSNGIPCGESCVFIPCISALLGCSCSNKVCYNNRTKS</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>METCQMSRSPRERLLLLLLLLLLVPWGTGPASGVALPLAGVFSLRAPGRAWAGLGSPLSRRSLALADDAAFRERARLLAALERRRWLDSYMQKLLLLDAP</t>
+          <t>SVENSRPTGQQLESLDLSAPWEQSLPCTERKPSATARLSRRGASLSSPAESSGSPQRRGLSAPSSRQIPAPQGAVLVQREKDLPNYNW</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MWRWSNIYRIGTLSRYYRYAEHSKDTTMSIFSGGVLPNTPSLEKSLYYDAFPYGLTCKNS</t>
+          <t>MSPEEIRRRLDTITERIANAVMIVNLIKEKSK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1038,59 +1038,59 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MGPPRRVCRAGLLFVLLVALAAGDAGPRGEPPGEEGGRDGIGGARCETQNTGQMSAPGALVPFYVGMASMGVCIIAHVCQICQRLLAAGHA</t>
+          <t>TMCYSHTTTSRAILTNCGENSCYRKSRVHP</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MDKAEKVDNIVRQVTGAIIKTTAKVAFIVFVLTFAGILVGYYSYSFLTNAGWFALPMILSVDLLYVAVLLGGLAFIFAEVYKVVLEVKKIVKRGGQL</t>
+          <t>MKCGRKRRRRRRHACKRKKRACKQRSSTIVRAHLVHRRRAARRCP</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MRMAEEYGKGVPMVLNPQMGAIDATVESIRYRAQLIARNQKLDSGVMSTGIIGFAAGFLFSLLMVIILPLMAGL</t>
+          <t>MAKCTLTSLILLLIVLVLIQESHIVEGRPLKSSRISNVSKKFAAGNSNLSSKLTTEDHSLDAFRPTNPGNSPGIGH</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MDMMLMIGNYFSGVLIAGIILLILSCIFAFIDFSKSTSPTRTWKVLSIMSFILGIIITVGMLIYSMWGKHCAPHRVSGVIHTNHSDISVN</t>
+          <t>STLSSNDAKVVDGKATPLGSFPHVKRAGDFLYVSGTSSRRPDNTIAGAELDSTS</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TCSIPYEYSNGKLKRTLYYSNGVYANSFTENN</t>
+          <t>NIIDVPCRPCYYRDSSGNCVYDQLGCGA</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MDPIINGNSANVYLTDSYLKGVISFSECNALGSYIFNGPYLKNDYTNLISRQNPLIEHMNLKKLNITQSLISKYHKGEIKL</t>
+          <t>MEQITLTKEECVEQCINKDLKLLDYRVQQILEGVLSESTTYGDARNKLETLKIIAESHFKTEHASVIYKLALKKLDKKINATPIKE</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MAGPEADAQFHFTGIKKYFNSYTLTGRMNCVLATYGSIALIVLYFKLRSKKTPAVKAT</t>
+          <t>CGDINAACKEDCDCCGYTTACDCYWSSSCKCREAAIVIYTAPKKKLTC</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MANVQKIGKAVYKGPSVVKEIIYGITLGFAVGGLWKMHHWNNQRRTKEFYDLLEKGEISVVVEDE</t>
+          <t>MPEQLSVRKWRLVRDLKQQEVADILGVNAKTVGHWEKDDTNLSNVTVYALAKLYDIEVDQIKV</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1142,11 +1142,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EHRKVLASVAIISTQAPLSSLSQTSTAHFEVHRGNALQIYSSPNQGPHEQTLKRNLKPTTELLLDQTDLKQSSNEQGIAAIILTP</t>
+          <t>MSAVAGCTATTDPGWEVDAFGGVSSLCQPMEADLYGCSDPCWWPAQVPDMMSTYQDWNAQASNSAEDWRNLGTVFPKDK</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1155,46 +1155,46 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MTKLNSYETLYIVKPELTEDSLAKLIESYQGLLLERGAKNIITQNRGRRTLKYMIKKYKDAHYVQMNYEGNGEVIQLLERAMKINESIVRFLTTAI</t>
+          <t>KRRIRRERNKMAAAKSRNRRRELTDTGC</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MVQLWHVVWHPPLGPPQTLPPANPHYPQSTTQPESLSRLNLCKSTCRWSRPRQSRVTLTVP</t>
+          <t>MLIPEFKPPLLYVMGSFSVMLEKHQCSVTFYLREPYLGTSYDKIVKLIKMTYPNYSLTYVGMADNKYKFTLKNKED</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GDAQTIQEVFEMFALDSDGCCWHPACGRHYC</t>
+          <t>MESMKMKLIVVLMVAIVAFSAVGNVAAQTEAPAPSPTSDAAMFVPALFASVAALASGFLF</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MASALSPGSRVLIALIRVYQRLISPLLGPHCRFTPTCSSYGIEALRRFGVIKGSWLTVKRVLKCHPLHPGGDDPVPPGPFDTREH</t>
+          <t>MQNAQSEKVQQESANSLLTHLKSPEKTELKIDVSDRAADAIDIMRQNAEALARLQQEMIAGKQLSAKDVAERSMDFGEVIEGELA</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TICYNHLTIRSEVTEICIICDDDYYF</t>
+          <t>MQSFVKIIDGYKEEVITDFNQLIFLDARAESPNTNDNSVTINGVDGILPGAISFAPFFISIKVWL</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DIQIPGIKKPTHRDIIIPNWNPNVRTQPWQRFGGNK</t>
+          <t>QHSTDYDEEEEDRAKLHLDAR</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MNIAKLLGVISFICWIVACVLTICIDASSVFSQALAQGMCAYLTFVLLSND</t>
+          <t>ASSTWGGSYPACENNCRKQYDDCIKCQGKWAGKRGKCAAHCAVQTTSCNDKCKKH</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,63 +1246,63 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MPRRGDHLSDLFGLVHRLEGMSTLWNNILHYLRQIPELETARLFLPGSLQAQQLSHSFADSGIPAGEVCLLSLLSLRRLSRTCSYPDCRTQLRHSNLQR</t>
+          <t>MKTLVLVAVLGLASLYLLSYASEVQQISRDEEDFRALMASFGGIFDTEERGVDKEGCRKMFGDCWGDGDCCLHLGCKTRKLPPWTDKPYCAWDWTFGRK</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MVSPQTRKEEELLEKQNSVFYLLTLGRKPYGSYLHIKIELDEDEKLEKEIYADNIKLENELRQLKRLYEVYQSVEIDDAQKAIQKEALLTIAKILSVFDF</t>
+          <t>MNVLLLMCAVTLMVCVSSETYCGSQLCGEGYCCTGGHFRRQCRPLADEGQQCEKENKYNDYKLGCPCKGGMICSDIKYCQKL</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MASWRMLCFVLLFTSILICHDARPLPSSLSSSNGSPAFVESVKQVVKEIMRRKQLLGTQYSTNRLSPSGPDPHHH</t>
+          <t>SEALAVDGAGKPGAEEAQDPEGKGEQEHSQQKEEEEEMAVVPQGLFRG</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MPSNGIVRSWRRAMATMNVSLPDAMREWVEGQTQSGRYHNASEYVRDLIRRDQERADKIAHLQRLIDEGLDSGVGERSLHEIRAEARRRAGVDHEL</t>
+          <t>DMKIGVSMSQFDDTHLTYLQQSMDEKAKSYPDGVVLL</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MVYYPELSVWVSQEPFPNKDMEGRLPKGRLPVPKEVNRKKNDETNAASLTPLGSSELRSPRISYLHSF</t>
+          <t>ANIKLSVQMKLFKRHLKWKIIVKLNDGRELSLDA</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1311,20 +1311,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>VTQYLVTTFKDSTGLPHEHITVARDNQTFTVVEAESKEEAKEKYEARNVPVDGATNLNDIKSNIGIFHVEKVEPNEGMVDINIETMKPFEEADDD</t>
+          <t>HSDAVFTDNYTALRKQMAVKKYLNSILNYGRKKRRQRRR</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MYYKIGDVCQKVINVDGFDFKLAVKKQDYSILVNVLDLEDRFIDSINITDENDLYTALDILNQSIYEWIEENTDERDRLINLVMRW</t>
+          <t>MNIDIETYSSNDISKCGAYKYTEAEDFEILIIAYSIDGGAISAIDMTKVDNEPFHADFETFKIALFDPAVKKVCIQC</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,24 +1337,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MNQGKVWRVVKPTVGVPVYLGAVAVTALILHGGLLAKTDWFGAYWNGGKKAAAAAAAVAPAPVAAPQAPAQ</t>
+          <t>MTITKNKISLMLSSKLGFSNNLCEAIVNTVFSNILEIAKVQKLTLKNFGSFEVKQKTPRPGINFHTKSPVMIASKKNLRFTPSEKLKALINKSML</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>QRCGSQGGGGTCPALWCCSIWGWCGDSEPYCGRTCENKCWSGERSDHRCGAAVGNPPCGQDRCCSVHGWCGGGNDYCSGSKCQYRCSSS</t>
+          <t>MKNINYRVKKIIAKQFQINIKKISLNNNLKNDLKIDSLDFVELIMLLEEEFNIKLFDIEAEKIKKIKDIIPYIKKKKLKE</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MQKRKNMAQIIFYVYALIILFSPFLAARLVFVNPEKPCVTDADCDRYRHESAIYSDMFCKDGYCFIDYHHDPYP</t>
+          <t>MTHALPKVVKSQLVQDIGVALILGSIAGCFFKYGVDKKKQRERVAFYEKYDKEDL</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1376,11 +1376,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MNVLLLMCAVTLMVCVSSETYCGSQLCGEGYCCTGGHFRRQCRPLADEGQQCEKENKYNDYKLGCPCKGGMICSDIKYCQKL</t>
+          <t>MRKSFYTWLMTERNPKSNSPKAILADLAFEESAFPKHTDDFDEVSRFLEEHASFSFNLGDFDSIWQEYLEH</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1389,11 +1389,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ALDDVQDGTLVTIKAGNDENVMAELRNCTAVMKNQVAKFNDLRFVGRSGRGKSFTLTITISTFPSQVATYSKAIKVTVD</t>
+          <t>MANIKSAIKRVKTTEKAEARNISQKSAMRTAVKNAKTAVSNNADNKNELVSLAVKLVDKAAQSNLIHSNKADRIKSQLMTANK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,20 +1402,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MLKLLTEERRRQTESYLADEASDRKNKEFSQKQMWAVATALVTGVGSALVTIVKLIMS</t>
+          <t>MKINKLTLNERKNDILSYFSEINTPFRTSEVAEHLGVSAYQARHYLQCLEKEGKIKRSPVRRGASTLWEISAVTEPSVKTDRIAD</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MAKPLGTTGEFFRRRDEWRKHPMLSNQMRHALPGLGIGVAAFCVYLVGEQIYNKALAPSKSSHHHQEQTAPSH</t>
+          <t>MSSSRRSRQASSSSRISDDQITDLISKLRQSIPEIRQNRRSNTVSASKVLQETCNYIRNLNKEADDLSDRLTQLLESIDPNSPQAAVIRSLING</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MPTRSTNPNKQPVELNRTSLFLGLLLVFVLGILSPATSLTS</t>
+          <t>MNWKAFRLVSLYYLLALVIAFGLIVVITLVFGASVTIAIGRILGNLIILKVIWDMLHKEYEEAKEDLEK</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MTTSQKHRDFVAEPMGEKPVGSLAGIGEVLGKKLEERGFDKAYVVLGQFLVLKKDEDLFREWLKDTCGANAKQSRDCFGCLREWCDAFL</t>
+          <t>RWSLWLLLLGLVLPSASTRSFSYREAVLRAVDQFNERSAEANLYRLLELDPPPEQDAEDRGARKPVSFKVKETVCPRTSQQPVEQCDFRKNGLLKECVG</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,46 +1454,46 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MAGRISAFLKNAWAKEPVLVVSFSVWGLAIIMPMISPYTKYASMINKATPYNYPVPVRDDGNMPDVPSHPQDPLGPSLDWLKNL</t>
+          <t>GCVGHRKSCEHDKKNGCCYFMTCNCWHPMGQ</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MVILFQLALLLLVVMSFVLIVGVPVLYATNGDRVQSNRLILVGGLAWTALVVLVGVLNYFVV</t>
+          <t>MKILVAFAVIMLVSAQVLAAEIGLNDEPEWYSDQIQEDLPVFENFLQRIARKPSPDRFYGLMGKRNNGFGQMSRKRSAERNTIHNYERRRK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MEEPTSSTNENKMKSPCESNKRKVDKKKKNLHRASAPEQSLKETEKAKYPTLVFYCRKNKKRNSNQLENNQPTESSTDPIKEKGDLDISAGSPQDGGQN</t>
+          <t>APVTAGRGGALAKMYTRGNHWAVGHLM</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MLYNINKRLYLFEKGREEMAEVNVKKSSFFKEKKEVPNTDFSLLKGALIQNLDRLEKFVEAIPYKYIKEGNVKENA</t>
+          <t>MSTRRQAITLYRNLLRESEKLPSYNFRMYAARKIRDTFRANRSTRDFAEIDRQMAEGQQNLELIRRQVIIGHLYSADKLVIENKKTLKPSDD</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,24 +1506,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>QYYGYPYAAVLPQPVADTPEVASAKAAHFAAYNVAAAAAAAAPDYDAVGVVAPPYPGYSAYVGPLAGIPAIVNGVPADTPEVAAAKVAHFAAHAAANHY</t>
+          <t>SEEVKARRARVVWCAVGPDKQKKCQQWSQQSGQIGTCATASTTDDCFFLVLV</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MSALFNFRSLLQVILLLICSCSYVHGQWPSLLDRYKNHEVLGAFWKMARVGERASPYVSLACILMAISQFNS</t>
+          <t>QRCGSQGGGGTCPALWCCSIWGWCGDSEPYCGRTCENKCWSGERSDHRCGAAVGNPPCGQDRCCSVHGWCGGGNDYCSGSKCQYRCSSS</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TYDAYDECQTELDCPKNIDCVYPKSMKCIDKKCICVGARMIIPRVL</t>
+          <t>AYGGKKCWHKSGYCRKTCKADEVIKTACQHYQVCCVPAQKFPITSPTHIYNFLFDITDTMVTSLTTPSFEISTMNKENEKFDSELET</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,72 +1545,72 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MTNTTNAAAATGLTSTTNTPQVSAFVNNWDNLGMWWFSIALMFVCLIIMWLICCLKRKRARPPIYSPIIVLHPNNDGIHRLDGLKHMFFSLTV</t>
+          <t>MVEVEKKKITLSIPVETNGKLEELAQKYGMTKSGLVNFLVNQVAEAGTIYRQ</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MFLSSAVRKDSNGVRHLPSVQRWTPGSPPTRAHGHVSYVAQCATAQCREAVGRTYPGVVKKGLENTDKVRGFI</t>
+          <t>AMNSQLTLIVTIVLIFSSSRCERILDLRKTKKSCKNGEVLGCVSGHGPPGCSENECGGPRPKACFFDCHYGCCMCTGKLYRRKRDRKCVPKHECLL</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ETLQQTLDASRGVTTLPLGVERRTDNPIYVTWTGADTVLGDVPKSPRFALVTETRVTK</t>
+          <t>MGGGGHGGGITYKGVTVHTPKTWHTVTGKGLCAVMWFWILYRAKQDGPVVMGWRHPWDGHGDHGHGDHH</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MMKRLMAILTAIMPAIAMAAEGEASVAKGLLYLGAGLAIGLAGLGAGVGMGHAVRGTQEGVARNPNAGGRLQTLMFIGLAFIETIALYGLLIAFILLFVV</t>
+          <t>MSAEALADPKADPLAGPNPDADPEAINLKAIAALAKKLLG</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MNMDIEARVKKVITSCIAVDVDSINGQTHLVEDLYADSLDLIDIVFGLSEEFDISCNENDLPDMMTFADICRVVKKSLESRV</t>
+          <t>MEKQFNVWSVQNDIVCQRQLTINLRRVRNEYDNAVASVAAPSCPPSIPAQTRTCGRKLKLDWFKCTIL</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MFVTSKKMTAAVLAITLAMSLSACSNWSKRDRNTAIGAGAGALGGAVLTDGSTLGTLGGAAVGGVIGHQVGK</t>
+          <t>MNLNVVNRELKVGQIKMNGVSSSALFLIGDANLLILSSILDTPFETVTEGPFVPLVTDVPPTPG</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,20 +1623,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>KRLLQDLNIKINQVIPEGGSVQDLQNLPKAWFNLVPYREVGLMTAIYLEKNFGMPYISTTPMGIVDIAECIRQIQKHVNNLALNQTFNYESYIDQQTRFV</t>
+          <t>LYIGCETDRDYPPLANKTFYLKCIDKKCEWTVTDSLSTRSGRMQKLSI</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>KELLDADGDILRNGGPAYPGLMPGVERDLPASGWGLPRRTGDESCPLNVKAVR</t>
+          <t>MGMRMRMMFTVFLLVVLANTVVSFPSDRDSDGADAEASDEPVEFERDENGCCWNPSCPRPRCTGRR</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,11 +1649,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MMTKCQKRASIQGLWLLSMVLLASSSLVCASMAVDGQTKEDINATSVTSMNMTRSSSASYNMTGGGGELNRGPCVVRSGFYWCQNIGYPTMSECLKNCES</t>
+          <t>MRMAEEYGKGVPMVLNPQMGAIDATVESIRYRAQLIARNQKLDSGVMSTGIIGFAAGFLFSLLMVIILPLMAGL</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,46 +1662,46 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MRILYQLLVVLFVMLQAAAGQRYIPGRFNSCAARNGICIPGICRRPFYWAGRCSNGLTCCKRYVEVQG</t>
+          <t>MATIFDILNTHNNNNNFENCKRQCSTNKSNKTIIDILPSMDVTMTNDKLIIETELAGISKDHIEIDIKDSILTI</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MLYLIIYDVPATKAGNKRRTRLFDLLSGYGKWRQFSVFECFLSVKQFAKLQTAMEKLIKLDEDAVCIYVLDENTVQRTITYGTPQPEKPGSIII</t>
+          <t>MKHLNFFIKALKKEFESFKDTGASIEEMTKSKPYTKVGSQERAVLIEWVGPMNRKNIIHLNEHGYTRDGKKIYTKRFWSYCKNISC</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SSFSPPRGPPGWGPPCVQQPCPKCPYDDYKCPTCDKFPECEECPHISIGCECGYFSCECPKPVCEPCESPIAELIKKGGY</t>
+          <t>MSETGETSEYYKQALEEYKEVQEDEDPDVWDTRISKTGCYVENLALQLCHAETGDWRQCFNEMALFRKCWEKNGNRERVSTVDVDGTTSKDSEKKK</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MFSLKLFVVFLAVCICVSQAVSYTDCTESGQNYCLCVGSNVCGEGKNCQLSSSGNQCVHGEGTPKPKSQTEGDFEEIPDEDILN</t>
+          <t>VQTSHQSNKAMEHVKQIPSLGVVVPRVLSSKTF</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>VSEACEESCEEEEKHCCHENNGVYTCLRYCW</t>
+          <t>MKIFYYLLHFLCYMTFILPAICTLVDPERCSKMYGQCRTRCYKIEKQIDICYSPSKICCIQRAFEEDLS</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,24 +1727,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MLWTYDMMSFQKIYSPTQLANAMKLVRQQNGWTQSELAKKIGIKQATISNFENNPDNTSLTTFFKILQSLELSMTLCDAKNASPEAAEQQDLEW</t>
+          <t>ACLARGETCKDDCECCDCDNQCYCPFDWFGGKWHPVGCSCAYTNKYVCDHKKEKCKKA</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MNWKAFRLVSLYYLLALVIAFGLIVVITLVFGASVTIAIGRILGNLIILKVIWDMLHKEYEEAKEDLEK</t>
+          <t>MERMDIIIWLLAVVIVLTTLMIFLHLKTLKIIRLLFPVSKELSKKSCVFPWKKKWTKNYPPSSMYP</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1753,24 +1753,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>KVLLLCVLFAVIAAAFAAEEQRDEKLISALANAAKGIFGGVSNIASNFLGRQKPQTETYTTIEEIQVPA</t>
+          <t>VSWGEGCDRDGKYGFYTHVFRLKKWIQKVIDQFGE</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MRLSVCLLLLTLALCCYRANAVVCQALGSEITGFLLAGKPVFKFQLAKFKAPLEAVAAKMEVKKCVDTMAYEKRVLITKTLGKIAEKCDR</t>
+          <t>MELSADYLREKLRQDLEAEHVEVEDTTLNRCATSFRVLVVSAKFEGKPLLQRHRLVNECLAEELPHIHAFEQKTLTPEQWTRQRRE</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,20 +1779,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>VSAPNNIFHKGMRVIVTKADRDDVRLGLHGDTIATVVGVH</t>
+          <t>MPRRGDHLSDLFGLVHRLEGMSTLWNNILHYLRQIPELETARLFLPGSLQAQQLSHSFADSGIPAGEVCLLSLLSLRRLSRTCSYPDCRTQLRHSNLQR</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FLTLLCPIQVQTAPVPEDWTGLITRAKRSLLWRWNTLKPVGTSCREHDECGTKYCRKKICSFQV</t>
+          <t>MTEILKLFYAMILFASLFLVAMEIGESFGCTEHRHCEIAMCKFPFIVRCSMNECNCERVHYLI</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,20 +1805,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AGLTKRSLFDPSCTGVFDRQLLRRLRRVCDDCFNVFREPNVSTECRSNCYNNEVFRQCMEYLLPPHLHEEHRLAVQMVGK</t>
+          <t>MNDNNSCKLTMLTRRLENMTQEYGQPDLPVPFLNGDEPGKLKLPLSERHEDVDYLTKEQCIQYFNGYSIHLIPPRISS</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MASASCSPGGALASPEPGRKILPRMISHSELRKLFYSADAVCFDVDSTVISEEGIGCFHWIWRKCDQATSQG</t>
+          <t>MATINVYVFAFIFLLTISVGSIEGRKLTKFTVTTSEEIRAGGSVLSSSPPTEPLESPPSHGVDTFRPTEPGHSPGIGHSVHN</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,11 +1831,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MAEILKFVYIIIIFLFITEIKGDKFVFDKNGADRCRSILDCPQDKCFPLLTLVCVNFACDCLHV</t>
+          <t>MHNIIQRPMAINGQVVIRPMMYLALSYDHRLIDGKEAVTFLVTIKNLLEDPSRLLLDI</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MGRFVVWPSELDSRLSRKYGRIVPRSIAVESPRVEEIVRAAEELKFKVIRVEEDKLNPRLSGIDEELRTFGMIVLESPYGKSKSLKLIAQKIREFRRRSA</t>
+          <t>MNTLYHKMQEHVCFVGFTRDGVNYQTNRVRTFGEARHFITFNCSPSDKDIRIFYRIPHEGAEDVEVVIARLDLTETKENN</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,63 +1857,63 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AMNSQLTLIVTIVLIFSSSRCERILDLRKTKKSCKNGEVLGCVSGHGPPGCSENECGGPRPKACFFDCHYGCCMCTGKLYRRKRDRKCVPKHECLL</t>
+          <t>MEINKAYERLLKEVELLQNDLMDIEDYSEEVYQAFQKVIDELEYVIEEG</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MFNTALLLAQASPTTAGWSLSVGIIMCLCNVFAFVIGYFAIQKTGKGKDLALPQLASKKTFGLPELLATMSFGHILGAGMVLGLASSGIL</t>
+          <t>MQTLSSAPDPAVSVAVTILAVLLALTGFGLWTAFGPKAAKLTDPWDDHDD</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MSETGETSEYYKQALEEYKEVQEDEDPDVWDTRISKTGCYVENLALQLCHAETGDWRQCFNEMALFRKCWEKNGNRERVSTVDVDGTTSKDSEKKK</t>
+          <t>CAKHSETCKNGNCCTCTQYRGKDEPMACRRGTHGQRCQCVMKIMKH</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MQAPDSVRSVKVEREAKTWIEKPRGAGLRVAQKTPVHATTSLTLGTVVHLAFIILP</t>
+          <t>MTNTTNAAAATGLTSTTNTPQVSAFVNNWDNLGMWWFSIALMFVCLIIMWLICCLKRKRARPPIYSPIIVLHPNNDGIHRLDGLKHMFFSLTV</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MGLGGISIWQLLIVLVIVLLLFGTKRLKGLGGDLGGAIKGFKKAMSDDEAAKQEAEEAEQKKVAAEEAAAAKTAEQKEKTEAK</t>
+          <t>MFYLPRAMRFLLLVLPVLALLPQVTPDYGAKKRCLKILGHCRRHCKDGEMDHGSCKYYRVCCVPDLNSYNQNYAITWTTEETSTSEYDLSSDFIGVLRAI</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MPFVPVETPKCPACGKSVYAAEERVAGGYKFHKTCFKCSMCNKALDSTNCTEHEKELFCKNCHGRKYGPKGYGFGGGAGCLSTDTGAHLNRE</t>
+          <t>MALFSKILIFYVIGVNISFVIIWFISHEKTHIRLLSAFLVGITWPMSLPVALLFSLF</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MKTLALMSLFVLTSLNALAAPKTVTLEVPTMNCVTCPFTVEKALQKVDGVSKAEVTFKTKLAVVTFDDEKSTVKALTEATTNAGYPSTLKE</t>
+          <t>MSLEEKRALQNQILAEYANLASNLETLVKVLQDMVYNPSNNILDSLRDLEKEVGLVYTLYKASVWAILADLENNQEGKSGMFQDES</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,24 +1948,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MPTGFHRESATIYQFPVKAIRNANRFERARLMEREAAEVCDAALDSCWYHDEAVRESDRPTKS</t>
+          <t>MTNVYSLDGILVFGLLFVCTCAYFKKVPRLKTWLLSEKKGVWGVFYKAAVIGTRLHAAVAIACIVMAFYVLFIK</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MEIVLEAKERTDKKRSTLRRIRSQGGIPAILYGKKVENKMIFVTAAELEKVLREGGRTS</t>
+          <t>LSPSKVTCLQKLEKLHSETRNSSTIFENAQYGTEEKQKAGSKKHYALFNLTHACIMFGGQCKNKCGENEFRMVYCVVSTSLCCIRQCKP</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1974,24 +1974,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MLKPLGGRVALKIEEKGPTVGGFVLAGSAQEKTQTAQVVATGQGVCTLNGDLVAPSVKTGDRVLVEAHAGFDVKDGDEKYIIVGEANILAIIEE</t>
+          <t>MTLLSSISKIGTIKNGNSLNEITSTISNNEAKGSPSFSGNQSTKSIGDLLLQIAIITKATTKNK</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CYCQDPYVKEAENLKKYFNAGHSDVADNGTLFLGILKNWKEESDRKIMQSQIVSFYFKLFKNFKDDQSIQKSVETIKEDMNVKFFNSNEEVE</t>
+          <t>MFWIFVMAKPASLSIELDSDLDRRLSEIAEGMDQPKTAIIERALRDFVELRDWQDAAIDEGLRAAEEGRVFDHDKVGEWIDSWGTPNERPMPSRD</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MNTLYHKMQEHVCFVGFTRDGVNYQTNRVRTFGEARHFITFNCSPSDKDIRIFYRIPHEGAEDVEVVIARLDLTETKENN</t>
+          <t>MKTLALFLVLVCVLGLVQSWEWPWNRKPTKFPIPSPNPRDKWCRLNLGPAWGGRC</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>KKIKRETEEDENENEEERNERSEMKRYAFGYPSGEEKKIKRETEEDENENEEERNEEGSEMKRYAFGYPSGEAKRMKRKPAEEETE</t>
+          <t>FDISCDKDNKRFALLGDFFRKSKEKIGKEFKRIVQRIKDFLRNLVPRTES</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>VIEPKCYKYEGKKCPPDINPVCGTDKRTYYNECALCVFIRQSTKKADKAI</t>
+          <t>AERLIGTSTKEFDESIRHTLVLRSLQDAYKDRQR</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MSANGNAALGVRLTEDQVKVLEENFTKVSKHPDETTLMLIAAECGLSEEQTAVWFRMRNAQWRKAEGLPAELGSVKD</t>
+          <t>MPAYGLTYRFRFPVALRRRRRSRFSGGSLYARRRRRRVRVKGGFLPALIPLGAALISAIPGIASVAMQASQLKK</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MALFSKILIFYVIGVNISFVIIWFISHEKTHIRLLSAFLVGITWPMSLPVALLFSLF</t>
+          <t>MNMDIEARVKKVITSCIAVDVDSINGQTHLVEDLYADSLDLIDIVFGLSEEFDISCNENDLPDMMTFADICRVVKKSLESRV</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -2065,37 +2065,37 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GGLRSLGRKILRAWKKYGPQATPATR</t>
+          <t>MSHVDVTVDEATINAIRQRMLETGDWERIQKLLRAHLEESGWVDDLKDLAKEKARAQDVPNLENLVKQISESAAGMVSDNVKRDVMLEIESVLDREVDQA</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ELATNEIDYPQEEGALNQQDKKDGSYKMSHFRWSSPPAS</t>
+          <t>MSISSRVKSKRIQLGLNQAELAQKVGTTQQSIEQLENGKTKRPRFLPELASALGVSVDWLLNGTSDSNVRFVGHVEPKGKYPLISMVRAGSWCEA</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MFATRRAMLCMIFIYLLVQTAESSWLSKTYKKLENSAKKRISEGIAIAIQGGPRRRRFVVQQDTISPRLEVDERFLPNSVQEQI</t>
+          <t>MSEVNAGEICYVKKQRKGTINPNKICQPIGAMWATVGVKGTIPFVQGSQGCTTYVRYAFNRHFREPVSIATASFHEHAA</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,37 +2104,37 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MALLDLQAMDTPAEDSFGELATGSQVSLLVCEYSSLSVVLCTP</t>
+          <t>MTTGLDAARKQEIKEIVCDILEIDEDEVTETSLFKEQHDADSLRAIEILAALERTQKVTIDQAELSRMVNLEGVYVVVSEAAQN</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MGLSTHCQLVFSWKPMNTHMVSRAMEGSLKSYPFPSNINITSCVSIKLNDRNYLLYDEGRVRLSLLNLGERCDFVPFLSVELFKPLQSSGVYEKLHESNN</t>
+          <t>MGLKWTDSREIGEALYDAYPDLDPKTVRFTDMHQWICDLEDFDDDPQASNEKILEAILLVWLDEAE</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LSSANFPFCLLLGTVTEQLKRCWDDYVQGHCRKICKATEIREILCANGRYCCLSIKDVKARKVITRAPRPKPRTQAYTFPQDQFPTLENYAISN</t>
+          <t>MMKRLMAILTAIMPAIAMAAEGEASVAKGLLYLGAGLAIGLAGLGAGVGMGHAVRGTQEGVARNPNAGGRLQTLMFIGLAFIETIALYGLLIAFILLFVV</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,50 +2143,50 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MDTKTLIDKYNIENFTNYINFIIRNHQAGKGNLRFLVNLLKTTGGSNLKELDINPVEIENFNIDIYLDFLEFCLDSKFIF</t>
+          <t>MADLKPSLTGLTEEEAKEFHGIFVTSTVLYLATAVIVHYLVWTARPWIAPIPKGWVNLEGVQSALSYLV</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SEALAVDGAGKPGAEEAQDPEGKGEQEHSQQKEEEEEMAVVPQGLFRG</t>
+          <t>MFNTALLLAQASPTTAGWSLSVGIIMCLCNVFAFVIGYFAIQKTGKGKDLALPQLASKKTFGLPELLATMSFGHILGAGMVLGLASSGIL</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MGCLVVVKEILRLLFLLAMYELGKYVTEQVYIMMTANDDVEAPSDFAKLSDQSDLMRAEVSE</t>
+          <t>MRTQVLFLIVVLAVMASGDDTAHVYCGRRLATMLLYVCDNQYQVKRPPYISSENEGYGWKWLERQRARQLDEARGKRQGIVEECCNKPCTENELLGYCYK</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MKKTDKILKEIGIQRVAIMEGKKYSKGFMEDGDIGVQY</t>
+          <t>MAQLIIFVYALMVFLSIFLVESYKTKTPCKSLNDCPKAIKPIFVKCLGNICQYSIGRI</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MSLEEKRALQNQILAEYANLASNLETLVKVLQDMVYNPSNNILDSLRDLEKEVGLVYTLYKASVWAILADLENNQEGKSGMFQDES</t>
+          <t>MTKLNSYETLYIVKPELTEDSLAKLIESYQGLLLERGAKNIITQNRGRRTLKYMIKKYKDAHYVQMNYEGNGEVIQLLERAMKINESIVRFLTTAI</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,11 +2208,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MLIPEFKPPLLYVMGSFSVMLEKHQCSVTFYLREPYLGTSYDKIVKLIKMTYPNYSLTYVGMADNKYKFTLKNKED</t>
+          <t>MWSDSLVSRICVPIIVVCTSIALLNVVSFRSECSCVVHISGAAIDIRGCSFTPDFIEYAKTLRVFNHRYQE</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2221,11 +2221,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AYGGKKCWHKSGYCRKTCKADEVIKTACQHYQVCCVPAQKFPITSPTHIYNFLFDITDTMVTSLTTPSFEISTMNKENEKFDSELET</t>
+          <t>MASKTVLVLLLVSVLVSTFCTAKAYPASLEDNFDLDALDDLDDLDLEDFYDLEPADLVLLDMWASMLENSDFEDDFE</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,37 +2234,37 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MESNFIDWHPADIIAGLRKKGTSMAAESRRNGLSSSTLANALSRPWPKGEMIIAKALGTDPWVIWPSRYHDPQTHEFIDRTQLMRSYTKPKK</t>
+          <t>QAIGPPYGLCFQCNQKTSSDCTEARRCSPFHEKCYTLYQPDENWMKSSGLSHFGCGKQCPTAGPEGRVTCCLTPRCN</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FRVPLRIRPCVVAPRLVMVRHTFGRIARWVAGPLETR</t>
+          <t>MASALSPGSRVLIALIRVYQRLISPLLGPHCRFTPTCSSYGIEALRRFGVIKGSWLTVKRVLKCHPLHPGGDDPVPPGPFDTREH</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RWSLWLLLLGLVLPSASTRSFSYREAVLRAVDQFNERSAEANLYRLLELDPPPEQDAEDRGARKPVSFKVKETVCPRTSQQPVEQCDFRKNGLLKECVG</t>
+          <t>MALPKRRLSHSRQGNHRAHVALTAPAVMECPQCNSPKLSHQACSVCGTYNGRTVIDMEAIAKKKADKSKGQQ</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MRINRTPAIFKFVYTIIIYLFLLRVVAKDLPFNICEKDEDCLEFCAHDKVAKCMLNICFCF</t>
+          <t>MNTKTMSQFEIMDTEMLACVEGGGCNWGDFAKAGVGGGAARGLQLGIKTRTWQGAATGAVGGAILGGVAYAATCWW</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MYIENNSLVLIIPETNSITPQLFTIHDNKPICVCSRYSLIPSKKENVQISYIDNIHMYFRSFKNLYLVNPRNHDIIKVFNFLKNYKWGGNFYLLFNV</t>
+          <t>MASASCSPGGALASPEPGRKILPRMISHSELRKLFYSADAVCFDVDSTVISEEGIGCFHWIWRKCDQATSQG</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>QSLEETADQVPAQDQPGAEAQDITISFAGDERSAREASKSLIGTASCTCRRAWICRWGERHSGKCIDQKGSTYRLCCRR</t>
+          <t>MNYKRIFFSFIAILFISMVASSPAPKWKPFKKLEKIGQRVRDGIIKAGPAVQVVGEAAAILKPAQG</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,33 +2312,33 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MDKRIEEVAAKALEKMGNDRYRLSLVVAKRAEQLANGATPLVDFDKNKNKLADIALYEIAENKITLEGLVETNR</t>
+          <t>MNIEAYPHDFRGSLAVVSATGVAGCRTWTLRSVETGKHYELAPASIEGWPLPAKREDSRPNSIIVNYDGNDVIALELATGELYRTRAPATTLRLRR</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>WYKHVASPRYHTVGRASGLLMGLRRSPYLW</t>
+          <t>MAAALALVAGVLSGAVLPLWSALPQYKKKITDRCFHHSECYSGCCLMDLDSGGAFCAPRARITMICLPQTKGATNIICPCRMGLTCISKDLMCSRRCHMI</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MPAYGLTYRFRFPVALRRRRRSRFSGGSLYARRRRRRVRVKGGFLPALIPLGAALISAIPGIASVAMQASQLKK</t>
+          <t>KRLLQDLNIKINQVIPEGGSVQDLQNLPKAWFNLVPYREVGLMTAIYLEKNFGMPYISTTPMGIVDIAECIRQIQKHVNNLALNQTFNYESYIDQQTRFV</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MARNIKMATDAQNWLQARGSHVNESYLGVARPILEITYPPVELVKNAVRIMEHKSGVARSVWTARLNGCQIIWR</t>
+          <t>DCPTRCPTTCANGWECCKGYPCVNKACSGCTHGK</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2364,37 +2364,37 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MMIYGLIACLIFVTSSIASPPITEDKSFNSVEVLVSLFRDDQKDYTVTSQFNNYTIDTKDWTIHT</t>
+          <t>MAARVGVLSVAGFRAAARAGGLLRASKQSSAVSHVPCRTAIATSAGTVLPKPEKVSFGLLRVFTVVIPFLYIGTLISKNFAALLEEHDIFVPEDDDDDD</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>EFLENAKKLSMYGVDLHHAKDLEGVDITLGVCSSGLLVYKDKLRINRFPWPKVLKISYKRSSFFIKIRPGEQEQYESTIGFKLPSYRAAK</t>
+          <t>MALLDLQAMDTPAEDSFGELATGSQVSLLVCEYSSLSVVLCTP</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MEGIELDNYYNFLEIGYLEGDQANVETTVYNLTGMLSAKVSDVTESEFEAAVEEVTEAIDNLTNSLEVLSELFTEAKQYLAKEDKKWEDNV</t>
+          <t>MGPPRRVCRAGLLFVLLVALAAGDAGPRGEPPGEEGGRDGIGGARCETQNTGQMSAPGALVPFYVGMASMGVCIIAHVCQICQRLLAAGHA</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,11 +2403,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>EGSGGSGSSGNFTTGSNVRMSSVTNTSNAGTGTSGGGNSAAASGASVNAPPVTVTLTESLLNK</t>
+          <t>GTISLSLCKEERDADEDDGGEVQEEEVKRGIFSLIKGAAKVVAKGLGKEVGKFGLDLMACKVTNQC</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2416,33 +2416,33 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MDNKVAKNVEVKKGSIKATFKAAVLKSKTKVDIGGSRQGCVA</t>
+          <t>MESNFIDWHPADIIAGLRKKGTSMAAESRRNGLSSSTLANALSRPWPKGEMIIAKALGTDPWVIWPSRYHDPQTHEFIDRTQLMRSYTKPKK</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MVKGQSLQDPFLNALRRERVPVSIYLVNGIKLQGQIESFDQFVILLKNTVSQMVYKHAISTVVPSRPVSHHSNNPGGSNNYHGSNTTAQQQSQEADDAE</t>
+          <t>HHHHHHTKRRITPKDVIDVRSVTTEINT</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MKMSVTFLLILMILPLFTGEWQSGSRLSALKKRLLEKRLLQKRFCTEIGKDCGTSWECCEDCCIHGTCSHESNCANFKLR</t>
+          <t>MNKSPIEEEFDLRKQHQKLLKKNCQKEIEDFVKCATGRTFSVTWKCRSENKTMKDCLTKAADEISEWQIRSEYNKAKQESFIGKQDEKK</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,20 +2455,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MFRFIKDSILELKKVTWPKYNEVVGNGKQVFWLVLFVSIFLGIVDYLMFLVVTYVF</t>
+          <t>MVPPVQVSPLIKLGRYSALFLGMAYGAKRYNYLKPRAEEERRLAAEEKKKRDEQKRIERELAEAQEDTILK</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MNYYLLYLALGAAWFFVAIGHIFRVPSKQTVERIITPPILISLSFFSTFMFYVFLWPLALLIDIWRRMIKKSTT</t>
+          <t>MWIEKFKNKNNETKYRYYEKYKDPYTDKWKRVSVVLNKNTKQSQKRSNVSFRRKNKRKN</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MLKMGVVLFIFLVLFPLATLQLNADQPVERNAENIQDLNPDKRVIKIPVPRRRGPYRRYGNCYCPIG</t>
+          <t>MEFDSYIDWYNNLLTMPLNDVILGVKDTIEDKTVYLSLSDSKVIKMDNTSFVMGYY</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2494,33 +2494,33 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MVPPVQVSPLIKLGRYSALFLGMAYGAKRYNYLKPRAEEERRLAAEEKKKRDEQKRIERELAEAQEDTILK</t>
+          <t>MKTSKMICAFLLVLVVGTFNDISGAYGEYVEDQHSFKIERRFPPCVEVCVQHTGNVKECEAACGE</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SWDSIWKSAKNKMDKIMRQKVAKWMAKKEGKSVEEVQAKVDAMSKKDIRMHVISHYGKKAFEQLSKSLEE</t>
+          <t>MKKRSSRKLAQVIGRKTGNYFPASIEGETKKEHKHHYSTASKEKESLRKRAKEFDVLVHSLLDKHVPQNSDQVLIFTYQNGFVETDFHNFGRYSVKL</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>WNPFKKIANRNCYPKTTCETAGGKKTCKDFSCCQIVLFGKKTRAKCTVVT</t>
+          <t>KKKRYIECETHEDCSQVFMPPFVMRCVIHECKIFNGEHLRY</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,33 +2533,33 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MNWVPSMRKLSDELLIESYFKATEMNLNRDFIELIENEIKRRSLGHIISVSS</t>
+          <t>MVGVNSLRSALYLIVLILFVQLTYFSDARVMDVDLSRAFLPLTGIGCGESCVWIPCVSAAIGCSCSNKICYRNGIIPKK</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MNFLQNFCRSKFIVFERVTPFTHKIIHKHSHHQTSSFNPMPSEVSLHTSHNFPHTTF</t>
+          <t>MPKLGVSLFIFLVLFPLATLQLDGDQSAGRHAQERGEDLFKMYQYLRRALERRRTGEDFLEECMGGCAFDFCCKRSLRDTTSD</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MQAQNKKVIYYYYDEAGNRRPVNIQYNDGYDLMIDPRFIEMTLERHPHLKNNFYGLIDGKEFKLD</t>
+          <t>ELATNEIDYPQEEGALNQQDKKDGSYKMSHFRWSSPPAS</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,11 +2572,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MHGEITTLQDYVLDLEPEATDLYCYEQLCDSSEEEEDTIDGPAGQAKPDTSNYNIVTSCCKCEATLRLCVQSTHIDIRKLEDLLMGTFGIVCPGCSQRA</t>
+          <t>MPMSLDSLAVGMVALLVDYYSKALRASLNSTGIDRRWGDQWPSTVELTGRGVIEWESPTFCICSSSRSTAIV</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2585,46 +2585,46 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LVIIDHHKPCVSDTDCAFYLDIPPTVKYCSDGLCAWYFPDNPLP</t>
+          <t>METLVAGSIFMVLVSGVLAIIIYMLPWFIALMRGSKSTVGIFFASLLFNWSIIGWFITFIWSIAGETKKSAQPNQVIIIREKE</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CFLWHVRKRVADQELGDAPFLDRLRRDQKSLRGRGSTLGLDIKTATRAGKQIVERILKEESDEALKMTMASVPASRYLTDMTLEEMSRDW</t>
+          <t>LKCHKAQFPNIETQCKWQTLCFQRDVKPHPSSMIVLRGCTSSCGKGAMCCATDLCNGPSTPST</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MKLITYVKEGESIDRVLKKCKQKFDKARIIRKLRERQQYIKPSERKRKILAKAKYREFRKLLADD</t>
+          <t>MVAKQRIRMANEKHSKNITQRGNVAKTSRNAPEEKASVGPWLLALFIFVVCGSAIFQIIQSIRMGM</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MVRVIGSLVFGGLILLLASSNAHMVETRFGPLIMLAPHFVVLGITFFLGFAIGIVLVFANVMKRRKHKLPGKNIVIKR</t>
+          <t>MKTLALMSLFVLTSLNALAAPKTVTLEVPTMNCVTCPFTVEKALQKVDGVSKAEVTFKTKLAVVTFDDEKSTVKALTEATTNAGYPSTLKE</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,20 +2637,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MAMTKKFKVSFDVTAKMSSDVQAILEKDMLHLCKQVGSGAIVPNGKQKEMIVQFLTHGMEGLMTFVVRTSFREAIKDMHEEYADKDSFKQSPATVREVF</t>
+          <t>WLNALLHHGLNCAKGVLAWLNALLHHGLNCAKGVLA</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MKVYCLLLVFLVGLVSQAHGRLDKRCMTVCTMEYWPVCGSDGKTYPNKCHLTSTACTSQKDITVLHVGKC</t>
+          <t>DIDITGCSACKYAAGQVCTIGCSAAGGFICGLLGITIPVAGLSCLGFVEIVCTVADEYSG</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,20 +2663,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MFIIDDLFVSPFFSLLDILQTMALDEMYDTKSIRDDIKENQLLYEVGERSDEEYQQRKQALESQLEMAEQVQEQMRDRMEVKK</t>
+          <t>MNFQQRLQSLWTLARPFCPPLLATASQMQMVVLPCLGFTLLLWSQVSG</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MGLKPSCLKGFKMCVSSSNNNHDEAPVLNDKHLSVPNIIITPPTPTGMGLSRDSNKQVWMDELGSYQDDGELEPEA</t>
+          <t>MASHHEITDHKHGEMDIRHQQATFAGFIKGATWVSILSIAVLVFLALANS</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,50 +2689,50 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MAARVGVLSVAGFRAAARAGGLLRASKQSSAVSHVPCRTAIATSAGTVLPKPEKVSFGLLRVFTVVIPFLYIGTLISKNFAALLEEHDIFVPEDDDDDD</t>
+          <t>MSQPYLISKWMDPLFGIFVGTYGYYLYEKEHRPRGRSLRELALRKWNKQAVSQQSMKN</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MSEMIVLPHKVTVKVPLASRVDAERCLQVLAPDRELKEELVQRNLFVDDNYLVVNYSCSSARMTRVTVNSLFENLYLIIDTMHELSSL</t>
+          <t>MPQKDPCQKQACEIQKCLQANNYLESKCQAVIQELRKCCARYPKGRSLVCSGFEKEEEEKLAMKSGSK</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ADDYDDEVLPDARGHRPIDRKREELPSLRPAPPPISGGGYR</t>
+          <t>MNVAAWLHNGEWHLFTDEMNRVVSDQAYYQAGLKGPDKRDLVLLRMTAKRRNTAYWFHFRKDNPFNKYMPVAYTEEIPKELQALLTIYGL</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MGLKWTDSREIGEALYDAYPDLDPKTVRFTDMHQWICDLEDFDDDPQASNEKILEAILLVWLDEAE</t>
+          <t>MPTEERVRKRKESNRESARRSRYRKAAHLK</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MVLTNLQKITGLLCVLVETKKLKIFIKFMLKTKNGGKKVLKKIYKKAKKKNILTMIMFI</t>
+          <t>MSPPSSMCSPVPLLAAASGQNRMTQGQHFLQKV</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,20 +2754,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MGAVFAIIGGFALDSPILRLYLDQLSLNHFTDIVGATKVSSLNIPWPLRIPRRIRLPGRLYNMKYCFINRLIHFPNCRNSNNFYNSEKPSPQNEK</t>
+          <t>DCKHQNDSCAEEGEECCSDLRCMTSGAGAICVT</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>CAKHSETCKNGNCCTCTQYRGKDEPMACRRGTHGQRCQCVMKIMKH</t>
+          <t>MAEILKFVYIIIIFLFITEIKGDKFVFDKNGADRCRSILDCPQDKCFPLLTLVCVNFACDCLHV</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,85 +2780,85 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MGQAVSYLTYTLRRCCKKNTLTTESGEVIELDDEHYDTVDLDDLRCSDPLMQPKFVLLKNGRRGKRNREYDNDHEKYVMMFNKE</t>
+          <t>GDVYADAAPDLFDFLDSSVTTARTINA</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MEKMVKFNLRYDELLKKIPYKYAIPVVVAKRAEAIREYAKPFVITDDENPVSIAFMELSLNYIRIKNEEILKALIPKVK</t>
+          <t>MFSGAGRPSKEQIKQYDNLAVGEMKKGASVAAVLLLTPFVISFFQKMRA</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MSEQTGKVDDSQSPPKVQKKLRKGDLVKVDREKYSNSLESKASDTNLPEYIFQGPGEVLLIKGDYCQVRWRRPVPDVWMNSDHIVSY</t>
+          <t>LDDDDDINDSSNWIKANPNLGVSINLDEMKEEWEKAKRTPAERGDFITKRFNIFANNDEMSFIDYPTLQKK</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MSHSYKKAISDEALRPFQMDYFGGLPPGQYATRMTGQVHGSGCHLRSAPCDLGASQRKLSSNFSEIDAGLFSQGKSAAYTDIGATKPVEQRETAS</t>
+          <t>AVDAYDDDDNLKNEEGDYYNESDDGYSGDEEEEEKQEEDEQDDDDLQFDDGVPEDPISTLKCFSFNSVGTGSPCIFGVPVPAIRQVHS</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MKCSLRLFEKAGRLSVRSQTVQTFQQRIVLANGASYLVNTTLPKPYILSIKDITNMPLNNPKVNALSSIRGQESRRSKFEERYEGL</t>
+          <t>MSRKYRGFDTAFTKDGVCVYVIKDDKEKGTALVRDTRGGDEYTVSNEGMIYTKDMESIDVYMPW</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MFWIFVMAKPASLSIELDSDLDRRLSEIAEGMDQPKTAIIERALRDFVELRDWQDAAIDEGLRAAEEGRVFDHDKVGEWIDSWGTPNERPMPSRD</t>
+          <t>MFRIEGLAPKLDPEEMKRKMREDVISSIRNFLIYVALLRVTPFILKKLDSI</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MAELQERIRHFWKESRRAFLVTKKPNWATYKRAAKITGLGIILIGLIGMLIRIVGILILGG</t>
+          <t>MDPIINGNSANVYLTDSYLKGVISFSECNALGSYIFNGPYLKNDYTNLISRQNPLIEHMNLKKLNITQSLISKYHKGEIKL</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MPMATTIDGTDYTNIMPITVFTTVYLGVFIGIDTSTTGFTCFSRY</t>
+          <t>KYKPTDATTNPSLILQAKFLEELQNSKKIYNYYKKESVVEHLSESSAKKLEMTEANFRWEMNEDKFAVDAVKLEK</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,89 +2884,89 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MEKTYGKTVLPLSRVKRIIKQDEDVHYCSNASALLISVATELFVEKLATEAYQLAKLQKRKGIRYRDVEDVVRKDDQFEFLSDLFSI</t>
+          <t>YVPKIPKPQPNKPNFPSFPGHGPFNPHASRFPRSPKDNGKIVFDAKKEGGKTQWNVETQQ</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PKDGPSPGGTLMDLSERQEVSSVRSLSST</t>
+          <t>MAKATKKAEAKTVTIEQIGSPIRRPDVQQRTLIGLGLNKMHRRRTLEDTPSVRGMIRAVQHLVRVVDEK</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MLSLVSPLLKKSIVIQLFSITVYKFKAKFWYKLPFETRLCIIKHTRPKALSVTKQVKRDYRKIAILNSMRK</t>
+          <t>MSKTVVRKNESLEDALRRFKRSVSKSGTIQEVRKREFYEKPSVKRKKKSEAARKRKFK</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>LDDDDDINDSSNWIKANPNLGVSINLDEMKEEWEKAKRTPAERGDFITKRFNIFANNDEMSFIDYPTLQKK</t>
+          <t>MFQRIGFPGVTNFQVLLALASLIPTPASRDFFRLPLTVGFTGAEIVNIEFECLRQLTPGM</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MANKVSLENLLAMAVTAKEHEMSRHANKMRQLEKTEANIKKRIKELSKEG</t>
+          <t>MSSTATPTPSNVVLVGKKPVMNYVLAALTLLNQGVSEIIIKARGRAISKAVDTVEIVRNRFLPDKIEVKEIRIGSQVVTSQDGRQSRVSTIEIAIRKKA</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MATIQIIIEEDNVTINVKKNQVPPIEVSPKIPPIEIENVKKNVLCPICLIAKVNTVLECTHVLCSNCVKKINVCPICRKTFQSINFFRL</t>
+          <t>MKMSVTFLLILMILPLFTGEWQSGSRLSALKKRLLEKRLLQKRFCTEIGKDCGTSWECCEDCCIHGTCSHESNCANFKLR</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>NIIDVPCRPCYYRDSSGNCVYDQLGCGA</t>
+          <t>MAKLLAVFLVLLIAALVCEQALACTPGSRKYDGCNWCTCSSGGAWICTLKYCPPSSGGGLTFA</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2975,24 +2975,24 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MGKRKSAAKPPPKKRMDKLDTVFSCPFCNHGSSVECRIDMKNLIGEASCRICQENFSTTVNALTEPIDIYSEWIDECERVNNVEDDDGA</t>
+          <t>MALGPWQIFLILVIILVLFGAGKLPDVMSDLGKGIRNLKQELKDNKLASTEDESNL</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MTDNARKEYLNQFFGSKRYLYQDNERVAHIHVANGNYYFHGHIVPGWQGVKKTFDTAEELEIYIKQHGLEYEKQKQLTLF</t>
+          <t>MSRDLVTIPRDVWNDIQGYIDSLERENDSLKNQLMEADEYVAELEEKLNGTS</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -3001,24 +3001,24 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MGFTEETVRFKLDDSNKKEISETLTDVYASLNDKGYNPINQIVGYVLSGDPAYVPRYNNARNQIRKYERDEIVEELVRYYLKGQGVDL</t>
+          <t>MIIDGTKLRCINDKGQRIVKEGSLYTAWVRDGIGIDGRIFIKEHKRFALLITRFEVVE</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MQRRTQELIWKELVDNSHKLFCNCMDPQNHYRLICQNLNREPGEPWRTAGGIGEGGAGGDGAAAGGEGDVHGRPAGAEDGEDGADAAMAAALAAFEDATG</t>
+          <t>MFATRRAMLCMIFIYLLVQTAESSWLSKTYKKLENSAKKRISEGIAIAIQGGPRRRRFVVQQDTISPRLEVDERFLPNSVQEQI</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MFDAFTLVVSQADTRGEMLSTAQIDALSQMVAESNKYLDAVNYIT</t>
+          <t>MKLSIFFVLFFIAIAYCQPEFLDDEEDEVEETLPVAEEGREKSCITWRNSCMHNDKGCCFPWSCVCWSQTVSRNSSRKEKKCQCRLW</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>IWDAIFHGAKHFLHRLVNPGGKDAVKDVQQK</t>
+          <t>MRLVVCLVFLASFALVCQGQGYKGGYTGPVVRPFVRPIGRPFVTPIGRPVVSGNVCPLSCRGITTLQARSCCSRLGRCCREAKGYSG</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,33 +3053,33 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MFKLICIVFIATILSITSAADNEDELTIEDFLSYECNESMDIEELKEKDKVCSRCANLHKTQSVIERCRLNCFTSEYFKNCEDNLQAKEEEPEEETL</t>
+          <t>PKDGPSPGGTLMDLSERQEVSSVRSLSST</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MKMKTNKYMNMVRPAPPRRADPEGVRDPSTMGGGPNPFLRRSPYMYINKKK</t>
+          <t>MTTVGVSLFRRSPEKITMKIAAFLGLSFLLIASYVLICEAQHPGFQELLILEENMRDPENSKERSCAKPRENCNRMNILCCRGECVCPTFGDCFCYGD</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MAICYARFMVPEPSIFEIDAEAEEAADAEGMADIAAGRVVPHEEVSAWLDTWGTPEEKPAPETWRK</t>
+          <t>MFDAFTLVVSQADTRGEMLSTAQIDALSQMVAESNKYLDAVNYIT</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,24 +3092,24 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MKILVAFAVIMLVSAQVLAAEIGLNDEPEWYSDQIQEDLPVFENFLQRIARKPSPDRFYGLMGKRNNGFGQMSRKRSAERNTIHNYERRRK</t>
+          <t>MKHSDNLRSVRSEYADADGSRCVYLTFDDGPNPLCTPPDI</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MFTLKKSLLLLFFLGTINLSLCRDETNAEEERRDEEVAKMEEIKRGLLSGILGAGKHIVCGLSGPCQSLNRKSSDVEYHLAKC</t>
+          <t>MPGFTAPTRRQVLSLYKEFIKNANQFNNYNFREYFLSKTRTTFRKNMNQQDPKVLMNLFKEAKNDLGVLKRQSVISQMYTFDRLVVEPLQGRKH</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MGFLLSICKRPSQPVDVDGEPLDVVVDYDPIRVSEKGMLLEQSQSPYPALKKKKKNKEAIY</t>
+          <t>MVIATDDLEVACPKCERAGEIEGTPCPACSGKGVILTAQGYTLLDFIQKHLNK</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MDPTLISLGALALAGAAATVSGCAEDLESDVGSQSNPNSQVQLGPQMGNIHRYFNKAISGEPVSYGLYVAVAGSVAWALINAGLN</t>
+          <t>MPRSPLIVAVVAAALFAIVRGRDPLLDAMRREGAMDFWSAGCYARGVPLSEPPQALVVFYVALTAVMVAVALYAYGLCFRLMGASGPNKKESRGRG</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MKKSLFAAALLSLALAACGGEKAAEAPAAEASSTEAPAAEAPAAEAPAAEAAAAEAPAAEAPAAEAPAAEAAATEAPAAEAPAAEAAK</t>
+          <t>MNENLWAAPAPKKLSKHFFGRGGPLGKETGPNLFPKKPGAGKGLGFPPTKKPRGQPRVLKKPKWNSEGLIGILHRGSDGVQF</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3157,20 +3157,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MWSDSLVSRICVPIIVVCTSIALLNVVSFRSECSCVVHISGAAIDIRGCSFTPDFIEYAKTLRVFNHRYQE</t>
+          <t>MCLRSHFKVAFTQRKVELSKELRRSRSSRNGGLPLQEQPMGQKWGWHRGEPGHPRMEELNEWPQNGDHWSRKWPPPCAFTPG</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MPRSPLIVAVVAAALFAIVRGRDPLLDAMRREGAMDFWSAGCYARGVPLSEPPQALVVFYVALTAVMVAVALYAYGLCFRLMGASGPNKKESRGRG</t>
+          <t>MDPNQTNVVPPALHLVDPQIQLTITRMEDAMGQGQNSADPKVYPIILRLGSQLSLSMARRNLDSLEARAFQSTPIVVQMTKLATTEELPDEFVVVTAK</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,20 +3183,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MSTGNVDQELIRRYLVVVKKLYEEPIPQTARQRRRRKQQLRTRRAQLRELEGRILKQILDRGPDQLCQGVANLALAEKSESSN</t>
+          <t>MDNKVAKNVEVKKGSIKATFKAAVLKSKTKVDIGGSRQGCVA</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>MKTFSVAVTVAVVLVFICIQQSSATFPEMPYNRQKRGFKCKFCCGCCGAGVCGMCCKF</t>
+          <t>VPVGSDCEPKLCTMDLVPHCFLNPEKGIVVVHGGCALSKYKCQNPNHEKLGYTHECEEAIKNAPRP</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MPANQPPLYLTFLLLILLYLIITLYVWTILTINHKTAVRYAALYQRSCSRWGFDQSL</t>
+          <t>PVNIYVIMADQGPAHLPVSLAVHTDMLEYVPVSKDEYFQKLKKA</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HSDAVFTDNYTALRKQMAVKKYLNSILNYGRKKRRQRRR</t>
+          <t>MNYLVMISFALLLVIGVESVRDGYFVEPDNCLVYCMPSPEICDRGCKRYGATSGFCKEFSKGENFCWCKGLR</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,20 +3235,20 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>VPVGSDCEPKLCTMDLVPHCFLNPEKGIVVVHGGCALSKYKCQNPNHEKLGYTHECEEAIKNAPRP</t>
+          <t>MATSSLTKPQMRWPSGPRRLRFHIVGAFIVSLGVATFYKFAVAEPRKKAYADFYRNYDSMKDFEEMRKAGIFQSAK</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MNKSPIEEEFDLRKQHQKLLKKNCQKEIEDFVKCATGRTFSVTWKCRSENKTMKDCLTKAADEISEWQIRSEYNKAKQESFIGKQDEKK</t>
+          <t>MSEQTGKVDDSQSPPKVQKKLRKGDLVKVDREKYSNSLESKASDTNLPEYIFQGPGEVLLIKGDYCQVRWRRPVPDVWMNSDHIVSY</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,24 +3261,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MVAKQRIRMANEKHSKNITQRGNVAKTSRNAPEEKASVGPWLLALFIFVVCGSAIFQIIQSIRMGM</t>
+          <t>LLNRLPNGLFRVCLDLIINYVSGKIRHSFIRILPGDRVKIEVSPYDSTKGRIIYRLHNKDLKDSFFNFTIPFVGIQFEMKNFKKLIFFQEIDSELR</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>VCCRGLLGAASVGRQNRFEIVYNLLSLREVWDMFGVFFFNHPDLRILTDYGFEGHPFRKYDDEVKRVVAEPVELAQEFRKFDLNSPWEAFPAYR</t>
+          <t>DDDDEGGGGGGGGGGGGERRRPRPPYLPRPRPPPFFPPRLPPRIPPGFPPRFPPRFP</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3287,37 +3287,37 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MAAVAAASAELLIIGWYIFRVLLQVFLECCIYWVGFAFRNPPGTQPIARSEVFRYSLQKLAHTVSRTGRQVLGERRQRAPN</t>
+          <t>MAQLLKFVYAIIFLFSLCLAATKEKFHSCVNANDCPYDFCSPPKYAKCVYNSCYCEDQGRL</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>MKKTLLRSGTIALATAAAFGASLAAAPSAMAVPGGCTYTRSNRDVIGTCKTGSGQFRIRLDCNNAPDKTSVWAKPKVMVSVHCLVGQPRSISFETK</t>
+          <t>PHAFPFLTPEQKKELSDIAHKIVAPGKGILAADESTG</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RCGQQLRNISPPQRCPSLRQAVQLTHQQQGQ</t>
+          <t>GFEVIDNIKDSVVILGGPNWNVKMGDIRPLTGSNGEIRFDNNYFK</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>YRQSMNQGSRSTGCRFGTCTMQKLAHQIYQFTDKDKDGMAPRNKISPQGY</t>
+          <t>MKTLFVFAVGIMLSMRASAFTCPECRPELCGDPGYCEYGTTKDACDCCPVCFQGPGGYCGGPEDVFGICADGFACVPLVGERDSQDPEIVGTCVKIP</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MVGVNSLRSALYLIVLILFVQLTYFSDARVMDVDLSRAFLPLTGIGCGESCVWIPCVSAAIGCSCSNKICYRNGIIPKK</t>
+          <t>MQRLQGNMGIGHVRYPTAGSSSASEAQPFYVNSPYGITLAHIGNLTNAHELRKKLFEEKRRHINTTSDSEILLNIFASELDNFRHYPLEADN</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MAARAVFLALSAQLLQARLMKEESPVVSWRLEPEDGTALCFIF</t>
+          <t>MIEVVVNDRLGKKVRVKCLAEDSVGDFKKVLSLQIGTQPNKIVLQKGGSVLKDHISLEDYEVHDQTNLELYYL</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,24 +3365,24 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>KVPAYCKLPPDSGPCKGHFPAFYYDPVSSYCQKFI</t>
+          <t>MYIENNSLVLIIPETNSITPQLFTIHDNKPICVCSRYSLIPSKKENVQISYIDNIHMYFRSFKNLYLVNPRNHDIIKVFNFLKNYKWGGNFYLLFNV</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MKTVLAFLFLTFIAFTYAESYEDVKEEIKNEVEREIFEDLEEESDVLDSNVREFNDAKPWRFRRAIRRVRWRKVAPYIPFVVRTVGKK</t>
+          <t>MIPSSTRELLNIADSKYAVVVAVAKRARTLSEKYKEDENYRLSTMVTRALDEVVNGKVIIEPSKEDGSREV</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MVEVEKKKITLSIPVETNGKLEELAQKYGMTKSGLVNFLVNQVAEAGTIYRQ</t>
+          <t>MDIEPEVPVVEKQMLAGNRGKQKTRRSVAKDAIRKPASDSTNGGNWVNVADKIEVHIHFNF</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,37 +3404,37 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MGDIIKVVFAMIIYLYMLTIVTNAVTICDSDQDCRRYRCDPPEYPRCLGILCKCVYVSG</t>
+          <t>MSNTSQKHRDFVSEPMGDKPITALAGIGEVLGGKLEEQGFDKAYVLLGQFLILRKDADDLFKDWLKDSCGANSRQADLCSSCLKEWCSSFL</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MDNSKRIIKKIIFITISALVMVTLSKLFSKYVIVEQNAPFQALIGGASCALLSSILFDWYTNKKKKENVENQLKEAISDLQKIKAIIKR</t>
+          <t>GKIAVSIVKALEHLHSKLSVIHRDVKPSNVLINKEGQVNMCDFGISGYLVDSVAKTMDAGCK</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MSAEALADPKADPLAGPNPDADPEAINLKAIAALAKKLLG</t>
+          <t>MFSLKLFVVFLAVCICVSQAVSYTDCTESGQNYCLCVGSNVCGEGKNCQLSSSGNQCVHGEGTPKPKSQTEGDFEEIPDEDILN</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,33 +3443,33 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MTDAISLALQTGLGPVVGVIIILAMMGLTYKIAGKIPAIITGIASAFVLMFMDFLPLFWGIAIIFGLIAGMVVTRDGD</t>
+          <t>MKYFLSATFLIIVFMYLMYFCISIVVNNARVQQDLFYHYNYVPDTLLNTVRVHKLK</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MKSSHFDEYDKTLKQAELAIADSDHRAKLLQEMCADIGLTPEAVMKIFAGRSAEEIKPAERELLDEIKRQRERQPQHPYDGKRPRKPTMMRGQII</t>
+          <t>SATVELYSNLAAKGLAVEFTSTSLKAALLNILSVDGVPATTAK</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MCIKAEKYIEWVKHCQCHGVPLTTYKCPGCGEQIMTQCSPEKEIRDSLTCCPWCSAVFFKQVKGAKVKASAVIQNQ</t>
+          <t>MRDLKTYLSVAPVLSTLWFGSLAGLLIEINRFFPDALTFPFFLIRVIVAGRGEKD</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>MAGSQSQASTLVARGGRSSSNAPTGAAGALRRRPVRGSGGSGTTKAQQAAMNFYTDDTPGWKMSPVVVITMSLSFIAFVTILHVVGKFQ</t>
+          <t>QAPNYSTASYNVVAVKINLFLSTNNKLYIHDTGVRAVYLAGMKVYLAANPTASSQTFNSDTLVYILDTGINEPNYYINLY</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>IDYRKCQASQILKEHGMDKVIPLPELVCTMFHISGLSPQAEV</t>
+          <t>MQAKAPMYPNEPFLVFWNAPTTQCRLRYKVDLDLNTFHIVTNAR</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,11 +3508,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MGSINLRIDDELKARSYAALEKMGVTPSEALRLMLEYIADNERLPFKQTLLSDEDAELVEIVKERLRNPKPVRVTLDEL</t>
+          <t>MGESQPVKTFDALFDELTERARTRPEGSGTVAALDGGVHGLGKKILEEAGEVWLAAEHESDEALAEEISQLLYWTQVLMIARGLSPDDVYRKL</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3521,50 +3521,50 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MSNTSQKHRDFVSEPMGDKPITALAGIGEVLGGKLEEQGFDKAYVLLGQFLILRKDADDLFKDWLKDSCGANSRQADLCSSCLKEWCSSFL</t>
+          <t>MNWVPSMRKLSDELLIESYFKATEMNLNRDFIELIENEIKRRSLGHIISVSS</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>HADAIFTSSYRRILGQLYARKLLHEIMNRQQGERNQEQRSRFN</t>
+          <t>MEGIELDNYYNFLEIGYLEGDQANVETTVYNLTGMLSAKVSDVTESEFEAAVEEVTEAIDNLTNSLEVLSELFTEAKQYLAKEDKKWEDNV</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MSLLTEVETYVLPTRNEWECRCSGSSDPLVVASSIIGILHLILWILDRLFFKCIYRRLKYGLKRGPSTEGVPESMREEYRQEQQSAVDVDDGHFVNIELE</t>
+          <t>MESVAKPATTKEGSAKQAAIVVGVLALGWFAIQVAFIPLFNKVRGGGSDKKDDDVNAFTPDT</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MIPRVLILLTLVALFCACSTLAAVAHIEVDCIPPFTVYLLYGFVTLILICSLVTVVIAFIQFIDWVCVRIAYLRHHPQYRDRTIADLLRIL</t>
+          <t>MYYKIGDVCQKVINVDGFDFKLAVKKQDYSILVNVLDLEDRFIDSINITDENDLYTALDILNQSIYEWIEENTDERDRLINLVMRW</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3573,20 +3573,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>MMALNGGWRKTFVSILTTCFLVVVVIVSLSCEAKGGVVPRLRPPFCFPYDREYCTPFHCGKVCQEYNFPAKNGGYCDKRGDPWKCCCPY</t>
+          <t>DLLEALSQDQKLLMAKFLPHIYAELANREGNWHEDAALRPLHDHDYPGWMDF</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MANIKSAIKRVKTTEKAEARNISQKSAMRTAVKNAKTAVSNNADNKNELVSLAVKLVDKAAQSNLIHSNKADRIKSQLMTANK</t>
+          <t>MLLLSAVKTLLLAWLGIVLVFMSIIKSAMLDFLQEAGKLEGIETYKKEAQTSFMAPSWALGHLMGRK</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,46 +3599,46 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>QHSTDYDEEEEDRAKLHLDAR</t>
+          <t>MEESGFREPVLDAKSEVTGQLIDFQWKLGMAVSSDSCRSLKYPYVAVMLKVADHSGQVSSKSIEMTIPQFQNFYKQFKEIAAVIETV</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>MSAAKQCFRNLWRASNSVFEGDPMILAAARDKIRTGFHNHRCCSPEEAKKEIQNGNAVAEILRRNVVQAEKQSNDTYSLKIRKTTEINTNRQFTEKKFPR</t>
+          <t>MVEKMVGILKFVCPFLFLYFLLLSMLVISGKHDYHMFFQRIPCPKDKILDCNLLECWCK</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>MKILTVFMIFIANFLNMMQVFSVKDRFLIINGSYELCVYAENLGEDCENLCKQQKATDGFCRQPHCFCTDMPDNYATRPDTVDPIM</t>
+          <t>AFAPSKVDSDRPNCSRYVQHLYMCTKELDPVCGTDGHTYGNRSIF</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>MRKSFYTWLMTERNPKSNSPKAILADLAFEESAFPKHTDDFDEVSRFLEEHASFSFNLGDFDSIWQEYLEH</t>
+          <t>EECWMNGKCRLVCKSDEDSVVRCENRKRCCVPSRYLTVQPMTVERIEPETVPHTPKPVKHKHRPDSKQNRNVHGR</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,20 +3651,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>MLYLLYIFLGLLIILGVNLLVTAFWALHDMYVHKDEEACDLNTFKKYFVKNNNIPTKMSDIFN</t>
+          <t>MDMMLMIGNYFSGVLIAGIILLILSCIFAFIDFSKSTSPTRTWKVLSIMSFILGIIITVGMLIYSMWGKHCAPHRVSGVIHTNHSDISVN</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>FATGMPCKTDKECPNTSTHKYKCINDDCFCFYIYWPLGNSLV</t>
+          <t>CETWRTETTGATGQASSLLSGRLLEQKAASCHNSYIVLCIENSFMTSFSK</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>AGLLAGSWIPDWTFVSVPPLVTLWYTLTKEPIPGEDVYYVDGACNRNSREGKAGYITQQGKQRVEKLENTTNQQAELTAIKMALEDSGPRVNIVTDSQYA</t>
+          <t>SGYSGAALDFPVAPSLAGHYSLTNCGQPSGASKCAEGTVPQAAFEKGTCYRELYASSCHHEETQIFQYPAV</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,24 +3690,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>MEFDSYIDWYNNLLTMPLNDVILGVKDTIEDKTVYLSLSDSKVIKMDNTSFVMGYY</t>
+          <t>MGINQSQHSMGVNQSHHFMGVNQSHHFMGINQSQHSMGVNQHIIGDSYLISCMVVAPCCLKACMVLAPCCLKACMVLAPCCLKAAR</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MALTCRLRFPVPGFRGRMHRRRGMAGHGLTGGMRRAHHRRRRASHRRMRGGILPLLIPLIAAAIGAVPGIASVALQAQRH</t>
+          <t>MRLSVCLLLLTLALCCYRANAVVCQALGSEITGFLLAGKPVFKFQLAKFKAPLEAVAAKMEVKKCVDTMAYEKRVLITKTLGKIAEKCDR</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -3716,24 +3716,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>MASIEIPLHEIIRKLERMNQKKQAQRKRHKLNRKERGHKSPSEQRRSELWHARQVELSAINSDNSSDEGTTLCRFDTFGSKSDAICDRSDWCLDQ</t>
+          <t>TICYNHLTIRSEVTEICIICDDDYYF</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>MQPILEKLYRAESMSQQESQQLFSAIVRGELEPSQLAA</t>
+          <t>SSFSPPRGPPGWGPPCVQQPCPKCPYDDYKCPTCDKFPECEECPHISIGCECGYFSCECPKPVCEPCESPIAELIKKGGY</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,11 +3742,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SPTISITAPIDVLRKTWEQERARKQMVKNREFLNSLN</t>
+          <t>LVIIDHHKPCVSDTDCAFYLDIPPTVKYCSDGLCAWYFPDNPLP</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,11 +3755,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>MELVVWKDGDNWRVFADDAVPALDGTVDRVAEGLATLYRKEKEPVVFTRRKTAFYDGQYWLMWKYYPTYGRAYGKEASDEMIKEPSAIALLAGY</t>
+          <t>MDPTLISLGALALAGAAATVSGCAEDLESDVGSQSNPNSQVQLGPQMGNIHRYFNKAISGEPVSYGLYVAVAGSVAWALINAGLN</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MSAVAGCTATTDPGWEVDAFGGVSSLCQPMEADLYGCSDPCWWPAQVPDMMSTYQDWNAQASNSAEDWRNLGTVFPKDK</t>
+          <t>MTSSSTPRMHTYKRTSSPRSPTNTGELFTPAHEENVRFIHDTWLCVLRDIKCPQNHERNDRGPQEYVEKNPNPNLHSFIPVDLSDLKKRNTQDSKKS</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,11 +3781,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>MSRDLVTIPRDVWNDIQGYIDSLERENDSLKNQLMEADEYVAELEEKLNGTS</t>
+          <t>GWTVERCWKNNIGHCRKRCFHVERYKLLCMNKLTCCIPIKEDHGYTKTPPRLVPFEEEITIDINTWELFSNSPASFFNDEFIAEPTKATESTVTET</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,102 +3794,102 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>MRNATFFIVFYVFISLVLSNVQDVTAQKNKCMRSEMFPTGPCGNNGEETCKKDFKNIYRTPIQCKCLDKYDFARLCDCRFC</t>
+          <t>MADSTAGAKKRKKRSTSATSTRKEPPTVIPEDECTTCSICQSKLVMFSGVSKYKLSDYLNTGKVFTNSNIRCKACGSSLCHLRDLSKS</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>MAPVDVESQVELDLKIEDFDYKNVALIKRFMTPVGRVLSRRATGLSAKKQRKMAKEVRKMKFLALVPYCDRHK</t>
+          <t>MTVYAVTGGAEFLGRYIVKLLISADDVQEIRVINVVEDPQPLVSKVKVINYIQCDINDLIR</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>MTEILKLFYAMILFASLFLVAMEIGESFGCTEHRHCEIAMCKFPFIVRCSMNECNCERVHYLI</t>
+          <t>MGKLVKHCHTSLHSELVILFYAKNRFCISIDHLRPLKSHRTHGHYCLLNFSLRENKNYLIIVYLPIEGFSANHMCISHGTSFNIK</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>VKRALSALKPKNKRFIGGIISFFKRLFG</t>
+          <t>ALDDVQDGTLVTIKAGNDENVMAELRNCTAVMKNQVAKFNDLRFVGRSGRGKSFTLTITISTFPSQVATYSKAIKVTVD</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>MGDIGAPELIIIILVVVVLFGSKRLPDAARSLGRSLRIFKSEIKGLHDDEAPAPTAAVAAAPTQVTGPAPAAPHTPPSAEPATPATGGSGNRSA</t>
+          <t>MLNLIVVVLPILAAVTWVVFNIQKPAREQLARQFDENNKAF</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>METLVAGSIFMVLVSGVLAIIIYMLPWFIALMRGSKSTVGIFFASLLFNWSIIGWFITFIWSIAGETKKSAQPNQVIIIREKE</t>
+          <t>MCIKAEKYIEWVKHCQCHGVPLTTYKCPGCGEQIMTQCSPEKEIRDSLTCCPWCSAVFFKQVKGAKVKASAVIQNQ</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>MSTSRKLKSQGTRRGKNRTPHKGVKRGCSKRKYRKSSLKSRKRCDDANRNFRSHL</t>
+          <t>MASKKAPTGHFSILYFAAASTFTGKTSEHLPAPIKACDLFDTLEDRYPGIKGKVLASCAVTVDLEYIDINEGDAADLERVIQEGDEVAIIPPVSSG</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>MRGAAPRVADLNLELNDLVLPINLLSEEVLQPSDDESEAPEEELFPFRIDTCCYRCEVNVRITLFAVEFGLRALEQLIVDGKLTFCCTTCARTLRNGR</t>
+          <t>MILLKLYLTLAAILCQSRGTTSLDLDDLMTTNPEIQNEIINKHNDLRRTVDPPAKNMLKMSWDNIIAESAKRAALRCNQNEHTPVSGRTIGGCGCAEKIT</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -3898,24 +3898,24 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>MNKTDLINAVAEQADLTKKEAGSAVDAVFESIQNSLAKGEKVQLIGFGNFEVRERAARKGRNPQTGKEIDIPASKVPAFKAGKALKDAVK</t>
+          <t>MCSYYHMKKRSVSGCNITIFAVMFSHLSAGKSPCGNQANVLCISRLEFVQYQS</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>MSPQTETKASVGFKAGVKDYKLTYYTPEYETKDTDILAAFRVTPQPGVPPEEAGQAVA</t>
+          <t>MTKTSRRKNAIANYLEPVDEKSINESFGAGDPEARSGIPCTIGAAVAASIAVCPTTKCSKRCGKRKK</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3924,20 +3924,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>MPQKDPCQKQACEIQKCLQANNYLESKCQAVIQELRKCCARYPKGRSLVCSGFEKEEEEKLAMKSGSK</t>
+          <t>MSRSTFLTLQEGLRRINQPRLLAESSRRRQRLLSLREKANLRKLGWWLKLPLVLQPLNGQPPMKKMIYQ</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>MSNLEKSVAINLENTAHYENISNLDITFRTGESDSSVLLFNIIKNNQPLLLSEENIKARIAIRGKGV</t>
+          <t>RHHLRHLRRHLRHLLRHLRHHLRHLRRHLRHLL</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,33 +3950,33 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>RHHLRHLRRHLRHLLRHLRHHLRHLRRHLRHLL</t>
+          <t>MAPLKMLALVTLLLGASLQHIHAARGTNVGRECCLEYFKGAIPLRKLKTWYQTSEDCSRDAIVFVTVQGRAICSDPNNKRVKNAVKYLQSLERS</t>
         </is>
       </c>
       <c r="B271" t="n">
         <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>MCTTLFLLSTLAMLWRRRFANRVQPEPSDVDGAARGSSLDADPQSSGREKEPLK</t>
+          <t>MTADAPVISGSSVVKLARGVRLHEDPVRGQTVLLAPERAMAVDDIAVAIVQALDGERNLDRIAADFAEKFDAPVEEIAEDVRTFVQELSVRRMLEIVQ</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>MKLSFRARAYGFRGPGPQL</t>
+          <t>LVAYGIAQGTAEKVVSLINAGLTVGSIISILGGVTVGLSGVFTAVKAAIA</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>MMRCYRCGESKEDNRFRPNQPYWNRWCLRCERTPTGVLPLPQEKEDVWRDSDEVSPT</t>
+          <t>VETMYTVIYKNAVESEPALEGGSFLTDAPKTDGLKLMTFGTRVF</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -4002,7 +4002,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>MYCLQWLLPVLLIPKPLNPALWFSHSMFMGFYLLSFLLERKPCTICALVFLAALFLICYSCWGNCFLYHCSDSPLPESAHDPGVVGT</t>
+          <t>MEKNTVTVPKTLFSQVIHIFKYAAINLGLPFLNGVMLGFGEIFAHAFIHSLGWAPGHTRIYSIQRHQYIQA</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,11 +4015,11 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>MEQITLTKEECVEQCINKDLKLLDYRVQQILEGVLSESTTYGDARNKLETLKIIAESHFKTEHASVIYKLALKKLDKKINATPIKE</t>
+          <t>MAQGPLKKTKPSTAKRPTALAPKRGPRQIAPKKATLIKQQKITKKLTAGLTAKTERTLAQRAGHLELLAGGKKDKKAEKEKGKEKGGKKN</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>GFEVIDNIKDSVVILGGPNWNVKMGDIRPLTGSNGEIRFDNNYFK</t>
+          <t>MKKKLVKGLVICGMIGIGFTALGTNVEAATYYGNGVYCNKQKCWVDWSRARSEIIDRGVKAYVNGFTKVLGGIGGR</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>MRKIVAGKLQTGADFEGSKGGCKCSGGAVVENSHNAGPAYCVGYCGNNGVVTRNANANLARTK</t>
+          <t>MEIKVEQPKEILLEVGWRYTSDWIVNSTTVSVEDNVYAYENACYKVLEELCESIDAKYIDICFVREATENA</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,24 +4054,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>MIEVVVNDRLGKKVRVKCLAEDSVGDFKKVLSLQIGTQPNKIVLQKGGSVLKDHISLEDYEVHDQTNLELYYL</t>
+          <t>MDKAEKVDNIVRQVTGAIIKTTAKVAFIVFVLTFAGILVGYYSYSFLTNAGWFALPMILSVDLLYVAVLLGGLAFIFAEVYKVVLEVKKIVKRGGQL</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>MKNINYRVKKIIAKQFQINIKKISLNNNLKNDLKIDSLDFVELIMLLEEEFNIKLFDIEAEKIKKIKDIIPYIKKKKLKE</t>
+          <t>QAQALLPIASYAGLTVSAPVFAALVTVYGAYALYRYNIRRRENSYPRIR</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>MEKLTILLLVAAVLLSIQALNQEKHQRAKINLLSKRKPPAERWWRWGGCMAWFGLCSKDSECCSNSCDVTRCELMPFPPDW</t>
+          <t>MQAPDSVRSVKVEREAKTWIEKPRGAGLRVAQKTPVHATTSLTLGTVVHLAFIILP</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,37 +4093,37 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>MGGGGHGGGITYKGVTVHTPKTWHTVTGKGLCAVMWFWILYRAKQDGPVVMGWRHPWDGHGDHGHGDHH</t>
+          <t>CYCQDPYVKEAENLKKYFNAGHSDVADNGTLFLGILKNWKEESDRKIMQSQIVSFYFKLFKNFKDDQSIQKSVETIKEDMNVKFFNSNEEVE</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CGDINAACKEDCDCCGYTTACDCYWSSSCKCREAAIVIYTAPKKKLTC</t>
+          <t>MSCCLSSRVHITRPVLEQFLSFAKYLDGLSHGVPLLKQLCDHILFINPAIWIHTPAKVQLSLYTYLSAEFIGTATIYTTICRIGTVIKDNAHLKILLLGY</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>MDQAIYTLHEFMLHTKNWTYILMGVTLLVYVGYWLFLTGRDEKIRKY</t>
+          <t>VSEACEESCEEEEKHCCHENNGVYTCLRYCW</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,20 +4132,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>EECWMNGKCRLVCKSDEDSVVRCENRKRCCVPSRYLTVQPMTVERIEPETVPHTPKPVKHKHRPDSKQNRNVHGR</t>
+          <t>LATFERDVITPETVHAILKKTNSNSNIMLHEDAIQALTGKTLISKTVLEEALLKNAENGLVGSGVPCGESCVWIPCLTSIVGCSCKNNVCTLNSLAQN</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>MKKLAVILTLVGGLYFAFKKYQERVNQAPNIEY</t>
+          <t>SASRALSDKPLAHVVANPQVEGQLQWL</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,33 +4158,33 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>DIDITGCSACKYAAGQVCTIGCSAAGGFICGLLGITIPVAGLSCLGFVEIVCTVADEYSG</t>
+          <t>MDPMIAQGALIGGGLIMAGGAIGAGIGDGMAGNALVSGIARQPEAQSRLFTPFFITVGLVEAAYFINLAFMALFVFATPVK</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>MNAPLTDNIPWTREEFEQKLRDKGRGYHIYHPFHVMMYEGKLTREQLQCWVA</t>
+          <t>MLSLVSPLLKKSIVIQLFSITVYKFKAKFWYKLPFETRLCIIKHTRPKALSVTKQVKRDYRKIAILNSMRK</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>MKKIVFLILGLAAFAFGADGEMIRSYSVIAGGIGLGLAALGGAIGMGNTAAATISGTARNPGVGSKLMTTMFIALAMIEAQVIYALVITLIVLYANPMLG</t>
+          <t>MTTIYKELVAHFGTQDETAAKLGVDQSTVSGWVRGKHGMSPVVAKRAQVLTDGKFKKEDLCPAFPWEVLSAVA</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>MPTWLTTIFSVVIVLAIFLYFGLLIYQKIRQIRGKKKDKKEIERKESNK</t>
+          <t>TCSIPYEYSNGKLKRTLYYSNGVYANSFTENN</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -4210,11 +4210,11 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>MLAFCYSLPNAGDVIKGRVYEKDYALYIYLFDYPHSEAILAESVKMHMDRYVEYRDKLVGKTVKVKVIRVDYTKGYIDVNYKRMCRHQ</t>
+          <t>MKCSLRLFEKAGRLSVRSQTVQTFQQRIVLANGASYLVNTTLPKPYILSIKDITNMPLNNPKVNALSSIRGQESRRSKFEERYEGL</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>MGINQSQHSMGVNQSHHFMGVNQSHHFMGINQSQHSMGVNQHIIGDSYLISCMVVAPCCLKACMVLAPCCLKACMVLAPCCLKAAR</t>
+          <t>MAKQTTMKNAALKQLTKDADEILHLIKVQLDNLTLPSCPLYEEVLDTQMFGLQKEVDFAVKLGLVDREDGKQIMLRLEKELSKLHEAFTLV</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4236,11 +4236,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>LYSSLSSIYSITLIVISIYIYIVISYCSLFMFFILYSYTCSIQ</t>
+          <t>MEPLSIDKPFMYFDEINNELEYDPDSANEKHKKFPYQGQLKLLLCELFFLSKLQRHGILDGSTIVYIGS</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,72 +4249,72 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>MPNTKSAARALRRSERRRLRNRMWRSMARTFIKKARKLMEAGDLEAAARVIGDAISTLDRAAAKGAIHKNNAARRKSRLMKRFNALVKARLQQGQEQST</t>
+          <t>VKRALSALKPKNKRFIGGIISFFKRLFG</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>MLVIFLGILGLLANQVSSQLVGQLHPTENPSENELEYWCTYMECCQFCWDCQNGLCVNKLGNTTILENEYVHPCIVSRWLNK</t>
+          <t>SEGTSCYIYHGVYGICKAKCAEDMKAMAGMGVCEGDLCCYKTPW</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>MPTEERVRKRKESNRESARRSRYRKAAHLK</t>
+          <t>MSNLEKSVAINLENTAHYENISNLDITFRTGESDSSVLLFNIIKNNQPLLLSEENIKARIAIRGKGV</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>MSLSFGCSQGNPNLYSEESSLKTALIRKTFYFLFAVFFILVQLPSGCQAGLDFSQPFPSGEFAVCESCKLRRGKCRKECLENEKPDGNCRLNFLCCRQRI</t>
+          <t>GLFEAIEGFIENGWEGMIDGWYGGGGRRRRRRRRRK</t>
         </is>
       </c>
       <c r="B297" t="n">
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>MTTGLDAARKQEIKEIVCDILEIDEDEVTETSLFKEQHDADSLRAIEILAALERTQKVTIDQAELSRMVNLEGVYVVVSEAAQN</t>
+          <t>MNFLQNFCRSKFIVFERVTPFTHKIIHKHSHHQTSSFNPMPSEVSLHTSHNFPHTTF</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>MTKTELQYKKAIGVAIFATSEEDKKQLGNVAPFSIYEILEIDLNKNRVYYALNCGERHAVCFTKLRKEEETGDNFILINKQPFFLKDIHKGLTWSKSL</t>
+          <t>MDNSKRIIKKIIFITISALVMVTLSKLFSKYVIVEQNAPFQALIGGASCALLSSILFDWYTNKKKKENVENQLKEAISDLQKIKAIIKR</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,50 +4327,50 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>MANLKSSKKDIRRTARRKERNGEDRTELRTYARLLIKAIKSGDKTEALTVFSKLSSKLDRAAKTKLIHKKNADRKKSRMALRINSIEAKAA</t>
+          <t>MSTSRKLKSQGTRRGKNRTPHKGVKRGCSKRKYRKSSLKSRKRCDDANRNFRSHL</t>
         </is>
       </c>
       <c r="B300" t="n">
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>MAKQTTMKNAALKQLTKDADEILHLIKVQLDNLTLPSCPLYEEVLDTQMFGLQKEVDFAVKLGLVDREDGKQIMLRLEKELSKLHEAFTLV</t>
+          <t>GFFALIAKIISSPLFKTLLSAVGSALSSSGEQE</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SGKSFKAGVCPPKKSAQCLRYKKPECQSDWQCPGKKR</t>
+          <t>MNYYLLYLALGAAWFFVAIGHIFRVPSKQTVERIITPPILISLSFFSTFMFYVFLWPLALLIDIWRRMIKKSTT</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>MNTQRAKDISESAAMAYVTYEGVPIYIQHVNEDKETARIFPIGNPQFEQEVLLSDLQEHF</t>
+          <t>RKKRRRESWVHLPPPVHLPPPGGHHHHHH</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -4379,11 +4379,11 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>MALGPWQIFLILVIILVLFGAGKLPDVMSDLGKGIRNLKQELKDNKLASTEDESNL</t>
+          <t>YLAFRCGRYSPCLDDGPNVNLYSCCSFYNCHKCLARLENCPKGLHYNAYL</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>KASSSAPKGWTHHGSRFTFHRGSM</t>
+          <t>MDWRVLVVLLPVLLAAGWAVRNILPYAVKQVQKLLQKAKAA</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4405,37 +4405,37 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>STLSSNDAKVVDGKATPLGSFPHVKRAGDFLYVSGTSSRRPDNTIAGAELDSTS</t>
+          <t>MCTTLFLLSTLAMLWRRRFANRVQPEPSDVDGAARGSSLDADPQSSGREKEPLK</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>GCKGFLVKCDSNSECCKTAIVKGKKKQLSCLCGAWGAGCSCSFRCGNRC</t>
+          <t>MKKTLLRSGTIALATAAAFGASLAAAPSAMAVPGGCTYTRSNRDVIGTCKTGSGQFRIRLDCNNAPDKTSVWAKPKVMVSVHCLVGQPRSISFETK</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>MDRRRMALRPGSRRPTAFFFHSRWLVPNLLAFFLGLSGAGPIHLPMPWPNGRRHRVLDPHTQLSTHEAPGRWKPVAPRTMKACPQVLLEW</t>
+          <t>MMTKCQKRASIQGLWLLSMVLLASSSLVCASMAVDGQTKEDINATSVTSMNMTRSSSASYNMTGGGGELNRGPCVVRSGFYWCQNIGYPTMSECLKNCES</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -4444,7 +4444,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>MQNAQSEKVQQESANSLLTHLKSPEKTELKIDVSDRAADAIDIMRQNAEALARLQQEMIAGKQLSAKDVAERSMDFGEVIEGELA</t>
+          <t>MENEKLESYFMKEIAPILDEIEMSEELIKGMENNNPSDMITVSFSKEEVDILLAMLDLELPRLDSGSELFSPNLVREAKLQLIKNKLTSK</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,11 +4457,11 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>MLNLIVVVLPILAAVTWVVFNIQKPAREQLARQFDENNKAF</t>
+          <t>RRRQRRKRGGDIMGEWGNEIFGAIAGFLG</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -4470,20 +4470,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>MPPRWASLLLLACSLLLLAVPPGTAGPSQPTYPGDDAPVEDLIRFYNDLQQYLNVVTRHRYGRRSSSRVLCEEPMGAAGC</t>
+          <t>GITPDCTFNEKDIELHVYSRDKRNGIILKKEILKNYDLFKES</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>MKINKLTLNERKNDILSYFSEINTPFRTSEVAEHLGVSAYQARHYLQCLEKEGKIKRSPVRRGASTLWEISAVTEPSVKTDRIAD</t>
+          <t>MHVCDLQKLVRIQLAFTTFPWMFSCHLLPTPELSSKRNQCLLYKTSGCLTQMPILYGHPATLLKDYILQAILQPGKKIQGGTEIQRGSFANQYQTDASHL</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,46 +4496,46 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MCLRSHFKVAFTQRKVELSKELRRSRSSRNGGLPLQEQPMGQKWGWHRGEPGHPRMEELNEWPQNGDHWSRKWPPPCAFTPG</t>
+          <t>MLVIFLGILGLLANQVSSQLVGQLHPTENPSENELEYWCTYMECCQFCWDCQNGLCVNKLGNTTILENEYVHPCIVSRWLNK</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MTKKNLKPQQAAPVQREINTTSSESGTSTGLTPHQAYLGIPLPFAGDDAE</t>
+          <t>MLSQKPKKKHNFLNHGLSLNLVIKPYLALEGSVAFPAENGVQDTESTQEKRETGDEENSAKFPVGRRDFDTLSCMLGRVYQSCWQV</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>VSHYAFYKEDDTWKFVKYGGLLELVQAASMMAYSPKEAAACTCYKLNGVRWWWMGMTDKDAIEDVNLLPADLRAMLVIWSLDQLLE</t>
+          <t>MENLNLNQLENINGGYWKTIWAVGPGLYQRDTETGKYRWIQTQDNLSYTTNVIANGWAGSAAGGYFSGR</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>MFLVAGALGVQTAAATTIVNVILNAGTLVTVLGIIASIASGGAGTLMTIGWATFKATVQKLAKQSMARAIAY</t>
+          <t>MTKTELQYKKAIGVAIFATSEEDKKQLGNVAPFSIYEILEIDLNKNRVYYALNCGERHAVCFTKLRKEEETGDNFILINKQPFFLKDIHKGLTWSKSL</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,24 +4548,24 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>MKHSDNLRSVRSEYADADGSRCVYLTFDDGPNPLCTPPDI</t>
+          <t>MVDVSDKVETKRTAVAEGRVVMRPETLALVIAGRAGKGDVLGIARVAGIMAAKRTADPKNSKSFSRVLLERPRAHSI</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>MRLVVCLVFLASFALVCQGQGYKGGYTGPVVRPFVRPIGRPFVTPIGRPVVSGNVCPLSCRGITTLQARSCCSRLGRCCREAKGYSG</t>
+          <t>MVKRTHGYRYKTRKLLRKKPREKGLSGLSRLLYEYKVGDKVIIDIDSTFISTAPHRRYQGKVGTVVGIRGRAYVIETFLGDKKKIIITTPEHLKPYQGGS</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -4574,7 +4574,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>MHVCDLQKLVRIQLAFTTFPWMFSCHLLPTPELSSKRNQCLLYKTSGCLTQMPILYGHPATLLKDYILQAILQPGKKIQGGTEIQRGSFANQYQTDASHL</t>
+          <t>MSDSTSSPVAAAPSTAMTRPVSEALLNEKWDRCLSNLLIKSTLGLGFGVVFSVLIFKRRAWPAFVGVGFGAGRAYEECNTSLKQAAREIRAQA</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,11 +4587,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>MIRRSCALLSSSWRDHGISYLKYLNVCTETLHSTVKESRRAKYERWSKPCYTAQRPDGAGGQETIDKVPIHTKDY</t>
+          <t>VSKLAQSCSEDFECYIKNPHAPFGQLRCFEGYCQRLDKPT</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -4600,20 +4600,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>MNIEAYPHDFRGSLAVVSATGVAGCRTWTLRSVETGKHYELAPASIEGWPLPAKREDSRPNSIIVNYDGNDVIALELATGELYRTRAPATTLRLRR</t>
+          <t>KVYERCEFARTLKRNGMAGYYGVSLADWVCLAQHESNYNTRATNYNRGDQSTDYGIFQIN</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MNLIDLILIAIYVIGISGLIFNKNNIINILIISELNLGTLGMLFVLASVELNDILGELSGLYILTFTAAESAIGLAIVVILYSKTGIINIRNLNKLKG</t>
+          <t>MAPLRGAELVQTPLQLYRYLLRCCRQLPTKGIQEHYKHAVRQSFQVHSDEDNPERIQQIIRRAIEDADWIMNKYKKQN</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,24 +4626,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>RRRRRRRRSLVSSDESSSGSSHSSGEHS</t>
+          <t>MLHTLHRSPWLTDFAALLRLLSEGDELLLLQDGVTAAVDGNRYLESLRNAPIKVYALNEDLIARGLTGQISNDIILIDYTDFVRLTVKHPSQMVW</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>GPLPIPIVVNFNKLRKKISNRFKKLRKRLKKGFGRK</t>
+          <t>MPTWLTTIFSVVIVLAIFLYFGLLIYQKIRQIRGKKKDKKEIERKESNK</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4652,24 +4652,24 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>FTFSILCQVNSDCLGEICLPPKTHWCNKILLEIYISCHLVTMLEPNNLYLLPFLISWTRNNLYIILGLSLFSRTNSLVLSWR</t>
+          <t>MMRCYRCGESKEDNRFRPNQPYWNRWCLRCERTPTGVLPLPQEKEDVWRDSDEVSPT</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>MVAGIQKISLSKGKPVKGVNIKTGEEITFQTVSEVISYGFDKSHVASCARGESKTHKGFIWKYV</t>
+          <t>MEKLTILLLVAAVLLSIQALNQEKHQRAKINLLSKRKPPAERWWRWGGCMAWFGLCSKDSECCSNSCDVTRCELMPFPPDW</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4678,37 +4678,37 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>TTFHPILVILFYSLFPFIPAPIRCNRVSDCPKIRCNIGFVLRCLYNQCKCVRITQLVDYVLK</t>
+          <t>MVSPRVRLAALALSVCAILCLGMHASAFPPKPDNPGDNASPEQMARYKAAVRHYINLITRQRYGKRALTPENWIYRDPAEERVTYGLDDYAMW</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>LKVDLWGTRSGIQPEQHSSGKSDVRRWRSRY</t>
+          <t>MLWTYDMMSFQKIYSPTQLANAMKLVRQQNGWTQSELAKKIGIKQATISNFENNPDNTSLTTFFKILQSLELSMTLCDAKNASPEAAEQQDLEW</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>MSRSTFLTLQEGLRRINQPRLLAESSRRRQRLLSLREKANLRKLGWWLKLPLVLQPLNGQPPMKKMIYQ</t>
+          <t>KVPAYCKLPPDSGPCKGHFPAFYYDPVSSYCQKFI</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,24 +4717,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>MSNPKDDYKIWLVINPSTWLPVIWIVATVVAIAVHAAVLAAPGFNWIALGAAKSAAK</t>
+          <t>MEKMVKFNLRYDELLKKIPYKYAIPVVVAKRAEAIREYAKPFVITDDENPVSIAFMELSLNYIRIKNEEILKALIPKVK</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>LVAYGIAQGTAEKVVSLINAGLTVGSIISILGGVTVGLSGVFTAVKAAIA</t>
+          <t>MFTNSIKNLIIYLMPLMVTLMLLSVSFVDAGKKPSGPNPGGNN</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>MSDSTSSPVAAAPSTAMTRPVSEALLNEKWDRCLSNLLIKSTLGLGFGVVFSVLIFKRRAWPAFVGVGFGAGRAYEECNTSLKQAAREIRAQA</t>
+          <t>MTILSAITSISRPNKASKSSVSSFGGASLSMGSNSVACGGCGGGSSGPRGPGGVAVGVAVDVNINLGVVVGGVLGLVGGILGGGGSSGSCGCH</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>VGRFKRFRKKLKRLWHKVGPFVGPILHYG</t>
+          <t>MKILTVFMIFIANFLNMMQVFSVKDRFLIINGSYELCVYAENLGEDCENLCKQQKATDGFCRQPHCFCTDMPDNYATRPDTVDPIM</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,11 +4769,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>LKCVNLQANGVKMTQECAKEDTKCLTLRSLKKTLKFCASDRICKTMKIASLPGEQITCCEGNMCNA</t>
+          <t>MPFVPVETPKCPACGKSVYAAEERVAGGYKFHKTCFKCSMCNKALDSTNCTEHEKELFCKNCHGRKYGPKGYGFGGGAGCLSTDTGAHLNRE</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4782,50 +4782,50 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>FDISCDKDNKRFALLGDFFRKSKEKIGKEFKRIVQRIKDFLRNLVPRTES</t>
+          <t>MTTSQKHRDFVAEPMGEKPVGSLAGIGEVLGKKLEERGFDKAYVVLGQFLVLKKDEDLFREWLKDTCGANAKQSRDCFGCLREWCDAFL</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>MRTQVLFLIVVLAVMASGDDTAHVYCGRRLATMLLYVCDNQYQVKRPPYISSENEGYGWKWLERQRARQLDEARGKRQGIVEECCNKPCTENELLGYCYK</t>
+          <t>MKEIILWPAYIDLKRTKNEGRKVPKEIAIQNPKLKEIASKIKKMGLEYSVENKKSYPKESWEICGYIKVKVDESTSKLQFLKEICINMK</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>MSSAIKILALLMVLVALAQAKPRKDYRAYPDFDDKSVILEDDKRCDPDKRDSVCKDVCGMLDIGTENGECPGKEVCCVDLFGR</t>
+          <t>VKIIQRILQVRYPANPQNVEVAVNSKSATVSAE</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>MISMLRCTFFFLSVILITSYFVTPTMSIKCNCKRHVIKPHICRKICGKNG</t>
+          <t>MLSPSQSLQYQKESVERALTCANCGQKLHVLEVHVCEACCAELMSDPNSSMYEEEDDG</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4834,11 +4834,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>PGPDVKCVCCQDGKECPCKGGECCITGSCCKEGDGLCCGKCSNAACKCADGCKCGSGCSCTLGNCTC</t>
+          <t>GGLRSLGRKILRAWKKYGPQATPATR</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>MGMRMRMMFTVFLLVVLANTVVSFPSDRDSDGADAEASDEPVEFERDENGCCWNPSCPRPRCTGRR</t>
+          <t>MGKRKSAAKPPPKKRMDKLDTVFSCPFCNHGSSVECRIDMKNLIGEASCRICQENFSTTVNALTEPIDIYSEWIDECERVNNVEDDDGA</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,37 +4860,37 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>MSSTATPTPSNVVLVGKKPVMNYVLAALTLLNQGVSEIIIKARGRAISKAVDTVEIVRNRFLPDKIEVKEIRIGSQVVTSQDGRQSRVSTIEIAIRKKA</t>
+          <t>NAAAEIFRIAAVMNGLTLVGVAIGFVLLRIEATVEE</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>MIPSSTRELLNIADSKYAVVVAVAKRARTLSEKYKEDENYRLSTMVTRALDEVVNGKVIIEPSKEDGSREV</t>
+          <t>WYKHVASPRYHTVGRASGLLMGLRRSPYLW</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>MKTYLMTIVILLILVHKTSGSMKNLPRRQTMEKEKKCENNEGFCRKKCKAEEVELRYCLSGKMCCISTYSTLITYLEKETVHMKHFHTTSSQHVY</t>
+          <t>MANLKSSKKDIRRTARRKERNGEDRTELRTYARLLIKAIKSGDKTEALTVFSKLSSKLDRAAKTKLIHKKNADRKKSRMALRINSIEAKAA</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4899,50 +4899,50 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>MADSTAGAKKRKKRSTSATSTRKEPPTVIPEDECTTCSICQSKLVMFSGVSKYKLSDYLNTGKVFTNSNIRCKACGSSLCHLRDLSKS</t>
+          <t>MQSFKICFFISCLSVVLVKGQFGGTVSSNPNGGLDVNARLSKTIGDPNANVVGGVFAAGN</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>KVYERCEFARTLKRNGMAGYYGVSLADWVCLAQHESNYNTRATNYNRGDQSTDYGIFQIN</t>
+          <t>MQLGTGLLLAAVLSLQLAAAEAIWCHQCTGFGGCSHGSRCLRDSTHCVTTATRVLSNTEDLPLVTKMCHIGCPDIPSLGLGPYVSIACCQTSLCNHD</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>VTVVQYRSTNASSGYLNLRVYLLDTGLR</t>
+          <t>MGLSTHCQLVFSWKPMNTHMVSRAMEGSLKSYPFPSNINITSCVSIKLNDRNYLLYDEGRVRLSLLNLGERCDFVPFLSVELFKPLQSSGVYEKLHESNN</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>MKTSKMICAFLLVLVVGTFNDISGAYGEYVEDQHSFKIERRFPPCVEVCVQHTGNVKECEAACGE</t>
+          <t>ERECVTDDDCEKLYPTNEYRMMCDSGYCMNLLNGKIIYLLCLKKKKFLIIISVLL</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4951,33 +4951,33 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>MALTVETKKRPEGSKPKALRRSGFIPANLYGHNGRESISLVVDAKVVERLLKAAAVKKTEIELNIPELEWTGKTVLQEVQIHPAKGTPYHISFLATAKG</t>
+          <t>KASSSAPKGWTHHGSRFTFHRGSM</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>LILFIFSIITMLSMFLLYLFGMASVALIELGLLMGSQNDITKGAHSLLFTGVTLTVVTEITKQCLLLF</t>
+          <t>MAGPEADAQFHFTGIKKYFNSYTLTGRMNCVLATYGSIALIVLYFKLRSKKTPAVKAT</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>LVQRGRFGRFLSKIRRFRPKFTITIQGSGRFG</t>
+          <t>SRSGRGSGKGGRGGSRGSSGSRGSKGPSGSRGSSGSRGSKGSRGGRSGRGSTIAGNGNRN</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ACLARGETCKDDCECCDCDNQCYCPFDWFGGKWHPVGCSCAYTNKYVCDHKKEKCKKA</t>
+          <t>SSESFTLLEQWNNWKLQLAEQWLEQINEKHYLEDIS</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,50 +5003,50 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>MQERDILLKIKEIAKAKNFKTELDESVLQKPFRELKIDSLDMFSVIVSLEKEFDIMFEDEKLMQLNNLAELIAEVKHLISQKGV</t>
+          <t>YRQSMNQGSRSTGCRFGTCTMQKLAHQIYQFTDKDKDGMAPRNKISPQGY</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ACWKANSCPGSAFESKDRLRSFALLYCRYNYKPPYGQGAFGYASAVSTHGWETEAQCINTFEQIITSCHGQSNGGTLELNSGRLSLAFGNCEEL</t>
+          <t>MSTYKEIEHLHINTGGKELTQEQIEEAKAFIDSQEFKDMIREAKESHQRVMESKITDRTKL</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>MKVSAALLCLLLMAATFSPQGLAQPDSVSIPITCCFNVINRKIPIQRLESYTRITNIQCPKEAVIFKTKRGKEVCADPKERWVRDSMKHLDQIFQNLKP</t>
+          <t>MKEKDYWEEAWLTSCTSIHDHHCDCGSWRDHLWTLCALDDADLAAAADIIEREEADGGEDFGFVDGDPGDAGG</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>MESMKMKLIVVLMVAIVAFSAVGNVAAQTEAPAPSPTSDAAMFVPALFASVAALASGFLF</t>
+          <t>MANKVSLENLLAMAVTAKEHEMSRHANKMRQLEKTEANIKKRIKELSKEG</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,50 +5055,50 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>MFTVFLLVVLATTVVSFTSDRASDDRNTNDKASRLLSHVVRGCCGSYPNAACHPCSCKDRPSYCGQGR</t>
+          <t>MQLAKVLGTVVSTSKTPNLTGVKLLLVQFLDTKGQPLERYEVAGDVVGAGLNEWVLVARGSAARKERGNGDRPLDAMVVGIIDTVNVASGSLYNKRDDGR</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>MENHDIELLAHLHALPETDPVGVDGAPFAATCECVGLLTLLNTVCIGISCA</t>
+          <t>MSGRKETVLDLAKFVDKGVQVKLTGGRQVTGTLKGYDQLLNLVLDEAVEFVRDHDDPLKTTDQTRRLGLIVCRGTAVMLVSPTDGTEEIANPFVTAEAV</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>VSKLAQSCSEDFECYIKNPHAPFGQLRCFEGYCQRLDKPT</t>
+          <t>MHGEITTLQDYVLDLEPEATDLYCYEQLCDSSEEEEDTIDGPAGQAKPDTSNYNIVTSCCKCEATLRLCVQSTHIDIRKLEDLLMGTFGIVCPGCSQRA</t>
         </is>
       </c>
       <c r="B358" t="n">
         <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MDIDYRIAIVLAPVVIAASWAVFNIGAAALRQIQGFLDREA</t>
+          <t>MIIYRQYHHEGAPVYEIITKTFQHVSIKCDDSFSDTEIFKLLSLLQDDIDHMKVS</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MKCGRKRRRRRRHACKRKKRACKQRSSTIVRAHLVHRRRAARRCP</t>
+          <t>MDKRIEEVAAKALEKMGNDRYRLSLVVAKRAEQLANGATPLVDFDKNKNKLADIALYEIAENKITLEGLVETNR</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,7 +5120,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>GSGPTYCWNEANNPGGPNRCSNNKQCDGARTCSSSGFCQGTSRKPDPGPKGPTYCWDEAK</t>
+          <t>MRILYQLLVVLFVMLQAAAGQRYIPGRFNSCAARNGICIPGICRRPFYWAGRCSNGLTCCKRYVEVQG</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,20 +5133,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>MWRIWRLFDPMRAMVAQAVFLLGLAVLIHLMLLGTNKYNWLDGAKKAPAATAVAPVPAEVTSLAQAK</t>
+          <t>MGSINLRIDDELKARSYAALEKMGVTPSEALRLMLEYIADNERLPFKQTLLSDEDAELVEIVKERLRNPKPVRVTLDEL</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>MFSGAGRPSKEQIKQYDNLAVGEMKKGASVAAVLLLTPFVISFFQKMRA</t>
+          <t>SPTISITAPIDVLRKTWEQERARKQMVKNREFLNSLN</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,11 +5159,11 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MAKFANYLTLFLLVASLVMMEVHSSSSTEVPDQGRRLLMNPDSNGIPCGESCVFIPCISALLGCSCSNKVCYNNRTKS</t>
+          <t>MGEFSLTHILLLAVIFLIFFGPSRLPQLGQSMGKAIRGFKQGLNEIDVDAKDIHDNQQVSHQNKQSMGQTQKQGENQNS</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -5172,37 +5172,37 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>VWNQWTLYWTDRETGEEGNFKIPRPNALFIGMPIDIDEYRYTVTAVSTPTKEVWTERIPFDFGTKPPWEHNN</t>
+          <t>MPNTKSAARALRRSERRRLRNRMWRSMARTFIKKARKLMEAGDLEAAARVIGDAISTLDRAAAKGAIHKNNAARRKSRLMKRFNALVKARLQQGQEQST</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>VETMYTVIYKNAVESEPALEGGSFLTDAPKTDGLKLMTFGTRVF</t>
+          <t>MKTVLAFLFLTFIAFTYAESYEDVKEEIKNEVEREIFEDLEEESDVLDSNVREFNDAKPWRFRRAIRRVRWRKVAPYIPFVVRTVGKK</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>MLSPSQSLQYQKESVERALTCANCGQKLHVLEVHVCEACCAELMSDPNSSMYEEEDDG</t>
+          <t>SWDSIWKSAKNKMDKIMRQKVAKWMAKKEGKSVEEVQAKVDAMSKKDIRMHVISHYGKKAFEQLSKSLEE</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>MVGTCPECGAELRLENPELGELVVCEDCGAELEVVGLDPLRLEPAPEEAEDWGE</t>
+          <t>MMIYGLIACLIFVTSSIASPPITEDKSFNSVEVLVSLFRDDQKDYTVTSQFNNYTIDTKDWTIHT</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,50 +5224,50 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>GFFALIAKIISSPLFKTLLSAVGSALSSSGEQE</t>
+          <t>MPPRSIEEWFYYKLLSSPGFHRFVRKVYRKVNGIKEDPFTDQSTAFQYLYKPTPRQKFKALRLLFWDEMRSTFGFRRRLGDRFKKD</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>AFAPSKVDSDRPNCSRYVQHLYMCTKELDPVCGTDGHTYGNRSIF</t>
+          <t>MPTGFHRESATIYQFPVKAIRNANRFERARLMEREAAEVCDAALDSCWYHDEAVRESDRPTKS</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MGDQPCASGRSTLPPGNAREAKPPKKRCLLAPRWDYPEGTPNGGSTTLPSAPPPASAGLKSHPPPPEK</t>
+          <t>MNTPAARPDRYQSFAHIPCDAMALKLLTHLEQLLQAEDTLEPFWQLFLQKAAIAKQPQPGQADALKLICSNSYYIFDLFAAQQDQAGEAMMDELEYQCC</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>TMCYSHTTTSRAILTNCGENSCYRKSRVHP</t>
+          <t>DEVDPDGKVLNSLIDTLMHLQKEFANLKYAFLTVHKARSFGSGSERLYVTNKEIKNFEPLGDI</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>MFKILNDIKTSLKNHPWGWKEHLPYLLMLTLSLVALIFGVLSAIL</t>
+          <t>MENHDIELLAHLHALPETDPVGVDGAPFAATCECVGLLTLLNTVCIGISCA</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,24 +5289,24 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>NLVQFELLIMKVAKRSGLLSYSA</t>
+          <t>VWNQWTLYWTDRETGEEGNFKIPRPNALFIGMPIDIDEYRYTVTAVSTPTKEVWTERIPFDFGTKPPWEHNN</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>MQSFKICFFISCLSVVLVKGQFGGTVSSNPNGGLDVNARLSKTIGDPNANVVGGVFAAGN</t>
+          <t>MAARAVFLALSAQLLQARLMKEESPVVSWRLEPEDGTALCFIF</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>MPVVTGRLRDPDINPCLSESDASTRCLDENNYDKERCSTYFLKYKNCRKFWHSIMMQRRRNGVKPCMPTAAERDEILRAMGKMPY</t>
+          <t>MRNATFFIVFYVFISLVLSNVQDVTAQKNKCMRSEMFPTGPCGNNGEETCKKDFKNIYRTPIQCKCLDKYDFARLCDCRFC</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>MEKQEQTFVSKISEEELKKLAGGYTEVSPQSTIVCVSLRICNWSLRFCPSFKVKCPM</t>
+          <t>MMYKYARIKRVRNITVYDIACQCWARDFQYDQCLFLLIQHGFSPIQSLEEFQRVWNMLDQAFADFCNERGCPADPIGFADVRI</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,20 +5341,20 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>MLVIAPKQVAKDTWVDEVDKWNHLNHLKVSLILGTPKERNDALNTEADIYVTNKENTKWLCDQYKKRMAI</t>
+          <t>VCCRGLLGAASVGRQNRFEIVYNLLSLREVWDMFGVFFFNHPDLRILTDYGFEGHPFRKYDDEVKRVVAEPVELAQEFRKFDLNSPWEAFPAYR</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>MASKKAPTGHFSILYFAAASTFTGKTSEHLPAPIKACDLFDTLEDRYPGIKGKVLASCAVTVDLEYIDINEGDAADLERVIQEGDEVAIIPPVSSG</t>
+          <t>MNLIDLILIAIYVIGISGLIFNKNNIINILIISELNLGTLGMLFVLASVELNDILGELSGLYILTFTAAESAIGLAIVVILYSKTGIINIRNLNKLKG</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,11 +5367,11 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>MGEFSLTHILLLAVIFLIFFGPSRLPQLGQSMGKAIRGFKQGLNEIDVDAKDIHDNQQVSHQNKQSMGQTQKQGENQNS</t>
+          <t>LSSANFPFCLLLGTVTEQLKRCWDDYVQGHCRKICKATEIREILCANGRYCCLSIKDVKARKVITRAPRPKPRTQAYTFPQDQFPTLENYAISN</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5380,20 +5380,20 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SATVELYSNLAAKGLAVEFTSTSLKAALLNILSVDGVPATTAK</t>
+          <t>MFKTILVLVVALNLLGAFTYASPRPDDKKNQGSASVDVQRERGEGTKVDARVRQELWRSDDGRTRAEAYGHWDRTYGGRNHGERSHGGGVRLEHTWGK</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>MQAKAPMYPNEPFLVFWNAPTTQCRLRYKVDLDLNTFHIVTNAR</t>
+          <t>IDYRKCQASQILKEHGMDKVIPLPELVCTMFHISGLSPQAEV</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,46 +5406,46 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>MATSSLTKPQMRWPSGPRRLRFHIVGAFIVSLGVATFYKFAVAEPRKKAYADFYRNYDSMKDFEEMRKAGIFQSAK</t>
+          <t>LKCVNLQANGVKMTQECAKEDTKCLTLRSLKKTLKFCASDRICKTMKIASLPGEQITCCEGNMCNA</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>MFTNSIKNLIIYLMPLMVTLMLLSVSFVDAGKKPSGPNPGGNN</t>
+          <t>MLYLIIYDVPATKAGNKRRTRLFDLLSGYGKWRQFSVFECFLSVKQFAKLQTAMEKLIKLDEDAVCIYVLDENTVQRTITYGTPQPEKPGSIII</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>MASHHEITDHKHGEMDIRHQQATFAGFIKGATWVSILSIAVLVFLALANS</t>
+          <t>MGDQPCASGRSTLPPGNAREAKPPKKRCLLAPRWDYPEGTPNGGSTTLPSAPPPASAGLKSHPPPPEK</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>MGDPEVLLEVYEVIRNRIEERPEGSYVAELTEDDDTKPAINKICEKIIEESGELILAAKDGDREGVVYESTDLIFHVLVLLAYLGIEIGEVFDEFERRRK</t>
+          <t>SGDLGAERYAKMCKSCHGADGSNAAMSRALKGLPAEEVKAALIGYKEQTYGGKKKGMMERVVKSLTDEDIEVLATHIGTF</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>MIQSPTSFLIVLILLWCKLVLSCFIECLVALQQLIHVLLQIINSNLQSRLLLWHSLD</t>
+          <t>MNTQRAKDISESAAMAYVTYEGVPIYIQHVNEDKETARIFPIGNPQFEQEVLLSDLQEHF</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,24 +5471,24 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>MLNHRYHHYFHRHHHLNHHLYHRHHHHRHHHHRHHHRHQILHQNRHQIHQILLSLNNKIMGYAIFLFLSILLHLVYLVIHRL</t>
+          <t>MAASKGNAAAAACALVLVLLAVGAEAQGGGGGECVPQLNRLLACRAYAVPGAGDPSAECCSALSSISQGCACSAISIMNSLPSRCHLSQINCSA</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>MAKATKKAEAKTVTIEQIGSPIRRPDVQQRTLIGLGLNKMHRRRTLEDTPSVRGMIRAVQHLVRVVDEK</t>
+          <t>YLDVNQIASYLLCLGEGAVFNGRKTCQIGCRAACQQPGCGGYKECEQIPNIRLHKYRCHC</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>VKIIQRILQVRYPANPQNVEVAVNSKSATVSAE</t>
+          <t>MQAQNKKVIYYYYDEAGNRRPVNIQYNDGYDLMIDPRFIEMTLERHPHLKNNFYGLIDGKEFKLD</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>MSPPSSMCSPVPLLAAASGQNRMTQGQHFLQKV</t>
+          <t>MFETITPLFPGLPGGPELLVVLLIVVLLFGANKIPKLARSSGQAIGEFQRGREEIEDELQDMTGDDDEDDATSESSADSVSTDSVSTESSN</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>MSERQGAGATNGKDKTSGENDGQKKVQEEFDIDMDAPETERAAVAIQSQFRKFQKKKAGSQS</t>
+          <t>SGERPWKCCDLQTCTKSIPAFCRCRDLLEQCSDACKECGKVRDSDPPRYICQDVYRGIPAPMCHEHQ</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>MAAFVESARAGAGADEVIQLVSDGVNEYSEKMMEGVVACPRILMPCKVNDDCLRGCKCLSNGYCG</t>
+          <t>MFTVFLLVVLATTVVSFTSDRASDDRNTNDKASRLLSHVVRGCCGSYPNAACHPCSCKDRPSYCGQGR</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,11 +5549,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>MKLSIFFVLFFIAIAYCQPEFLDDEEDEVEETLPVAEEGREKSCITWRNSCMHNDKGCCFPWSCVCWSQTVSRNSSRKEKKCQCRLW</t>
+          <t>MTKKNLKPQQAAPVQREINTTSSESGTSTGLTPHQAYLGIPLPFAGDDAE</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -5562,11 +5562,11 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>LATFERDVITPETVHAILKKTNSNSNIMLHEDAIQALTGKTLISKTVLEEALLKNAENGLVGSGVPCGESCVWIPCLTSIVGCSCKNNVCTLNSLAQN</t>
+          <t>MSHSYKKAISDEALRPFQMDYFGGLPPGQYATRMTGQVHGSGCHLRSAPCDLGASQRKLSSNFSEIDAGLFSQGKSAAYTDIGATKPVEQRETAS</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>MKINHAAVAGTLESSDVMVRIAPIEDDQALDLQISSSVEKQFGDAIRATVLDVLNRYQVRGIQLIVDDKGALDCVLRARLETLLARAADLVSLPWEDRA</t>
+          <t>EFLENAKKLSMYGVDLHHAKDLEGVDITLGVCSSGLLVYKDKLRINRFPWPKVLKISYKRSSFFIKIRPGEQEQYESTIGFKLPSYRAAK</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ERECVTDDDCEKLYPTNEYRMMCDSGYCMNLLNGKIIYLLCLKKKKFLIIISVLL</t>
+          <t>MKLFYVLIYFISLFLVINVQAFFDCENHDDCKNKIKYVLPRIAECRDYKCNCFPLNLSKTLWSASTKRVHKSLAQTNDFLH</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>WLNALLHHGLNCAKGVLAWLNALLHHGLNCAKGVLA</t>
+          <t>MSIRLRVCVGCVYVRVTVSLPAFNPMRNKIGECTQSHTMCLRAVLLTPHNKKKKHTSCP</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -5614,24 +5614,24 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>LGEKGYSYSTGDSSVTVQHDTLPYSRYQGLYNYAHPGYNTYPYNQYQG</t>
+          <t>MAGRISAFLKNAWAKEPVLVVSFSVWGLAIIMPMISPYTKYASMINKATPYNYPVPVRDDGNMPDVPSHPQDPLGPSLDWLKNL</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>MFQSTFFLVLMVCVATARFANKDHCPPNEEYNECGNPCQEKCDNGEPVICTYQCEHRCFCKQGYVRLTEDGECVPEEFCKPIHY</t>
+          <t>VRTEEVGSFDSPVGEHQQPGGESMHLP</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
         <v>1</v>
@@ -5640,11 +5640,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>MILDYINSRIKILWYTDPFLISREGVIVLETEKTFLIKLEEKNKFIRIFKAHGIFEITFKGKSFIIAGYKLVRKPWKRI</t>
+          <t>LATRNKIGTYTNDEGNVVVQMAGSKAELLELLSFLNAKYLLEVTDTPEEYQKVFNRLQVETGKNYSVLLLDKVTNKSQESEDFLGDKV</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>NAAAEIFRIAAVMNGLTLVGVAIGFVLLRIEATVEE</t>
+          <t>MLQEFNQNQKAKVAVCLNKTNSTDLAWWRTWTSSWWANVYF</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>MAEIIKFVYIMILCVSLLLIEVAGEECVTDADCDKLYPDIRKPLMCSIGECYSLYKGKFSLSIISKTSFSLMVYNVVTLVICLRLAYISLLLKFL</t>
+          <t>MIPRVLILLTLVALFCACSTLAAVAHIEVDCIPPFTVYLLYGFVTLILICSLVTVVIAFIQFIDWVCVRIAYLRHHPQYRDRTIADLLRIL</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>GSSFLSPEHQKAQQRKESKKPPAKLQPR</t>
+          <t>MKKEITNNETVKNLEFKGLLDESQKLAKVNDLWYFVKSKENRWILGSGH</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,20 +5692,20 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>VQTSHQSNKAMEHVKQIPSLGVVVPRVLSSKTF</t>
+          <t>MWRIWRLFDPMRAMVAQAVFLLGLAVLIHLMLLGTNKYNWLDGAKKAPAATAVAPVPAEVTSLAQAK</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>MCRIFIVLLVVAALAIIIEGQLTFSSGWGNGKRSISSEQINDDCNPEEAIFQIYKLIVSEGERIRACQRDGKM</t>
+          <t>TSQGTTPDKVQLEVNCISNLPNNEVEETDLLRELEMIEENLFGKELSFVPEENRNSRHKRCMGYDIECNERLHCCADLECVKTSGRWWYKKTYCRRKSG</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,37 +5718,37 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MILLKLYLTLAAILCQSRGTTSLDLDDLMTTNPEIQNEIINKHNDLRRTVDPPAKNMLKMSWDNIIAESAKRAALRCNQNEHTPVSGRTIGGCGCAEKIT</t>
+          <t>MPQLELISWFFNFLLAWFFLFIVVTILLKINFPSTNYITVTHPQKLNIFNNWLWT</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MSRKYRGFDTAFTKDGVCVYVIKDDKEKGTALVRDTRGGDEYTVSNEGMIYTKDMESIDVYMPW</t>
+          <t>MPSNGIVRSWRRAMATMNVSLPDAMREWVEGQTQSGRYHNASEYVRDLIRRDQERADKIAHLQRLIDEGLDSGVGERSLHEIRAEARRRAGVDHEL</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MEHLYIVSYDIRNQRRWRRLFKTMHGFGCWLQLSVFQCRLDRIRIIKMEAAINEIVNHAEDHVLILDLGPAENVKPKVSSIGKTFDPILRQAVIV</t>
+          <t>MSSRYLLSPAAQAHLEEIWDCTYDRWGVDQAEQYLRELQHAIDRAAANPRIGRACDEIRPGYRKLSAGSHTLFYRVTGEGTIDVVRVLHQRMDVDRNL</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -5757,24 +5757,24 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MTKTSRRKNAIANYLEPVDEKSINESFGAGDPEARSGIPCTIGAAVAASIAVCPTTKCSKRCGKRKK</t>
+          <t>MSAAKQCFRNLWRASNSVFEGDPMILAAARDKIRTGFHNHRCCSPEEAKKEIQNGNAVAEILRRNVVQAEKQSNDTYSLKIRKTTEINTNRQFTEKKFPR</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>MPQLEFTWWIINFFIVWTADFTLLIVLSIPNLSTPTTLSKQLDINKSHVTWQWS</t>
+          <t>GCKGFLVKCDSNSECCKTAIVKGKKKQLSCLCGAWGAGCSCSFRCGNRC</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -5783,20 +5783,20 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MKGLSLVLLVLLLMLAAGEDSDSEMQYWTCGYRGLCRRFCYAQEYTVGHHGCPRRYRCCATRP</t>
+          <t>MGQAVSYLTYTLRRCCKKNTLTTESGEVIELDDEHYDTVDLDDLRCSDPLMQPKFVLLKNGRRGKRNREYDNDHEKYVMMFNKE</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>MKKKLVKGLVICGMIGIGFTALGTNVEAATYYGNGVYCNKQKCWVDWSRARSEIIDRGVKAYVNGFTKVLGGIGGR</t>
+          <t>MAVFRSTLVLLLIIVCLTTYELHVHAADGAKVGEGVVKIDCGGRCKDRCSKSSRTKLCLRACNSCCSRCNCVPPGTSGNTHLCPCYASITTHGGRLKCP</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>MKLNVIHLLFCLFQEQESYSILSYESIDEFYSRLGYDLESEWLLRDLGINGTSGLAELLTDYNNLLENEITKAVFSDKWL</t>
+          <t>HVGGDECNINEHRSLVAIFVFTEFF</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,20 +5822,20 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>MPGFTAPTRRQVLSLYKEFIKNANQFNNYNFREYFLSKTRTTFRKNMNQQDPKVLMNLFKEAKNDLGVLKRQSVISQMYTFDRLVVEPLQGRKH</t>
+          <t>QSLEETADQVPAQDQPGAEAQDITISFAGDERSAREASKSLIGTASCTCRRAWICRWGERHSGKCIDQKGSTYRLCCRR</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>YLDVNQIASYLLCLGEGAVFNGRKTCQIGCRAACQQPGCGGYKECEQIPNIRLHKYRCHC</t>
+          <t>TTFHPILVILFYSLFPFIPAPIRCNRVSDCPKIRCNIGFVLRCLYNQCKCVRITQLVDYVLK</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>HVGGDECNINEHRSLVAIFVFTEFF</t>
+          <t>MKTIIVLLLLTIVAAAVVESSPKARRQTECQIKNDCQRYCQSVKECKYGKCYCNYAG</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,11 +5861,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>MIYRNWSLLSSTVVIWGGVATAGLAGIFLFGGKEKFQNYLCREGERLRQQDRAAMGKN</t>
+          <t>RCGQQLRNISPPQRCPSLRQAVQLTHQQQGQ</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MSQPYLISKWMDPLFGIFVGTYGYYLYEKEHRPRGRSLRELALRKWNKQAVSQQSMKN</t>
+          <t>MQTGESMTKIIKFVYFMTIFISPFVVASLHEISGYVLGLPAGYCTSNHHCPVYNCTHPKQPWCKLVRLQLLFHGSLIGLCDCI</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,24 +5887,24 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MKTLALFLVLVCVLGLVQSWEWPWNRKPTKFPIPSPNPRDKWCRLNLGPAWGGRC</t>
+          <t>MKINHAAVAGTLESSDVMVRIAPIEDDQALDLQISSSVEKQFGDAIRATVLDVLNRYQVRGIQLIVDDKGALDCVLRARLETLLARAADLVSLPWEDRA</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>GITPDCTFNEKDIELHVYSRDKRNGIILKKEILKNYDLFKES</t>
+          <t>MSPQTETKASVGFKAGVKDYKLTYYTPEYETKDTDILAAFRVTPQPGVPPEEAGQAVA</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5913,24 +5913,24 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MRLHGFFLALFAVFQVLHAISSALNFERPCYLRGGICLKQGTPNCEPFRGPCRAFTVCCKIRS</t>
+          <t>MGRFVVWPSELDSRLSRKYGRIVPRSIAVESPRVEEIVRAAEELKFKVIRVEEDKLNPRLSGIDEELRTFGMIVLESPYGKSKSLKLIAQKIREFRRRSA</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>MEESGFREPVLDAKSEVTGQLIDFQWKLGMAVSSDSCRSLKYPYVAVMLKVADHSGQVSSKSIEMTIPQFQNFYKQFKEIAAVIETV</t>
+          <t>VSHYAFYKEDDTWKFVKYGGLLELVQAASMMAYSPKEAAACTCYKLNGVRWWWMGMTDKDAIEDVNLLPADLRAMLVIWSLDQLLE</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5939,24 +5939,24 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>MQALSSRVNIAAKPQRAQRLVVRAEEVKAAPKKEVGPKRGSLVKILRPESYWFNQVGKVVSVDQSGVRYPVVVRFENQNYAGVTTNNYALDEVVAAK</t>
+          <t>MKMFFTVLVTLFVCSMIIGICEGREIPVKCKGSKQCLQSCKEAGMTYGKCMNGKCNCTPKG</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>MSTYKEIEHLHINTGGKELTQEQIEEAKAFIDSQEFKDMIREAKESHQRVMESKITDRTKL</t>
+          <t>MPQLEFTWWIINFFIVWTADFTLLIVLSIPNLSTPTTLSKQLDINKSHVTWQWS</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5965,24 +5965,24 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>MKLAILSLFLVFQIGVESKKNGFALDHYGKPWECNLFNVFGPYCNNQCTENKARKGYCCTFTCYCFDLPDDAKILEIGDSRKNYCDVSLTDVLG</t>
+          <t>GSGPTYCWNEANNPGGPNRCSNNKQCDGARTCSSSGFCQGTSRKPDPGPKGPTYCWDEAK</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>MEINKAYERLLKEVELLQNDLMDIEDYSEEVYQAFQKVIDELEYVIEEG</t>
+          <t>PGPDVKCVCCQDGKECPCKGGECCITGSCCKEGDGLCCGKCSNAACKCADGCKCGSGCSCTLGNCTC</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5991,24 +5991,24 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>MAHEVTKIADLINPEVIGAFLHQKMLDNLVLAPFAEIDRTLQGRPGDTLTLPQWNFIGLAEDLAEGEELQSVKLTAEDRKATVKKGC</t>
+          <t>MFQSTFFLVLMVCVATARFANKDHCPPNEEYNECGNPCQEKCDNGEPVICTYQCEHRCFCKQGYVRLTEDGECVPEEFCKPIHY</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>MSRLLLLCSSLLRHRAVLFSKPGHPGRLSHSESPQKKILSPTESAVGIVVFFTTFYIPAAYVLSSLKYFKGE</t>
+          <t>MRKIVAGKLQTGADFEGSKGGCKCSGGAVVENSHNAGPAYCVGYCGNNGVVTRNANANLARTK</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -6017,11 +6017,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CETWRTETTGATGQASSLLSGRLLEQKAASCHNSYIVLCIENSFMTSFSK</t>
+          <t>MSNPKDDYKIWLVINPSTWLPVIWIVATVVAIAVHAAVLAAPGFNWIALGAAKSAAK</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -6030,20 +6030,20 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>MATINVYVFAFIFLLTISVGSIEGRKLTKFTVTTSEEIRAGGSVLSSSPPTEPLESPPSHGVDTFRPTEPGHSPGIGHSVHN</t>
+          <t>MEMMNNREQIEQSVISASAYNGNDTEGLLKEIEDVYKKARAFDEILDGMTNAIQHSVKEGIELDEAVGIMAGQVIYKYEEEQGK</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>MPKLGVSLFIFLVLFPLATLQLDGDQSAGRHAQERGEDLFKMYQYLRRALERRRTGEDFLEECMGGCAFDFCCKRSLRDTTSD</t>
+          <t>MVSPQTRKEEELLEKQNSVFYLLTLGRKPYGSYLHIKIELDEDEKLEKEIYADNIKLENELRQLKRLYEVYQSVEIDDAQKAIQKEALLTIAKILSVFDF</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,7 +6056,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>MTADAPVISGSSVVKLARGVRLHEDPVRGQTVLLAPERAMAVDDIAVAIVQALDGERNLDRIAADFAEKFDAPVEEIAEDVRTFVQELSVRRMLEIVQ</t>
+          <t>MVLSDFTGVGVGFGFGVGCGFGVGWGFGGMPMNILGVGAGGGCGVGLGLGWGFGTAFGSHYRSSRLTFQGIELETADKREEVVANMSKNST</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,37 +6069,37 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>NIFEYFLEGGGKNLRIIRKGIHIIKKY</t>
+          <t>MKKVLALVVAAAMGLSSAAFAAETATPAKTAAPAKTTQTTQHHKKQHKKTVEQKAQAAKKHQKKDGKKAPAKSTSKTTSQPAA</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>MFQRIGFPGVTNFQVLLALASLIPTPASRDFFRLPLTVGFTGAEIVNIEFECLRQLTPGM</t>
+          <t>MAVETIQKPETTTKRKIAPRYRVLLHNDDFNPMEYVVMVLMQTVPSLTQPQAVDIMMEAHTNGTGLVITCDIEPAEFYCEQLKSHGLSSSIEPDD</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>GDVYADAAPDLFDFLDSSVTTARTINA</t>
+          <t>MKIKILKFLKRKKWWEILVYILVVGFGFALFIGSIYDKWDKLIKWERYFILIYVSCKFVFLIWISLMYFIYN</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MLSQKPKKKHNFLNHGLSLNLVIKPYLALEGSVAFPAENGVQDTESTQEKRETGDEENSAKFPVGRRDFDTLSCMLGRVYQSCWQV</t>
+          <t>MARNIKMATDAQNWLQARGSHVNESYLGVARPILEITYPPVELVKNAVRIMEHKSGVARSVWTARLNGCQIIWR</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,20 +6121,20 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>MVIATDDLEVACPKCERAGEIEGTPCPACSGKGVILTAQGYTLLDFIQKHLNK</t>
+          <t>MGFLLSICKRPSQPVDVDGEPLDVVVDYDPIRVSEKGMLLEQSQSPYPALKKKKKNKEAIY</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>MNPIVEFCLSNMAKGGDYVFNQLENDPDVDVLEYGCLTHCGICSAGLYALVNGDIVEGDSPEELLQNIYAHIKETWIF</t>
+          <t>NLVQFELLIMKVAKRSGLLSYSA</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,24 +6147,24 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>MDWRVLVVLLPVLLAAGWAVRNILPYAVKQVQKLLQKAKAA</t>
+          <t>MSALFNFRSLLQVILLLICSCSYVHGQWPSLLDRYKNHEVLGAFWKMARVGERASPYVSLACILMAISQFNS</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>MKIKILKFLKRKKWWEILVYILVVGFGFALFIGSIYDKWDKLIKWERYFILIYVSCKFVFLIWISLMYFIYN</t>
+          <t>MQRGKHMVEILEFVYAMILFLPLFLVITEVDGVDIYCETDADCPQITDWFYVVKCVDHKCELTKKLRRLYEYQTQKSAETPYI</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>MNENLWAAPAPKKLSKHFFGRGGPLGKETGPNLFPKKPGAGKGLGFPPTKKPRGQPRVLKKPKWNSEGLIGILHRGSDGVQF</t>
+          <t>RSLPEVLRARTVESSQEQTHSAPASPAHQDISRVSRL</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,33 +6186,33 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>MNKAILHAIIIYTLAGCPYCMKAKALLDKKEVAYEEIEVQNSQDPNVAVLRKKLNNPDRLTFPQIFIDNMHIGGCDDLYDLDKEGRLDKLLEGQPKKD</t>
+          <t>MANVQKIGKAVYKGPSVVKEIIYGITLGFAVGGLWKMHHWNNQRRTKEFYDLLEKGEISVVVEDE</t>
         </is>
       </c>
       <c r="B443" t="n">
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>MNYLVMISFALLLVIGVESVRDGYFVEPDNCLVYCMPSPEICDRGCKRYGATSGFCKEFSKGENFCWCKGLR</t>
+          <t>MTAQHQSDTLLHRLNTLPPKRYGVFLLNDDYTTMEFVVEILTEIFMLGQEQAVAVMLSVHHEGKGLCGTYTRDIAQTKQQQVMQRAKAEGHPLQCIVEEI</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>FLGSVESSEIDAATTTRLMLNEIAEKWYLRKMMSGVGSSETVDKIFKRETNGRLTGSHCGETCFFFGCYKPGCSCDELRQCYKNELPPAEESH</t>
+          <t>MLKPLGGRVALKIEEKGPTVGGFVLAGSAQEKTQTAQVVATGQGVCTLNGDLVAPSVKTGDRVLVEAHAGFDVKDGDEKYIIVGEANILAIIEE</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,24 +6225,24 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>MSCCLSSRVHITRPVLEQFLSFAKYLDGLSHGVPLLKQLCDHILFINPAIWIHTPAKVQLSLYTYLSAEFIGTATIYTTICRIGTVIKDNAHLKILLLGY</t>
+          <t>MATAFLPSILADASFLSSIFVPVIGWVVPIATFSFLFLYIEREDVA</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>MELEAMTRYTSPVNPAVFPHLTVVLLAIGMFFKAWFFVYEVTSTKYTRDVYKELLIALVASLFMGFGVHFLLLWVGIFV</t>
+          <t>MATEEVKIKALLENDKQYFPATHWKAINGIPYAGSSDIDGLPQDGIISVDDKNKLDKLKIGEAGIIQNSIVQKSPNGKLWKITVDDSGKLGTVLFY</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
         <v>0</v>
@@ -6251,37 +6251,37 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>MALKATALFAMLGLSFVLSPSIEANVDPHFDKFMESGIRHVYMLFENKSVESSEQFYSFMRTTYKNDPCSSDFECIERGAEMAQSYARIMNIKLETE</t>
+          <t>CAKKRNWCGKTEDCCCPMKCVYAWYNEQGSCQSTISALWKKC</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>MQRLQGNMGIGHVRYPTAGSSSASEAQPFYVNSPYGITLAHIGNLTNAHELRKKLFEEKRRHINTTSDSEILLNIFASELDNFRHYPLEADN</t>
+          <t>LPRDTSRCVGYHGYCIRSKVCPKPFAAFGTCSWRQKTCCVDTTSDFHTCQDKGGHCVSPKIRCLEEQLGLCPLKRWTCCK</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>EPKEKDGKLTAGLGAGGHWDPKDTKQHGYPWQDDAHLGDLPALTVLHDGTAANPVLAPRIKHLDDVRGHSLMIHAGGDNHSDHPAPL</t>
+          <t>MASIEIPLHEIIRKLERMNQKKQAQRKRHKLNRKERGHKSPSEQRRSELWHARQVELSAINSDNSSDEGTTLCRFDTFGSKSDAICDRSDWCLDQ</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>EERVLTPHTPSLKTVCFGLALASLINKGCVLTFFLEWRKQIHILRRRRGLATAWQTGKSQKRQWTPLGSLWLCIAHVVLLAVECNNKQSWSSF</t>
+          <t>MTDAISLALQTGLGPVVGVIIILAMMGLTYKIAGKIPAIITGIASAFVLMFMDFLPLFWGIAIIFGLIAGMVVTRDGD</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>MAKLLAVFLVLLIAALVCEQALACTPGSRKYDGCNWCTCSSGGAWICTLKYCPPSSGGGLTFA</t>
+          <t>MLYNINKRLYLFEKGREEMAEVNVKKSSFFKEKKEVPNTDFSLLKGALIQNLDRLEKFVEAIPYKYIKEGNVKENA</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,24 +6316,24 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>MPIVNVKLLEGRSDEQLKNLVSEVTDAVEKTTGANRQAIHVVIEEMKPNHYGVAGVRKSDQ</t>
+          <t>MFIIDDLFVSPFFSLLDILQTMALDEMYDTKSIRDDIKENQLLYEVGERSDEEYQQRKQALESQLEMAEQVQEQMRDRMEVKK</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>MERMDIIIWLLAVVIVLTTLMIFLHLKTLKIIRLLFPVSKELSKKSCVFPWKKKWTKNYPPSSMYP</t>
+          <t>LPRLLRLDSRMATVDFPKKDPTTSLGRPFFLFRPRN</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -6342,33 +6342,33 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>MEKQFNVWSVQNDIVCQRQLTINLRRVRNEYDNAVASVAAPSCPPSIPAQTRTCGRKLKLDWFKCTIL</t>
+          <t>MQPMTKKKHTTASKRSPARPPSLSPPLESRRRVGGKSPERLHGNAPPTPPRSPLPPSPSPEHTRRLSPQRRRPQRQRKL</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>MMYKYARIKRVRNITVYDIACQCWARDFQYDQCLFLLIQHGFSPIQSLEEFQRVWNMLDQAFADFCNERGCPADPIGFADVRI</t>
+          <t>FTFSILCQVNSDCLGEICLPPKTHWCNKILLEIYISCHLVTMLEPNNLYLLPFLISWTRNNLYIILGLSLFSRTNSLVLSWR</t>
         </is>
       </c>
       <c r="B456" t="n">
         <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>MTAQHQSDTLLHRLNTLPPKRYGVFLLNDDYTTMEFVVEILTEIFMLGQEQAVAVMLSVHHEGKGLCGTYTRDIAQTKQQQVMQRAKAEGHPLQCIVEEI</t>
+          <t>MAICYARFMVPEPSIFEIDAEAEEAADAEGMADIAAGRVVPHEEVSAWLDTWGTPEEKPAPETWRK</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>MSHVDVTVDEATINAIRQRMLETGDWERIQKLLRAHLEESGWVDDLKDLAKEKARAQDVPNLENLVKQISESAAGMVSDNVKRDVMLEIESVLDREVDQA</t>
+          <t>EERVLTPHTPSLKTVCFGLALASLINKGCVLTFFLEWRKQIHILRRRRGLATAWQTGKSQKRQWTPLGSLWLCIAHVVLLAVECNNKQSWSSF</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,20 +6394,20 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>HIECKNDFDCPKNMCLAPRVAWCVNNKCECVLTYGPKYSTMKEKLLQKEKI</t>
+          <t>MAHFIKYLIMFLVIAACVGVLEVESAEADLTALGIRKMLDPPTEVGISFAAEIQFKKELLGRLKGIQCGESCVWIPCISSAWGCSCKNKICSS</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>MVDVSDKVETKRTAVAEGRVVMRPETLALVIAGRAGKGDVLGIARVAGIMAAKRTADPKNSKSFSRVLLERPRAHSI</t>
+          <t>MFVTSKKMTAAVLAITLAMSLSACSNWSKRDRNTAIGAGAGALGGAVLTDGSTLGTLGGAAVGGVIGHQVGK</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,37 +6420,37 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>MVTPTKHAIGLRSASGVELLAHIGLDTVTFDGTPFSLKVKEGDTVKKGEVLVEFDKAFIEDIEESALHQKIFTVVS</t>
+          <t>MFREYKMYKFFEQVKQETYKVFWPNRKELIASTLVVVAAVFIFSLICLVLDYSIHNIMQLLLTIGK</t>
         </is>
       </c>
       <c r="B461" t="n">
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>MSGRKETVLDLAKFVDKGVQVKLTGGRQVTGTLKGYDQLLNLVLDEAVEFVRDHDDPLKTTDQTRRLGLIVCRGTAVMLVSPTDGTEEIANPFVTAEAV</t>
+          <t>MQPILEKLYRAESMSQQESQQLFSAIVRGELEPSQLAA</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>GTISLSLCKEERDADEDDGGEVQEEEVKRGIFSLIKGAAKVVAKGLGKEVGKFGLDLMACKVTNQC</t>
+          <t>MDIDYRIAIVLAPVVIAASWAVFNIGAAALRQIQGFLDREA</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -6459,11 +6459,11 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MTHALPKVVKSQLVQDIGVALILGSIAGCFFKYGVDKKKQRERVAFYEKYDKEDL</t>
+          <t>FLTLLCPIQVQTAPVPEDWTGLITRAKRSLLWRWNTLKPVGTSCREHDECGTKYCRKKICSFQV</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -6472,37 +6472,37 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SKFELVNYASGCSCGADCKCASETECKCASKK</t>
+          <t>MDRRRMALRPGSRRPTAFFFHSRWLVPNLLAFFLGLSGAGPIHLPMPWPNGRRHRVLDPHTQLSTHEAPGRWKPVAPRTMKACPQVLLEW</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>MWIEKFKNKNNETKYRYYEKYKDPYTDKWKRVSVVLNKNTKQSQKRSNVSFRRKNKRKN</t>
+          <t>MSEMIVLPHKVTVKVPLASRVDAERCLQVLAPDRELKEELVQRNLFVDDNYLVVNYSCSSARMTRVTVNSLFENLYLIIDTMHELSSL</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MQTLSSAPDPAVSVAVTILAVLLALTGFGLWTAFGPKAAKLTDPWDDHDD</t>
+          <t>MGHLPDDVGSWATHCINLVCDGELLEDKKSQTYTCEDCGEVVTLDELNEHLEKEAESYLKFFGYK</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6511,24 +6511,24 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>MKTIIVLLLLTIVAAAVVESSPKARRQTECQIKNDCQRYCQSVKECKYGKCYCNYAG</t>
+          <t>MGFTEETVRFKLDDSNKKEISETLTDVYASLNDKGYNPINQIVGYVLSGDPAYVPRYNNARNQIRKYERDEIVEELVRYYLKGQGVDL</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RSLPEVLRARTVESSQEQTHSAPASPAHQDISRVSRL</t>
+          <t>MKKTDKILKEIGIQRVAIMEGKKYSKGFMEDGDIGVQY</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -6537,11 +6537,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>MFYLPRAMRFLLLVLPVLALLPQVTPDYGAKKRCLKILGHCRRHCKDGEMDHGSCKYYRVCCVPDLNSYNQNYAITWTTEETSTSEYDLSSDFIGVLRAI</t>
+          <t>MALTCRLRFPVPGFRGRMHRRRGMAGHGLTGGMRRAHHRRRRASHRRMRGGILPLLIPLIAAAIGAVPGIASVALQAQRH</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -6550,11 +6550,11 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>AERIYRCLDHSHCPTFMCSPGLKPKCMNPKVCKCVPVQSRKYYALT</t>
+          <t>MKTHVKKDLDKGWHMLIQEARSIGLGIHDVRQFLESETASRKKNHKKTVRQD</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6563,20 +6563,20 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>VRTEEVGSFDSPVGEHQQPGGESMHLP</t>
+          <t>MAPVDVESQVELDLKIEDFDYKNVALIKRFMTPVGRVLSRRATGLSAKKQRKMAKEVRKMKFLALVPYCDRHK</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>MTITKNKISLMLSSKLGFSNNLCEAIVNTVFSNILEIAKVQKLTLKNFGSFEVKQKTPRPGINFHTKSPVMIASKKNLRFTPSEKLKALINKSML</t>
+          <t>MSANGNAALGVRLTEDQVKVLEENFTKVSKHPDETTLMLIAAECGLSEEQTAVWFRMRNAQWRKAEGLPAELGSVKD</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>DMKIGVSMSQFDDTHLTYLQQSMDEKAKSYPDGVVLL</t>
+          <t>MKTLTHHIAVQCTCGATGQTGDFLVDIEHFKLTGELIALDGMVFRSLTALYAYANTYGLPTKRLNTPIVYQS</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SASRALSDKPLAHVVANPQVEGQLQWL</t>
+          <t>HADAIFTSSYRRILGQLYARKLLHEIMNRQQGERNQEQRSRFN</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,20 +6615,20 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>MQSFVKIIDGYKEEVITDFNQLIFLDARAESPNTNDNSVTINGVDGILPGAISFAPFFISIKVWL</t>
+          <t>MVYYPELSVWVSQEPFPNKDMEGRLPKGRLPVPKEVNRKKNDETNAASLTPLGSSELRSPRISYLHSF</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>MVEKMVGILKFVCPFLFLYFLLLSMLVISGKHDYHMFFQRIPCPKDKILDCNLLECWCK</t>
+          <t>VRIWFCASRTCSAPADCNPCTCESGVCVDWL</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>MTLLSSISKIGTIKNGNSLNEITSTISNNEAKGSPSFSGNQSTKSIGDLLLQIAIITKATTKNK</t>
+          <t>MSSAIKILALLMVLVALAQAKPRKDYRAYPDFDDKSVILEDDKRCDPDKRDSVCKDVCGMLDIGTENGECPGKEVCCVDLFGR</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,11 +6654,11 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>MKHLNFFIKALKKEFESFKDTGASIEEMTKSKPYTKVGSQERAVLIEWVGPMNRKNIIHLNEHGYTRDGKKIYTKRFWSYCKNISC</t>
+          <t>MSLLDYFKSSKSKTASVAKERLQILVAHERYYRNKPSYLPQLQEELMQVIRKYVQVDQDAISVKFEQDDNQETLELNITLPDTQNPRNTQQDMIRNAL</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
         <v>0</v>
@@ -6667,46 +6667,46 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>MQFSDLSPVEQKLYPTHSSLKEALEEARHLLPGGSHHDFMRAMMGYHNTFLLFVGEWTPSE</t>
+          <t>EPKEKDGKLTAGLGAGGHWDPKDTKQHGYPWQDDAHLGDLPALTVLHDGTAANPVLAPRIKHLDDVRGHSLMIHAGGDNHSDHPAPL</t>
         </is>
       </c>
       <c r="B480" t="n">
         <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SEGTSCYIYHGVYGICKAKCAEDMKAMAGMGVCEGDLCCYKTPW</t>
+          <t>MLNHRYHHYFHRHHHLNHHLYHRHHHHRHHHHRHHHRHQILHQNRHQIHQILLSLNNKIMGYAIFLFLSILLHLVYLVIHRL</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>LSPSKVTCLQKLEKLHSETRNSSTIFENAQYGTEEKQKAGSKKHYALFNLTHACIMFGGQCKNKCGENEFRMVYCVVSTSLCCIRQCKP</t>
+          <t>HVTCFYVKFGCKHTECITTIVFCWQTASDISSV</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>MKTLVLVAVLGLASLYLLSYASEVQQISRDEEDFRALMASFGGIFDTEERGVDKEGCRKMFGDCWGDGDCCLHLGCKTRKLPPWTDKPYCAWDWTFGRK</t>
+          <t>MSETQADSIAKSSVETTIQPLHQESATLRQQVLQKHELPKHALNVASPTDSLMSPCTAKLQAHKKKYYMKRKPPVMSLQNTLQSVQTEKE</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,7 +6719,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>QAQALLPIASYAGLTVSAPVFAALVTVYGAYALYRYNIRRRENSYPRIR</t>
+          <t>NIFEYFLEGGGKNLRIIRKGIHIIKKY</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,24 +6732,24 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SEEVKARRARVVWCAVGPDKQKKCQQWSQQSGQIGTCATASTTDDCFFLVLV</t>
+          <t>MKRLLVLTLVSAILMAEFLDATDAVTTRRRRRRHLHKGAGKSQMLEEVNMEVKAKNFAQEMEREDGKLHFLGTYNEPVMNNDLFCGL</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>MKVAILILSILVLAVASETIEEYRDDFAVEELERATCAGQDKPCKETCDCCGERGECVCALSYEGKYRCICRQGNFLIAWHKLASCKK</t>
+          <t>MNKAILHAIIIYTLAGCPYCMKAKALLDKKEVAYEEIEVQNSQDPNVAVLRKKLNNPDRLTFPQIFIDNMHIGGCDDLYDLDKEGRLDKLLEGQPKKD</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -6758,11 +6758,11 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>MALPKRRLSHSRQGNHRAHVALTAPAVMECPQCNSPKLSHQACSVCGTYNGRTVIDMEAIAKKKADKSKGQQ</t>
+          <t>SAFTVWSGPGCNNRAERYSKCGCSAIHQKGGYDFSYTGQTAALYNQAGCS</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RKKRRRESWVHLPPPVHLPPPGGHHHHHH</t>
+          <t>AQKLCAGVCRCKIASGLSCPKGFPKLALESNSDEPDTIEYCNLGCRSSVCDYMVNAAADDEEMKLYVENCGDACVSFCNGDAGLPSLDAY</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,33 +6784,33 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>MKCPMRLFSTLLLLLLLLLATETGPMVAEARTCESLSHRFKGICVRNSNCAAICQTEGFQGGHCRGLRRRCFCTMYCNNHHSHPRDQNLKHI</t>
+          <t>GSSFLSPEHQKAQQRKESKKPPAKLQPR</t>
         </is>
       </c>
       <c r="B489" t="n">
         <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>DLLEALSQDQKLLMAKFLPHIYAELANREGNWHEDAALRPLHDHDYPGWMDF</t>
+          <t>MSLSFGCSQGNPNLYSEESSLKTALIRKTFYFLFAVFFILVQLPSGCQAGLDFSQPFPSGEFAVCESCKLRRGKCRKECLENEKPDGNCRLNFLCCRQRI</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>HHHHHHTKRRITPKDVIDVRSVTTEINT</t>
+          <t>LKVDLWGTRSGIQPEQHSSGKSDVRRWRSRY</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,24 +6823,24 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>MAHFIKYLIMFLVIAACVGVLEVESAEADLTALGIRKMLDPPTEVGISFAAEIQFKKELLGRLKGIQCGESCVWIPCISSAWGCSCKNKICSS</t>
+          <t>FATGMPCKTDKECPNTSTHKYKCINDDCFCFYIYWPLGNSLV</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>MGHLPDDVGSWATHCINLVCDGELLEDKKSQTYTCEDCGEVVTLDELNEHLEKEAESYLKFFGYK</t>
+          <t>MKMKTNKYMNMVRPAPPRRADPEGVRDPSTMGGGPNPFLRRSPYMYINKKK</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -6849,20 +6849,20 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>MLHLIKMVSKIVLLITLVFIVSAVTGSDTWVGECDYACENGKNAIDACCSQKGYAPRGYCPNGMHARCQYSVI</t>
+          <t>KVLLLCVLFAVIAAAFAAEEQRDEKLISALANAAKGIFGGVSNIASNFLGRQKPQTETYTTIEEIQVPA</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>LKCHKAQFPNIETQCKWQTLCFQRDVKPHPSSMIVLRGCTSSCGKGAMCCATDLCNGPSTPST</t>
+          <t>ACWKANSCPGSAFESKDRLRSFALLYCRYNYKPPYGQGAFGYASAVSTHGWETEAQCINTFEQIITSCHGQSNGGTLELNSGRLSLAFGNCEEL</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,33 +6875,33 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>AVDAYDDDDNLKNEEGDYYNESDDGYSGDEEEEEKQEEDEQDDDDLQFDDGVPEDPISTLKCFSFNSVGTGSPCIFGVPVPAIRQVHS</t>
+          <t>MVLTNLQKITGLLCVLVETKKLKIFIKFMLKTKNGGKKVLKKIYKKAKKKNILTMIMFI</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>MAVETIQKPETTTKRKIAPRYRVLLHNDDFNPMEYVVMVLMQTVPSLTQPQAVDIMMEAHTNGTGLVITCDIEPAEFYCEQLKSHGLSSSIEPDD</t>
+          <t>MKLSFRARAYGFRGPGPQL</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>MIDTLKGWAEYLVEWAAKDPYGFLITVLLALTPLFLASAVLSWKMAKMIEAKERDQKKKQKRQENIAKAKRTKKD</t>
+          <t>MGSFSITHWLILLVVVVVVFGTSKLRNAGKDLGGAVKGFKEAVKDENTEHAKKHVVLDHDAGTNPPNITGTQSDTTSANKVDDTHNV</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>MLHTLHRSPWLTDFAALLRLLSEGDELLLLQDGVTAAVDGNRYLESLRNAPIKVYALNEDLIARGLTGQISNDIILIDYTDFVRLTVKHPSQMVW</t>
+          <t>MQERDILLKIKEIAKAKNFKTELDESVLQKPFRELKIDSLDMFSVIVSLEKEFDIMFEDEKLMQLNNLAELIAEVKHLISQKGV</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,11 +6927,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>MNLNVVNRELKVGQIKMNGVSSSALFLIGDANLLILSSILDTPFETVTEGPFVPLVTDVPPTPG</t>
+          <t>DIQIPGIKKPTHRDIIIPNWNPNVRTQPWQRFGGNK</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6940,50 +6940,50 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>DCPTRCPTTCANGWECCKGYPCVNKACSGCTHGK</t>
+          <t>EHRKVLASVAIISTQAPLSSLSQTSTAHFEVHRGNALQIYSSPNQGPHEQTLKRNLKPTTELLLDQTDLKQSSNEQGIAAIILTP</t>
         </is>
       </c>
       <c r="B501" t="n">
         <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>MQLAKVLGTVVSTSKTPNLTGVKLLLVQFLDTKGQPLERYEVAGDVVGAGLNEWVLVARGSAARKERGNGDRPLDAMVVGIIDTVNVASGSLYNKRDDGR</t>
+          <t>MKKAKAIFLFILIVSGFLLVACQANYIRDVQGGTVAPSSSSELTGIAVQ</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SVENSRPTGQQLESLDLSAPWEQSLPCTERKPSATARLSRRGASLSSPAESSGSPQRRGLSAPSSRQIPAPQGAVLVQREKDLPNYNW</t>
+          <t>VTVVQYRSTNASSGYLNLRVYLLDTGLR</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>MQPCVLWWLALGLLLGIPAGAKPTPEEADPNAQPPAMPYWPFSTSDFWNYVQYFQSQGAYPQIEDMARTFFAHFPLGSTLGFHVPYQED</t>
+          <t>MEHLYIVSYDIRNQRRWRRLFKTMHGFGCWLQLSVFQCRLDRIRIIKMEAAINEIVNHAEDHVLILDLGPAENVKPKVSSIGKTFDPILRQAVIV</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
         <v>0</v>
@@ -6992,24 +6992,24 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>MAVFRSTLVLLLIIVCLTTYELHVHAADGAKVGEGVVKIDCGGRCKDRCSKSSRTKLCLRACNSCCSRCNCVPPGTSGNTHLCPCYASITTHGGRLKCP</t>
+          <t>VGRFKRFRKKLKRLWHKVGPFVGPILHYG</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>MFKLLVVVFAALFAAALAVPAPVARANPAPIPIASPEPAPQYYYGASPYAYSGGYYDSPYSYYG</t>
+          <t>MCAVAYRRSLHYDSWCSKEKTPSNHRVNCLLDPKLLLESPEKLGCYCIDHCNLHLKGQIVWTAPDGGD</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,20 +7018,20 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>MASKTVLVLLLVSVLVSTFCTAKAYPASLEDNFDLDALDDLDDLDLEDFYDLEPADLVLLDMWASMLENSDFEDDFE</t>
+          <t>MATQKQVDYVMSLQEQLELEDCEKYTDEQVKAMSHKEVSNVIENYKTSIRNEELYYECMSFGLPNC</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>MLVLLQAVCITVLTLLLIGRLQLLERLLLNHSFNLKTVDDFNILYRSLAETRLLKVVLRLIFLVLLGFCCYRLLVILM</t>
+          <t>EGSGGSGSSGNFTTGSNVRMSSVTNTSNAGTGTSGGGNSAAASGASVNAPPVTVTLTESLLNK</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,11 +7044,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>MNFQQRLQSLWTLARPFCPPLLATASQMQMVVLPCLGFTLLLWSQVSG</t>
+          <t>MKTLPLVLAVVAFVYLDLAHTLKCRSGNVCILGDDCSEGENVCFQRKNGTGVFGMRVVRGCAASCPSPIGGEEVSCCSTDNCNNSFSRFF</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -7057,50 +7057,50 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>MPEQLSVRKWRLVRDLKQQEVADILGVNAKTVGHWEKDDTNLSNVTVYALAKLYDIEVDQIKV</t>
+          <t>MSTGNVDQELIRRYLVVVKKLYEEPIPQTARQRRRRKQQLRTRRAQLRELEGRILKQILDRGPDQLCQGVANLALAEKSESSN</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>MAPLRGAELVQTPLQLYRYLLRCCRQLPTKGIQEHYKHAVRQSFQVHSDEDNPERIQQIIRRAIEDADWIMNKYKKQN</t>
+          <t>LGEKGYSYSTGDSSVTVQHDTLPYSRYQGLYNYAHPGYNTYPYNQYQG</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>MSKTVVRKNESLEDALRRFKRSVSKSGTIQEVRKREFYEKPSVKRKKKSEAARKRKFK</t>
+          <t>AGLTKRSLFDPSCTGVFDRQLLRRLRRVCDDCFNVFREPNVSTECRSNCYNNEVFRQCMEYLLPPHLHEEHRLAVQMVGK</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>MQTGESMTKIIKFVYFMTIFISPFVVASLHEISGYVLGLPAGYCTSNHHCPVYNCTHPKQPWCKLVRLQLLFHGSLIGLCDCI</t>
+          <t>MELEAMTRYTSPVNPAVFPHLTVVLLAIGMFFKAWFFVYEVTSTKYTRDVYKELLIALVASLFMGFGVHFLLLWVGIFV</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
         <v>0</v>
@@ -7109,20 +7109,20 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>MSEVNAGEICYVKKQRKGTINPNKICQPIGAMWATVGVKGTIPFVQGSQGCTTYVRYAFNRHFREPVSIATASFHEHAA</t>
+          <t>LVQRGRFGRFLSKIRRFRPKFTITIQGSGRFG</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>MSLLDYFKSSKSKTASVAKERLQILVAHERYYRNKPSYLPQLQEELMQVIRKYVQVDQDAISVKFEQDDNQETLELNITLPDTQNPRNTQQDMIRNAL</t>
+          <t>MAELQERIRHFWKESRRAFLVTKKPNWATYKRAAKITGLGIILIGLIGMLIRIVGILILGG</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,24 +7135,24 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>MSTLKMMLLILLLLLPLATFDSDGQAIPGGGIPSAVNSRVGRLLGGDEKSGRSLEKRCSSGKTCGSVEPVLCCARSDCYCRLIQTRSYWVPICVCP</t>
+          <t>ADDYDDEVLPDARGHRPIDRKREELPSLRPAPPPISGGGYR</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>MATEEVKIKALLENDKQYFPATHWKAINGIPYAGSSDIDGLPQDGIISVDDKNKLDKLKIGEAGIIQNSIVQKSPNGKLWKITVDDSGKLGTVLFY</t>
+          <t>MKKSLFAAALLSLALAACGGEKAAEAPAAEASSTEAPAAEAPAAEAPAAEAAAAEAPAAEAPAAEAPAAEAAATEAPAAEAPAAEAAK</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
         <v>0</v>
@@ -7161,37 +7161,37 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>MAASKGNAAAAACALVLVLLAVGAEAQGGGGGECVPQLNRLLACRAYAVPGAGDPSAECCSALSSISQGCACSAISIMNSLPSRCHLSQINCSA</t>
+          <t>MNIAKLLGVISFICWIVACVLTICIDASSVFSQALAQGMCAYLTFVLLSND</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>AERLIGTSTKEFDESIRHTLVLRSLQDAYKDRQR</t>
+          <t>MELVVWKDGDNWRVFADDAVPALDGTVDRVAEGLATLYRKEKEPVVFTRRKTAFYDGQYWLMWKYYPTYGRAYGKEASDEMIKEPSAIALLAGY</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>MTNVYSLDGILVFGLLFVCTCAYFKKVPRLKTWLLSEKKGVWGVFYKAAVIGTRLHAAVAIACIVMAFYVLFIK</t>
+          <t>MLAFCYSLPNAGDVIKGRVYEKDYALYIYLFDYPHSEAILAESVKMHMDRYVEYRDKLVGKTVKVKVIRVDYTKGYIDVNYKRMCRHQ</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
         <v>0</v>
@@ -7200,11 +7200,11 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>MEIKVEQPKEILLEVGWRYTSDWIVNSTTVSVEDNVYAYENACYKVLEELCESIDAKYIDICFVREATENA</t>
+          <t>MLHLIKMVSKIVLLITLVFIVSAVTGSDTWVGECDYACENGKNAIDACCSQKGYAPRGYCPNGMHARCQYSVI</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
         <v>1</v>
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>MKKVLALVVAAAMGLSSAAFAAETATPAKTAAPAKTTQTTQHHKKQHKKTVEQKAQAAKKHQKKDGKKAPAKSTSKTTSQPAA</t>
+          <t>MGLKPSCLKGFKMCVSSSNNNHDEAPVLNDKHLSVPNIIITPPTPTGMGLSRDSNKQVWMDELGSYQDDGELEPEA</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,37 +7226,37 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>MSGIQLDKETILKYSSAALVALSAVVAVMMVSNNSESWKPILVGAVVAASGAAAYQSWWPKQS</t>
+          <t>LILFIFSIITMLSMFLLYLFGMASVALIELGLLMGSQNDITKGAHSLLFTGVTLTVVTEITKQCLLLF</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>MILVNVHAGNCDNTLKNFKKKLQRELYFRKMKEQRYYETPSAKRVRKAQEAARRQRKFARKKMFDE</t>
+          <t>MNKTDLINAVAEQADLTKKEAGSAVDAVFESIQNSLAKGEKVQLIGFGNFEVRERAARKGRNPQTGKEIDIPASKVPAFKAGKALKDAVK</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>MKEKDYWEEAWLTSCTSIHDHHCDCGSWRDHLWTLCALDDADLAAAADIIEREEADGGEDFGFVDGDPGDAGG</t>
+          <t>MISMLRCTFFFLSVILITSYFVTPTMSIKCNCKRHVIKPHICRKICGKNG</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -7265,37 +7265,37 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>MENLNLNQLENINGGYWKTIWAVGPGLYQRDTETGKYRWIQTQDNLSYTTNVIANGWAGSAAGGYFSGR</t>
+          <t>MLVLLQAVCITVLTLLLIGRLQLLERLLLNHSFNLKTVDDFNILYRSLAETRLLKVVLRLIFLVLLGFCCYRLLVILM</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>MFRIEGLAPKLDPEEMKRKMREDVISSIRNFLIYVALLRVTPFILKKLDSI</t>
+          <t>MLNIFYNVWGGFISHPVLITLSIVGIYVLGYALVKFIVGIVVLSNSLNTKWVIASAIFTTVLSIVFTIYSFLVEIYVVLVVISGLVVLLT</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>KYKPTDATTNPSLILQAKFLEELQNSKKIYNYYKKESVVEHLSESSAKKLEMTEANFRWEMNEDKFAVDAVKLEK</t>
+          <t>MKCPMRLFSTLLLLLLLLLATETGPMVAEARTCESLSHRFKGICVRNSNCAAICQTEGFQGGHCRGLRRRCFCTMYCNNHHSHPRDQNLKHI</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
         <v>1</v>
@@ -7304,72 +7304,72 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>MKRLLVLTLVSAILMAEFLDATDAVTTRRRRRRHLHKGAGKSQMLEEVNMEVKAKNFAQEMEREDGKLHFLGTYNEPVMNNDLFCGL</t>
+          <t>MFKILNDIKTSLKNHPWGWKEHLPYLLMLTLSLVALIFGVLSAIL</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>MDIEPEVPVVEKQMLAGNRGKQKTRRSVAKDAIRKPASDSTNGGNWVNVADKIEVHIHFNF</t>
+          <t>MRGAAPRVADLNLELNDLVLPINLLSEEVLQPSDDESEAPEEELFPFRIDTCCYRCEVNVRITLFAVEFGLRALEQLIVDGKLTFCCTTCARTLRNGR</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>CAKKRNWCGKTEDCCCPMKCVYAWYNEQGSCQSTISALWKKC</t>
+          <t>MSTLKMMLLILLLLLPLATFDSDGQAIPGGGIPSAVNSRVGRLLGGDEKSGRSLEKRCSSGKTCGSVEPVLCCARSDCYCRLIQTRSYWVPICVCP</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>GKIAVSIVKALEHLHSKLSVIHRDVKPSNVLINKEGQVNMCDFGISGYLVDSVAKTMDAGCK</t>
+          <t>MAGSQSQASTLVARGGRSSSNAPTGAAGALRRRPVRGSGGSGTTKAQQAAMNFYTDDTPGWKMSPVVVITMSLSFIAFVTILHVVGKFQ</t>
         </is>
       </c>
       <c r="B532" t="n">
         <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>MENEKLESYFMKEIAPILDEIEMSEELIKGMENNNPSDMITVSFSKEEVDILLAMLDLELPRLDSGSELFSPNLVREAKLQLIKNKLTSK</t>
+          <t>MIYRNWSLLSSTVVIWGGVATAGLAGIFLFGGKEKFQNYLCREGERLRQQDRAAMGKN</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>MCCGPLGFCGPCSPCGGPCGPCGPCGPCGSCCSPCGSCCAPCGPCGPCGPCCGGCGPCGPCGPCCGPCRPYCGC</t>
+          <t>MDQAIYTLHEFMLHTKNWTYILMGVTLLVYVGYWLFLTGRDEKIRKY</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,20 +7382,20 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>MNTKTMSQFEIMDTEMLACVEGGGCNWGDFAKAGVGGGAARGLQLGIKTRTWQGAATGAVGGAILGGVAYAATCWW</t>
+          <t>MAMTKKFKVSFDVTAKMSSDVQAILEKDMLHLCKQVGSGAIVPNGKQKEMIVQFLTHGMEGLMTFVVRTSFREAIKDMHEEYADKDSFKQSPATVREVF</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>MDPMIAQGALIGGGLIMAGGAIGAGIGDGMAGNALVSGIARQPEAQSRLFTPFFITVGLVEAAYFINLAFMALFVFATPVK</t>
+          <t>MQRRTQELIWKELVDNSHKLFCNCMDPQNHYRLICQNLNREPGEPWRTAGGIGEGGAGGDGAAAGGEGDVHGRPAGAEDGEDGADAAMAAALAAFEDATG</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>MQRGKHMVEILEFVYAMILFLPLFLVITEVDGVDIYCETDADCPQITDWFYVVKCVDHKCELTKKLRRLYEYQTQKSAETPYI</t>
+          <t>AGLLAGSWIPDWTFVSVPPLVTLWYTLTKEPIPGEDVYYVDGACNRNSREGKAGYITQQGKQRVEKLENTTNQQAELTAIKMALEDSGPRVNIVTDSQYA</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
         <v>0</v>
@@ -7421,59 +7421,59 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>MSPEEIRRRLDTITERIANAVMIVNLIKEKSK</t>
+          <t>MSRLLLLCSSLLRHRAVLFSKPGHPGRLSHSESPQKKILSPTESAVGIVVFFTTFYIPAAYVLSSLKYFKGE</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>MSNQNIPQLSEYQTSVSQVAVTPPPKPETPQIFEYQTSDSIVNNPRPFYNSDLEFDDIDMYLLPN</t>
+          <t>MGCLVVVKEILRLLFLLAMYELGKYVTEQVYIMMTANDDVEAPSDFAKLSDQSDLMRAEVSE</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>DAPGHPGKHYLQVNVPSDVRTIGVAGGGVQQCFRVTPGAWNDTRALVSNGAQVEVWGYTVADCANRTTANQKYYDKAAAP</t>
+          <t>MRLHGFFLALFAVFQVLHAISSALNFERPCYLRGGICLKQGTPNCEPFRGPCRAFTVCCKIRS</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>MKTLFVFAVGIMLSMRASAFTCPECRPELCGDPGYCEYGTTKDACDCCPVCFQGPGGYCGGPEDVFGICADGFACVPLVGERDSQDPEIVGTCVKIP</t>
+          <t>QEFDALLERAKTLLNVHSDQYDDSIRQIVVK</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>LLNRLPNGLFRVCLDLIINYVSGKIRHSFIRILPGDRVKIEVSPYDSTKGRIIYRLHNKDLKDSFFNFTIPFVGIQFEMKNFKKLIFFQEIDSELR</t>
+          <t>MEEPTSSTNENKMKSPCESNKRKVDKKKKNLHRASAPEQSLKETEKAKYPTLVFYCRKNKKRNSNQLENNQPTESSTDPIKEKGDLDISAGSPQDGGQN</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,24 +7486,24 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>AQKLCAGVCRCKIASGLSCPKGFPKLALESNSDEPDTIEYCNLGCRSSVCDYMVNAAADDEEMKLYVENCGDACVSFCNGDAGLPSLDAY</t>
+          <t>HIECKNDFDCPKNMCLAPRVAWCVNNKCECVLTYGPKYSTMKEKLLQKEKI</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>MATAFLPSILADASFLSSIFVPVIGWVVPIATFSFLFLYIEREDVA</t>
+          <t>MYKSFCDVVAKKDAKGRIKVRIKSAKDLRIPVWNNTKLNSGKIKWYAPGVKLAWYDNKKGYLELWYDKDGWYYTANYFLK</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
         <v>1</v>
@@ -7512,33 +7512,33 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>MEMMNNREQIEQSVISASAYNGNDTEGLLKEIEDVYKKARAFDEILDGMTNAIQHSVKEGIELDEAVGIMAGQVIYKYEEEQGK</t>
+          <t>MSKIQYPMTTAAIFDDVVYPLHFDNAGKVRQEMEGAVNWFCRWCNEEKAAVKARLLVSCWGQYLSHEQVIREAA</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>MAAALALVAGVLSGAVLPLWSALPQYKKKITDRCFHHSECYSGCCLMDLDSGGAFCAPRARITMICLPQTKGATNIICPCRMGLTCISKDLMCSRRCHMI</t>
+          <t>MVGTCPECGAELRLENPELGELVVCEDCGAELEVVGLDPLRLEPAPEEAEDWGE</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>LYIGCETDRDYPPLANKTFYLKCIDKKCEWTVTDSLSTRSGRMQKLSI</t>
+          <t>VAEKAKDERELLEKTSELIAGMGDKIGEHLGDKYKAIAKDIADNIKNFQGKTIRSFDDAM</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,37 +7551,37 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>MVKRTHGYRYKTRKLLRKKPREKGLSGLSRLLYEYKVGDKVIIDIDSTFISTAPHRRYQGKVGTVVGIRGRAYVIETFLGDKKKIIITTPEHLKPYQGGS</t>
+          <t>MCCGPLGFCGPCSPCGGPCGPCGPCGPCGSCCSPCGSCCAPCGPCGPCGPCCGGCGPCGPCGPCCGPCRPYCGC</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>MSMQPTDHIRLTAFVHGHVQGVGFRWWTRSQALELGLAGSATNLDDGRVCVVAEGPEDRCRELLTRLGEQPSRHRRVGTVSTVIEQWSEPRGVEGFTER</t>
+          <t>VSAPNNIFHKGMRVIVTKADRDDVRLGLHGDTIATVVGVH</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>MHNIIQRPMAINGQVVIRPMMYLALSYDHRLIDGKEAVTFLVTIKNLLEDPSRLLLDI</t>
+          <t>GPLPIPIVVNFNKLRKKISNRFKKLRKRLKKGFGRK</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C550" t="n">
         <v>1</v>
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>MLQEFNQNQKAKVAVCLNKTNSTDLAWWRTWTSSWWANVYF</t>
+          <t>MGLGGISIWQLLIVLVIVLLLFGTKRLKGLGGDLGGAIKGFKKAMSDDEAAKQEAEEAEQKKVAAEEAAAAKTAEQKEKTEAK</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>MSSRYLLSPAAQAHLEEIWDCTYDRWGVDQAEQYLRELQHAIDRAAANPRIGRACDEIRPGYRKLSAGSHTLFYRVTGEGTIDVVRVLHQRMDVDRNL</t>
+          <t>QYYGYPYAAVLPQPVADTPEVASAKAAHFAAYNVAAAAAAAAPDYDAVGVVAPPYPGYSAYVGPLAGIPAIVNGVPADTPEVAAAKVAHFAAHAAANHY</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,11 +7616,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>MESVAKPATTKEGSAKQAAIVVGVLALGWFAIQVAFIPLFNKVRGGGSDKKDDDVNAFTPDT</t>
+          <t>MKKLAVILTLVGGLYFAFKKYQERVNQAPNIEY</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
         <v>1</v>
@@ -7629,11 +7629,11 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>MQQDKFKNYEKKLFDMEIKKLETFHQMTIEKLAKVEGGKNNWQANVSGVIAAGSAGAAIGFPVCGVACGYIGAKTAITLWAGVTGATGGF</t>
+          <t>MSGIQLDKETILKYSSAALVALSAVVAVMMVSNNSESWKPILVGAVVAASGAAAYQSWWPKQS</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C554" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>MKKQILKGLVIVVCLSGATFFSTPQQASAAAPKITQKQKNCVNGQLGGMLAGALGGPGGVVLGGIGGAIAGGCFN</t>
+          <t>MKVYCLLLVFLVGLVSQAHGRLDKRCMTVCTMEYWPVCGSDGKTYPNKCHLTSTACTSQKDITVLHVGKC</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,37 +7655,37 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>MILQILGERKYDCKDSTEEPIVKPFIELIDGVQFLLEQENAFSLLNSKHEEITRVPNSPYEYRTEKEGYKTFVNSVYVLNDEGKTLRRLFERGL</t>
+          <t>VIEPKCYKYEGKKCPPDINPVCGTDKRTYYNECALCVFIRQSTKKADKAI</t>
         </is>
       </c>
       <c r="B556" t="n">
         <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>MKTLPLVLAVVAFVYLDLAHTLKCRSGNVCILGDDCSEGENVCFQRKNGTGVFGMRVVRGCAASCPSPIGGEEVSCCSTDNCNNSFSRFF</t>
+          <t>MRINRTPAIFKFVYTIIIYLFLLRVVAKDLPFNICEKDEDCLEFCAHDKVAKCMLNICFCF</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>MPQLELISWFFNFLLAWFFLFIVVTILLKINFPSTNYITVTHPQKLNIFNNWLWT</t>
+          <t>MEKQEQTFVSKISEEELKKLAGGYTEVSPQSTIVCVSLRICNWSLRFCPSFKVKCPM</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,63 +7694,63 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>MEPLSIDKPFMYFDEINNELEYDPDSANEKHKKFPYQGQLKLLLCELFFLSKLQRHGILDGSTIVYIGS</t>
+          <t>FLGSVESSEIDAATTTRLMLNEIAEKWYLRKMMSGVGSSETVDKIFKRETNGRLTGSHCGETCFFFGCYKPGCSCDELRQCYKNELPPAEESH</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>MKGSSALLLVALSLLCVCGLTRAEDDNEFFMEFLQTLLVGTPEELYEGPLGKYNVNDMAKSALRELKSCIDELQPVHKEQLVKLLVQVLDAQEDT</t>
+          <t>MILVNVHAGNCDNTLKNFKKKLQRELYFRKMKEQRYYETPSAKRVRKAQEAARRQRKFARKKMFDE</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>GLFEAIEGFIENGWEGMIDGWYGGGGRRRRRRRRRK</t>
+          <t>MAAVAAASAELLIIGWYIFRVLLQVFLECCIYWVGFAFRNPPGTQPIARSEVFRYSLQKLAHTVSRTGRQVLGERRQRAPN</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>QAIGPPYGLCFQCNQKTSSDCTEARRCSPFHEKCYTLYQPDENWMKSSGLSHFGCGKQCPTAGPEGRVTCCLTPRCN</t>
+          <t>MFKLLVVVFAALFAAALAVPAPVARANPAPIPIASPEPAPQYYYGASPYAYSGGYYDSPYSYYG</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>DEVDPDGKVLNSLIDTLMHLQKEFANLKYAFLTVHKARSFGSGSERLYVTNKEIKNFEPLGDI</t>
+          <t>LYSSLSSIYSITLIVISIYIYIVISYCSLFMFFILYSYTCSIQ</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
         <v>1</v>
@@ -7759,37 +7759,37 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>MELSADYLREKLRQDLEAEHVEVEDTTLNRCATSFRVLVVSAKFEGKPLLQRHRLVNECLAEELPHIHAFEQKTLTPEQWTRQRRE</t>
+          <t>AERIYRCLDHSHCPTFMCSPGLKPKCMNPKVCKCVPVQSRKYYALT</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>SSESFTLLEQWNNWKLQLAEQWLEQINEKHYLEDIS</t>
+          <t>MTWKLFICFLSFGVIFLRVSSLTEKSHTTSYTILHNNNFYSNSCSADTYVPSIKTFSSVWAILNVIIFFCASLFYLRHLCIVKFISNLTK</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>QEFDALLERAKTLLNVHSDQYDDSIRQIVVK</t>
+          <t>MNAPLTDNIPWTREEFEQKLRDKGRGYHIYHPFHVMMYEGKLTREQLQCWVA</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -7798,11 +7798,11 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>QAPNYSTASYNVVAVKINLFLSTNNKLYIHDTGVRAVYLAGMKVYLAANPTASSQTFNSDTLVYILDTGINEPNYYINLY</t>
+          <t>MFLVAGALGVQTAAATTIVNVILNAGTLVTVLGIIASIASGGAGTLMTIGWATFKATVQKLAKQSMARAIAY</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
         <v>0</v>
@@ -7811,46 +7811,46 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SRSGRGSGKGGRGGSRGSSGSRGSKGPSGSRGSSGSRGSKGSRGGRSGRGSTIAGNGNRN</t>
+          <t>MYCLQWLLPVLLIPKPLNPALWFSHSMFMGFYLLSFLLERKPCTICALVFLAALFLICYSCWGNCFLYHCSDSPLPESAHDPGVVGT</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>MIIDGTKLRCINDKGQRIVKEGSLYTAWVRDGIGIDGRIFIKEHKRFALLITRFEVVE</t>
+          <t>MVTPTKHAIGLRSASGVELLAHIGLDTVTFDGTPFSLKVKEGDTVKKGEVLVEFDKAFIEDIEESALHQKIFTVVS</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>MKYFLSATFLIIVFMYLMYFCISIVVNNARVQQDLFYHYNYVPDTLLNTVRVHKLK</t>
+          <t>MNHNVIIVIALIIVVISMLAMLIRVVLGPSLADRVVALDAIGLQLMAVIALFSILLNIKYMIVVIMMIGILAFLGTAVFSKFMDKGKVIEHDQNHTD</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>MKMFFTVLVTLFVCSMIIGICEGREIPVKCKGSKQCLQSCKEAGMTYGKCMNGKCNCTPKG</t>
+          <t>MEKNREIISKNNINVEVFLIRSLIGKLNKKVKVLKALGLNKIGDKKVHFLNQSIKGMLNETINMILLSEVSNV</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>YLAFRCGRYSPCLDDGPNVNLYSCCSFYNCHKCLARLENCPKGLHYNAYL</t>
+          <t>SKFELVNYASGCSCGADCKCASETECKCASKK</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,24 +7876,24 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>MYKSFCDVVAKKDAKGRIKVRIKSAKDLRIPVWNNTKLNSGKIKWYAPGVKLAWYDNKKGYLELWYDKDGWYYTANYFLK</t>
+          <t>MPIVNVKLLEGRSDEQLKNLVSEVTDAVEKTTGANRQAIHVVIEEMKPNHYGVAGVRKSDQ</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>PHAFPFLTPEQKKELSDIAHKIVAPGKGILAADESTG</t>
+          <t>MKLAILSLFLVFQIGVESKKNGFALDHYGKPWECNLFNVFGPYCNNQCTENKARKGYCCTFTCYCFDLPDDAKILEIGDSRKNYCDVSLTDVLG</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" t="n">
         <v>1</v>
@@ -7902,37 +7902,37 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>MFREYKMYKFFEQVKQETYKVFWPNRKELIASTLVVVAAVFIFSLICLVLDYSIHNIMQLLLTIGK</t>
+          <t>MPVVTGRLRDPDINPCLSESDASTRCLDENNYDKERCSTYFLKYKNCRKFWHSIMMQRRRNGVKPCMPTAAERDEILRAMGKMPY</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>DCKHQNDSCAEEGEECCSDLRCMTSGAGAICVT</t>
+          <t>MAHEVTKIADLINPEVIGAFLHQKMLDNLVLAPFAEIDRTLQGRPGDTLTLPQWNFIGLAEDLAEGEELQSVKLTAEDRKATVKKGC</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>MTTIYKELVAHFGTQDETAAKLGVDQSTVSGWVRGKHGMSPVVAKRAQVLTDGKFKKEDLCPAFPWEVLSAVA</t>
+          <t>MFKLICIVFIATILSITSAADNEDELTIEDFLSYECNESMDIEELKEKDKVCSRCANLHKTQSVIERCRLNCFTSEYFKNCEDNLQAKEEEPEEETL</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -7941,46 +7941,46 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>MEKNREIISKNNINVEVFLIRSLIGKLNKKVKVLKALGLNKIGDKKVHFLNQSIKGMLNETINMILLSEVSNV</t>
+          <t>MVKGQSLQDPFLNALRRERVPVSIYLVNGIKLQGQIESFDQFVILLKNTVSQMVYKHAISTVVPSRPVSHHSNNPGGSNNYHGSNTTAQQQSQEADDAE</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>MGSFSITHWLILLVVVVVVFGTSKLRNAGKDLGGAVKGFKEAVKDENTEHAKKHVVLDHDAGTNPPNITGTQSDTTSANKVDDTHNV</t>
+          <t>MKTFSVAVTVAVVLVFICIQQSSATFPEMPYNRQKRGFKCKFCCGCCGAGVCGMCCKF</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>MRDLKTYLSVAPVLSTLWFGSLAGLLIEINRFFPDALTFPFFLIRVIVAGRGEKD</t>
+          <t>MAKPLGTTGEFFRRRDEWRKHPMLSNQMRHALPGLGIGVAAFCVYLVGEQIYNKALAPSKSSHHHQEQTAPSH</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>MFSRVALRAAPRQQPFSLVARRTFQTTRAQLSSPYHYPEGPRSNLPFNPKTRFFWFRYLMYCVVGFGSPVAIAVWQTYRPRS</t>
+          <t>MVILFQLALLLLVVMSFVLIVGVPVLYATNGDRVQSNRLILVGGLAWTALVVLVGVLNYFVV</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,11 +7993,11 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>SAFTVWSGPGCNNRAERYSKCGCSAIHQKGGYDFSYTGQTAALYNQAGCS</t>
+          <t>MPMATTIDGTDYTNIMPITVFTTVYLGVFIGIDTSTTGFTCFSRY</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
         <v>1</v>
@@ -8006,20 +8006,20 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SGDLGAERYAKMCKSCHGADGSNAAMSRALKGLPAEEVKAALIGYKEQTYGGKKKGMMERVVKSLTDEDIEVLATHIGTF</t>
+          <t>MLKLLTEERRRQTESYLADEASDRKNKEFSQKQMWAVATALVTGVGSALVTIVKLIMS</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>DDDDEGGGGGGGGGGGGERRRPRPPYLPRPRPPPFFPPRLPPRIPPGFPPRFPPRFP</t>
+          <t>MCRIFIVLLVVAALAIIIEGQLTFSSGWGNGKRSISSEQINDDCNPEEAIFQIYKLIVSEGERIRACQRDGKM</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>MATQKQVDYVMSLQEQLELEDCEKYTDEQVKAMSHKEVSNVIENYKTSIRNEELYYECMSFGLPNC</t>
+          <t>MAAFVESARAGAGADEVIQLVSDGVNEYSEKMMEGVVACPRILMPCKVNDDCLRGCKCLSNGYCG</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,24 +8045,24 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>MSTRRQAITLYRNLLRESEKLPSYNFRMYAARKIRDTFRANRSTRDFAEIDRQMAEGQQNLELIRRQVIIGHLYSADKLVIENKKTLKPSDD</t>
+          <t>EIKEALAKIRELDSPLFKEFEKDSRSGVQKEIEKRKKSIQAEIDENLRLEGMLAYEKELYA</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>KKKRYIECETHEDCSQVFMPPFVMRCVIHECKIFNGEHLRY</t>
+          <t>MFRFIKDSILELKKVTWPKYNEVVGNGKQVFWLVLFVSIFLGIVDYLMFLVVTYVF</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,33 +8071,33 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>MTSSSTPRMHTYKRTSSPRSPTNTGELFTPAHEENVRFIHDTWLCVLRDIKCPQNHERNDRGPQEYVEKNPNPNLHSFIPVDLSDLKKRNTQDSKKS</t>
+          <t>MKGLSLVLLVLLLMLAAGEDSDSEMQYWTCGYRGLCRRFCYAQEYTVGHHGCPRRYRCCATRP</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>MATIFDILNTHNNNNNFENCKRQCSTNKSNKTIIDILPSMDVTMTNDKLIIETELAGISKDHIEIDIKDSILTI</t>
+          <t>MIRRSCALLSSSWRDHGISYLKYLNVCTETLHSTVKESRRAKYERWSKPCYTAQRPDGAGGQETIDKVPIHTKDY</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>MSETQADSIAKSSVETTIQPLHQESATLRQQVLQKHELPKHALNVASPTDSLMSPCTAKLQAHKKKYYMKRKPPVMSLQNTLQSVQTEKE</t>
+          <t>MATIQIIIEEDNVTINVKKNQVPPIEVSPKIPPIEIENVKKNVLCPICLIAKVNTVLECTHVLCSNCVKKINVCPICRKTFQSINFFRL</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,76 +8110,76 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>MSSSRRSRQASSSSRISDDQITDLISKLRQSIPEIRQNRRSNTVSASKVLQETCNYIRNLNKEADDLSDRLTQLLESIDPNSPQAAVIRSLING</t>
+          <t>MKTYLMTIVILLILVHKTSGSMKNLPRRQTMEKEKKCENNEGFCRKKCKAEEVELRYCLSGKMCCISTYSTLITYLEKETVHMKHFHTTSSQHVY</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>MPMSLDSLAVGMVALLVDYYSKALRASLNSTGIDRRWGDQWPSTVELTGRGVIEWESPTFCICSSSRSTAIV</t>
+          <t>MAEIIKFVYIMILCVSLLLIEVAGEECVTDADCDKLYPDIRKPLMCSIGECYSLYKGKFSLSIISKTSFSLMVYNVVTLVICLRLAYISLLLKFL</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>GWTVERCWKNNIGHCRKRCFHVERYKLLCMNKLTCCIPIKEDHGYTKTPPRLVPFEEEITIDINTWELFSNSPASFFNDEFIAEPTKATESTVTET</t>
+          <t>MKKQILKGLVIVVCLSGATFFSTPQQASAAAPKITQKQKNCVNGQLGGMLAGALGGPGGVVLGGIGGAIAGGCFN</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>GFKLKGMARISCLPNGQWSNFPPKCIRECAMV</t>
+          <t>CFLWHVRKRVADQELGDAPFLDRLRRDQKSLRGRGSTLGLDIKTATRAGKQIVERILKEESDEALKMTMASVPASRYLTDMTLEEMSRDW</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>MPPRSIEEWFYYKLLSSPGFHRFVRKVYRKVNGIKEDPFTDQSTAFQYLYKPTPRQKFKALRLLFWDEMRSTFGFRRRLGDRFKKD</t>
+          <t>MLVIAPKQVAKDTWVDEVDKWNHLNHLKVSLILGTPKERNDALNTEADIYVTNKENTKWLCDQYKKRMAI</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>MDPNQTNVVPPALHLVDPQIQLTITRMEDAMGQGQNSADPKVYPIILRLGSQLSLSMARRNLDSLEARAFQSTPIVVQMTKLATTEELPDEFVVVTAK</t>
+          <t>MFTLKKSLLLLFFLGTINLSLCRDETNAEEERRDEEVAKMEEIKRGLLSGILGAGKHIVCGLSGPCQSLNRKSSDVEYHLAKC</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
         <v>0</v>
@@ -8188,11 +8188,11 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>TSQGTTPDKVQLEVNCISNLPNNEVEETDLLRELEMIEENLFGKELSFVPEENRNSRHKRCMGYDIECNERLHCCADLECVKTSGRWWYKKTYCRRKSG</t>
+          <t>MIDTLKGWAEYLVEWAAKDPYGFLITVLLALTPLFLASAVLSWKMAKMIEAKERDQKKKQKRQENIAKAKRTKKD</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
         <v>0</v>
@@ -8201,24 +8201,24 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SGYSGAALDFPVAPSLAGHYSLTNCGQPSGASKCAEGTVPQAAFEKGTCYRELYASSCHHEETQIFQYPAV</t>
+          <t>MWRWSNIYRIGTLSRYYRYAEHSKDTTMSIFSGGVLPNTPSLEKSLYYDAFPYGLTCKNS</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>MIIYRQYHHEGAPVYEIITKTFQHVSIKCDDSFSDTEIFKLLSLLQDDIDHMKVS</t>
+          <t>MPTRSTNPNKQPVELNRTSLFLGLLLVFVLGILSPATSLTS</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -8227,76 +8227,76 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>MTTVGVSLFRRSPEKITMKIAAFLGLSFLLIASYVLICEAQHPGFQELLILEENMRDPENSKERSCAKPRENCNRMNILCCRGECVCPTFGDCFCYGD</t>
+          <t>MQKRKNMAQIIFYVYALIILFSPFLAARLVFVNPEKPCVTDADCDRYRHESAIYSDMFCKDGYCFIDYHHDPYP</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>HVTCFYVKFGCKHTECITTIVFCWQTASDISSV</t>
+          <t>MKSSHFDEYDKTLKQAELAIADSDHRAKLLQEMCADIGLTPEAVMKIFAGRSAEEIKPAERELLDEIKRQRERQPQHPYDGKRPRKPTMMRGQII</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>MEKNTVTVPKTLFSQVIHIFKYAAINLGLPFLNGVMLGFGEIFAHAFIHSLGWAPGHTRIYSIQRHQYIQA</t>
+          <t>MALKATALFAMLGLSFVLSPSIEANVDPHFDKFMESGIRHVYMLFENKSVESSEQFYSFMRTTYKNDPCSSDFECIERGAEMAQSYARIMNIKLETE</t>
         </is>
       </c>
       <c r="B602" t="n">
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>GCVGHRKSCEHDKKNGCCYFMTCNCWHPMGQ</t>
+          <t>MQALSSRVNIAAKPQRAQRLVVRAEEVKAAPKKEVGPKRGSLVKILRPESYWFNQVGKVVSVDQSGVRYPVVVRFENQNYAGVTTNNYALDEVVAAK</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>MNYKRIFFSFIAILFISMVASSPAPKWKPFKKLEKIGQRVRDGIIKAGPAVQVVGEAAAILKPAQG</t>
+          <t>MEKTYGKTVLPLSRVKRIIKQDEDVHYCSNASALLISVATELFVEKLATEAYQLAKLQKRKGIRYRDVEDVVRKDDQFEFLSDLFSI</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>MLNIFYNVWGGFISHPVLITLSIVGIYVLGYALVKFIVGIVVLSNSLNTKWVIASAIFTTVLSIVFTIYSFLVEIYVVLVVISGLVVLLT</t>
+          <t>MGDPEVLLEVYEVIRNRIEERPEGSYVAELTEDDDTKPAINKICEKIIEESGELILAAKDGDREGVVYESTDLIFHVLVLLAYLGIEIGEVFDEFERRRK</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
         <v>0</v>
@@ -8305,11 +8305,11 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>LATRNKIGTYTNDEGNVVVQMAGSKAELLELLSFLNAKYLLEVTDTPEEYQKVFNRLQVETGKNYSVLLLDKVTNKSQESEDFLGDKV</t>
+          <t>MNQGKVWRVVKPTVGVPVYLGAVAVTALILHGGLLAKTDWFGAYWNGGKKAAAAAAAVAPAPVAAPQAPAQ</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
         <v>0</v>
@@ -8318,20 +8318,20 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>MCAVAYRRSLHYDSWCSKEKTPSNHRVNCLLDPKLLLESPEKLGCYCIDHCNLHLKGQIVWTAPDGGD</t>
+          <t>MPANQPPLYLTFLLLILLYLIITLYVWTILTINHKTAVRYAALYQRSCSRWGFDQSL</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>MKLFYVLIYFISLFLVINVQAFFDCENHDDCKNKIKYVLPRIAECRDYKCNCFPLNLSKTLWSASTKRVHKSLAQTNDFLH</t>
+          <t>MQRLILLLLSISLLLDRDLPVRSEFELHRICGYGTARCRKKCQNQEYKIGRCHNTYACCLKKWDESLLNLTKH</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,76 +8344,76 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>MSKIQYPMTTAAIFDDVVYPLHFDNAGKVRQEMEGAVNWFCRWCNEEKAAVKARLLVSCWGQYLSHEQVIREAA</t>
+          <t>MPPRWASLLLLACSLLLLAVPPGTAGPSQPTYPGDDAPVEDLIRFYNDLQQYLNVVTRHRYGRRSSSRVLCEEPMGAAGC</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>MAQLLKFVYAIIFLFSLCLAATKEKFHSCVNANDCPYDFCSPPKYAKCVYNSCYCEDQGRL</t>
+          <t>MSNQNIPQLSEYQTSVSQVAVTPPPKPETPQIFEYQTSDSIVNNPRPFYNSDLEFDDIDMYLLPN</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>MGESQPVKTFDALFDELTERARTRPEGSGTVAALDGGVHGLGKKILEEAGEVWLAAEHESDEALAEEISQLLYWTQVLMIARGLSPDDVYRKL</t>
+          <t>MQQDKFKNYEKKLFDMEIKKLETFHQMTIEKLAKVEGGKNNWQANVSGVIAAGSAGAAIGFPVCGVACGYIGAKTAITLWAGVTGATGGF</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>MSISSRVKSKRIQLGLNQAELAQKVGTTQQSIEQLENGKTKRPRFLPELASALGVSVDWLLNGTSDSNVRFVGHVEPKGKYPLISMVRAGSWCEA</t>
+          <t>IWDAIFHGAKHFLHRLVNPGGKDAVKDVQQK</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>MTILSAITSISRPNKASKSSVSSFGGASLSMGSNSVACGGCGGGSSGPRGPGGVAVGVAVDVNINLGVVVGGVLGLVGGILGGGGSSGSCGCH</t>
+          <t>MKLNVIHLLFCLFQEQESYSILSYESIDEFYSRLGYDLESEWLLRDLGINGTSGLAELLTDYNNLLENEITKAVFSDKWL</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>MQPMTKKKHTTASKRSPARPPSLSPPLESRRRVGGKSPERLHGNAPPTPPRSPLPPSPSPEHTRRLSPQRRRPQRQRKL</t>
+          <t>MQFSDLSPVEQKLYPTHSSLKEALEEARHLLPGGSHHDFMRAMMGYHNTFLLFVGEWTPSE</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>MGKLVKHCHTSLHSELVILFYAKNRFCISIDHLRPLKSHRTHGHYCLLNFSLRENKNYLIIVYLPIEGFSANHMCISHGTSFNIK</t>
+          <t>MFSRVALRAAPRQQPFSLVARRTFQTTRAQLSSPYHYPEGPRSNLPFNPKTRFFWFRYLMYCVVGFGSPVAIAVWQTYRPRS</t>
         </is>
       </c>
       <c r="B615" t="n">

--- a/results/prediction_validation_set.xlsx
+++ b/results/prediction_validation_set.xlsx
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DAPGHPGKHYLQVNVPSDVRTIGVAGGGVQQCFRVTPGAWNDTRALVSNGAQVEVWGYTVADCANRTTANQKYYDKAAAP</t>
+          <t>MKEIILWPAYIDLKRTKNEGRKVPKEIAIQNPKLKEIASKIKKMGLEYSVENKKSYPKESWEICGYIKVKVDESTSKLQFLKEICINMK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,11 +466,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RRRRRRRRSLVSSDESSSGSSHSSGEHS</t>
+          <t>MNDNNSCKLTMLTRRLENMTQEYGQPDLPVPFLNGDEPGKLKLPLSERHEDVDYLTKEQCIQYFNGYSIHLIPPRISS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MGDIIKVVFAMIIYLYMLTIVTNAVTICDSDQDCRRYRCDPPEYPRCLGILCKCVYVSG</t>
+          <t>MNIDIETYSSNDISKCGAYKYTEAEDFEILIIAYSIDGGAISAIDMTKVDNEPFHADFETFKIALFDPAVKKVCIQC</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GDAQTIQEVFEMFALDSDGCCWHPACGRHYC</t>
+          <t>LPRLLRLDSRMATVDFPKKDPTTSLGRPFFLFRPRN</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,24 +505,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MIQSPTSFLIVLILLWCKLVLSCFIECLVALQQLIHVLLQIINSNLQSRLLLWHSLD</t>
+          <t>VRIWFCASRTCSAPADCNPCTCESGVCVDWL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MSERQGAGATNGKDKTSGENDGQKKVQEEFDIDMDAPETERAAVAIQSQFRKFQKKKAGSQS</t>
+          <t>YVPKIPKPQPNKPNFPSFPGHGPFNPHASRFPRSPKDNGKIVFDAKKEGGKTQWNVETQQ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -531,37 +531,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MDTKTLIDKYNIENFTNYINFIIRNHQAGKGNLRFLVNLLKTTGGSNLKELDINPVEIENFNIDIYLDFLEFCLDSKFIF</t>
+          <t>MFETITPLFPGLPGGPELLVVLLIVVLLFGANKIPKLARSSGQAIGEFQRGREEIEDELQDMTGDDDEDDATSESSADSVSTDSVSTESSN</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MGAVFAIIGGFALDSPILRLYLDQLSLNHFTDIVGATKVSSLNIPWPLRIPRRIRLPGRLYNMKYCFINRLIHFPNCRNSNNFYNSEKPSPQNEK</t>
+          <t>APVTAGRGGALAKMYTRGNHWAVGHLM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MLKMGVVLFIFLVLFPLATLQLNADQPVERNAENIQDLNPDKRVIKIPVPRRRGPYRRYGNCYCPIG</t>
+          <t>MTWKLFICFLSFGVIFLRVSSLTEKSHTTSYTILHNNNFYSNSCSADTYVPSIKTFSSVWAILNVIIFFCASLFYLRHLCIVKFISNLTK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,33 +570,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MKLITYVKEGESIDRVLKKCKQKFDKARIIRKLRERQQYIKPSERKRKILAKAKYREFRKLLADD</t>
+          <t>MAQGPLKKTKPSTAKRPTALAPKRGPRQIAPKKATLIKQQKITKKLTAGLTAKTERTLAQRAGHLELLAGGKKDKKAEKEKGKEKGGKKN</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MGDIGAPELIIIILVVVVLFGSKRLPDAARSLGRSLRIFKSEIKGLHDDEAPAPTAAVAAAPTQVTGPAPAAPHTPPSAEPATPATGGSGNRSA</t>
+          <t>ASSTWGGSYPACENNCRKQYDDCIKCQGKWAGKRGKCAAHCAVQTTSCNDKCKKH</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MKVAILILSILVLAVASETIEEYRDDFAVEELERATCAGQDKPCKETCDCCGERGECVCALSYEGKYRCICRQGNFLIAWHKLASCKK</t>
+          <t>MKKAKAIFLFILIVSGFLLVACQANYIRDVQGGTVAPSSSSELTGIAVQ</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,33 +609,33 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WNPFKKIANRNCYPKTTCETAGGKKTCKDFSCCQIVLFGKKTRAKCTVVT</t>
+          <t>MVSPRVRLAALALSVCAILCLGMHASAFPPKPDNPGDNASPEQMARYKAAVRHYINLITRQRYGKRALTPENWIYRDPAEERVTYGLDDYAMW</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KKIKRETEEDENENEEERNERSEMKRYAFGYPSGEEKKIKRETEEDENENEEERNEEGSEMKRYAFGYPSGEAKRMKRKPAEEETE</t>
+          <t>MNHNVIIVIALIIVVISMLAMLIRVVLGPSLADRVVALDAIGLQLMAVIALFSILLNIKYMIVVIMMIGILAFLGTAVFSKFMDKGKVIEHDQNHTD</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FRVPLRIRPCVVAPRLVMVRHTFGRIARWVAGPLETR</t>
+          <t>MQRLILLLLSISLLLDRDLPVRSEFELHRICGYGTARCRKKCQNQEYKIGRCHNTYACCLKKWDESLLNLTKH</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TYDAYDECQTELDCPKNIDCVYPKSMKCIDKKCICVGARMIIPRVL</t>
+          <t>VAEKAKDERELLEKTSELIAGMGDKIGEHLGDKYKAIAKDIADNIKNFQGKTIRSFDDAM</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MTDNARKEYLNQFFGSKRYLYQDNERVAHIHVANGNYYFHGHIVPGWQGVKKTFDTAEELEIYIKQHGLEYEKQKQLTLF</t>
+          <t>LPRDTSRCVGYHGYCIRSKVCPKPFAAFGTCSWRQKTCCVDTTSDFHTCQDKGGHCVSPKIRCLEEQLGLCPLKRWTCCK</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MFLSSAVRKDSNGVRHLPSVQRWTPGSPPTRAHGHVSYVAQCATAQCREAVGRTYPGVVKKGLENTDKVRGFI</t>
+          <t>MAPLKMLALVTLLLGASLQHIHAARGTNVGRECCLEYFKGAIPLRKLKTWYQTSEDCSRDAIVFVTVQGRAICSDPNNKRVKNAVKYLQSLERS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,46 +687,46 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MVRVIGSLVFGGLILLLASSNAHMVETRFGPLIMLAPHFVVLGITFFLGFAIGIVLVFANVMKRRKHKLPGKNIVIKR</t>
+          <t>MKTHVKKDLDKGWHMLIQEARSIGLGIHDVRQFLESETASRKKNHKKTVRQD</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MKKIVFLILGLAAFAFGADGEMIRSYSVIAGGIGLGLAALGGAIGMGNTAAATISGTARNPGVGSKLMTTMFIALAMIEAQVIYALVITLIVLYANPMLG</t>
+          <t>MTVYAVTGGAEFLGRYIVKLLISADDVQEIRVINVVEDPQPLVSKVKVINYIQCDINDLIR</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MKVSAALLCLLLMAATFSPQGLAQPDSVSIPITCCFNVINRKIPIQRLESYTRITNIQCPKEAVIFKTKRGKEVCADPKERWVRDSMKHLDQIFQNLKP</t>
+          <t>EIKEALAKIRELDSPLFKEFEKDSRSGVQKEIEKRKKSIQAEIDENLRLEGMLAYEKELYA</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MEIVLEAKERTDKKRSTLRRIRSQGGIPAILYGKKVENKMIFVTAAELEKVLREGGRTS</t>
+          <t>MADLKPSLTGLTEEEAKEFHGIFVTSTVLYLATAVIVHYLVWTARPWIAPIPKGWVNLEGVQSALSYLV</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>VTQYLVTTFKDSTGLPHEHITVARDNQTFTVVEAESKEEAKEKYEARNVPVDGATNLNDIKSNIGIFHVEKVEPNEGMVDINIETMKPFEEADDD</t>
+          <t>MKFTATLLLLFIFVLMVDLGEGRRKKKGSKRKGSKGKGSKGKGRWLDRIGKAGGIIIGGALDHLGQGQVQGPDYDYQEGEELNKRSDDDDSPSLIFFD</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,24 +752,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MKGSSALLLVALSLLCVCGLTRAEDDNEFFMEFLQTLLVGTPEELYEGPLGKYNVNDMAKSALRELKSCIDELQPVHKEQLVKLLVQVLDAQEDT</t>
+          <t>MKKEITNNETVKNLEFKGLLDESQKLAKVNDLWYFVKSKENRWILGSGH</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GFKLKGMARISCLPNGQWSNFPPKCIRECAMV</t>
+          <t>MAKCTLTSLILLLIVLVLIQESHIVEGRPLKSSRISNVSKKFAAGNSNLSSKLTTEDHSLDAFRPTNPGNSPGIGH</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MILDYINSRIKILWYTDPFLISREGVIVLETEKTFLIKLEEKNKFIRIFKAHGIFEITFKGKSFIIAGYKLVRKPWKRI</t>
+          <t>MNTPAARPDRYQSFAHIPCDAMALKLLTHLEQLLQAEDTLEPFWQLFLQKAAIAKQPQPGQADALKLICSNSYYIFDLFAAQQDQAGEAMMDELEYQCC</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,24 +791,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MQPCVLWWLALGLLLGIPAGAKPTPEEADPNAQPPAMPYWPFSTSDFWNYVQYFQSQGAYPQIEDMARTFFAHFPLGSTLGFHVPYQED</t>
+          <t>MAQLIIFVYALMVFLSIFLVESYKTKTPCKSLNDCPKAIKPIFVKCLGNICQYSIGRI</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MKFTATLLLLFIFVLMVDLGEGRRKKKGSKRKGSKGKGSKGKGRWLDRIGKAGGIIIGGALDHLGQGQVQGPDYDYQEGEELNKRSDDDDSPSLIFFD</t>
+          <t>MVLSDFTGVGVGFGFGVGCGFGVGWGFGGMPMNILGVGAGGGCGVGLGLGWGFGTAFGSHYRSSRLTFQGIELETADKREEVVANMSKNST</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,59 +817,59 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MILQILGERKYDCKDSTEEPIVKPFIELIDGVQFLLEQENAFSLLNSKHEEITRVPNSPYEYRTEKEGYKTFVNSVYVLNDEGKTLRRLFERGL</t>
+          <t>MKTLTHHIAVQCTCGATGQTGDFLVDIEHFKLTGELIALDGMVFRSLTALYAYANTYGLPTKRLNTPIVYQS</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MASWRMLCFVLLFTSILICHDARPLPSSLSSSNGSPAFVESVKQVVKEIMRRKQLLGTQYSTNRLSPSGPDPHHH</t>
+          <t>ANIKLSVQMKLFKRHLKWKIIVKLNDGRELSLDA</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ETLQQTLDASRGVTTLPLGVERRTDNPIYVTWTGADTVLGDVPKSPRFALVTETRVTK</t>
+          <t>MKIFYYLLHFLCYMTFILPAICTLVDPERCSKMYGQCRTRCYKIEKQIDICYSPSKICCIQRAFEEDLS</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MSLLTEVETYVLPTRNEWECRCSGSSDPLVVASSIIGILHLILWILDRLFFKCIYRRLKYGLKRGPSTEGVPESMREEYRQEQQSAVDVDDGHFVNIELE</t>
+          <t>VSWGEGCDRDGKYGFYTHVFRLKKWIQKVIDQFGE</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MVQLWHVVWHPPLGPPQTLPPANPHYPQSTTQPESLSRLNLCKSTCRWSRPRQSRVTLTVP</t>
+          <t>MKKRSSRKLAQVIGRKTGNYFPASIEGETKKEHKHHYSTASKEKESLRKRAKEFDVLVHSLLDKHVPQNSDQVLIFTYQNGFVETDFHNFGRYSVKL</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,24 +882,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MALTVETKKRPEGSKPKALRRSGFIPANLYGHNGRESISLVVDAKVVERLLKAAAVKKTEIELNIPELEWTGKTVLQEVQIHPAKGTPYHISFLATAKG</t>
+          <t>MSIRLRVCVGCVYVRVTVSLPAFNPMRNKIGECTQSHTMCLRAVLLTPHNKKKKHTSCP</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MLYLLYIFLGLLIILGVNLLVTAFWALHDMYVHKDEEACDLNTFKKYFVKNNNIPTKMSDIFN</t>
+          <t>PVNIYVIMADQGPAHLPVSLAVHTDMLEYVPVSKDEYFQKLKKA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -908,37 +908,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MVAGIQKISLSKGKPVKGVNIKTGEEITFQTVSEVISYGFDKSHVASCARGESKTHKGFIWKYV</t>
+          <t>MQLGTGLLLAAVLSLQLAAAEAIWCHQCTGFGGCSHGSRCLRDSTHCVTTATRVLSNTEDLPLVTKMCHIGCPDIPSLGLGPYVSIACCQTSLCNHD</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MSMQPTDHIRLTAFVHGHVQGVGFRWWTRSQALELGLAGSATNLDDGRVCVVAEGPEDRCRELLTRLGEQPSRHRRVGTVSTVIEQWSEPRGVEGFTER</t>
+          <t>RRRQRRKRGGDIMGEWGNEIFGAIAGFLG</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MNPIVEFCLSNMAKGGDYVFNQLENDPDVDVLEYGCLTHCGICSAGLYALVNGDIVEGDSPEELLQNIYAHIKETWIF</t>
+          <t>SGERPWKCCDLQTCTKSIPAFCRCRDLLEQCSDACKECGKVRDSDPPRYICQDVYRGIPAPMCHEHQ</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -947,33 +947,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SGKSFKAGVCPPKKSAQCLRYKKPECQSDWQCPGKKR</t>
+          <t>MNVAAWLHNGEWHLFTDEMNRVVSDQAYYQAGLKGPDKRDLVLLRMTAKRRNTAYWFHFRKDNPFNKYMPVAYTEEIPKELQALLTIYGL</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>METCQMSRSPRERLLLLLLLLLLVPWGTGPASGVALPLAGVFSLRAPGRAWAGLGSPLSRRSLALADDAAFRERARLLAALERRRWLDSYMQKLLLLDAP</t>
+          <t>MLLLSAVKTLLLAWLGIVLVFMSIIKSAMLDFLQEAGKLEGIETYKKEAQTSFMAPSWALGHLMGRK</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>KELLDADGDILRNGGPAYPGLMPGVERDLPASGWGLPRRTGDESCPLNVKAVR</t>
+          <t>MCSYYHMKKRSVSGCNITIFAVMFSHLSAGKSPCGNQANVLCISRLEFVQYQS</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MMALNGGWRKTFVSILTTCFLVVVVIVSLSCEAKGGVVPRLRPPFCFPYDREYCTPFHCGKVCQEYNFPAKNGGYCDKRGDPWKCCCPY</t>
+          <t>KRRIRRERNKMAAAKSRNRRRELTDTGC</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,24 +999,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MAKFANYLTLFLLVASLVMMEVHSSSSTEVPDQGRRLLMNPDSNGIPCGESCVFIPCISALLGCSCSNKVCYNNRTKS</t>
+          <t>MFKTILVLVVALNLLGAFTYASPRPDDKKNQGSASVDVQRERGEGTKVDARVRQELWRSDDGRTRAEAYGHWDRTYGGRNHGERSHGGGVRLEHTWGK</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SVENSRPTGQQLESLDLSAPWEQSLPCTERKPSATARLSRRGASLSSPAESSGSPQRRGLSAPSSRQIPAPQGAVLVQREKDLPNYNW</t>
+          <t>METCQMSRSPRERLLLLLLLLLLVPWGTGPASGVALPLAGVFSLRAPGRAWAGLGSPLSRRSLALADDAAFRERARLLAALERRRWLDSYMQKLLLLDAP</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MSPEEIRRRLDTITERIANAVMIVNLIKEKSK</t>
+          <t>MWRWSNIYRIGTLSRYYRYAEHSKDTTMSIFSGGVLPNTPSLEKSLYYDAFPYGLTCKNS</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1038,59 +1038,59 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TMCYSHTTTSRAILTNCGENSCYRKSRVHP</t>
+          <t>MGPPRRVCRAGLLFVLLVALAAGDAGPRGEPPGEEGGRDGIGGARCETQNTGQMSAPGALVPFYVGMASMGVCIIAHVCQICQRLLAAGHA</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MKCGRKRRRRRRHACKRKKRACKQRSSTIVRAHLVHRRRAARRCP</t>
+          <t>MDKAEKVDNIVRQVTGAIIKTTAKVAFIVFVLTFAGILVGYYSYSFLTNAGWFALPMILSVDLLYVAVLLGGLAFIFAEVYKVVLEVKKIVKRGGQL</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MAKCTLTSLILLLIVLVLIQESHIVEGRPLKSSRISNVSKKFAAGNSNLSSKLTTEDHSLDAFRPTNPGNSPGIGH</t>
+          <t>MRMAEEYGKGVPMVLNPQMGAIDATVESIRYRAQLIARNQKLDSGVMSTGIIGFAAGFLFSLLMVIILPLMAGL</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>STLSSNDAKVVDGKATPLGSFPHVKRAGDFLYVSGTSSRRPDNTIAGAELDSTS</t>
+          <t>MDMMLMIGNYFSGVLIAGIILLILSCIFAFIDFSKSTSPTRTWKVLSIMSFILGIIITVGMLIYSMWGKHCAPHRVSGVIHTNHSDISVN</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NIIDVPCRPCYYRDSSGNCVYDQLGCGA</t>
+          <t>TCSIPYEYSNGKLKRTLYYSNGVYANSFTENN</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,24 +1103,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MEQITLTKEECVEQCINKDLKLLDYRVQQILEGVLSESTTYGDARNKLETLKIIAESHFKTEHASVIYKLALKKLDKKINATPIKE</t>
+          <t>MDPIINGNSANVYLTDSYLKGVISFSECNALGSYIFNGPYLKNDYTNLISRQNPLIEHMNLKKLNITQSLISKYHKGEIKL</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CGDINAACKEDCDCCGYTTACDCYWSSSCKCREAAIVIYTAPKKKLTC</t>
+          <t>MAGPEADAQFHFTGIKKYFNSYTLTGRMNCVLATYGSIALIVLYFKLRSKKTPAVKAT</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MPEQLSVRKWRLVRDLKQQEVADILGVNAKTVGHWEKDDTNLSNVTVYALAKLYDIEVDQIKV</t>
+          <t>MANVQKIGKAVYKGPSVVKEIIYGITLGFAVGGLWKMHHWNNQRRTKEFYDLLEKGEISVVVEDE</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1142,59 +1142,59 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MSAVAGCTATTDPGWEVDAFGGVSSLCQPMEADLYGCSDPCWWPAQVPDMMSTYQDWNAQASNSAEDWRNLGTVFPKDK</t>
+          <t>EHRKVLASVAIISTQAPLSSLSQTSTAHFEVHRGNALQIYSSPNQGPHEQTLKRNLKPTTELLLDQTDLKQSSNEQGIAAIILTP</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KRRIRRERNKMAAAKSRNRRRELTDTGC</t>
+          <t>MTKLNSYETLYIVKPELTEDSLAKLIESYQGLLLERGAKNIITQNRGRRTLKYMIKKYKDAHYVQMNYEGNGEVIQLLERAMKINESIVRFLTTAI</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MLIPEFKPPLLYVMGSFSVMLEKHQCSVTFYLREPYLGTSYDKIVKLIKMTYPNYSLTYVGMADNKYKFTLKNKED</t>
+          <t>MVQLWHVVWHPPLGPPQTLPPANPHYPQSTTQPESLSRLNLCKSTCRWSRPRQSRVTLTVP</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MESMKMKLIVVLMVAIVAFSAVGNVAAQTEAPAPSPTSDAAMFVPALFASVAALASGFLF</t>
+          <t>GDAQTIQEVFEMFALDSDGCCWHPACGRHYC</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MQNAQSEKVQQESANSLLTHLKSPEKTELKIDVSDRAADAIDIMRQNAEALARLQQEMIAGKQLSAKDVAERSMDFGEVIEGELA</t>
+          <t>MASALSPGSRVLIALIRVYQRLISPLLGPHCRFTPTCSSYGIEALRRFGVIKGSWLTVKRVLKCHPLHPGGDDPVPPGPFDTREH</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MQSFVKIIDGYKEEVITDFNQLIFLDARAESPNTNDNSVTINGVDGILPGAISFAPFFISIKVWL</t>
+          <t>TICYNHLTIRSEVTEICIICDDDYYF</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>QHSTDYDEEEEDRAKLHLDAR</t>
+          <t>DIQIPGIKKPTHRDIIIPNWNPNVRTQPWQRFGGNK</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ASSTWGGSYPACENNCRKQYDDCIKCQGKWAGKRGKCAAHCAVQTTSCNDKCKKH</t>
+          <t>MNIAKLLGVISFICWIVACVLTICIDASSVFSQALAQGMCAYLTFVLLSND</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,37 +1246,37 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MKTLVLVAVLGLASLYLLSYASEVQQISRDEEDFRALMASFGGIFDTEERGVDKEGCRKMFGDCWGDGDCCLHLGCKTRKLPPWTDKPYCAWDWTFGRK</t>
+          <t>MPRRGDHLSDLFGLVHRLEGMSTLWNNILHYLRQIPELETARLFLPGSLQAQQLSHSFADSGIPAGEVCLLSLLSLRRLSRTCSYPDCRTQLRHSNLQR</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MNVLLLMCAVTLMVCVSSETYCGSQLCGEGYCCTGGHFRRQCRPLADEGQQCEKENKYNDYKLGCPCKGGMICSDIKYCQKL</t>
+          <t>MVSPQTRKEEELLEKQNSVFYLLTLGRKPYGSYLHIKIELDEDEKLEKEIYADNIKLENELRQLKRLYEVYQSVEIDDAQKAIQKEALLTIAKILSVFDF</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SEALAVDGAGKPGAEEAQDPEGKGEQEHSQQKEEEEEMAVVPQGLFRG</t>
+          <t>MASWRMLCFVLLFTSILICHDARPLPSSLSSSNGSPAFVESVKQVVKEIMRRKQLLGTQYSTNRLSPSGPDPHHH</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1285,24 +1285,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DMKIGVSMSQFDDTHLTYLQQSMDEKAKSYPDGVVLL</t>
+          <t>MPSNGIVRSWRRAMATMNVSLPDAMREWVEGQTQSGRYHNASEYVRDLIRRDQERADKIAHLQRLIDEGLDSGVGERSLHEIRAEARRRAGVDHEL</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ANIKLSVQMKLFKRHLKWKIIVKLNDGRELSLDA</t>
+          <t>MVYYPELSVWVSQEPFPNKDMEGRLPKGRLPVPKEVNRKKNDETNAASLTPLGSSELRSPRISYLHSF</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1311,50 +1311,50 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HSDAVFTDNYTALRKQMAVKKYLNSILNYGRKKRRQRRR</t>
+          <t>VTQYLVTTFKDSTGLPHEHITVARDNQTFTVVEAESKEEAKEKYEARNVPVDGATNLNDIKSNIGIFHVEKVEPNEGMVDINIETMKPFEEADDD</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MNIDIETYSSNDISKCGAYKYTEAEDFEILIIAYSIDGGAISAIDMTKVDNEPFHADFETFKIALFDPAVKKVCIQC</t>
+          <t>MYYKIGDVCQKVINVDGFDFKLAVKKQDYSILVNVLDLEDRFIDSINITDENDLYTALDILNQSIYEWIEENTDERDRLINLVMRW</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MTITKNKISLMLSSKLGFSNNLCEAIVNTVFSNILEIAKVQKLTLKNFGSFEVKQKTPRPGINFHTKSPVMIASKKNLRFTPSEKLKALINKSML</t>
+          <t>MNQGKVWRVVKPTVGVPVYLGAVAVTALILHGGLLAKTDWFGAYWNGGKKAAAAAAAVAPAPVAAPQAPAQ</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MKNINYRVKKIIAKQFQINIKKISLNNNLKNDLKIDSLDFVELIMLLEEEFNIKLFDIEAEKIKKIKDIIPYIKKKKLKE</t>
+          <t>QRCGSQGGGGTCPALWCCSIWGWCGDSEPYCGRTCENKCWSGERSDHRCGAAVGNPPCGQDRCCSVHGWCGGGNDYCSGSKCQYRCSSS</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MTHALPKVVKSQLVQDIGVALILGSIAGCFFKYGVDKKKQRERVAFYEKYDKEDL</t>
+          <t>MQKRKNMAQIIFYVYALIILFSPFLAARLVFVNPEKPCVTDADCDRYRHESAIYSDMFCKDGYCFIDYHHDPYP</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1376,11 +1376,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MRKSFYTWLMTERNPKSNSPKAILADLAFEESAFPKHTDDFDEVSRFLEEHASFSFNLGDFDSIWQEYLEH</t>
+          <t>MNVLLLMCAVTLMVCVSSETYCGSQLCGEGYCCTGGHFRRQCRPLADEGQQCEKENKYNDYKLGCPCKGGMICSDIKYCQKL</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1389,50 +1389,50 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MANIKSAIKRVKTTEKAEARNISQKSAMRTAVKNAKTAVSNNADNKNELVSLAVKLVDKAAQSNLIHSNKADRIKSQLMTANK</t>
+          <t>ALDDVQDGTLVTIKAGNDENVMAELRNCTAVMKNQVAKFNDLRFVGRSGRGKSFTLTITISTFPSQVATYSKAIKVTVD</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MKINKLTLNERKNDILSYFSEINTPFRTSEVAEHLGVSAYQARHYLQCLEKEGKIKRSPVRRGASTLWEISAVTEPSVKTDRIAD</t>
+          <t>MLKLLTEERRRQTESYLADEASDRKNKEFSQKQMWAVATALVTGVGSALVTIVKLIMS</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MSSSRRSRQASSSSRISDDQITDLISKLRQSIPEIRQNRRSNTVSASKVLQETCNYIRNLNKEADDLSDRLTQLLESIDPNSPQAAVIRSLING</t>
+          <t>MAKPLGTTGEFFRRRDEWRKHPMLSNQMRHALPGLGIGVAAFCVYLVGEQIYNKALAPSKSSHHHQEQTAPSH</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MNWKAFRLVSLYYLLALVIAFGLIVVITLVFGASVTIAIGRILGNLIILKVIWDMLHKEYEEAKEDLEK</t>
+          <t>MPTRSTNPNKQPVELNRTSLFLGLLLVFVLGILSPATSLTS</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RWSLWLLLLGLVLPSASTRSFSYREAVLRAVDQFNERSAEANLYRLLELDPPPEQDAEDRGARKPVSFKVKETVCPRTSQQPVEQCDFRKNGLLKECVG</t>
+          <t>MTTSQKHRDFVAEPMGEKPVGSLAGIGEVLGKKLEERGFDKAYVVLGQFLVLKKDEDLFREWLKDTCGANAKQSRDCFGCLREWCDAFL</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,76 +1454,76 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GCVGHRKSCEHDKKNGCCYFMTCNCWHPMGQ</t>
+          <t>MAGRISAFLKNAWAKEPVLVVSFSVWGLAIIMPMISPYTKYASMINKATPYNYPVPVRDDGNMPDVPSHPQDPLGPSLDWLKNL</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MKILVAFAVIMLVSAQVLAAEIGLNDEPEWYSDQIQEDLPVFENFLQRIARKPSPDRFYGLMGKRNNGFGQMSRKRSAERNTIHNYERRRK</t>
+          <t>MVILFQLALLLLVVMSFVLIVGVPVLYATNGDRVQSNRLILVGGLAWTALVVLVGVLNYFVV</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>APVTAGRGGALAKMYTRGNHWAVGHLM</t>
+          <t>MEEPTSSTNENKMKSPCESNKRKVDKKKKNLHRASAPEQSLKETEKAKYPTLVFYCRKNKKRNSNQLENNQPTESSTDPIKEKGDLDISAGSPQDGGQN</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MSTRRQAITLYRNLLRESEKLPSYNFRMYAARKIRDTFRANRSTRDFAEIDRQMAEGQQNLELIRRQVIIGHLYSADKLVIENKKTLKPSDD</t>
+          <t>MLYNINKRLYLFEKGREEMAEVNVKKSSFFKEKKEVPNTDFSLLKGALIQNLDRLEKFVEAIPYKYIKEGNVKENA</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SEEVKARRARVVWCAVGPDKQKKCQQWSQQSGQIGTCATASTTDDCFFLVLV</t>
+          <t>QYYGYPYAAVLPQPVADTPEVASAKAAHFAAYNVAAAAAAAAPDYDAVGVVAPPYPGYSAYVGPLAGIPAIVNGVPADTPEVAAAKVAHFAAHAAANHY</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>QRCGSQGGGGTCPALWCCSIWGWCGDSEPYCGRTCENKCWSGERSDHRCGAAVGNPPCGQDRCCSVHGWCGGGNDYCSGSKCQYRCSSS</t>
+          <t>MSALFNFRSLLQVILLLICSCSYVHGQWPSLLDRYKNHEVLGAFWKMARVGERASPYVSLACILMAISQFNS</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AYGGKKCWHKSGYCRKTCKADEVIKTACQHYQVCCVPAQKFPITSPTHIYNFLFDITDTMVTSLTTPSFEISTMNKENEKFDSELET</t>
+          <t>TYDAYDECQTELDCPKNIDCVYPKSMKCIDKKCICVGARMIIPRVL</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,59 +1545,59 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MVEVEKKKITLSIPVETNGKLEELAQKYGMTKSGLVNFLVNQVAEAGTIYRQ</t>
+          <t>MTNTTNAAAATGLTSTTNTPQVSAFVNNWDNLGMWWFSIALMFVCLIIMWLICCLKRKRARPPIYSPIIVLHPNNDGIHRLDGLKHMFFSLTV</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AMNSQLTLIVTIVLIFSSSRCERILDLRKTKKSCKNGEVLGCVSGHGPPGCSENECGGPRPKACFFDCHYGCCMCTGKLYRRKRDRKCVPKHECLL</t>
+          <t>MFLSSAVRKDSNGVRHLPSVQRWTPGSPPTRAHGHVSYVAQCATAQCREAVGRTYPGVVKKGLENTDKVRGFI</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MGGGGHGGGITYKGVTVHTPKTWHTVTGKGLCAVMWFWILYRAKQDGPVVMGWRHPWDGHGDHGHGDHH</t>
+          <t>ETLQQTLDASRGVTTLPLGVERRTDNPIYVTWTGADTVLGDVPKSPRFALVTETRVTK</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MSAEALADPKADPLAGPNPDADPEAINLKAIAALAKKLLG</t>
+          <t>MMKRLMAILTAIMPAIAMAAEGEASVAKGLLYLGAGLAIGLAGLGAGVGMGHAVRGTQEGVARNPNAGGRLQTLMFIGLAFIETIALYGLLIAFILLFVV</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MEKQFNVWSVQNDIVCQRQLTINLRRVRNEYDNAVASVAAPSCPPSIPAQTRTCGRKLKLDWFKCTIL</t>
+          <t>MNMDIEARVKKVITSCIAVDVDSINGQTHLVEDLYADSLDLIDIVFGLSEEFDISCNENDLPDMMTFADICRVVKKSLESRV</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MNLNVVNRELKVGQIKMNGVSSSALFLIGDANLLILSSILDTPFETVTEGPFVPLVTDVPPTPG</t>
+          <t>MFVTSKKMTAAVLAITLAMSLSACSNWSKRDRNTAIGAGAGALGGAVLTDGSTLGTLGGAAVGGVIGHQVGK</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,20 +1623,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LYIGCETDRDYPPLANKTFYLKCIDKKCEWTVTDSLSTRSGRMQKLSI</t>
+          <t>KRLLQDLNIKINQVIPEGGSVQDLQNLPKAWFNLVPYREVGLMTAIYLEKNFGMPYISTTPMGIVDIAECIRQIQKHVNNLALNQTFNYESYIDQQTRFV</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MGMRMRMMFTVFLLVVLANTVVSFPSDRDSDGADAEASDEPVEFERDENGCCWNPSCPRPRCTGRR</t>
+          <t>KELLDADGDILRNGGPAYPGLMPGVERDLPASGWGLPRRTGDESCPLNVKAVR</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,11 +1649,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MRMAEEYGKGVPMVLNPQMGAIDATVESIRYRAQLIARNQKLDSGVMSTGIIGFAAGFLFSLLMVIILPLMAGL</t>
+          <t>MMTKCQKRASIQGLWLLSMVLLASSSLVCASMAVDGQTKEDINATSVTSMNMTRSSSASYNMTGGGGELNRGPCVVRSGFYWCQNIGYPTMSECLKNCES</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,46 +1662,46 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MATIFDILNTHNNNNNFENCKRQCSTNKSNKTIIDILPSMDVTMTNDKLIIETELAGISKDHIEIDIKDSILTI</t>
+          <t>MRILYQLLVVLFVMLQAAAGQRYIPGRFNSCAARNGICIPGICRRPFYWAGRCSNGLTCCKRYVEVQG</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MKHLNFFIKALKKEFESFKDTGASIEEMTKSKPYTKVGSQERAVLIEWVGPMNRKNIIHLNEHGYTRDGKKIYTKRFWSYCKNISC</t>
+          <t>MLYLIIYDVPATKAGNKRRTRLFDLLSGYGKWRQFSVFECFLSVKQFAKLQTAMEKLIKLDEDAVCIYVLDENTVQRTITYGTPQPEKPGSIII</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MSETGETSEYYKQALEEYKEVQEDEDPDVWDTRISKTGCYVENLALQLCHAETGDWRQCFNEMALFRKCWEKNGNRERVSTVDVDGTTSKDSEKKK</t>
+          <t>SSFSPPRGPPGWGPPCVQQPCPKCPYDDYKCPTCDKFPECEECPHISIGCECGYFSCECPKPVCEPCESPIAELIKKGGY</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>VQTSHQSNKAMEHVKQIPSLGVVVPRVLSSKTF</t>
+          <t>MFSLKLFVVFLAVCICVSQAVSYTDCTESGQNYCLCVGSNVCGEGKNCQLSSSGNQCVHGEGTPKPKSQTEGDFEEIPDEDILN</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MKIFYYLLHFLCYMTFILPAICTLVDPERCSKMYGQCRTRCYKIEKQIDICYSPSKICCIQRAFEEDLS</t>
+          <t>VSEACEESCEEEEKHCCHENNGVYTCLRYCW</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,24 +1727,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ACLARGETCKDDCECCDCDNQCYCPFDWFGGKWHPVGCSCAYTNKYVCDHKKEKCKKA</t>
+          <t>MLWTYDMMSFQKIYSPTQLANAMKLVRQQNGWTQSELAKKIGIKQATISNFENNPDNTSLTTFFKILQSLELSMTLCDAKNASPEAAEQQDLEW</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MERMDIIIWLLAVVIVLTTLMIFLHLKTLKIIRLLFPVSKELSKKSCVFPWKKKWTKNYPPSSMYP</t>
+          <t>MNWKAFRLVSLYYLLALVIAFGLIVVITLVFGASVTIAIGRILGNLIILKVIWDMLHKEYEEAKEDLEK</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>VSWGEGCDRDGKYGFYTHVFRLKKWIQKVIDQFGE</t>
+          <t>KVLLLCVLFAVIAAAFAAEEQRDEKLISALANAAKGIFGGVSNIASNFLGRQKPQTETYTTIEEIQVPA</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,11 +1766,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MELSADYLREKLRQDLEAEHVEVEDTTLNRCATSFRVLVVSAKFEGKPLLQRHRLVNECLAEELPHIHAFEQKTLTPEQWTRQRRE</t>
+          <t>MRLSVCLLLLTLALCCYRANAVVCQALGSEITGFLLAGKPVFKFQLAKFKAPLEAVAAKMEVKKCVDTMAYEKRVLITKTLGKIAEKCDR</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,20 +1779,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MPRRGDHLSDLFGLVHRLEGMSTLWNNILHYLRQIPELETARLFLPGSLQAQQLSHSFADSGIPAGEVCLLSLLSLRRLSRTCSYPDCRTQLRHSNLQR</t>
+          <t>VSAPNNIFHKGMRVIVTKADRDDVRLGLHGDTIATVVGVH</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MTEILKLFYAMILFASLFLVAMEIGESFGCTEHRHCEIAMCKFPFIVRCSMNECNCERVHYLI</t>
+          <t>FLTLLCPIQVQTAPVPEDWTGLITRAKRSLLWRWNTLKPVGTSCREHDECGTKYCRKKICSFQV</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,37 +1805,37 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MNDNNSCKLTMLTRRLENMTQEYGQPDLPVPFLNGDEPGKLKLPLSERHEDVDYLTKEQCIQYFNGYSIHLIPPRISS</t>
+          <t>AGLTKRSLFDPSCTGVFDRQLLRRLRRVCDDCFNVFREPNVSTECRSNCYNNEVFRQCMEYLLPPHLHEEHRLAVQMVGK</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MATINVYVFAFIFLLTISVGSIEGRKLTKFTVTTSEEIRAGGSVLSSSPPTEPLESPPSHGVDTFRPTEPGHSPGIGHSVHN</t>
+          <t>MASASCSPGGALASPEPGRKILPRMISHSELRKLFYSADAVCFDVDSTVISEEGIGCFHWIWRKCDQATSQG</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MHNIIQRPMAINGQVVIRPMMYLALSYDHRLIDGKEAVTFLVTIKNLLEDPSRLLLDI</t>
+          <t>MAEILKFVYIIIIFLFITEIKGDKFVFDKNGADRCRSILDCPQDKCFPLLTLVCVNFACDCLHV</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MNTLYHKMQEHVCFVGFTRDGVNYQTNRVRTFGEARHFITFNCSPSDKDIRIFYRIPHEGAEDVEVVIARLDLTETKENN</t>
+          <t>MGRFVVWPSELDSRLSRKYGRIVPRSIAVESPRVEEIVRAAEELKFKVIRVEEDKLNPRLSGIDEELRTFGMIVLESPYGKSKSLKLIAQKIREFRRRSA</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,63 +1857,63 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MEINKAYERLLKEVELLQNDLMDIEDYSEEVYQAFQKVIDELEYVIEEG</t>
+          <t>AMNSQLTLIVTIVLIFSSSRCERILDLRKTKKSCKNGEVLGCVSGHGPPGCSENECGGPRPKACFFDCHYGCCMCTGKLYRRKRDRKCVPKHECLL</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MQTLSSAPDPAVSVAVTILAVLLALTGFGLWTAFGPKAAKLTDPWDDHDD</t>
+          <t>MFNTALLLAQASPTTAGWSLSVGIIMCLCNVFAFVIGYFAIQKTGKGKDLALPQLASKKTFGLPELLATMSFGHILGAGMVLGLASSGIL</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CAKHSETCKNGNCCTCTQYRGKDEPMACRRGTHGQRCQCVMKIMKH</t>
+          <t>MSETGETSEYYKQALEEYKEVQEDEDPDVWDTRISKTGCYVENLALQLCHAETGDWRQCFNEMALFRKCWEKNGNRERVSTVDVDGTTSKDSEKKK</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MTNTTNAAAATGLTSTTNTPQVSAFVNNWDNLGMWWFSIALMFVCLIIMWLICCLKRKRARPPIYSPIIVLHPNNDGIHRLDGLKHMFFSLTV</t>
+          <t>MQAPDSVRSVKVEREAKTWIEKPRGAGLRVAQKTPVHATTSLTLGTVVHLAFIILP</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MFYLPRAMRFLLLVLPVLALLPQVTPDYGAKKRCLKILGHCRRHCKDGEMDHGSCKYYRVCCVPDLNSYNQNYAITWTTEETSTSEYDLSSDFIGVLRAI</t>
+          <t>MGLGGISIWQLLIVLVIVLLLFGTKRLKGLGGDLGGAIKGFKKAMSDDEAAKQEAEEAEQKKVAAEEAAAAKTAEQKEKTEAK</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MALFSKILIFYVIGVNISFVIIWFISHEKTHIRLLSAFLVGITWPMSLPVALLFSLF</t>
+          <t>MPFVPVETPKCPACGKSVYAAEERVAGGYKFHKTCFKCSMCNKALDSTNCTEHEKELFCKNCHGRKYGPKGYGFGGGAGCLSTDTGAHLNRE</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MSLEEKRALQNQILAEYANLASNLETLVKVLQDMVYNPSNNILDSLRDLEKEVGLVYTLYKASVWAILADLENNQEGKSGMFQDES</t>
+          <t>MKTLALMSLFVLTSLNALAAPKTVTLEVPTMNCVTCPFTVEKALQKVDGVSKAEVTFKTKLAVVTFDDEKSTVKALTEATTNAGYPSTLKE</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,24 +1948,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MTNVYSLDGILVFGLLFVCTCAYFKKVPRLKTWLLSEKKGVWGVFYKAAVIGTRLHAAVAIACIVMAFYVLFIK</t>
+          <t>MPTGFHRESATIYQFPVKAIRNANRFERARLMEREAAEVCDAALDSCWYHDEAVRESDRPTKS</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>LSPSKVTCLQKLEKLHSETRNSSTIFENAQYGTEEKQKAGSKKHYALFNLTHACIMFGGQCKNKCGENEFRMVYCVVSTSLCCIRQCKP</t>
+          <t>MEIVLEAKERTDKKRSTLRRIRSQGGIPAILYGKKVENKMIFVTAAELEKVLREGGRTS</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1974,24 +1974,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MTLLSSISKIGTIKNGNSLNEITSTISNNEAKGSPSFSGNQSTKSIGDLLLQIAIITKATTKNK</t>
+          <t>MLKPLGGRVALKIEEKGPTVGGFVLAGSAQEKTQTAQVVATGQGVCTLNGDLVAPSVKTGDRVLVEAHAGFDVKDGDEKYIIVGEANILAIIEE</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MFWIFVMAKPASLSIELDSDLDRRLSEIAEGMDQPKTAIIERALRDFVELRDWQDAAIDEGLRAAEEGRVFDHDKVGEWIDSWGTPNERPMPSRD</t>
+          <t>CYCQDPYVKEAENLKKYFNAGHSDVADNGTLFLGILKNWKEESDRKIMQSQIVSFYFKLFKNFKDDQSIQKSVETIKEDMNVKFFNSNEEVE</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MKTLALFLVLVCVLGLVQSWEWPWNRKPTKFPIPSPNPRDKWCRLNLGPAWGGRC</t>
+          <t>MNTLYHKMQEHVCFVGFTRDGVNYQTNRVRTFGEARHFITFNCSPSDKDIRIFYRIPHEGAEDVEVVIARLDLTETKENN</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FDISCDKDNKRFALLGDFFRKSKEKIGKEFKRIVQRIKDFLRNLVPRTES</t>
+          <t>KKIKRETEEDENENEEERNERSEMKRYAFGYPSGEEKKIKRETEEDENENEEERNEEGSEMKRYAFGYPSGEAKRMKRKPAEEETE</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AERLIGTSTKEFDESIRHTLVLRSLQDAYKDRQR</t>
+          <t>VIEPKCYKYEGKKCPPDINPVCGTDKRTYYNECALCVFIRQSTKKADKAI</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,24 +2039,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MPAYGLTYRFRFPVALRRRRRSRFSGGSLYARRRRRRVRVKGGFLPALIPLGAALISAIPGIASVAMQASQLKK</t>
+          <t>MSANGNAALGVRLTEDQVKVLEENFTKVSKHPDETTLMLIAAECGLSEEQTAVWFRMRNAQWRKAEGLPAELGSVKD</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MNMDIEARVKKVITSCIAVDVDSINGQTHLVEDLYADSLDLIDIVFGLSEEFDISCNENDLPDMMTFADICRVVKKSLESRV</t>
+          <t>MALFSKILIFYVIGVNISFVIIWFISHEKTHIRLLSAFLVGITWPMSLPVALLFSLF</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -2065,37 +2065,37 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MSHVDVTVDEATINAIRQRMLETGDWERIQKLLRAHLEESGWVDDLKDLAKEKARAQDVPNLENLVKQISESAAGMVSDNVKRDVMLEIESVLDREVDQA</t>
+          <t>GGLRSLGRKILRAWKKYGPQATPATR</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MSISSRVKSKRIQLGLNQAELAQKVGTTQQSIEQLENGKTKRPRFLPELASALGVSVDWLLNGTSDSNVRFVGHVEPKGKYPLISMVRAGSWCEA</t>
+          <t>ELATNEIDYPQEEGALNQQDKKDGSYKMSHFRWSSPPAS</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MSEVNAGEICYVKKQRKGTINPNKICQPIGAMWATVGVKGTIPFVQGSQGCTTYVRYAFNRHFREPVSIATASFHEHAA</t>
+          <t>MFATRRAMLCMIFIYLLVQTAESSWLSKTYKKLENSAKKRISEGIAIAIQGGPRRRRFVVQQDTISPRLEVDERFLPNSVQEQI</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,37 +2104,37 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MTTGLDAARKQEIKEIVCDILEIDEDEVTETSLFKEQHDADSLRAIEILAALERTQKVTIDQAELSRMVNLEGVYVVVSEAAQN</t>
+          <t>MALLDLQAMDTPAEDSFGELATGSQVSLLVCEYSSLSVVLCTP</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MGLKWTDSREIGEALYDAYPDLDPKTVRFTDMHQWICDLEDFDDDPQASNEKILEAILLVWLDEAE</t>
+          <t>MGLSTHCQLVFSWKPMNTHMVSRAMEGSLKSYPFPSNINITSCVSIKLNDRNYLLYDEGRVRLSLLNLGERCDFVPFLSVELFKPLQSSGVYEKLHESNN</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MMKRLMAILTAIMPAIAMAAEGEASVAKGLLYLGAGLAIGLAGLGAGVGMGHAVRGTQEGVARNPNAGGRLQTLMFIGLAFIETIALYGLLIAFILLFVV</t>
+          <t>LSSANFPFCLLLGTVTEQLKRCWDDYVQGHCRKICKATEIREILCANGRYCCLSIKDVKARKVITRAPRPKPRTQAYTFPQDQFPTLENYAISN</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,50 +2143,50 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MADLKPSLTGLTEEEAKEFHGIFVTSTVLYLATAVIVHYLVWTARPWIAPIPKGWVNLEGVQSALSYLV</t>
+          <t>MDTKTLIDKYNIENFTNYINFIIRNHQAGKGNLRFLVNLLKTTGGSNLKELDINPVEIENFNIDIYLDFLEFCLDSKFIF</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MFNTALLLAQASPTTAGWSLSVGIIMCLCNVFAFVIGYFAIQKTGKGKDLALPQLASKKTFGLPELLATMSFGHILGAGMVLGLASSGIL</t>
+          <t>SEALAVDGAGKPGAEEAQDPEGKGEQEHSQQKEEEEEMAVVPQGLFRG</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MRTQVLFLIVVLAVMASGDDTAHVYCGRRLATMLLYVCDNQYQVKRPPYISSENEGYGWKWLERQRARQLDEARGKRQGIVEECCNKPCTENELLGYCYK</t>
+          <t>MGCLVVVKEILRLLFLLAMYELGKYVTEQVYIMMTANDDVEAPSDFAKLSDQSDLMRAEVSE</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MAQLIIFVYALMVFLSIFLVESYKTKTPCKSLNDCPKAIKPIFVKCLGNICQYSIGRI</t>
+          <t>MKKTDKILKEIGIQRVAIMEGKKYSKGFMEDGDIGVQY</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MTKLNSYETLYIVKPELTEDSLAKLIESYQGLLLERGAKNIITQNRGRRTLKYMIKKYKDAHYVQMNYEGNGEVIQLLERAMKINESIVRFLTTAI</t>
+          <t>MSLEEKRALQNQILAEYANLASNLETLVKVLQDMVYNPSNNILDSLRDLEKEVGLVYTLYKASVWAILADLENNQEGKSGMFQDES</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,24 +2208,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MWSDSLVSRICVPIIVVCTSIALLNVVSFRSECSCVVHISGAAIDIRGCSFTPDFIEYAKTLRVFNHRYQE</t>
+          <t>MLIPEFKPPLLYVMGSFSVMLEKHQCSVTFYLREPYLGTSYDKIVKLIKMTYPNYSLTYVGMADNKYKFTLKNKED</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MASKTVLVLLLVSVLVSTFCTAKAYPASLEDNFDLDALDDLDDLDLEDFYDLEPADLVLLDMWASMLENSDFEDDFE</t>
+          <t>AYGGKKCWHKSGYCRKTCKADEVIKTACQHYQVCCVPAQKFPITSPTHIYNFLFDITDTMVTSLTTPSFEISTMNKENEKFDSELET</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,37 +2234,37 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>QAIGPPYGLCFQCNQKTSSDCTEARRCSPFHEKCYTLYQPDENWMKSSGLSHFGCGKQCPTAGPEGRVTCCLTPRCN</t>
+          <t>MESNFIDWHPADIIAGLRKKGTSMAAESRRNGLSSSTLANALSRPWPKGEMIIAKALGTDPWVIWPSRYHDPQTHEFIDRTQLMRSYTKPKK</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MASALSPGSRVLIALIRVYQRLISPLLGPHCRFTPTCSSYGIEALRRFGVIKGSWLTVKRVLKCHPLHPGGDDPVPPGPFDTREH</t>
+          <t>FRVPLRIRPCVVAPRLVMVRHTFGRIARWVAGPLETR</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MALPKRRLSHSRQGNHRAHVALTAPAVMECPQCNSPKLSHQACSVCGTYNGRTVIDMEAIAKKKADKSKGQQ</t>
+          <t>RWSLWLLLLGLVLPSASTRSFSYREAVLRAVDQFNERSAEANLYRLLELDPPPEQDAEDRGARKPVSFKVKETVCPRTSQQPVEQCDFRKNGLLKECVG</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MNTKTMSQFEIMDTEMLACVEGGGCNWGDFAKAGVGGGAARGLQLGIKTRTWQGAATGAVGGAILGGVAYAATCWW</t>
+          <t>MRINRTPAIFKFVYTIIIYLFLLRVVAKDLPFNICEKDEDCLEFCAHDKVAKCMLNICFCF</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MASASCSPGGALASPEPGRKILPRMISHSELRKLFYSADAVCFDVDSTVISEEGIGCFHWIWRKCDQATSQG</t>
+          <t>MYIENNSLVLIIPETNSITPQLFTIHDNKPICVCSRYSLIPSKKENVQISYIDNIHMYFRSFKNLYLVNPRNHDIIKVFNFLKNYKWGGNFYLLFNV</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MNYKRIFFSFIAILFISMVASSPAPKWKPFKKLEKIGQRVRDGIIKAGPAVQVVGEAAAILKPAQG</t>
+          <t>QSLEETADQVPAQDQPGAEAQDITISFAGDERSAREASKSLIGTASCTCRRAWICRWGERHSGKCIDQKGSTYRLCCRR</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,50 +2312,50 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MNIEAYPHDFRGSLAVVSATGVAGCRTWTLRSVETGKHYELAPASIEGWPLPAKREDSRPNSIIVNYDGNDVIALELATGELYRTRAPATTLRLRR</t>
+          <t>MDKRIEEVAAKALEKMGNDRYRLSLVVAKRAEQLANGATPLVDFDKNKNKLADIALYEIAENKITLEGLVETNR</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MAAALALVAGVLSGAVLPLWSALPQYKKKITDRCFHHSECYSGCCLMDLDSGGAFCAPRARITMICLPQTKGATNIICPCRMGLTCISKDLMCSRRCHMI</t>
+          <t>WYKHVASPRYHTVGRASGLLMGLRRSPYLW</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>KRLLQDLNIKINQVIPEGGSVQDLQNLPKAWFNLVPYREVGLMTAIYLEKNFGMPYISTTPMGIVDIAECIRQIQKHVNNLALNQTFNYESYIDQQTRFV</t>
+          <t>MPAYGLTYRFRFPVALRRRRRSRFSGGSLYARRRRRRVRVKGGFLPALIPLGAALISAIPGIASVAMQASQLKK</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DCPTRCPTTCANGWECCKGYPCVNKACSGCTHGK</t>
+          <t>MARNIKMATDAQNWLQARGSHVNESYLGVARPILEITYPPVELVKNAVRIMEHKSGVARSVWTARLNGCQIIWR</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2364,37 +2364,37 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MAARVGVLSVAGFRAAARAGGLLRASKQSSAVSHVPCRTAIATSAGTVLPKPEKVSFGLLRVFTVVIPFLYIGTLISKNFAALLEEHDIFVPEDDDDDD</t>
+          <t>MMIYGLIACLIFVTSSIASPPITEDKSFNSVEVLVSLFRDDQKDYTVTSQFNNYTIDTKDWTIHT</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MALLDLQAMDTPAEDSFGELATGSQVSLLVCEYSSLSVVLCTP</t>
+          <t>EFLENAKKLSMYGVDLHHAKDLEGVDITLGVCSSGLLVYKDKLRINRFPWPKVLKISYKRSSFFIKIRPGEQEQYESTIGFKLPSYRAAK</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MGPPRRVCRAGLLFVLLVALAAGDAGPRGEPPGEEGGRDGIGGARCETQNTGQMSAPGALVPFYVGMASMGVCIIAHVCQICQRLLAAGHA</t>
+          <t>MEGIELDNYYNFLEIGYLEGDQANVETTVYNLTGMLSAKVSDVTESEFEAAVEEVTEAIDNLTNSLEVLSELFTEAKQYLAKEDKKWEDNV</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,11 +2403,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>GTISLSLCKEERDADEDDGGEVQEEEVKRGIFSLIKGAAKVVAKGLGKEVGKFGLDLMACKVTNQC</t>
+          <t>EGSGGSGSSGNFTTGSNVRMSSVTNTSNAGTGTSGGGNSAAASGASVNAPPVTVTLTESLLNK</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2416,33 +2416,33 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MESNFIDWHPADIIAGLRKKGTSMAAESRRNGLSSSTLANALSRPWPKGEMIIAKALGTDPWVIWPSRYHDPQTHEFIDRTQLMRSYTKPKK</t>
+          <t>MDNKVAKNVEVKKGSIKATFKAAVLKSKTKVDIGGSRQGCVA</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HHHHHHTKRRITPKDVIDVRSVTTEINT</t>
+          <t>MVKGQSLQDPFLNALRRERVPVSIYLVNGIKLQGQIESFDQFVILLKNTVSQMVYKHAISTVVPSRPVSHHSNNPGGSNNYHGSNTTAQQQSQEADDAE</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MNKSPIEEEFDLRKQHQKLLKKNCQKEIEDFVKCATGRTFSVTWKCRSENKTMKDCLTKAADEISEWQIRSEYNKAKQESFIGKQDEKK</t>
+          <t>MKMSVTFLLILMILPLFTGEWQSGSRLSALKKRLLEKRLLQKRFCTEIGKDCGTSWECCEDCCIHGTCSHESNCANFKLR</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,20 +2455,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MVPPVQVSPLIKLGRYSALFLGMAYGAKRYNYLKPRAEEERRLAAEEKKKRDEQKRIERELAEAQEDTILK</t>
+          <t>MFRFIKDSILELKKVTWPKYNEVVGNGKQVFWLVLFVSIFLGIVDYLMFLVVTYVF</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MWIEKFKNKNNETKYRYYEKYKDPYTDKWKRVSVVLNKNTKQSQKRSNVSFRRKNKRKN</t>
+          <t>MNYYLLYLALGAAWFFVAIGHIFRVPSKQTVERIITPPILISLSFFSTFMFYVFLWPLALLIDIWRRMIKKSTT</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MEFDSYIDWYNNLLTMPLNDVILGVKDTIEDKTVYLSLSDSKVIKMDNTSFVMGYY</t>
+          <t>MLKMGVVLFIFLVLFPLATLQLNADQPVERNAENIQDLNPDKRVIKIPVPRRRGPYRRYGNCYCPIG</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MKTSKMICAFLLVLVVGTFNDISGAYGEYVEDQHSFKIERRFPPCVEVCVQHTGNVKECEAACGE</t>
+          <t>MVPPVQVSPLIKLGRYSALFLGMAYGAKRYNYLKPRAEEERRLAAEEKKKRDEQKRIERELAEAQEDTILK</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,20 +2507,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MKKRSSRKLAQVIGRKTGNYFPASIEGETKKEHKHHYSTASKEKESLRKRAKEFDVLVHSLLDKHVPQNSDQVLIFTYQNGFVETDFHNFGRYSVKL</t>
+          <t>SWDSIWKSAKNKMDKIMRQKVAKWMAKKEGKSVEEVQAKVDAMSKKDIRMHVISHYGKKAFEQLSKSLEE</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>KKKRYIECETHEDCSQVFMPPFVMRCVIHECKIFNGEHLRY</t>
+          <t>WNPFKKIANRNCYPKTTCETAGGKKTCKDFSCCQIVLFGKKTRAKCTVVT</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,33 +2533,33 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MVGVNSLRSALYLIVLILFVQLTYFSDARVMDVDLSRAFLPLTGIGCGESCVWIPCVSAAIGCSCSNKICYRNGIIPKK</t>
+          <t>MNWVPSMRKLSDELLIESYFKATEMNLNRDFIELIENEIKRRSLGHIISVSS</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MPKLGVSLFIFLVLFPLATLQLDGDQSAGRHAQERGEDLFKMYQYLRRALERRRTGEDFLEECMGGCAFDFCCKRSLRDTTSD</t>
+          <t>MNFLQNFCRSKFIVFERVTPFTHKIIHKHSHHQTSSFNPMPSEVSLHTSHNFPHTTF</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ELATNEIDYPQEEGALNQQDKKDGSYKMSHFRWSSPPAS</t>
+          <t>MQAQNKKVIYYYYDEAGNRRPVNIQYNDGYDLMIDPRFIEMTLERHPHLKNNFYGLIDGKEFKLD</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,11 +2572,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MPMSLDSLAVGMVALLVDYYSKALRASLNSTGIDRRWGDQWPSTVELTGRGVIEWESPTFCICSSSRSTAIV</t>
+          <t>MHGEITTLQDYVLDLEPEATDLYCYEQLCDSSEEEEDTIDGPAGQAKPDTSNYNIVTSCCKCEATLRLCVQSTHIDIRKLEDLLMGTFGIVCPGCSQRA</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2585,72 +2585,72 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>METLVAGSIFMVLVSGVLAIIIYMLPWFIALMRGSKSTVGIFFASLLFNWSIIGWFITFIWSIAGETKKSAQPNQVIIIREKE</t>
+          <t>LVIIDHHKPCVSDTDCAFYLDIPPTVKYCSDGLCAWYFPDNPLP</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LKCHKAQFPNIETQCKWQTLCFQRDVKPHPSSMIVLRGCTSSCGKGAMCCATDLCNGPSTPST</t>
+          <t>CFLWHVRKRVADQELGDAPFLDRLRRDQKSLRGRGSTLGLDIKTATRAGKQIVERILKEESDEALKMTMASVPASRYLTDMTLEEMSRDW</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MVAKQRIRMANEKHSKNITQRGNVAKTSRNAPEEKASVGPWLLALFIFVVCGSAIFQIIQSIRMGM</t>
+          <t>MKLITYVKEGESIDRVLKKCKQKFDKARIIRKLRERQQYIKPSERKRKILAKAKYREFRKLLADD</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MKTLALMSLFVLTSLNALAAPKTVTLEVPTMNCVTCPFTVEKALQKVDGVSKAEVTFKTKLAVVTFDDEKSTVKALTEATTNAGYPSTLKE</t>
+          <t>MVRVIGSLVFGGLILLLASSNAHMVETRFGPLIMLAPHFVVLGITFFLGFAIGIVLVFANVMKRRKHKLPGKNIVIKR</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>WLNALLHHGLNCAKGVLAWLNALLHHGLNCAKGVLA</t>
+          <t>MAMTKKFKVSFDVTAKMSSDVQAILEKDMLHLCKQVGSGAIVPNGKQKEMIVQFLTHGMEGLMTFVVRTSFREAIKDMHEEYADKDSFKQSPATVREVF</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>DIDITGCSACKYAAGQVCTIGCSAAGGFICGLLGITIPVAGLSCLGFVEIVCTVADEYSG</t>
+          <t>MKVYCLLLVFLVGLVSQAHGRLDKRCMTVCTMEYWPVCGSDGKTYPNKCHLTSTACTSQKDITVLHVGKC</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,76 +2663,76 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MNFQQRLQSLWTLARPFCPPLLATASQMQMVVLPCLGFTLLLWSQVSG</t>
+          <t>MFIIDDLFVSPFFSLLDILQTMALDEMYDTKSIRDDIKENQLLYEVGERSDEEYQQRKQALESQLEMAEQVQEQMRDRMEVKK</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MASHHEITDHKHGEMDIRHQQATFAGFIKGATWVSILSIAVLVFLALANS</t>
+          <t>MGLKPSCLKGFKMCVSSSNNNHDEAPVLNDKHLSVPNIIITPPTPTGMGLSRDSNKQVWMDELGSYQDDGELEPEA</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MSQPYLISKWMDPLFGIFVGTYGYYLYEKEHRPRGRSLRELALRKWNKQAVSQQSMKN</t>
+          <t>MAARVGVLSVAGFRAAARAGGLLRASKQSSAVSHVPCRTAIATSAGTVLPKPEKVSFGLLRVFTVVIPFLYIGTLISKNFAALLEEHDIFVPEDDDDDD</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MPQKDPCQKQACEIQKCLQANNYLESKCQAVIQELRKCCARYPKGRSLVCSGFEKEEEEKLAMKSGSK</t>
+          <t>MSEMIVLPHKVTVKVPLASRVDAERCLQVLAPDRELKEELVQRNLFVDDNYLVVNYSCSSARMTRVTVNSLFENLYLIIDTMHELSSL</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MNVAAWLHNGEWHLFTDEMNRVVSDQAYYQAGLKGPDKRDLVLLRMTAKRRNTAYWFHFRKDNPFNKYMPVAYTEEIPKELQALLTIYGL</t>
+          <t>ADDYDDEVLPDARGHRPIDRKREELPSLRPAPPPISGGGYR</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MPTEERVRKRKESNRESARRSRYRKAAHLK</t>
+          <t>MGLKWTDSREIGEALYDAYPDLDPKTVRFTDMHQWICDLEDFDDDPQASNEKILEAILLVWLDEAE</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MSPPSSMCSPVPLLAAASGQNRMTQGQHFLQKV</t>
+          <t>MVLTNLQKITGLLCVLVETKKLKIFIKFMLKTKNGGKKVLKKIYKKAKKKNILTMIMFI</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,20 +2754,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>DCKHQNDSCAEEGEECCSDLRCMTSGAGAICVT</t>
+          <t>MGAVFAIIGGFALDSPILRLYLDQLSLNHFTDIVGATKVSSLNIPWPLRIPRRIRLPGRLYNMKYCFINRLIHFPNCRNSNNFYNSEKPSPQNEK</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MAEILKFVYIIIIFLFITEIKGDKFVFDKNGADRCRSILDCPQDKCFPLLTLVCVNFACDCLHV</t>
+          <t>CAKHSETCKNGNCCTCTQYRGKDEPMACRRGTHGQRCQCVMKIMKH</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,20 +2780,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>GDVYADAAPDLFDFLDSSVTTARTINA</t>
+          <t>MGQAVSYLTYTLRRCCKKNTLTTESGEVIELDDEHYDTVDLDDLRCSDPLMQPKFVLLKNGRRGKRNREYDNDHEKYVMMFNKE</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MFSGAGRPSKEQIKQYDNLAVGEMKKGASVAAVLLLTPFVISFFQKMRA</t>
+          <t>MEKMVKFNLRYDELLKKIPYKYAIPVVVAKRAEAIREYAKPFVITDDENPVSIAFMELSLNYIRIKNEEILKALIPKVK</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,59 +2806,59 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>LDDDDDINDSSNWIKANPNLGVSINLDEMKEEWEKAKRTPAERGDFITKRFNIFANNDEMSFIDYPTLQKK</t>
+          <t>MSEQTGKVDDSQSPPKVQKKLRKGDLVKVDREKYSNSLESKASDTNLPEYIFQGPGEVLLIKGDYCQVRWRRPVPDVWMNSDHIVSY</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AVDAYDDDDNLKNEEGDYYNESDDGYSGDEEEEEKQEEDEQDDDDLQFDDGVPEDPISTLKCFSFNSVGTGSPCIFGVPVPAIRQVHS</t>
+          <t>MSHSYKKAISDEALRPFQMDYFGGLPPGQYATRMTGQVHGSGCHLRSAPCDLGASQRKLSSNFSEIDAGLFSQGKSAAYTDIGATKPVEQRETAS</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MSRKYRGFDTAFTKDGVCVYVIKDDKEKGTALVRDTRGGDEYTVSNEGMIYTKDMESIDVYMPW</t>
+          <t>MKCSLRLFEKAGRLSVRSQTVQTFQQRIVLANGASYLVNTTLPKPYILSIKDITNMPLNNPKVNALSSIRGQESRRSKFEERYEGL</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MFRIEGLAPKLDPEEMKRKMREDVISSIRNFLIYVALLRVTPFILKKLDSI</t>
+          <t>MFWIFVMAKPASLSIELDSDLDRRLSEIAEGMDQPKTAIIERALRDFVELRDWQDAAIDEGLRAAEEGRVFDHDKVGEWIDSWGTPNERPMPSRD</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MDPIINGNSANVYLTDSYLKGVISFSECNALGSYIFNGPYLKNDYTNLISRQNPLIEHMNLKKLNITQSLISKYHKGEIKL</t>
+          <t>MAELQERIRHFWKESRRAFLVTKKPNWATYKRAAKITGLGIILIGLIGMLIRIVGILILGG</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>KYKPTDATTNPSLILQAKFLEELQNSKKIYNYYKKESVVEHLSESSAKKLEMTEANFRWEMNEDKFAVDAVKLEK</t>
+          <t>MPMATTIDGTDYTNIMPITVFTTVYLGVFIGIDTSTTGFTCFSRY</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,37 +2884,37 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>YVPKIPKPQPNKPNFPSFPGHGPFNPHASRFPRSPKDNGKIVFDAKKEGGKTQWNVETQQ</t>
+          <t>MEKTYGKTVLPLSRVKRIIKQDEDVHYCSNASALLISVATELFVEKLATEAYQLAKLQKRKGIRYRDVEDVVRKDDQFEFLSDLFSI</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MAKATKKAEAKTVTIEQIGSPIRRPDVQQRTLIGLGLNKMHRRRTLEDTPSVRGMIRAVQHLVRVVDEK</t>
+          <t>PKDGPSPGGTLMDLSERQEVSSVRSLSST</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MSKTVVRKNESLEDALRRFKRSVSKSGTIQEVRKREFYEKPSVKRKKKSEAARKRKFK</t>
+          <t>MLSLVSPLLKKSIVIQLFSITVYKFKAKFWYKLPFETRLCIIKHTRPKALSVTKQVKRDYRKIAILNSMRK</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -2923,50 +2923,50 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MFQRIGFPGVTNFQVLLALASLIPTPASRDFFRLPLTVGFTGAEIVNIEFECLRQLTPGM</t>
+          <t>LDDDDDINDSSNWIKANPNLGVSINLDEMKEEWEKAKRTPAERGDFITKRFNIFANNDEMSFIDYPTLQKK</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MSSTATPTPSNVVLVGKKPVMNYVLAALTLLNQGVSEIIIKARGRAISKAVDTVEIVRNRFLPDKIEVKEIRIGSQVVTSQDGRQSRVSTIEIAIRKKA</t>
+          <t>MANKVSLENLLAMAVTAKEHEMSRHANKMRQLEKTEANIKKRIKELSKEG</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MKMSVTFLLILMILPLFTGEWQSGSRLSALKKRLLEKRLLQKRFCTEIGKDCGTSWECCEDCCIHGTCSHESNCANFKLR</t>
+          <t>MATIQIIIEEDNVTINVKKNQVPPIEVSPKIPPIEIENVKKNVLCPICLIAKVNTVLECTHVLCSNCVKKINVCPICRKTFQSINFFRL</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MAKLLAVFLVLLIAALVCEQALACTPGSRKYDGCNWCTCSSGGAWICTLKYCPPSSGGGLTFA</t>
+          <t>NIIDVPCRPCYYRDSSGNCVYDQLGCGA</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2975,50 +2975,50 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MALGPWQIFLILVIILVLFGAGKLPDVMSDLGKGIRNLKQELKDNKLASTEDESNL</t>
+          <t>MGKRKSAAKPPPKKRMDKLDTVFSCPFCNHGSSVECRIDMKNLIGEASCRICQENFSTTVNALTEPIDIYSEWIDECERVNNVEDDDGA</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MSRDLVTIPRDVWNDIQGYIDSLERENDSLKNQLMEADEYVAELEEKLNGTS</t>
+          <t>MTDNARKEYLNQFFGSKRYLYQDNERVAHIHVANGNYYFHGHIVPGWQGVKKTFDTAEELEIYIKQHGLEYEKQKQLTLF</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MIIDGTKLRCINDKGQRIVKEGSLYTAWVRDGIGIDGRIFIKEHKRFALLITRFEVVE</t>
+          <t>MGFTEETVRFKLDDSNKKEISETLTDVYASLNDKGYNPINQIVGYVLSGDPAYVPRYNNARNQIRKYERDEIVEELVRYYLKGQGVDL</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MFATRRAMLCMIFIYLLVQTAESSWLSKTYKKLENSAKKRISEGIAIAIQGGPRRRRFVVQQDTISPRLEVDERFLPNSVQEQI</t>
+          <t>MQRRTQELIWKELVDNSHKLFCNCMDPQNHYRLICQNLNREPGEPWRTAGGIGEGGAGGDGAAAGGEGDVHGRPAGAEDGEDGADAAMAAALAAFEDATG</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MKLSIFFVLFFIAIAYCQPEFLDDEEDEVEETLPVAEEGREKSCITWRNSCMHNDKGCCFPWSCVCWSQTVSRNSSRKEKKCQCRLW</t>
+          <t>MFDAFTLVVSQADTRGEMLSTAQIDALSQMVAESNKYLDAVNYIT</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MRLVVCLVFLASFALVCQGQGYKGGYTGPVVRPFVRPIGRPFVTPIGRPVVSGNVCPLSCRGITTLQARSCCSRLGRCCREAKGYSG</t>
+          <t>IWDAIFHGAKHFLHRLVNPGGKDAVKDVQQK</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,33 +3053,33 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PKDGPSPGGTLMDLSERQEVSSVRSLSST</t>
+          <t>MFKLICIVFIATILSITSAADNEDELTIEDFLSYECNESMDIEELKEKDKVCSRCANLHKTQSVIERCRLNCFTSEYFKNCEDNLQAKEEEPEEETL</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MTTVGVSLFRRSPEKITMKIAAFLGLSFLLIASYVLICEAQHPGFQELLILEENMRDPENSKERSCAKPRENCNRMNILCCRGECVCPTFGDCFCYGD</t>
+          <t>MKMKTNKYMNMVRPAPPRRADPEGVRDPSTMGGGPNPFLRRSPYMYINKKK</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MFDAFTLVVSQADTRGEMLSTAQIDALSQMVAESNKYLDAVNYIT</t>
+          <t>MAICYARFMVPEPSIFEIDAEAEEAADAEGMADIAAGRVVPHEEVSAWLDTWGTPEEKPAPETWRK</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,24 +3092,24 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MKHSDNLRSVRSEYADADGSRCVYLTFDDGPNPLCTPPDI</t>
+          <t>MKILVAFAVIMLVSAQVLAAEIGLNDEPEWYSDQIQEDLPVFENFLQRIARKPSPDRFYGLMGKRNNGFGQMSRKRSAERNTIHNYERRRK</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MPGFTAPTRRQVLSLYKEFIKNANQFNNYNFREYFLSKTRTTFRKNMNQQDPKVLMNLFKEAKNDLGVLKRQSVISQMYTFDRLVVEPLQGRKH</t>
+          <t>MFTLKKSLLLLFFLGTINLSLCRDETNAEEERRDEEVAKMEEIKRGLLSGILGAGKHIVCGLSGPCQSLNRKSSDVEYHLAKC</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MVIATDDLEVACPKCERAGEIEGTPCPACSGKGVILTAQGYTLLDFIQKHLNK</t>
+          <t>MGFLLSICKRPSQPVDVDGEPLDVVVDYDPIRVSEKGMLLEQSQSPYPALKKKKKNKEAIY</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,46 +3131,46 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MPRSPLIVAVVAAALFAIVRGRDPLLDAMRREGAMDFWSAGCYARGVPLSEPPQALVVFYVALTAVMVAVALYAYGLCFRLMGASGPNKKESRGRG</t>
+          <t>MDPTLISLGALALAGAAATVSGCAEDLESDVGSQSNPNSQVQLGPQMGNIHRYFNKAISGEPVSYGLYVAVAGSVAWALINAGLN</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MNENLWAAPAPKKLSKHFFGRGGPLGKETGPNLFPKKPGAGKGLGFPPTKKPRGQPRVLKKPKWNSEGLIGILHRGSDGVQF</t>
+          <t>MKKSLFAAALLSLALAACGGEKAAEAPAAEASSTEAPAAEAPAAEAPAAEAAAAEAPAAEAPAAEAPAAEAAATEAPAAEAPAAEAAK</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MCLRSHFKVAFTQRKVELSKELRRSRSSRNGGLPLQEQPMGQKWGWHRGEPGHPRMEELNEWPQNGDHWSRKWPPPCAFTPG</t>
+          <t>MWSDSLVSRICVPIIVVCTSIALLNVVSFRSECSCVVHISGAAIDIRGCSFTPDFIEYAKTLRVFNHRYQE</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MDPNQTNVVPPALHLVDPQIQLTITRMEDAMGQGQNSADPKVYPIILRLGSQLSLSMARRNLDSLEARAFQSTPIVVQMTKLATTEELPDEFVVVTAK</t>
+          <t>MPRSPLIVAVVAAALFAIVRGRDPLLDAMRREGAMDFWSAGCYARGVPLSEPPQALVVFYVALTAVMVAVALYAYGLCFRLMGASGPNKKESRGRG</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,20 +3183,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MDNKVAKNVEVKKGSIKATFKAAVLKSKTKVDIGGSRQGCVA</t>
+          <t>MSTGNVDQELIRRYLVVVKKLYEEPIPQTARQRRRRKQQLRTRRAQLRELEGRILKQILDRGPDQLCQGVANLALAEKSESSN</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>VPVGSDCEPKLCTMDLVPHCFLNPEKGIVVVHGGCALSKYKCQNPNHEKLGYTHECEEAIKNAPRP</t>
+          <t>MKTFSVAVTVAVVLVFICIQQSSATFPEMPYNRQKRGFKCKFCCGCCGAGVCGMCCKF</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>PVNIYVIMADQGPAHLPVSLAVHTDMLEYVPVSKDEYFQKLKKA</t>
+          <t>MPANQPPLYLTFLLLILLYLIITLYVWTILTINHKTAVRYAALYQRSCSRWGFDQSL</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MNYLVMISFALLLVIGVESVRDGYFVEPDNCLVYCMPSPEICDRGCKRYGATSGFCKEFSKGENFCWCKGLR</t>
+          <t>HSDAVFTDNYTALRKQMAVKKYLNSILNYGRKKRRQRRR</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,20 +3235,20 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>MATSSLTKPQMRWPSGPRRLRFHIVGAFIVSLGVATFYKFAVAEPRKKAYADFYRNYDSMKDFEEMRKAGIFQSAK</t>
+          <t>VPVGSDCEPKLCTMDLVPHCFLNPEKGIVVVHGGCALSKYKCQNPNHEKLGYTHECEEAIKNAPRP</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MSEQTGKVDDSQSPPKVQKKLRKGDLVKVDREKYSNSLESKASDTNLPEYIFQGPGEVLLIKGDYCQVRWRRPVPDVWMNSDHIVSY</t>
+          <t>MNKSPIEEEFDLRKQHQKLLKKNCQKEIEDFVKCATGRTFSVTWKCRSENKTMKDCLTKAADEISEWQIRSEYNKAKQESFIGKQDEKK</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,24 +3261,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>LLNRLPNGLFRVCLDLIINYVSGKIRHSFIRILPGDRVKIEVSPYDSTKGRIIYRLHNKDLKDSFFNFTIPFVGIQFEMKNFKKLIFFQEIDSELR</t>
+          <t>MVAKQRIRMANEKHSKNITQRGNVAKTSRNAPEEKASVGPWLLALFIFVVCGSAIFQIIQSIRMGM</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>DDDDEGGGGGGGGGGGGERRRPRPPYLPRPRPPPFFPPRLPPRIPPGFPPRFPPRFP</t>
+          <t>VCCRGLLGAASVGRQNRFEIVYNLLSLREVWDMFGVFFFNHPDLRILTDYGFEGHPFRKYDDEVKRVVAEPVELAQEFRKFDLNSPWEAFPAYR</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3287,37 +3287,37 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MAQLLKFVYAIIFLFSLCLAATKEKFHSCVNANDCPYDFCSPPKYAKCVYNSCYCEDQGRL</t>
+          <t>MAAVAAASAELLIIGWYIFRVLLQVFLECCIYWVGFAFRNPPGTQPIARSEVFRYSLQKLAHTVSRTGRQVLGERRQRAPN</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PHAFPFLTPEQKKELSDIAHKIVAPGKGILAADESTG</t>
+          <t>MKKTLLRSGTIALATAAAFGASLAAAPSAMAVPGGCTYTRSNRDVIGTCKTGSGQFRIRLDCNNAPDKTSVWAKPKVMVSVHCLVGQPRSISFETK</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>GFEVIDNIKDSVVILGGPNWNVKMGDIRPLTGSNGEIRFDNNYFK</t>
+          <t>RCGQQLRNISPPQRCPSLRQAVQLTHQQQGQ</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MKTLFVFAVGIMLSMRASAFTCPECRPELCGDPGYCEYGTTKDACDCCPVCFQGPGGYCGGPEDVFGICADGFACVPLVGERDSQDPEIVGTCVKIP</t>
+          <t>YRQSMNQGSRSTGCRFGTCTMQKLAHQIYQFTDKDKDGMAPRNKISPQGY</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MQRLQGNMGIGHVRYPTAGSSSASEAQPFYVNSPYGITLAHIGNLTNAHELRKKLFEEKRRHINTTSDSEILLNIFASELDNFRHYPLEADN</t>
+          <t>MVGVNSLRSALYLIVLILFVQLTYFSDARVMDVDLSRAFLPLTGIGCGESCVWIPCVSAAIGCSCSNKICYRNGIIPKK</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MIEVVVNDRLGKKVRVKCLAEDSVGDFKKVLSLQIGTQPNKIVLQKGGSVLKDHISLEDYEVHDQTNLELYYL</t>
+          <t>MAARAVFLALSAQLLQARLMKEESPVVSWRLEPEDGTALCFIF</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,24 +3365,24 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>MYIENNSLVLIIPETNSITPQLFTIHDNKPICVCSRYSLIPSKKENVQISYIDNIHMYFRSFKNLYLVNPRNHDIIKVFNFLKNYKWGGNFYLLFNV</t>
+          <t>KVPAYCKLPPDSGPCKGHFPAFYYDPVSSYCQKFI</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MIPSSTRELLNIADSKYAVVVAVAKRARTLSEKYKEDENYRLSTMVTRALDEVVNGKVIIEPSKEDGSREV</t>
+          <t>MKTVLAFLFLTFIAFTYAESYEDVKEEIKNEVEREIFEDLEEESDVLDSNVREFNDAKPWRFRRAIRRVRWRKVAPYIPFVVRTVGKK</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MDIEPEVPVVEKQMLAGNRGKQKTRRSVAKDAIRKPASDSTNGGNWVNVADKIEVHIHFNF</t>
+          <t>MVEVEKKKITLSIPVETNGKLEELAQKYGMTKSGLVNFLVNQVAEAGTIYRQ</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,37 +3404,37 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MSNTSQKHRDFVSEPMGDKPITALAGIGEVLGGKLEEQGFDKAYVLLGQFLILRKDADDLFKDWLKDSCGANSRQADLCSSCLKEWCSSFL</t>
+          <t>MGDIIKVVFAMIIYLYMLTIVTNAVTICDSDQDCRRYRCDPPEYPRCLGILCKCVYVSG</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>GKIAVSIVKALEHLHSKLSVIHRDVKPSNVLINKEGQVNMCDFGISGYLVDSVAKTMDAGCK</t>
+          <t>MDNSKRIIKKIIFITISALVMVTLSKLFSKYVIVEQNAPFQALIGGASCALLSSILFDWYTNKKKKENVENQLKEAISDLQKIKAIIKR</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>MFSLKLFVVFLAVCICVSQAVSYTDCTESGQNYCLCVGSNVCGEGKNCQLSSSGNQCVHGEGTPKPKSQTEGDFEEIPDEDILN</t>
+          <t>MSAEALADPKADPLAGPNPDADPEAINLKAIAALAKKLLG</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MKYFLSATFLIIVFMYLMYFCISIVVNNARVQQDLFYHYNYVPDTLLNTVRVHKLK</t>
+          <t>MTDAISLALQTGLGPVVGVIIILAMMGLTYKIAGKIPAIITGIASAFVLMFMDFLPLFWGIAIIFGLIAGMVVTRDGD</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,20 +3456,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SATVELYSNLAAKGLAVEFTSTSLKAALLNILSVDGVPATTAK</t>
+          <t>MKSSHFDEYDKTLKQAELAIADSDHRAKLLQEMCADIGLTPEAVMKIFAGRSAEEIKPAERELLDEIKRQRERQPQHPYDGKRPRKPTMMRGQII</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MRDLKTYLSVAPVLSTLWFGSLAGLLIEINRFFPDALTFPFFLIRVIVAGRGEKD</t>
+          <t>MCIKAEKYIEWVKHCQCHGVPLTTYKCPGCGEQIMTQCSPEKEIRDSLTCCPWCSAVFFKQVKGAKVKASAVIQNQ</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>QAPNYSTASYNVVAVKINLFLSTNNKLYIHDTGVRAVYLAGMKVYLAANPTASSQTFNSDTLVYILDTGINEPNYYINLY</t>
+          <t>MAGSQSQASTLVARGGRSSSNAPTGAAGALRRRPVRGSGGSGTTKAQQAAMNFYTDDTPGWKMSPVVVITMSLSFIAFVTILHVVGKFQ</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>MQAKAPMYPNEPFLVFWNAPTTQCRLRYKVDLDLNTFHIVTNAR</t>
+          <t>IDYRKCQASQILKEHGMDKVIPLPELVCTMFHISGLSPQAEV</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,11 +3508,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MGESQPVKTFDALFDELTERARTRPEGSGTVAALDGGVHGLGKKILEEAGEVWLAAEHESDEALAEEISQLLYWTQVLMIARGLSPDDVYRKL</t>
+          <t>MGSINLRIDDELKARSYAALEKMGVTPSEALRLMLEYIADNERLPFKQTLLSDEDAELVEIVKERLRNPKPVRVTLDEL</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3521,50 +3521,50 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MNWVPSMRKLSDELLIESYFKATEMNLNRDFIELIENEIKRRSLGHIISVSS</t>
+          <t>MSNTSQKHRDFVSEPMGDKPITALAGIGEVLGGKLEEQGFDKAYVLLGQFLILRKDADDLFKDWLKDSCGANSRQADLCSSCLKEWCSSFL</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>MEGIELDNYYNFLEIGYLEGDQANVETTVYNLTGMLSAKVSDVTESEFEAAVEEVTEAIDNLTNSLEVLSELFTEAKQYLAKEDKKWEDNV</t>
+          <t>HADAIFTSSYRRILGQLYARKLLHEIMNRQQGERNQEQRSRFN</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MESVAKPATTKEGSAKQAAIVVGVLALGWFAIQVAFIPLFNKVRGGGSDKKDDDVNAFTPDT</t>
+          <t>MSLLTEVETYVLPTRNEWECRCSGSSDPLVVASSIIGILHLILWILDRLFFKCIYRRLKYGLKRGPSTEGVPESMREEYRQEQQSAVDVDDGHFVNIELE</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MYYKIGDVCQKVINVDGFDFKLAVKKQDYSILVNVLDLEDRFIDSINITDENDLYTALDILNQSIYEWIEENTDERDRLINLVMRW</t>
+          <t>MIPRVLILLTLVALFCACSTLAAVAHIEVDCIPPFTVYLLYGFVTLILICSLVTVVIAFIQFIDWVCVRIAYLRHHPQYRDRTIADLLRIL</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3573,20 +3573,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>DLLEALSQDQKLLMAKFLPHIYAELANREGNWHEDAALRPLHDHDYPGWMDF</t>
+          <t>MMALNGGWRKTFVSILTTCFLVVVVIVSLSCEAKGGVVPRLRPPFCFPYDREYCTPFHCGKVCQEYNFPAKNGGYCDKRGDPWKCCCPY</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MLLLSAVKTLLLAWLGIVLVFMSIIKSAMLDFLQEAGKLEGIETYKKEAQTSFMAPSWALGHLMGRK</t>
+          <t>MANIKSAIKRVKTTEKAEARNISQKSAMRTAVKNAKTAVSNNADNKNELVSLAVKLVDKAAQSNLIHSNKADRIKSQLMTANK</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,46 +3599,46 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>MEESGFREPVLDAKSEVTGQLIDFQWKLGMAVSSDSCRSLKYPYVAVMLKVADHSGQVSSKSIEMTIPQFQNFYKQFKEIAAVIETV</t>
+          <t>QHSTDYDEEEEDRAKLHLDAR</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>MVEKMVGILKFVCPFLFLYFLLLSMLVISGKHDYHMFFQRIPCPKDKILDCNLLECWCK</t>
+          <t>MSAAKQCFRNLWRASNSVFEGDPMILAAARDKIRTGFHNHRCCSPEEAKKEIQNGNAVAEILRRNVVQAEKQSNDTYSLKIRKTTEINTNRQFTEKKFPR</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>AFAPSKVDSDRPNCSRYVQHLYMCTKELDPVCGTDGHTYGNRSIF</t>
+          <t>MKILTVFMIFIANFLNMMQVFSVKDRFLIINGSYELCVYAENLGEDCENLCKQQKATDGFCRQPHCFCTDMPDNYATRPDTVDPIM</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>EECWMNGKCRLVCKSDEDSVVRCENRKRCCVPSRYLTVQPMTVERIEPETVPHTPKPVKHKHRPDSKQNRNVHGR</t>
+          <t>MRKSFYTWLMTERNPKSNSPKAILADLAFEESAFPKHTDDFDEVSRFLEEHASFSFNLGDFDSIWQEYLEH</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,20 +3651,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>MDMMLMIGNYFSGVLIAGIILLILSCIFAFIDFSKSTSPTRTWKVLSIMSFILGIIITVGMLIYSMWGKHCAPHRVSGVIHTNHSDISVN</t>
+          <t>MLYLLYIFLGLLIILGVNLLVTAFWALHDMYVHKDEEACDLNTFKKYFVKNNNIPTKMSDIFN</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>CETWRTETTGATGQASSLLSGRLLEQKAASCHNSYIVLCIENSFMTSFSK</t>
+          <t>FATGMPCKTDKECPNTSTHKYKCINDDCFCFYIYWPLGNSLV</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SGYSGAALDFPVAPSLAGHYSLTNCGQPSGASKCAEGTVPQAAFEKGTCYRELYASSCHHEETQIFQYPAV</t>
+          <t>AGLLAGSWIPDWTFVSVPPLVTLWYTLTKEPIPGEDVYYVDGACNRNSREGKAGYITQQGKQRVEKLENTTNQQAELTAIKMALEDSGPRVNIVTDSQYA</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,24 +3690,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>MGINQSQHSMGVNQSHHFMGVNQSHHFMGINQSQHSMGVNQHIIGDSYLISCMVVAPCCLKACMVLAPCCLKACMVLAPCCLKAAR</t>
+          <t>MEFDSYIDWYNNLLTMPLNDVILGVKDTIEDKTVYLSLSDSKVIKMDNTSFVMGYY</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MRLSVCLLLLTLALCCYRANAVVCQALGSEITGFLLAGKPVFKFQLAKFKAPLEAVAAKMEVKKCVDTMAYEKRVLITKTLGKIAEKCDR</t>
+          <t>MALTCRLRFPVPGFRGRMHRRRGMAGHGLTGGMRRAHHRRRRASHRRMRGGILPLLIPLIAAAIGAVPGIASVALQAQRH</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -3716,24 +3716,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TICYNHLTIRSEVTEICIICDDDYYF</t>
+          <t>MASIEIPLHEIIRKLERMNQKKQAQRKRHKLNRKERGHKSPSEQRRSELWHARQVELSAINSDNSSDEGTTLCRFDTFGSKSDAICDRSDWCLDQ</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SSFSPPRGPPGWGPPCVQQPCPKCPYDDYKCPTCDKFPECEECPHISIGCECGYFSCECPKPVCEPCESPIAELIKKGGY</t>
+          <t>MQPILEKLYRAESMSQQESQQLFSAIVRGELEPSQLAA</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,11 +3742,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>LVIIDHHKPCVSDTDCAFYLDIPPTVKYCSDGLCAWYFPDNPLP</t>
+          <t>SPTISITAPIDVLRKTWEQERARKQMVKNREFLNSLN</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,11 +3755,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>MDPTLISLGALALAGAAATVSGCAEDLESDVGSQSNPNSQVQLGPQMGNIHRYFNKAISGEPVSYGLYVAVAGSVAWALINAGLN</t>
+          <t>MELVVWKDGDNWRVFADDAVPALDGTVDRVAEGLATLYRKEKEPVVFTRRKTAFYDGQYWLMWKYYPTYGRAYGKEASDEMIKEPSAIALLAGY</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MTSSSTPRMHTYKRTSSPRSPTNTGELFTPAHEENVRFIHDTWLCVLRDIKCPQNHERNDRGPQEYVEKNPNPNLHSFIPVDLSDLKKRNTQDSKKS</t>
+          <t>MSAVAGCTATTDPGWEVDAFGGVSSLCQPMEADLYGCSDPCWWPAQVPDMMSTYQDWNAQASNSAEDWRNLGTVFPKDK</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,11 +3781,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>GWTVERCWKNNIGHCRKRCFHVERYKLLCMNKLTCCIPIKEDHGYTKTPPRLVPFEEEITIDINTWELFSNSPASFFNDEFIAEPTKATESTVTET</t>
+          <t>MSRDLVTIPRDVWNDIQGYIDSLERENDSLKNQLMEADEYVAELEEKLNGTS</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,20 +3794,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>MADSTAGAKKRKKRSTSATSTRKEPPTVIPEDECTTCSICQSKLVMFSGVSKYKLSDYLNTGKVFTNSNIRCKACGSSLCHLRDLSKS</t>
+          <t>MRNATFFIVFYVFISLVLSNVQDVTAQKNKCMRSEMFPTGPCGNNGEETCKKDFKNIYRTPIQCKCLDKYDFARLCDCRFC</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>MTVYAVTGGAEFLGRYIVKLLISADDVQEIRVINVVEDPQPLVSKVKVINYIQCDINDLIR</t>
+          <t>MAPVDVESQVELDLKIEDFDYKNVALIKRFMTPVGRVLSRRATGLSAKKQRKMAKEVRKMKFLALVPYCDRHK</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,76 +3820,76 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>MGKLVKHCHTSLHSELVILFYAKNRFCISIDHLRPLKSHRTHGHYCLLNFSLRENKNYLIIVYLPIEGFSANHMCISHGTSFNIK</t>
+          <t>MTEILKLFYAMILFASLFLVAMEIGESFGCTEHRHCEIAMCKFPFIVRCSMNECNCERVHYLI</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ALDDVQDGTLVTIKAGNDENVMAELRNCTAVMKNQVAKFNDLRFVGRSGRGKSFTLTITISTFPSQVATYSKAIKVTVD</t>
+          <t>VKRALSALKPKNKRFIGGIISFFKRLFG</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>MLNLIVVVLPILAAVTWVVFNIQKPAREQLARQFDENNKAF</t>
+          <t>MGDIGAPELIIIILVVVVLFGSKRLPDAARSLGRSLRIFKSEIKGLHDDEAPAPTAAVAAAPTQVTGPAPAAPHTPPSAEPATPATGGSGNRSA</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>MCIKAEKYIEWVKHCQCHGVPLTTYKCPGCGEQIMTQCSPEKEIRDSLTCCPWCSAVFFKQVKGAKVKASAVIQNQ</t>
+          <t>METLVAGSIFMVLVSGVLAIIIYMLPWFIALMRGSKSTVGIFFASLLFNWSIIGWFITFIWSIAGETKKSAQPNQVIIIREKE</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>MASKKAPTGHFSILYFAAASTFTGKTSEHLPAPIKACDLFDTLEDRYPGIKGKVLASCAVTVDLEYIDINEGDAADLERVIQEGDEVAIIPPVSSG</t>
+          <t>MSTSRKLKSQGTRRGKNRTPHKGVKRGCSKRKYRKSSLKSRKRCDDANRNFRSHL</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>MILLKLYLTLAAILCQSRGTTSLDLDDLMTTNPEIQNEIINKHNDLRRTVDPPAKNMLKMSWDNIIAESAKRAALRCNQNEHTPVSGRTIGGCGCAEKIT</t>
+          <t>MRGAAPRVADLNLELNDLVLPINLLSEEVLQPSDDESEAPEEELFPFRIDTCCYRCEVNVRITLFAVEFGLRALEQLIVDGKLTFCCTTCARTLRNGR</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -3898,11 +3898,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>MCSYYHMKKRSVSGCNITIFAVMFSHLSAGKSPCGNQANVLCISRLEFVQYQS</t>
+          <t>MNKTDLINAVAEQADLTKKEAGSAVDAVFESIQNSLAKGEKVQLIGFGNFEVRERAARKGRNPQTGKEIDIPASKVPAFKAGKALKDAVK</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3911,11 +3911,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>MTKTSRRKNAIANYLEPVDEKSINESFGAGDPEARSGIPCTIGAAVAASIAVCPTTKCSKRCGKRKK</t>
+          <t>MSPQTETKASVGFKAGVKDYKLTYYTPEYETKDTDILAAFRVTPQPGVPPEEAGQAVA</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3924,20 +3924,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>MSRSTFLTLQEGLRRINQPRLLAESSRRRQRLLSLREKANLRKLGWWLKLPLVLQPLNGQPPMKKMIYQ</t>
+          <t>MPQKDPCQKQACEIQKCLQANNYLESKCQAVIQELRKCCARYPKGRSLVCSGFEKEEEEKLAMKSGSK</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RHHLRHLRRHLRHLLRHLRHHLRHLRRHLRHLL</t>
+          <t>MSNLEKSVAINLENTAHYENISNLDITFRTGESDSSVLLFNIIKNNQPLLLSEENIKARIAIRGKGV</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,33 +3950,33 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>MAPLKMLALVTLLLGASLQHIHAARGTNVGRECCLEYFKGAIPLRKLKTWYQTSEDCSRDAIVFVTVQGRAICSDPNNKRVKNAVKYLQSLERS</t>
+          <t>RHHLRHLRRHLRHLLRHLRHHLRHLRRHLRHLL</t>
         </is>
       </c>
       <c r="B271" t="n">
         <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>MTADAPVISGSSVVKLARGVRLHEDPVRGQTVLLAPERAMAVDDIAVAIVQALDGERNLDRIAADFAEKFDAPVEEIAEDVRTFVQELSVRRMLEIVQ</t>
+          <t>MCTTLFLLSTLAMLWRRRFANRVQPEPSDVDGAARGSSLDADPQSSGREKEPLK</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>LVAYGIAQGTAEKVVSLINAGLTVGSIISILGGVTVGLSGVFTAVKAAIA</t>
+          <t>MKLSFRARAYGFRGPGPQL</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>VETMYTVIYKNAVESEPALEGGSFLTDAPKTDGLKLMTFGTRVF</t>
+          <t>MMRCYRCGESKEDNRFRPNQPYWNRWCLRCERTPTGVLPLPQEKEDVWRDSDEVSPT</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -4002,7 +4002,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>MEKNTVTVPKTLFSQVIHIFKYAAINLGLPFLNGVMLGFGEIFAHAFIHSLGWAPGHTRIYSIQRHQYIQA</t>
+          <t>MYCLQWLLPVLLIPKPLNPALWFSHSMFMGFYLLSFLLERKPCTICALVFLAALFLICYSCWGNCFLYHCSDSPLPESAHDPGVVGT</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,24 +4015,24 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>MAQGPLKKTKPSTAKRPTALAPKRGPRQIAPKKATLIKQQKITKKLTAGLTAKTERTLAQRAGHLELLAGGKKDKKAEKEKGKEKGGKKN</t>
+          <t>MEQITLTKEECVEQCINKDLKLLDYRVQQILEGVLSESTTYGDARNKLETLKIIAESHFKTEHASVIYKLALKKLDKKINATPIKE</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>MKKKLVKGLVICGMIGIGFTALGTNVEAATYYGNGVYCNKQKCWVDWSRARSEIIDRGVKAYVNGFTKVLGGIGGR</t>
+          <t>GFEVIDNIKDSVVILGGPNWNVKMGDIRPLTGSNGEIRFDNNYFK</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>MEIKVEQPKEILLEVGWRYTSDWIVNSTTVSVEDNVYAYENACYKVLEELCESIDAKYIDICFVREATENA</t>
+          <t>MRKIVAGKLQTGADFEGSKGGCKCSGGAVVENSHNAGPAYCVGYCGNNGVVTRNANANLARTK</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,24 +4054,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>MDKAEKVDNIVRQVTGAIIKTTAKVAFIVFVLTFAGILVGYYSYSFLTNAGWFALPMILSVDLLYVAVLLGGLAFIFAEVYKVVLEVKKIVKRGGQL</t>
+          <t>MIEVVVNDRLGKKVRVKCLAEDSVGDFKKVLSLQIGTQPNKIVLQKGGSVLKDHISLEDYEVHDQTNLELYYL</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>QAQALLPIASYAGLTVSAPVFAALVTVYGAYALYRYNIRRRENSYPRIR</t>
+          <t>MKNINYRVKKIIAKQFQINIKKISLNNNLKNDLKIDSLDFVELIMLLEEEFNIKLFDIEAEKIKKIKDIIPYIKKKKLKE</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>MQAPDSVRSVKVEREAKTWIEKPRGAGLRVAQKTPVHATTSLTLGTVVHLAFIILP</t>
+          <t>MEKLTILLLVAAVLLSIQALNQEKHQRAKINLLSKRKPPAERWWRWGGCMAWFGLCSKDSECCSNSCDVTRCELMPFPPDW</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,37 +4093,37 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>CYCQDPYVKEAENLKKYFNAGHSDVADNGTLFLGILKNWKEESDRKIMQSQIVSFYFKLFKNFKDDQSIQKSVETIKEDMNVKFFNSNEEVE</t>
+          <t>MGGGGHGGGITYKGVTVHTPKTWHTVTGKGLCAVMWFWILYRAKQDGPVVMGWRHPWDGHGDHGHGDHH</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>MSCCLSSRVHITRPVLEQFLSFAKYLDGLSHGVPLLKQLCDHILFINPAIWIHTPAKVQLSLYTYLSAEFIGTATIYTTICRIGTVIKDNAHLKILLLGY</t>
+          <t>CGDINAACKEDCDCCGYTTACDCYWSSSCKCREAAIVIYTAPKKKLTC</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>VSEACEESCEEEEKHCCHENNGVYTCLRYCW</t>
+          <t>MDQAIYTLHEFMLHTKNWTYILMGVTLLVYVGYWLFLTGRDEKIRKY</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,20 +4132,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>LATFERDVITPETVHAILKKTNSNSNIMLHEDAIQALTGKTLISKTVLEEALLKNAENGLVGSGVPCGESCVWIPCLTSIVGCSCKNNVCTLNSLAQN</t>
+          <t>EECWMNGKCRLVCKSDEDSVVRCENRKRCCVPSRYLTVQPMTVERIEPETVPHTPKPVKHKHRPDSKQNRNVHGR</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SASRALSDKPLAHVVANPQVEGQLQWL</t>
+          <t>MKKLAVILTLVGGLYFAFKKYQERVNQAPNIEY</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,33 +4158,33 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>MDPMIAQGALIGGGLIMAGGAIGAGIGDGMAGNALVSGIARQPEAQSRLFTPFFITVGLVEAAYFINLAFMALFVFATPVK</t>
+          <t>DIDITGCSACKYAAGQVCTIGCSAAGGFICGLLGITIPVAGLSCLGFVEIVCTVADEYSG</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>MLSLVSPLLKKSIVIQLFSITVYKFKAKFWYKLPFETRLCIIKHTRPKALSVTKQVKRDYRKIAILNSMRK</t>
+          <t>MNAPLTDNIPWTREEFEQKLRDKGRGYHIYHPFHVMMYEGKLTREQLQCWVA</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>MTTIYKELVAHFGTQDETAAKLGVDQSTVSGWVRGKHGMSPVVAKRAQVLTDGKFKKEDLCPAFPWEVLSAVA</t>
+          <t>MKKIVFLILGLAAFAFGADGEMIRSYSVIAGGIGLGLAALGGAIGMGNTAAATISGTARNPGVGSKLMTTMFIALAMIEAQVIYALVITLIVLYANPMLG</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>TCSIPYEYSNGKLKRTLYYSNGVYANSFTENN</t>
+          <t>MPTWLTTIFSVVIVLAIFLYFGLLIYQKIRQIRGKKKDKKEIERKESNK</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -4210,11 +4210,11 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>MKCSLRLFEKAGRLSVRSQTVQTFQQRIVLANGASYLVNTTLPKPYILSIKDITNMPLNNPKVNALSSIRGQESRRSKFEERYEGL</t>
+          <t>MLAFCYSLPNAGDVIKGRVYEKDYALYIYLFDYPHSEAILAESVKMHMDRYVEYRDKLVGKTVKVKVIRVDYTKGYIDVNYKRMCRHQ</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>MAKQTTMKNAALKQLTKDADEILHLIKVQLDNLTLPSCPLYEEVLDTQMFGLQKEVDFAVKLGLVDREDGKQIMLRLEKELSKLHEAFTLV</t>
+          <t>MGINQSQHSMGVNQSHHFMGVNQSHHFMGINQSQHSMGVNQHIIGDSYLISCMVVAPCCLKACMVLAPCCLKACMVLAPCCLKAAR</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4236,11 +4236,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>MEPLSIDKPFMYFDEINNELEYDPDSANEKHKKFPYQGQLKLLLCELFFLSKLQRHGILDGSTIVYIGS</t>
+          <t>LYSSLSSIYSITLIVISIYIYIVISYCSLFMFFILYSYTCSIQ</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,72 +4249,72 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>VKRALSALKPKNKRFIGGIISFFKRLFG</t>
+          <t>MPNTKSAARALRRSERRRLRNRMWRSMARTFIKKARKLMEAGDLEAAARVIGDAISTLDRAAAKGAIHKNNAARRKSRLMKRFNALVKARLQQGQEQST</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SEGTSCYIYHGVYGICKAKCAEDMKAMAGMGVCEGDLCCYKTPW</t>
+          <t>MLVIFLGILGLLANQVSSQLVGQLHPTENPSENELEYWCTYMECCQFCWDCQNGLCVNKLGNTTILENEYVHPCIVSRWLNK</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>MSNLEKSVAINLENTAHYENISNLDITFRTGESDSSVLLFNIIKNNQPLLLSEENIKARIAIRGKGV</t>
+          <t>MPTEERVRKRKESNRESARRSRYRKAAHLK</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>GLFEAIEGFIENGWEGMIDGWYGGGGRRRRRRRRRK</t>
+          <t>MSLSFGCSQGNPNLYSEESSLKTALIRKTFYFLFAVFFILVQLPSGCQAGLDFSQPFPSGEFAVCESCKLRRGKCRKECLENEKPDGNCRLNFLCCRQRI</t>
         </is>
       </c>
       <c r="B297" t="n">
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>MNFLQNFCRSKFIVFERVTPFTHKIIHKHSHHQTSSFNPMPSEVSLHTSHNFPHTTF</t>
+          <t>MTTGLDAARKQEIKEIVCDILEIDEDEVTETSLFKEQHDADSLRAIEILAALERTQKVTIDQAELSRMVNLEGVYVVVSEAAQN</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>MDNSKRIIKKIIFITISALVMVTLSKLFSKYVIVEQNAPFQALIGGASCALLSSILFDWYTNKKKKENVENQLKEAISDLQKIKAIIKR</t>
+          <t>MTKTELQYKKAIGVAIFATSEEDKKQLGNVAPFSIYEILEIDLNKNRVYYALNCGERHAVCFTKLRKEEETGDNFILINKQPFFLKDIHKGLTWSKSL</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,50 +4327,50 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>MSTSRKLKSQGTRRGKNRTPHKGVKRGCSKRKYRKSSLKSRKRCDDANRNFRSHL</t>
+          <t>MANLKSSKKDIRRTARRKERNGEDRTELRTYARLLIKAIKSGDKTEALTVFSKLSSKLDRAAKTKLIHKKNADRKKSRMALRINSIEAKAA</t>
         </is>
       </c>
       <c r="B300" t="n">
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>GFFALIAKIISSPLFKTLLSAVGSALSSSGEQE</t>
+          <t>MAKQTTMKNAALKQLTKDADEILHLIKVQLDNLTLPSCPLYEEVLDTQMFGLQKEVDFAVKLGLVDREDGKQIMLRLEKELSKLHEAFTLV</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>MNYYLLYLALGAAWFFVAIGHIFRVPSKQTVERIITPPILISLSFFSTFMFYVFLWPLALLIDIWRRMIKKSTT</t>
+          <t>SGKSFKAGVCPPKKSAQCLRYKKPECQSDWQCPGKKR</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>RKKRRRESWVHLPPPVHLPPPGGHHHHHH</t>
+          <t>MNTQRAKDISESAAMAYVTYEGVPIYIQHVNEDKETARIFPIGNPQFEQEVLLSDLQEHF</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -4379,11 +4379,11 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>YLAFRCGRYSPCLDDGPNVNLYSCCSFYNCHKCLARLENCPKGLHYNAYL</t>
+          <t>MALGPWQIFLILVIILVLFGAGKLPDVMSDLGKGIRNLKQELKDNKLASTEDESNL</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>MDWRVLVVLLPVLLAAGWAVRNILPYAVKQVQKLLQKAKAA</t>
+          <t>KASSSAPKGWTHHGSRFTFHRGSM</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4405,37 +4405,37 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>MCTTLFLLSTLAMLWRRRFANRVQPEPSDVDGAARGSSLDADPQSSGREKEPLK</t>
+          <t>STLSSNDAKVVDGKATPLGSFPHVKRAGDFLYVSGTSSRRPDNTIAGAELDSTS</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>MKKTLLRSGTIALATAAAFGASLAAAPSAMAVPGGCTYTRSNRDVIGTCKTGSGQFRIRLDCNNAPDKTSVWAKPKVMVSVHCLVGQPRSISFETK</t>
+          <t>GCKGFLVKCDSNSECCKTAIVKGKKKQLSCLCGAWGAGCSCSFRCGNRC</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>MMTKCQKRASIQGLWLLSMVLLASSSLVCASMAVDGQTKEDINATSVTSMNMTRSSSASYNMTGGGGELNRGPCVVRSGFYWCQNIGYPTMSECLKNCES</t>
+          <t>MDRRRMALRPGSRRPTAFFFHSRWLVPNLLAFFLGLSGAGPIHLPMPWPNGRRHRVLDPHTQLSTHEAPGRWKPVAPRTMKACPQVLLEW</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -4444,24 +4444,24 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>MENEKLESYFMKEIAPILDEIEMSEELIKGMENNNPSDMITVSFSKEEVDILLAMLDLELPRLDSGSELFSPNLVREAKLQLIKNKLTSK</t>
+          <t>MQNAQSEKVQQESANSLLTHLKSPEKTELKIDVSDRAADAIDIMRQNAEALARLQQEMIAGKQLSAKDVAERSMDFGEVIEGELA</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>RRRQRRKRGGDIMGEWGNEIFGAIAGFLG</t>
+          <t>MLNLIVVVLPILAAVTWVVFNIQKPAREQLARQFDENNKAF</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -4470,7 +4470,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>GITPDCTFNEKDIELHVYSRDKRNGIILKKEILKNYDLFKES</t>
+          <t>MPPRWASLLLLACSLLLLAVPPGTAGPSQPTYPGDDAPVEDLIRFYNDLQQYLNVVTRHRYGRRSSSRVLCEEPMGAAGC</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,98 +4483,98 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>MHVCDLQKLVRIQLAFTTFPWMFSCHLLPTPELSSKRNQCLLYKTSGCLTQMPILYGHPATLLKDYILQAILQPGKKIQGGTEIQRGSFANQYQTDASHL</t>
+          <t>MKINKLTLNERKNDILSYFSEINTPFRTSEVAEHLGVSAYQARHYLQCLEKEGKIKRSPVRRGASTLWEISAVTEPSVKTDRIAD</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>MLVIFLGILGLLANQVSSQLVGQLHPTENPSENELEYWCTYMECCQFCWDCQNGLCVNKLGNTTILENEYVHPCIVSRWLNK</t>
+          <t>MCLRSHFKVAFTQRKVELSKELRRSRSSRNGGLPLQEQPMGQKWGWHRGEPGHPRMEELNEWPQNGDHWSRKWPPPCAFTPG</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MLSQKPKKKHNFLNHGLSLNLVIKPYLALEGSVAFPAENGVQDTESTQEKRETGDEENSAKFPVGRRDFDTLSCMLGRVYQSCWQV</t>
+          <t>MTKKNLKPQQAAPVQREINTTSSESGTSTGLTPHQAYLGIPLPFAGDDAE</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>MENLNLNQLENINGGYWKTIWAVGPGLYQRDTETGKYRWIQTQDNLSYTTNVIANGWAGSAAGGYFSGR</t>
+          <t>VSHYAFYKEDDTWKFVKYGGLLELVQAASMMAYSPKEAAACTCYKLNGVRWWWMGMTDKDAIEDVNLLPADLRAMLVIWSLDQLLE</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>MTKTELQYKKAIGVAIFATSEEDKKQLGNVAPFSIYEILEIDLNKNRVYYALNCGERHAVCFTKLRKEEETGDNFILINKQPFFLKDIHKGLTWSKSL</t>
+          <t>MFLVAGALGVQTAAATTIVNVILNAGTLVTVLGIIASIASGGAGTLMTIGWATFKATVQKLAKQSMARAIAY</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>MVDVSDKVETKRTAVAEGRVVMRPETLALVIAGRAGKGDVLGIARVAGIMAAKRTADPKNSKSFSRVLLERPRAHSI</t>
+          <t>MKHSDNLRSVRSEYADADGSRCVYLTFDDGPNPLCTPPDI</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>MVKRTHGYRYKTRKLLRKKPREKGLSGLSRLLYEYKVGDKVIIDIDSTFISTAPHRRYQGKVGTVVGIRGRAYVIETFLGDKKKIIITTPEHLKPYQGGS</t>
+          <t>MRLVVCLVFLASFALVCQGQGYKGGYTGPVVRPFVRPIGRPFVTPIGRPVVSGNVCPLSCRGITTLQARSCCSRLGRCCREAKGYSG</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>MSDSTSSPVAAAPSTAMTRPVSEALLNEKWDRCLSNLLIKSTLGLGFGVVFSVLIFKRRAWPAFVGVGFGAGRAYEECNTSLKQAAREIRAQA</t>
+          <t>MHVCDLQKLVRIQLAFTTFPWMFSCHLLPTPELSSKRNQCLLYKTSGCLTQMPILYGHPATLLKDYILQAILQPGKKIQGGTEIQRGSFANQYQTDASHL</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,11 +4587,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>VSKLAQSCSEDFECYIKNPHAPFGQLRCFEGYCQRLDKPT</t>
+          <t>MIRRSCALLSSSWRDHGISYLKYLNVCTETLHSTVKESRRAKYERWSKPCYTAQRPDGAGGQETIDKVPIHTKDY</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -4600,20 +4600,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>KVYERCEFARTLKRNGMAGYYGVSLADWVCLAQHESNYNTRATNYNRGDQSTDYGIFQIN</t>
+          <t>MNIEAYPHDFRGSLAVVSATGVAGCRTWTLRSVETGKHYELAPASIEGWPLPAKREDSRPNSIIVNYDGNDVIALELATGELYRTRAPATTLRLRR</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MAPLRGAELVQTPLQLYRYLLRCCRQLPTKGIQEHYKHAVRQSFQVHSDEDNPERIQQIIRRAIEDADWIMNKYKKQN</t>
+          <t>MNLIDLILIAIYVIGISGLIFNKNNIINILIISELNLGTLGMLFVLASVELNDILGELSGLYILTFTAAESAIGLAIVVILYSKTGIINIRNLNKLKG</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,24 +4626,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>MLHTLHRSPWLTDFAALLRLLSEGDELLLLQDGVTAAVDGNRYLESLRNAPIKVYALNEDLIARGLTGQISNDIILIDYTDFVRLTVKHPSQMVW</t>
+          <t>RRRRRRRRSLVSSDESSSGSSHSSGEHS</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>MPTWLTTIFSVVIVLAIFLYFGLLIYQKIRQIRGKKKDKKEIERKESNK</t>
+          <t>GPLPIPIVVNFNKLRKKISNRFKKLRKRLKKGFGRK</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4652,24 +4652,24 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>MMRCYRCGESKEDNRFRPNQPYWNRWCLRCERTPTGVLPLPQEKEDVWRDSDEVSPT</t>
+          <t>FTFSILCQVNSDCLGEICLPPKTHWCNKILLEIYISCHLVTMLEPNNLYLLPFLISWTRNNLYIILGLSLFSRTNSLVLSWR</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>MEKLTILLLVAAVLLSIQALNQEKHQRAKINLLSKRKPPAERWWRWGGCMAWFGLCSKDSECCSNSCDVTRCELMPFPPDW</t>
+          <t>MVAGIQKISLSKGKPVKGVNIKTGEEITFQTVSEVISYGFDKSHVASCARGESKTHKGFIWKYV</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4678,37 +4678,37 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>MVSPRVRLAALALSVCAILCLGMHASAFPPKPDNPGDNASPEQMARYKAAVRHYINLITRQRYGKRALTPENWIYRDPAEERVTYGLDDYAMW</t>
+          <t>TTFHPILVILFYSLFPFIPAPIRCNRVSDCPKIRCNIGFVLRCLYNQCKCVRITQLVDYVLK</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>MLWTYDMMSFQKIYSPTQLANAMKLVRQQNGWTQSELAKKIGIKQATISNFENNPDNTSLTTFFKILQSLELSMTLCDAKNASPEAAEQQDLEW</t>
+          <t>LKVDLWGTRSGIQPEQHSSGKSDVRRWRSRY</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>KVPAYCKLPPDSGPCKGHFPAFYYDPVSSYCQKFI</t>
+          <t>MSRSTFLTLQEGLRRINQPRLLAESSRRRQRLLSLREKANLRKLGWWLKLPLVLQPLNGQPPMKKMIYQ</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,24 +4717,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>MEKMVKFNLRYDELLKKIPYKYAIPVVVAKRAEAIREYAKPFVITDDENPVSIAFMELSLNYIRIKNEEILKALIPKVK</t>
+          <t>MSNPKDDYKIWLVINPSTWLPVIWIVATVVAIAVHAAVLAAPGFNWIALGAAKSAAK</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>MFTNSIKNLIIYLMPLMVTLMLLSVSFVDAGKKPSGPNPGGNN</t>
+          <t>LVAYGIAQGTAEKVVSLINAGLTVGSIISILGGVTVGLSGVFTAVKAAIA</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>MTILSAITSISRPNKASKSSVSSFGGASLSMGSNSVACGGCGGGSSGPRGPGGVAVGVAVDVNINLGVVVGGVLGLVGGILGGGGSSGSCGCH</t>
+          <t>MSDSTSSPVAAAPSTAMTRPVSEALLNEKWDRCLSNLLIKSTLGLGFGVVFSVLIFKRRAWPAFVGVGFGAGRAYEECNTSLKQAAREIRAQA</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>MKILTVFMIFIANFLNMMQVFSVKDRFLIINGSYELCVYAENLGEDCENLCKQQKATDGFCRQPHCFCTDMPDNYATRPDTVDPIM</t>
+          <t>VGRFKRFRKKLKRLWHKVGPFVGPILHYG</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,11 +4769,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>MPFVPVETPKCPACGKSVYAAEERVAGGYKFHKTCFKCSMCNKALDSTNCTEHEKELFCKNCHGRKYGPKGYGFGGGAGCLSTDTGAHLNRE</t>
+          <t>LKCVNLQANGVKMTQECAKEDTKCLTLRSLKKTLKFCASDRICKTMKIASLPGEQITCCEGNMCNA</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4782,50 +4782,50 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>MTTSQKHRDFVAEPMGEKPVGSLAGIGEVLGKKLEERGFDKAYVVLGQFLVLKKDEDLFREWLKDTCGANAKQSRDCFGCLREWCDAFL</t>
+          <t>FDISCDKDNKRFALLGDFFRKSKEKIGKEFKRIVQRIKDFLRNLVPRTES</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>MKEIILWPAYIDLKRTKNEGRKVPKEIAIQNPKLKEIASKIKKMGLEYSVENKKSYPKESWEICGYIKVKVDESTSKLQFLKEICINMK</t>
+          <t>MRTQVLFLIVVLAVMASGDDTAHVYCGRRLATMLLYVCDNQYQVKRPPYISSENEGYGWKWLERQRARQLDEARGKRQGIVEECCNKPCTENELLGYCYK</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>VKIIQRILQVRYPANPQNVEVAVNSKSATVSAE</t>
+          <t>MSSAIKILALLMVLVALAQAKPRKDYRAYPDFDDKSVILEDDKRCDPDKRDSVCKDVCGMLDIGTENGECPGKEVCCVDLFGR</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>MLSPSQSLQYQKESVERALTCANCGQKLHVLEVHVCEACCAELMSDPNSSMYEEEDDG</t>
+          <t>MISMLRCTFFFLSVILITSYFVTPTMSIKCNCKRHVIKPHICRKICGKNG</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4834,11 +4834,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>GGLRSLGRKILRAWKKYGPQATPATR</t>
+          <t>PGPDVKCVCCQDGKECPCKGGECCITGSCCKEGDGLCCGKCSNAACKCADGCKCGSGCSCTLGNCTC</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>MGKRKSAAKPPPKKRMDKLDTVFSCPFCNHGSSVECRIDMKNLIGEASCRICQENFSTTVNALTEPIDIYSEWIDECERVNNVEDDDGA</t>
+          <t>MGMRMRMMFTVFLLVVLANTVVSFPSDRDSDGADAEASDEPVEFERDENGCCWNPSCPRPRCTGRR</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,24 +4860,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>NAAAEIFRIAAVMNGLTLVGVAIGFVLLRIEATVEE</t>
+          <t>MSSTATPTPSNVVLVGKKPVMNYVLAALTLLNQGVSEIIIKARGRAISKAVDTVEIVRNRFLPDKIEVKEIRIGSQVVTSQDGRQSRVSTIEIAIRKKA</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>WYKHVASPRYHTVGRASGLLMGLRRSPYLW</t>
+          <t>MIPSSTRELLNIADSKYAVVVAVAKRARTLSEKYKEDENYRLSTMVTRALDEVVNGKVIIEPSKEDGSREV</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4886,11 +4886,11 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>MANLKSSKKDIRRTARRKERNGEDRTELRTYARLLIKAIKSGDKTEALTVFSKLSSKLDRAAKTKLIHKKNADRKKSRMALRINSIEAKAA</t>
+          <t>MKTYLMTIVILLILVHKTSGSMKNLPRRQTMEKEKKCENNEGFCRKKCKAEEVELRYCLSGKMCCISTYSTLITYLEKETVHMKHFHTTSSQHVY</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4899,50 +4899,50 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>MQSFKICFFISCLSVVLVKGQFGGTVSSNPNGGLDVNARLSKTIGDPNANVVGGVFAAGN</t>
+          <t>MADSTAGAKKRKKRSTSATSTRKEPPTVIPEDECTTCSICQSKLVMFSGVSKYKLSDYLNTGKVFTNSNIRCKACGSSLCHLRDLSKS</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>MQLGTGLLLAAVLSLQLAAAEAIWCHQCTGFGGCSHGSRCLRDSTHCVTTATRVLSNTEDLPLVTKMCHIGCPDIPSLGLGPYVSIACCQTSLCNHD</t>
+          <t>KVYERCEFARTLKRNGMAGYYGVSLADWVCLAQHESNYNTRATNYNRGDQSTDYGIFQIN</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>MGLSTHCQLVFSWKPMNTHMVSRAMEGSLKSYPFPSNINITSCVSIKLNDRNYLLYDEGRVRLSLLNLGERCDFVPFLSVELFKPLQSSGVYEKLHESNN</t>
+          <t>VTVVQYRSTNASSGYLNLRVYLLDTGLR</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ERECVTDDDCEKLYPTNEYRMMCDSGYCMNLLNGKIIYLLCLKKKKFLIIISVLL</t>
+          <t>MKTSKMICAFLLVLVVGTFNDISGAYGEYVEDQHSFKIERRFPPCVEVCVQHTGNVKECEAACGE</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -4951,33 +4951,33 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>KASSSAPKGWTHHGSRFTFHRGSM</t>
+          <t>MALTVETKKRPEGSKPKALRRSGFIPANLYGHNGRESISLVVDAKVVERLLKAAAVKKTEIELNIPELEWTGKTVLQEVQIHPAKGTPYHISFLATAKG</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>MAGPEADAQFHFTGIKKYFNSYTLTGRMNCVLATYGSIALIVLYFKLRSKKTPAVKAT</t>
+          <t>LILFIFSIITMLSMFLLYLFGMASVALIELGLLMGSQNDITKGAHSLLFTGVTLTVVTEITKQCLLLF</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SRSGRGSGKGGRGGSRGSSGSRGSKGPSGSRGSSGSRGSKGSRGGRSGRGSTIAGNGNRN</t>
+          <t>LVQRGRFGRFLSKIRRFRPKFTITIQGSGRFG</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SSESFTLLEQWNNWKLQLAEQWLEQINEKHYLEDIS</t>
+          <t>ACLARGETCKDDCECCDCDNQCYCPFDWFGGKWHPVGCSCAYTNKYVCDHKKEKCKKA</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,11 +5003,11 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>YRQSMNQGSRSTGCRFGTCTMQKLAHQIYQFTDKDKDGMAPRNKISPQGY</t>
+          <t>MQERDILLKIKEIAKAKNFKTELDESVLQKPFRELKIDSLDMFSVIVSLEKEFDIMFEDEKLMQLNNLAELIAEVKHLISQKGV</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -5016,37 +5016,37 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>MSTYKEIEHLHINTGGKELTQEQIEEAKAFIDSQEFKDMIREAKESHQRVMESKITDRTKL</t>
+          <t>ACWKANSCPGSAFESKDRLRSFALLYCRYNYKPPYGQGAFGYASAVSTHGWETEAQCINTFEQIITSCHGQSNGGTLELNSGRLSLAFGNCEEL</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>MKEKDYWEEAWLTSCTSIHDHHCDCGSWRDHLWTLCALDDADLAAAADIIEREEADGGEDFGFVDGDPGDAGG</t>
+          <t>MKVSAALLCLLLMAATFSPQGLAQPDSVSIPITCCFNVINRKIPIQRLESYTRITNIQCPKEAVIFKTKRGKEVCADPKERWVRDSMKHLDQIFQNLKP</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>MANKVSLENLLAMAVTAKEHEMSRHANKMRQLEKTEANIKKRIKELSKEG</t>
+          <t>MESMKMKLIVVLMVAIVAFSAVGNVAAQTEAPAPSPTSDAAMFVPALFASVAALASGFLF</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,50 +5055,50 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>MQLAKVLGTVVSTSKTPNLTGVKLLLVQFLDTKGQPLERYEVAGDVVGAGLNEWVLVARGSAARKERGNGDRPLDAMVVGIIDTVNVASGSLYNKRDDGR</t>
+          <t>MFTVFLLVVLATTVVSFTSDRASDDRNTNDKASRLLSHVVRGCCGSYPNAACHPCSCKDRPSYCGQGR</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>MSGRKETVLDLAKFVDKGVQVKLTGGRQVTGTLKGYDQLLNLVLDEAVEFVRDHDDPLKTTDQTRRLGLIVCRGTAVMLVSPTDGTEEIANPFVTAEAV</t>
+          <t>MENHDIELLAHLHALPETDPVGVDGAPFAATCECVGLLTLLNTVCIGISCA</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>MHGEITTLQDYVLDLEPEATDLYCYEQLCDSSEEEEDTIDGPAGQAKPDTSNYNIVTSCCKCEATLRLCVQSTHIDIRKLEDLLMGTFGIVCPGCSQRA</t>
+          <t>VSKLAQSCSEDFECYIKNPHAPFGQLRCFEGYCQRLDKPT</t>
         </is>
       </c>
       <c r="B358" t="n">
         <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MIIYRQYHHEGAPVYEIITKTFQHVSIKCDDSFSDTEIFKLLSLLQDDIDHMKVS</t>
+          <t>MDIDYRIAIVLAPVVIAASWAVFNIGAAALRQIQGFLDREA</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>MDKRIEEVAAKALEKMGNDRYRLSLVVAKRAEQLANGATPLVDFDKNKNKLADIALYEIAENKITLEGLVETNR</t>
+          <t>MKCGRKRRRRRRHACKRKKRACKQRSSTIVRAHLVHRRRAARRCP</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,7 +5120,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>MRILYQLLVVLFVMLQAAAGQRYIPGRFNSCAARNGICIPGICRRPFYWAGRCSNGLTCCKRYVEVQG</t>
+          <t>GSGPTYCWNEANNPGGPNRCSNNKQCDGARTCSSSGFCQGTSRKPDPGPKGPTYCWDEAK</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,20 +5133,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>MGSINLRIDDELKARSYAALEKMGVTPSEALRLMLEYIADNERLPFKQTLLSDEDAELVEIVKERLRNPKPVRVTLDEL</t>
+          <t>MWRIWRLFDPMRAMVAQAVFLLGLAVLIHLMLLGTNKYNWLDGAKKAPAATAVAPVPAEVTSLAQAK</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SPTISITAPIDVLRKTWEQERARKQMVKNREFLNSLN</t>
+          <t>MFSGAGRPSKEQIKQYDNLAVGEMKKGASVAAVLLLTPFVISFFQKMRA</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,50 +5159,50 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MGEFSLTHILLLAVIFLIFFGPSRLPQLGQSMGKAIRGFKQGLNEIDVDAKDIHDNQQVSHQNKQSMGQTQKQGENQNS</t>
+          <t>MAKFANYLTLFLLVASLVMMEVHSSSSTEVPDQGRRLLMNPDSNGIPCGESCVFIPCISALLGCSCSNKVCYNNRTKS</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>MPNTKSAARALRRSERRRLRNRMWRSMARTFIKKARKLMEAGDLEAAARVIGDAISTLDRAAAKGAIHKNNAARRKSRLMKRFNALVKARLQQGQEQST</t>
+          <t>VWNQWTLYWTDRETGEEGNFKIPRPNALFIGMPIDIDEYRYTVTAVSTPTKEVWTERIPFDFGTKPPWEHNN</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>MKTVLAFLFLTFIAFTYAESYEDVKEEIKNEVEREIFEDLEEESDVLDSNVREFNDAKPWRFRRAIRRVRWRKVAPYIPFVVRTVGKK</t>
+          <t>VETMYTVIYKNAVESEPALEGGSFLTDAPKTDGLKLMTFGTRVF</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SWDSIWKSAKNKMDKIMRQKVAKWMAKKEGKSVEEVQAKVDAMSKKDIRMHVISHYGKKAFEQLSKSLEE</t>
+          <t>MLSPSQSLQYQKESVERALTCANCGQKLHVLEVHVCEACCAELMSDPNSSMYEEEDDG</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
         <v>1</v>
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>MMIYGLIACLIFVTSSIASPPITEDKSFNSVEVLVSLFRDDQKDYTVTSQFNNYTIDTKDWTIHT</t>
+          <t>MVGTCPECGAELRLENPELGELVVCEDCGAELEVVGLDPLRLEPAPEEAEDWGE</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,50 +5224,50 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>MPPRSIEEWFYYKLLSSPGFHRFVRKVYRKVNGIKEDPFTDQSTAFQYLYKPTPRQKFKALRLLFWDEMRSTFGFRRRLGDRFKKD</t>
+          <t>GFFALIAKIISSPLFKTLLSAVGSALSSSGEQE</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MPTGFHRESATIYQFPVKAIRNANRFERARLMEREAAEVCDAALDSCWYHDEAVRESDRPTKS</t>
+          <t>AFAPSKVDSDRPNCSRYVQHLYMCTKELDPVCGTDGHTYGNRSIF</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MNTPAARPDRYQSFAHIPCDAMALKLLTHLEQLLQAEDTLEPFWQLFLQKAAIAKQPQPGQADALKLICSNSYYIFDLFAAQQDQAGEAMMDELEYQCC</t>
+          <t>MGDQPCASGRSTLPPGNAREAKPPKKRCLLAPRWDYPEGTPNGGSTTLPSAPPPASAGLKSHPPPPEK</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>DEVDPDGKVLNSLIDTLMHLQKEFANLKYAFLTVHKARSFGSGSERLYVTNKEIKNFEPLGDI</t>
+          <t>TMCYSHTTTSRAILTNCGENSCYRKSRVHP</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>MENHDIELLAHLHALPETDPVGVDGAPFAATCECVGLLTLLNTVCIGISCA</t>
+          <t>MFKILNDIKTSLKNHPWGWKEHLPYLLMLTLSLVALIFGVLSAIL</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,24 +5289,24 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>VWNQWTLYWTDRETGEEGNFKIPRPNALFIGMPIDIDEYRYTVTAVSTPTKEVWTERIPFDFGTKPPWEHNN</t>
+          <t>NLVQFELLIMKVAKRSGLLSYSA</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>MAARAVFLALSAQLLQARLMKEESPVVSWRLEPEDGTALCFIF</t>
+          <t>MQSFKICFFISCLSVVLVKGQFGGTVSSNPNGGLDVNARLSKTIGDPNANVVGGVFAAGN</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>MRNATFFIVFYVFISLVLSNVQDVTAQKNKCMRSEMFPTGPCGNNGEETCKKDFKNIYRTPIQCKCLDKYDFARLCDCRFC</t>
+          <t>MPVVTGRLRDPDINPCLSESDASTRCLDENNYDKERCSTYFLKYKNCRKFWHSIMMQRRRNGVKPCMPTAAERDEILRAMGKMPY</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>MMYKYARIKRVRNITVYDIACQCWARDFQYDQCLFLLIQHGFSPIQSLEEFQRVWNMLDQAFADFCNERGCPADPIGFADVRI</t>
+          <t>MEKQEQTFVSKISEEELKKLAGGYTEVSPQSTIVCVSLRICNWSLRFCPSFKVKCPM</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,20 +5341,20 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>VCCRGLLGAASVGRQNRFEIVYNLLSLREVWDMFGVFFFNHPDLRILTDYGFEGHPFRKYDDEVKRVVAEPVELAQEFRKFDLNSPWEAFPAYR</t>
+          <t>MLVIAPKQVAKDTWVDEVDKWNHLNHLKVSLILGTPKERNDALNTEADIYVTNKENTKWLCDQYKKRMAI</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>MNLIDLILIAIYVIGISGLIFNKNNIINILIISELNLGTLGMLFVLASVELNDILGELSGLYILTFTAAESAIGLAIVVILYSKTGIINIRNLNKLKG</t>
+          <t>MASKKAPTGHFSILYFAAASTFTGKTSEHLPAPIKACDLFDTLEDRYPGIKGKVLASCAVTVDLEYIDINEGDAADLERVIQEGDEVAIIPPVSSG</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,33 +5367,33 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>LSSANFPFCLLLGTVTEQLKRCWDDYVQGHCRKICKATEIREILCANGRYCCLSIKDVKARKVITRAPRPKPRTQAYTFPQDQFPTLENYAISN</t>
+          <t>MGEFSLTHILLLAVIFLIFFGPSRLPQLGQSMGKAIRGFKQGLNEIDVDAKDIHDNQQVSHQNKQSMGQTQKQGENQNS</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>MFKTILVLVVALNLLGAFTYASPRPDDKKNQGSASVDVQRERGEGTKVDARVRQELWRSDDGRTRAEAYGHWDRTYGGRNHGERSHGGGVRLEHTWGK</t>
+          <t>SATVELYSNLAAKGLAVEFTSTSLKAALLNILSVDGVPATTAK</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>IDYRKCQASQILKEHGMDKVIPLPELVCTMFHISGLSPQAEV</t>
+          <t>MQAKAPMYPNEPFLVFWNAPTTQCRLRYKVDLDLNTFHIVTNAR</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,46 +5406,46 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>LKCVNLQANGVKMTQECAKEDTKCLTLRSLKKTLKFCASDRICKTMKIASLPGEQITCCEGNMCNA</t>
+          <t>MATSSLTKPQMRWPSGPRRLRFHIVGAFIVSLGVATFYKFAVAEPRKKAYADFYRNYDSMKDFEEMRKAGIFQSAK</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>MLYLIIYDVPATKAGNKRRTRLFDLLSGYGKWRQFSVFECFLSVKQFAKLQTAMEKLIKLDEDAVCIYVLDENTVQRTITYGTPQPEKPGSIII</t>
+          <t>MFTNSIKNLIIYLMPLMVTLMLLSVSFVDAGKKPSGPNPGGNN</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>MGDQPCASGRSTLPPGNAREAKPPKKRCLLAPRWDYPEGTPNGGSTTLPSAPPPASAGLKSHPPPPEK</t>
+          <t>MASHHEITDHKHGEMDIRHQQATFAGFIKGATWVSILSIAVLVFLALANS</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SGDLGAERYAKMCKSCHGADGSNAAMSRALKGLPAEEVKAALIGYKEQTYGGKKKGMMERVVKSLTDEDIEVLATHIGTF</t>
+          <t>MGDPEVLLEVYEVIRNRIEERPEGSYVAELTEDDDTKPAINKICEKIIEESGELILAAKDGDREGVVYESTDLIFHVLVLLAYLGIEIGEVFDEFERRRK</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>MNTQRAKDISESAAMAYVTYEGVPIYIQHVNEDKETARIFPIGNPQFEQEVLLSDLQEHF</t>
+          <t>MIQSPTSFLIVLILLWCKLVLSCFIECLVALQQLIHVLLQIINSNLQSRLLLWHSLD</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>MAASKGNAAAAACALVLVLLAVGAEAQGGGGGECVPQLNRLLACRAYAVPGAGDPSAECCSALSSISQGCACSAISIMNSLPSRCHLSQINCSA</t>
+          <t>MLNHRYHHYFHRHHHLNHHLYHRHHHHRHHHHRHHHRHQILHQNRHQIHQILLSLNNKIMGYAIFLFLSILLHLVYLVIHRL</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,11 +5484,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>YLDVNQIASYLLCLGEGAVFNGRKTCQIGCRAACQQPGCGGYKECEQIPNIRLHKYRCHC</t>
+          <t>MAKATKKAEAKTVTIEQIGSPIRRPDVQQRTLIGLGLNKMHRRRTLEDTPSVRGMIRAVQHLVRVVDEK</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>MQAQNKKVIYYYYDEAGNRRPVNIQYNDGYDLMIDPRFIEMTLERHPHLKNNFYGLIDGKEFKLD</t>
+          <t>VKIIQRILQVRYPANPQNVEVAVNSKSATVSAE</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>MFETITPLFPGLPGGPELLVVLLIVVLLFGANKIPKLARSSGQAIGEFQRGREEIEDELQDMTGDDDEDDATSESSADSVSTDSVSTESSN</t>
+          <t>MSPPSSMCSPVPLLAAASGQNRMTQGQHFLQKV</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SGERPWKCCDLQTCTKSIPAFCRCRDLLEQCSDACKECGKVRDSDPPRYICQDVYRGIPAPMCHEHQ</t>
+          <t>MSERQGAGATNGKDKTSGENDGQKKVQEEFDIDMDAPETERAAVAIQSQFRKFQKKKAGSQS</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>MFTVFLLVVLATTVVSFTSDRASDDRNTNDKASRLLSHVVRGCCGSYPNAACHPCSCKDRPSYCGQGR</t>
+          <t>MAAFVESARAGAGADEVIQLVSDGVNEYSEKMMEGVVACPRILMPCKVNDDCLRGCKCLSNGYCG</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,24 +5549,24 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>MTKKNLKPQQAAPVQREINTTSSESGTSTGLTPHQAYLGIPLPFAGDDAE</t>
+          <t>MKLSIFFVLFFIAIAYCQPEFLDDEEDEVEETLPVAEEGREKSCITWRNSCMHNDKGCCFPWSCVCWSQTVSRNSSRKEKKCQCRLW</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>MSHSYKKAISDEALRPFQMDYFGGLPPGQYATRMTGQVHGSGCHLRSAPCDLGASQRKLSSNFSEIDAGLFSQGKSAAYTDIGATKPVEQRETAS</t>
+          <t>LATFERDVITPETVHAILKKTNSNSNIMLHEDAIQALTGKTLISKTVLEEALLKNAENGLVGSGVPCGESCVWIPCLTSIVGCSCKNNVCTLNSLAQN</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>EFLENAKKLSMYGVDLHHAKDLEGVDITLGVCSSGLLVYKDKLRINRFPWPKVLKISYKRSSFFIKIRPGEQEQYESTIGFKLPSYRAAK</t>
+          <t>MKINHAAVAGTLESSDVMVRIAPIEDDQALDLQISSSVEKQFGDAIRATVLDVLNRYQVRGIQLIVDDKGALDCVLRARLETLLARAADLVSLPWEDRA</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>MKLFYVLIYFISLFLVINVQAFFDCENHDDCKNKIKYVLPRIAECRDYKCNCFPLNLSKTLWSASTKRVHKSLAQTNDFLH</t>
+          <t>ERECVTDDDCEKLYPTNEYRMMCDSGYCMNLLNGKIIYLLCLKKKKFLIIISVLL</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>MSIRLRVCVGCVYVRVTVSLPAFNPMRNKIGECTQSHTMCLRAVLLTPHNKKKKHTSCP</t>
+          <t>WLNALLHHGLNCAKGVLAWLNALLHHGLNCAKGVLA</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -5614,37 +5614,37 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>MAGRISAFLKNAWAKEPVLVVSFSVWGLAIIMPMISPYTKYASMINKATPYNYPVPVRDDGNMPDVPSHPQDPLGPSLDWLKNL</t>
+          <t>LGEKGYSYSTGDSSVTVQHDTLPYSRYQGLYNYAHPGYNTYPYNQYQG</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>VRTEEVGSFDSPVGEHQQPGGESMHLP</t>
+          <t>MFQSTFFLVLMVCVATARFANKDHCPPNEEYNECGNPCQEKCDNGEPVICTYQCEHRCFCKQGYVRLTEDGECVPEEFCKPIHY</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>LATRNKIGTYTNDEGNVVVQMAGSKAELLELLSFLNAKYLLEVTDTPEEYQKVFNRLQVETGKNYSVLLLDKVTNKSQESEDFLGDKV</t>
+          <t>MILDYINSRIKILWYTDPFLISREGVIVLETEKTFLIKLEEKNKFIRIFKAHGIFEITFKGKSFIIAGYKLVRKPWKRI</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>MLQEFNQNQKAKVAVCLNKTNSTDLAWWRTWTSSWWANVYF</t>
+          <t>NAAAEIFRIAAVMNGLTLVGVAIGFVLLRIEATVEE</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>MIPRVLILLTLVALFCACSTLAAVAHIEVDCIPPFTVYLLYGFVTLILICSLVTVVIAFIQFIDWVCVRIAYLRHHPQYRDRTIADLLRIL</t>
+          <t>MAEIIKFVYIMILCVSLLLIEVAGEECVTDADCDKLYPDIRKPLMCSIGECYSLYKGKFSLSIISKTSFSLMVYNVVTLVICLRLAYISLLLKFL</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>MKKEITNNETVKNLEFKGLLDESQKLAKVNDLWYFVKSKENRWILGSGH</t>
+          <t>GSSFLSPEHQKAQQRKESKKPPAKLQPR</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,20 +5692,20 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>MWRIWRLFDPMRAMVAQAVFLLGLAVLIHLMLLGTNKYNWLDGAKKAPAATAVAPVPAEVTSLAQAK</t>
+          <t>VQTSHQSNKAMEHVKQIPSLGVVVPRVLSSKTF</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>TSQGTTPDKVQLEVNCISNLPNNEVEETDLLRELEMIEENLFGKELSFVPEENRNSRHKRCMGYDIECNERLHCCADLECVKTSGRWWYKKTYCRRKSG</t>
+          <t>MCRIFIVLLVVAALAIIIEGQLTFSSGWGNGKRSISSEQINDDCNPEEAIFQIYKLIVSEGERIRACQRDGKM</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,37 +5718,37 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MPQLELISWFFNFLLAWFFLFIVVTILLKINFPSTNYITVTHPQKLNIFNNWLWT</t>
+          <t>MILLKLYLTLAAILCQSRGTTSLDLDDLMTTNPEIQNEIINKHNDLRRTVDPPAKNMLKMSWDNIIAESAKRAALRCNQNEHTPVSGRTIGGCGCAEKIT</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MPSNGIVRSWRRAMATMNVSLPDAMREWVEGQTQSGRYHNASEYVRDLIRRDQERADKIAHLQRLIDEGLDSGVGERSLHEIRAEARRRAGVDHEL</t>
+          <t>MSRKYRGFDTAFTKDGVCVYVIKDDKEKGTALVRDTRGGDEYTVSNEGMIYTKDMESIDVYMPW</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MSSRYLLSPAAQAHLEEIWDCTYDRWGVDQAEQYLRELQHAIDRAAANPRIGRACDEIRPGYRKLSAGSHTLFYRVTGEGTIDVVRVLHQRMDVDRNL</t>
+          <t>MEHLYIVSYDIRNQRRWRRLFKTMHGFGCWLQLSVFQCRLDRIRIIKMEAAINEIVNHAEDHVLILDLGPAENVKPKVSSIGKTFDPILRQAVIV</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -5757,24 +5757,24 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MSAAKQCFRNLWRASNSVFEGDPMILAAARDKIRTGFHNHRCCSPEEAKKEIQNGNAVAEILRRNVVQAEKQSNDTYSLKIRKTTEINTNRQFTEKKFPR</t>
+          <t>MTKTSRRKNAIANYLEPVDEKSINESFGAGDPEARSGIPCTIGAAVAASIAVCPTTKCSKRCGKRKK</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>GCKGFLVKCDSNSECCKTAIVKGKKKQLSCLCGAWGAGCSCSFRCGNRC</t>
+          <t>MPQLEFTWWIINFFIVWTADFTLLIVLSIPNLSTPTTLSKQLDINKSHVTWQWS</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -5783,20 +5783,20 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MGQAVSYLTYTLRRCCKKNTLTTESGEVIELDDEHYDTVDLDDLRCSDPLMQPKFVLLKNGRRGKRNREYDNDHEKYVMMFNKE</t>
+          <t>MKGLSLVLLVLLLMLAAGEDSDSEMQYWTCGYRGLCRRFCYAQEYTVGHHGCPRRYRCCATRP</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>MAVFRSTLVLLLIIVCLTTYELHVHAADGAKVGEGVVKIDCGGRCKDRCSKSSRTKLCLRACNSCCSRCNCVPPGTSGNTHLCPCYASITTHGGRLKCP</t>
+          <t>MKKKLVKGLVICGMIGIGFTALGTNVEAATYYGNGVYCNKQKCWVDWSRARSEIIDRGVKAYVNGFTKVLGGIGGR</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>HVGGDECNINEHRSLVAIFVFTEFF</t>
+          <t>MKLNVIHLLFCLFQEQESYSILSYESIDEFYSRLGYDLESEWLLRDLGINGTSGLAELLTDYNNLLENEITKAVFSDKWL</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,20 +5822,20 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>QSLEETADQVPAQDQPGAEAQDITISFAGDERSAREASKSLIGTASCTCRRAWICRWGERHSGKCIDQKGSTYRLCCRR</t>
+          <t>MPGFTAPTRRQVLSLYKEFIKNANQFNNYNFREYFLSKTRTTFRKNMNQQDPKVLMNLFKEAKNDLGVLKRQSVISQMYTFDRLVVEPLQGRKH</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>TTFHPILVILFYSLFPFIPAPIRCNRVSDCPKIRCNIGFVLRCLYNQCKCVRITQLVDYVLK</t>
+          <t>YLDVNQIASYLLCLGEGAVFNGRKTCQIGCRAACQQPGCGGYKECEQIPNIRLHKYRCHC</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MKTIIVLLLLTIVAAAVVESSPKARRQTECQIKNDCQRYCQSVKECKYGKCYCNYAG</t>
+          <t>HVGGDECNINEHRSLVAIFVFTEFF</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5861,11 +5861,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>RCGQQLRNISPPQRCPSLRQAVQLTHQQQGQ</t>
+          <t>MIYRNWSLLSSTVVIWGGVATAGLAGIFLFGGKEKFQNYLCREGERLRQQDRAAMGKN</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MQTGESMTKIIKFVYFMTIFISPFVVASLHEISGYVLGLPAGYCTSNHHCPVYNCTHPKQPWCKLVRLQLLFHGSLIGLCDCI</t>
+          <t>MSQPYLISKWMDPLFGIFVGTYGYYLYEKEHRPRGRSLRELALRKWNKQAVSQQSMKN</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,24 +5887,24 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MKINHAAVAGTLESSDVMVRIAPIEDDQALDLQISSSVEKQFGDAIRATVLDVLNRYQVRGIQLIVDDKGALDCVLRARLETLLARAADLVSLPWEDRA</t>
+          <t>MKTLALFLVLVCVLGLVQSWEWPWNRKPTKFPIPSPNPRDKWCRLNLGPAWGGRC</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>MSPQTETKASVGFKAGVKDYKLTYYTPEYETKDTDILAAFRVTPQPGVPPEEAGQAVA</t>
+          <t>GITPDCTFNEKDIELHVYSRDKRNGIILKKEILKNYDLFKES</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5913,24 +5913,24 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MGRFVVWPSELDSRLSRKYGRIVPRSIAVESPRVEEIVRAAEELKFKVIRVEEDKLNPRLSGIDEELRTFGMIVLESPYGKSKSLKLIAQKIREFRRRSA</t>
+          <t>MRLHGFFLALFAVFQVLHAISSALNFERPCYLRGGICLKQGTPNCEPFRGPCRAFTVCCKIRS</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>VSHYAFYKEDDTWKFVKYGGLLELVQAASMMAYSPKEAAACTCYKLNGVRWWWMGMTDKDAIEDVNLLPADLRAMLVIWSLDQLLE</t>
+          <t>MEESGFREPVLDAKSEVTGQLIDFQWKLGMAVSSDSCRSLKYPYVAVMLKVADHSGQVSSKSIEMTIPQFQNFYKQFKEIAAVIETV</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5939,24 +5939,24 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>MKMFFTVLVTLFVCSMIIGICEGREIPVKCKGSKQCLQSCKEAGMTYGKCMNGKCNCTPKG</t>
+          <t>MQALSSRVNIAAKPQRAQRLVVRAEEVKAAPKKEVGPKRGSLVKILRPESYWFNQVGKVVSVDQSGVRYPVVVRFENQNYAGVTTNNYALDEVVAAK</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>MPQLEFTWWIINFFIVWTADFTLLIVLSIPNLSTPTTLSKQLDINKSHVTWQWS</t>
+          <t>MSTYKEIEHLHINTGGKELTQEQIEEAKAFIDSQEFKDMIREAKESHQRVMESKITDRTKL</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5965,24 +5965,24 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>GSGPTYCWNEANNPGGPNRCSNNKQCDGARTCSSSGFCQGTSRKPDPGPKGPTYCWDEAK</t>
+          <t>MKLAILSLFLVFQIGVESKKNGFALDHYGKPWECNLFNVFGPYCNNQCTENKARKGYCCTFTCYCFDLPDDAKILEIGDSRKNYCDVSLTDVLG</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>PGPDVKCVCCQDGKECPCKGGECCITGSCCKEGDGLCCGKCSNAACKCADGCKCGSGCSCTLGNCTC</t>
+          <t>MEINKAYERLLKEVELLQNDLMDIEDYSEEVYQAFQKVIDELEYVIEEG</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5991,24 +5991,24 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>MFQSTFFLVLMVCVATARFANKDHCPPNEEYNECGNPCQEKCDNGEPVICTYQCEHRCFCKQGYVRLTEDGECVPEEFCKPIHY</t>
+          <t>MAHEVTKIADLINPEVIGAFLHQKMLDNLVLAPFAEIDRTLQGRPGDTLTLPQWNFIGLAEDLAEGEELQSVKLTAEDRKATVKKGC</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>MRKIVAGKLQTGADFEGSKGGCKCSGGAVVENSHNAGPAYCVGYCGNNGVVTRNANANLARTK</t>
+          <t>MSRLLLLCSSLLRHRAVLFSKPGHPGRLSHSESPQKKILSPTESAVGIVVFFTTFYIPAAYVLSSLKYFKGE</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -6017,11 +6017,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>MSNPKDDYKIWLVINPSTWLPVIWIVATVVAIAVHAAVLAAPGFNWIALGAAKSAAK</t>
+          <t>CETWRTETTGATGQASSLLSGRLLEQKAASCHNSYIVLCIENSFMTSFSK</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -6030,20 +6030,20 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>MEMMNNREQIEQSVISASAYNGNDTEGLLKEIEDVYKKARAFDEILDGMTNAIQHSVKEGIELDEAVGIMAGQVIYKYEEEQGK</t>
+          <t>MATINVYVFAFIFLLTISVGSIEGRKLTKFTVTTSEEIRAGGSVLSSSPPTEPLESPPSHGVDTFRPTEPGHSPGIGHSVHN</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>MVSPQTRKEEELLEKQNSVFYLLTLGRKPYGSYLHIKIELDEDEKLEKEIYADNIKLENELRQLKRLYEVYQSVEIDDAQKAIQKEALLTIAKILSVFDF</t>
+          <t>MPKLGVSLFIFLVLFPLATLQLDGDQSAGRHAQERGEDLFKMYQYLRRALERRRTGEDFLEECMGGCAFDFCCKRSLRDTTSD</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,7 +6056,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>MVLSDFTGVGVGFGFGVGCGFGVGWGFGGMPMNILGVGAGGGCGVGLGLGWGFGTAFGSHYRSSRLTFQGIELETADKREEVVANMSKNST</t>
+          <t>MTADAPVISGSSVVKLARGVRLHEDPVRGQTVLLAPERAMAVDDIAVAIVQALDGERNLDRIAADFAEKFDAPVEEIAEDVRTFVQELSVRRMLEIVQ</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,37 +6069,37 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>MKKVLALVVAAAMGLSSAAFAAETATPAKTAAPAKTTQTTQHHKKQHKKTVEQKAQAAKKHQKKDGKKAPAKSTSKTTSQPAA</t>
+          <t>NIFEYFLEGGGKNLRIIRKGIHIIKKY</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>MAVETIQKPETTTKRKIAPRYRVLLHNDDFNPMEYVVMVLMQTVPSLTQPQAVDIMMEAHTNGTGLVITCDIEPAEFYCEQLKSHGLSSSIEPDD</t>
+          <t>MFQRIGFPGVTNFQVLLALASLIPTPASRDFFRLPLTVGFTGAEIVNIEFECLRQLTPGM</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>MKIKILKFLKRKKWWEILVYILVVGFGFALFIGSIYDKWDKLIKWERYFILIYVSCKFVFLIWISLMYFIYN</t>
+          <t>GDVYADAAPDLFDFLDSSVTTARTINA</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MARNIKMATDAQNWLQARGSHVNESYLGVARPILEITYPPVELVKNAVRIMEHKSGVARSVWTARLNGCQIIWR</t>
+          <t>MLSQKPKKKHNFLNHGLSLNLVIKPYLALEGSVAFPAENGVQDTESTQEKRETGDEENSAKFPVGRRDFDTLSCMLGRVYQSCWQV</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,20 +6121,20 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>MGFLLSICKRPSQPVDVDGEPLDVVVDYDPIRVSEKGMLLEQSQSPYPALKKKKKNKEAIY</t>
+          <t>MVIATDDLEVACPKCERAGEIEGTPCPACSGKGVILTAQGYTLLDFIQKHLNK</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>NLVQFELLIMKVAKRSGLLSYSA</t>
+          <t>MNPIVEFCLSNMAKGGDYVFNQLENDPDVDVLEYGCLTHCGICSAGLYALVNGDIVEGDSPEELLQNIYAHIKETWIF</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,24 +6147,24 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>MSALFNFRSLLQVILLLICSCSYVHGQWPSLLDRYKNHEVLGAFWKMARVGERASPYVSLACILMAISQFNS</t>
+          <t>MDWRVLVVLLPVLLAAGWAVRNILPYAVKQVQKLLQKAKAA</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>MQRGKHMVEILEFVYAMILFLPLFLVITEVDGVDIYCETDADCPQITDWFYVVKCVDHKCELTKKLRRLYEYQTQKSAETPYI</t>
+          <t>MKIKILKFLKRKKWWEILVYILVVGFGFALFIGSIYDKWDKLIKWERYFILIYVSCKFVFLIWISLMYFIYN</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
         <v>1</v>
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RSLPEVLRARTVESSQEQTHSAPASPAHQDISRVSRL</t>
+          <t>MNENLWAAPAPKKLSKHFFGRGGPLGKETGPNLFPKKPGAGKGLGFPPTKKPRGQPRVLKKPKWNSEGLIGILHRGSDGVQF</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,33 +6186,33 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>MANVQKIGKAVYKGPSVVKEIIYGITLGFAVGGLWKMHHWNNQRRTKEFYDLLEKGEISVVVEDE</t>
+          <t>MNKAILHAIIIYTLAGCPYCMKAKALLDKKEVAYEEIEVQNSQDPNVAVLRKKLNNPDRLTFPQIFIDNMHIGGCDDLYDLDKEGRLDKLLEGQPKKD</t>
         </is>
       </c>
       <c r="B443" t="n">
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>MTAQHQSDTLLHRLNTLPPKRYGVFLLNDDYTTMEFVVEILTEIFMLGQEQAVAVMLSVHHEGKGLCGTYTRDIAQTKQQQVMQRAKAEGHPLQCIVEEI</t>
+          <t>MNYLVMISFALLLVIGVESVRDGYFVEPDNCLVYCMPSPEICDRGCKRYGATSGFCKEFSKGENFCWCKGLR</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>MLKPLGGRVALKIEEKGPTVGGFVLAGSAQEKTQTAQVVATGQGVCTLNGDLVAPSVKTGDRVLVEAHAGFDVKDGDEKYIIVGEANILAIIEE</t>
+          <t>FLGSVESSEIDAATTTRLMLNEIAEKWYLRKMMSGVGSSETVDKIFKRETNGRLTGSHCGETCFFFGCYKPGCSCDELRQCYKNELPPAEESH</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,63 +6225,63 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>MATAFLPSILADASFLSSIFVPVIGWVVPIATFSFLFLYIEREDVA</t>
+          <t>MSCCLSSRVHITRPVLEQFLSFAKYLDGLSHGVPLLKQLCDHILFINPAIWIHTPAKVQLSLYTYLSAEFIGTATIYTTICRIGTVIKDNAHLKILLLGY</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>MATEEVKIKALLENDKQYFPATHWKAINGIPYAGSSDIDGLPQDGIISVDDKNKLDKLKIGEAGIIQNSIVQKSPNGKLWKITVDDSGKLGTVLFY</t>
+          <t>MELEAMTRYTSPVNPAVFPHLTVVLLAIGMFFKAWFFVYEVTSTKYTRDVYKELLIALVASLFMGFGVHFLLLWVGIFV</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>CAKKRNWCGKTEDCCCPMKCVYAWYNEQGSCQSTISALWKKC</t>
+          <t>MALKATALFAMLGLSFVLSPSIEANVDPHFDKFMESGIRHVYMLFENKSVESSEQFYSFMRTTYKNDPCSSDFECIERGAEMAQSYARIMNIKLETE</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>LPRDTSRCVGYHGYCIRSKVCPKPFAAFGTCSWRQKTCCVDTTSDFHTCQDKGGHCVSPKIRCLEEQLGLCPLKRWTCCK</t>
+          <t>MQRLQGNMGIGHVRYPTAGSSSASEAQPFYVNSPYGITLAHIGNLTNAHELRKKLFEEKRRHINTTSDSEILLNIFASELDNFRHYPLEADN</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>MASIEIPLHEIIRKLERMNQKKQAQRKRHKLNRKERGHKSPSEQRRSELWHARQVELSAINSDNSSDEGTTLCRFDTFGSKSDAICDRSDWCLDQ</t>
+          <t>EPKEKDGKLTAGLGAGGHWDPKDTKQHGYPWQDDAHLGDLPALTVLHDGTAANPVLAPRIKHLDDVRGHSLMIHAGGDNHSDHPAPL</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>MTDAISLALQTGLGPVVGVIIILAMMGLTYKIAGKIPAIITGIASAFVLMFMDFLPLFWGIAIIFGLIAGMVVTRDGD</t>
+          <t>EERVLTPHTPSLKTVCFGLALASLINKGCVLTFFLEWRKQIHILRRRRGLATAWQTGKSQKRQWTPLGSLWLCIAHVVLLAVECNNKQSWSSF</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>MLYNINKRLYLFEKGREEMAEVNVKKSSFFKEKKEVPNTDFSLLKGALIQNLDRLEKFVEAIPYKYIKEGNVKENA</t>
+          <t>MAKLLAVFLVLLIAALVCEQALACTPGSRKYDGCNWCTCSSGGAWICTLKYCPPSSGGGLTFA</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,24 +6316,24 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>MFIIDDLFVSPFFSLLDILQTMALDEMYDTKSIRDDIKENQLLYEVGERSDEEYQQRKQALESQLEMAEQVQEQMRDRMEVKK</t>
+          <t>MPIVNVKLLEGRSDEQLKNLVSEVTDAVEKTTGANRQAIHVVIEEMKPNHYGVAGVRKSDQ</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>LPRLLRLDSRMATVDFPKKDPTTSLGRPFFLFRPRN</t>
+          <t>MERMDIIIWLLAVVIVLTTLMIFLHLKTLKIIRLLFPVSKELSKKSCVFPWKKKWTKNYPPSSMYP</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -6342,33 +6342,33 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>MQPMTKKKHTTASKRSPARPPSLSPPLESRRRVGGKSPERLHGNAPPTPPRSPLPPSPSPEHTRRLSPQRRRPQRQRKL</t>
+          <t>MEKQFNVWSVQNDIVCQRQLTINLRRVRNEYDNAVASVAAPSCPPSIPAQTRTCGRKLKLDWFKCTIL</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>FTFSILCQVNSDCLGEICLPPKTHWCNKILLEIYISCHLVTMLEPNNLYLLPFLISWTRNNLYIILGLSLFSRTNSLVLSWR</t>
+          <t>MMYKYARIKRVRNITVYDIACQCWARDFQYDQCLFLLIQHGFSPIQSLEEFQRVWNMLDQAFADFCNERGCPADPIGFADVRI</t>
         </is>
       </c>
       <c r="B456" t="n">
         <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>MAICYARFMVPEPSIFEIDAEAEEAADAEGMADIAAGRVVPHEEVSAWLDTWGTPEEKPAPETWRK</t>
+          <t>MTAQHQSDTLLHRLNTLPPKRYGVFLLNDDYTTMEFVVEILTEIFMLGQEQAVAVMLSVHHEGKGLCGTYTRDIAQTKQQQVMQRAKAEGHPLQCIVEEI</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>EERVLTPHTPSLKTVCFGLALASLINKGCVLTFFLEWRKQIHILRRRRGLATAWQTGKSQKRQWTPLGSLWLCIAHVVLLAVECNNKQSWSSF</t>
+          <t>MSHVDVTVDEATINAIRQRMLETGDWERIQKLLRAHLEESGWVDDLKDLAKEKARAQDVPNLENLVKQISESAAGMVSDNVKRDVMLEIESVLDREVDQA</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,33 +6394,33 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>MAHFIKYLIMFLVIAACVGVLEVESAEADLTALGIRKMLDPPTEVGISFAAEIQFKKELLGRLKGIQCGESCVWIPCISSAWGCSCKNKICSS</t>
+          <t>HIECKNDFDCPKNMCLAPRVAWCVNNKCECVLTYGPKYSTMKEKLLQKEKI</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>MFVTSKKMTAAVLAITLAMSLSACSNWSKRDRNTAIGAGAGALGGAVLTDGSTLGTLGGAAVGGVIGHQVGK</t>
+          <t>MVDVSDKVETKRTAVAEGRVVMRPETLALVIAGRAGKGDVLGIARVAGIMAAKRTADPKNSKSFSRVLLERPRAHSI</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>MFREYKMYKFFEQVKQETYKVFWPNRKELIASTLVVVAAVFIFSLICLVLDYSIHNIMQLLLTIGK</t>
+          <t>MVTPTKHAIGLRSASGVELLAHIGLDTVTFDGTPFSLKVKEGDTVKKGEVLVEFDKAFIEDIEESALHQKIFTVVS</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,24 +6433,24 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>MQPILEKLYRAESMSQQESQQLFSAIVRGELEPSQLAA</t>
+          <t>MSGRKETVLDLAKFVDKGVQVKLTGGRQVTGTLKGYDQLLNLVLDEAVEFVRDHDDPLKTTDQTRRLGLIVCRGTAVMLVSPTDGTEEIANPFVTAEAV</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>MDIDYRIAIVLAPVVIAASWAVFNIGAAALRQIQGFLDREA</t>
+          <t>GTISLSLCKEERDADEDDGGEVQEEEVKRGIFSLIKGAAKVVAKGLGKEVGKFGLDLMACKVTNQC</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -6459,11 +6459,11 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>FLTLLCPIQVQTAPVPEDWTGLITRAKRSLLWRWNTLKPVGTSCREHDECGTKYCRKKICSFQV</t>
+          <t>MTHALPKVVKSQLVQDIGVALILGSIAGCFFKYGVDKKKQRERVAFYEKYDKEDL</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
         <v>1</v>
@@ -6472,37 +6472,37 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>MDRRRMALRPGSRRPTAFFFHSRWLVPNLLAFFLGLSGAGPIHLPMPWPNGRRHRVLDPHTQLSTHEAPGRWKPVAPRTMKACPQVLLEW</t>
+          <t>SKFELVNYASGCSCGADCKCASETECKCASKK</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>MSEMIVLPHKVTVKVPLASRVDAERCLQVLAPDRELKEELVQRNLFVDDNYLVVNYSCSSARMTRVTVNSLFENLYLIIDTMHELSSL</t>
+          <t>MWIEKFKNKNNETKYRYYEKYKDPYTDKWKRVSVVLNKNTKQSQKRSNVSFRRKNKRKN</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MGHLPDDVGSWATHCINLVCDGELLEDKKSQTYTCEDCGEVVTLDELNEHLEKEAESYLKFFGYK</t>
+          <t>MQTLSSAPDPAVSVAVTILAVLLALTGFGLWTAFGPKAAKLTDPWDDHDD</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6511,24 +6511,24 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>MGFTEETVRFKLDDSNKKEISETLTDVYASLNDKGYNPINQIVGYVLSGDPAYVPRYNNARNQIRKYERDEIVEELVRYYLKGQGVDL</t>
+          <t>MKTIIVLLLLTIVAAAVVESSPKARRQTECQIKNDCQRYCQSVKECKYGKCYCNYAG</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>MKKTDKILKEIGIQRVAIMEGKKYSKGFMEDGDIGVQY</t>
+          <t>RSLPEVLRARTVESSQEQTHSAPASPAHQDISRVSRL</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -6537,11 +6537,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>MALTCRLRFPVPGFRGRMHRRRGMAGHGLTGGMRRAHHRRRRASHRRMRGGILPLLIPLIAAAIGAVPGIASVALQAQRH</t>
+          <t>MFYLPRAMRFLLLVLPVLALLPQVTPDYGAKKRCLKILGHCRRHCKDGEMDHGSCKYYRVCCVPDLNSYNQNYAITWTTEETSTSEYDLSSDFIGVLRAI</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -6550,11 +6550,11 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>MKTHVKKDLDKGWHMLIQEARSIGLGIHDVRQFLESETASRKKNHKKTVRQD</t>
+          <t>AERIYRCLDHSHCPTFMCSPGLKPKCMNPKVCKCVPVQSRKYYALT</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6563,20 +6563,20 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>MAPVDVESQVELDLKIEDFDYKNVALIKRFMTPVGRVLSRRATGLSAKKQRKMAKEVRKMKFLALVPYCDRHK</t>
+          <t>VRTEEVGSFDSPVGEHQQPGGESMHLP</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>MSANGNAALGVRLTEDQVKVLEENFTKVSKHPDETTLMLIAAECGLSEEQTAVWFRMRNAQWRKAEGLPAELGSVKD</t>
+          <t>MTITKNKISLMLSSKLGFSNNLCEAIVNTVFSNILEIAKVQKLTLKNFGSFEVKQKTPRPGINFHTKSPVMIASKKNLRFTPSEKLKALINKSML</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,11 +6589,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>MKTLTHHIAVQCTCGATGQTGDFLVDIEHFKLTGELIALDGMVFRSLTALYAYANTYGLPTKRLNTPIVYQS</t>
+          <t>DMKIGVSMSQFDDTHLTYLQQSMDEKAKSYPDGVVLL</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>HADAIFTSSYRRILGQLYARKLLHEIMNRQQGERNQEQRSRFN</t>
+          <t>SASRALSDKPLAHVVANPQVEGQLQWL</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,20 +6615,20 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>MVYYPELSVWVSQEPFPNKDMEGRLPKGRLPVPKEVNRKKNDETNAASLTPLGSSELRSPRISYLHSF</t>
+          <t>MQSFVKIIDGYKEEVITDFNQLIFLDARAESPNTNDNSVTINGVDGILPGAISFAPFFISIKVWL</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>VRIWFCASRTCSAPADCNPCTCESGVCVDWL</t>
+          <t>MVEKMVGILKFVCPFLFLYFLLLSMLVISGKHDYHMFFQRIPCPKDKILDCNLLECWCK</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>MSSAIKILALLMVLVALAQAKPRKDYRAYPDFDDKSVILEDDKRCDPDKRDSVCKDVCGMLDIGTENGECPGKEVCCVDLFGR</t>
+          <t>MTLLSSISKIGTIKNGNSLNEITSTISNNEAKGSPSFSGNQSTKSIGDLLLQIAIITKATTKNK</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,59 +6654,59 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>MSLLDYFKSSKSKTASVAKERLQILVAHERYYRNKPSYLPQLQEELMQVIRKYVQVDQDAISVKFEQDDNQETLELNITLPDTQNPRNTQQDMIRNAL</t>
+          <t>MKHLNFFIKALKKEFESFKDTGASIEEMTKSKPYTKVGSQERAVLIEWVGPMNRKNIIHLNEHGYTRDGKKIYTKRFWSYCKNISC</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>EPKEKDGKLTAGLGAGGHWDPKDTKQHGYPWQDDAHLGDLPALTVLHDGTAANPVLAPRIKHLDDVRGHSLMIHAGGDNHSDHPAPL</t>
+          <t>MQFSDLSPVEQKLYPTHSSLKEALEEARHLLPGGSHHDFMRAMMGYHNTFLLFVGEWTPSE</t>
         </is>
       </c>
       <c r="B480" t="n">
         <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>MLNHRYHHYFHRHHHLNHHLYHRHHHHRHHHHRHHHRHQILHQNRHQIHQILLSLNNKIMGYAIFLFLSILLHLVYLVIHRL</t>
+          <t>SEGTSCYIYHGVYGICKAKCAEDMKAMAGMGVCEGDLCCYKTPW</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>HVTCFYVKFGCKHTECITTIVFCWQTASDISSV</t>
+          <t>LSPSKVTCLQKLEKLHSETRNSSTIFENAQYGTEEKQKAGSKKHYALFNLTHACIMFGGQCKNKCGENEFRMVYCVVSTSLCCIRQCKP</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>MSETQADSIAKSSVETTIQPLHQESATLRQQVLQKHELPKHALNVASPTDSLMSPCTAKLQAHKKKYYMKRKPPVMSLQNTLQSVQTEKE</t>
+          <t>MKTLVLVAVLGLASLYLLSYASEVQQISRDEEDFRALMASFGGIFDTEERGVDKEGCRKMFGDCWGDGDCCLHLGCKTRKLPPWTDKPYCAWDWTFGRK</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,7 +6719,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>NIFEYFLEGGGKNLRIIRKGIHIIKKY</t>
+          <t>QAQALLPIASYAGLTVSAPVFAALVTVYGAYALYRYNIRRRENSYPRIR</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,24 +6732,24 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>MKRLLVLTLVSAILMAEFLDATDAVTTRRRRRRHLHKGAGKSQMLEEVNMEVKAKNFAQEMEREDGKLHFLGTYNEPVMNNDLFCGL</t>
+          <t>SEEVKARRARVVWCAVGPDKQKKCQQWSQQSGQIGTCATASTTDDCFFLVLV</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>MNKAILHAIIIYTLAGCPYCMKAKALLDKKEVAYEEIEVQNSQDPNVAVLRKKLNNPDRLTFPQIFIDNMHIGGCDDLYDLDKEGRLDKLLEGQPKKD</t>
+          <t>MKVAILILSILVLAVASETIEEYRDDFAVEELERATCAGQDKPCKETCDCCGERGECVCALSYEGKYRCICRQGNFLIAWHKLASCKK</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -6758,11 +6758,11 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SAFTVWSGPGCNNRAERYSKCGCSAIHQKGGYDFSYTGQTAALYNQAGCS</t>
+          <t>MALPKRRLSHSRQGNHRAHVALTAPAVMECPQCNSPKLSHQACSVCGTYNGRTVIDMEAIAKKKADKSKGQQ</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>AQKLCAGVCRCKIASGLSCPKGFPKLALESNSDEPDTIEYCNLGCRSSVCDYMVNAAADDEEMKLYVENCGDACVSFCNGDAGLPSLDAY</t>
+          <t>RKKRRRESWVHLPPPVHLPPPGGHHHHHH</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,33 +6784,33 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>GSSFLSPEHQKAQQRKESKKPPAKLQPR</t>
+          <t>MKCPMRLFSTLLLLLLLLLATETGPMVAEARTCESLSHRFKGICVRNSNCAAICQTEGFQGGHCRGLRRRCFCTMYCNNHHSHPRDQNLKHI</t>
         </is>
       </c>
       <c r="B489" t="n">
         <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>MSLSFGCSQGNPNLYSEESSLKTALIRKTFYFLFAVFFILVQLPSGCQAGLDFSQPFPSGEFAVCESCKLRRGKCRKECLENEKPDGNCRLNFLCCRQRI</t>
+          <t>DLLEALSQDQKLLMAKFLPHIYAELANREGNWHEDAALRPLHDHDYPGWMDF</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>LKVDLWGTRSGIQPEQHSSGKSDVRRWRSRY</t>
+          <t>HHHHHHTKRRITPKDVIDVRSVTTEINT</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,24 +6823,24 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>FATGMPCKTDKECPNTSTHKYKCINDDCFCFYIYWPLGNSLV</t>
+          <t>MAHFIKYLIMFLVIAACVGVLEVESAEADLTALGIRKMLDPPTEVGISFAAEIQFKKELLGRLKGIQCGESCVWIPCISSAWGCSCKNKICSS</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>MKMKTNKYMNMVRPAPPRRADPEGVRDPSTMGGGPNPFLRRSPYMYINKKK</t>
+          <t>MGHLPDDVGSWATHCINLVCDGELLEDKKSQTYTCEDCGEVVTLDELNEHLEKEAESYLKFFGYK</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -6849,20 +6849,20 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>KVLLLCVLFAVIAAAFAAEEQRDEKLISALANAAKGIFGGVSNIASNFLGRQKPQTETYTTIEEIQVPA</t>
+          <t>MLHLIKMVSKIVLLITLVFIVSAVTGSDTWVGECDYACENGKNAIDACCSQKGYAPRGYCPNGMHARCQYSVI</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ACWKANSCPGSAFESKDRLRSFALLYCRYNYKPPYGQGAFGYASAVSTHGWETEAQCINTFEQIITSCHGQSNGGTLELNSGRLSLAFGNCEEL</t>
+          <t>LKCHKAQFPNIETQCKWQTLCFQRDVKPHPSSMIVLRGCTSSCGKGAMCCATDLCNGPSTPST</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,46 +6875,46 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>MVLTNLQKITGLLCVLVETKKLKIFIKFMLKTKNGGKKVLKKIYKKAKKKNILTMIMFI</t>
+          <t>AVDAYDDDDNLKNEEGDYYNESDDGYSGDEEEEEKQEEDEQDDDDLQFDDGVPEDPISTLKCFSFNSVGTGSPCIFGVPVPAIRQVHS</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>MKLSFRARAYGFRGPGPQL</t>
+          <t>MAVETIQKPETTTKRKIAPRYRVLLHNDDFNPMEYVVMVLMQTVPSLTQPQAVDIMMEAHTNGTGLVITCDIEPAEFYCEQLKSHGLSSSIEPDD</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>MGSFSITHWLILLVVVVVVFGTSKLRNAGKDLGGAVKGFKEAVKDENTEHAKKHVVLDHDAGTNPPNITGTQSDTTSANKVDDTHNV</t>
+          <t>MIDTLKGWAEYLVEWAAKDPYGFLITVLLALTPLFLASAVLSWKMAKMIEAKERDQKKKQKRQENIAKAKRTKKD</t>
         </is>
       </c>
       <c r="B498" t="n">
         <v>0</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>MQERDILLKIKEIAKAKNFKTELDESVLQKPFRELKIDSLDMFSVIVSLEKEFDIMFEDEKLMQLNNLAELIAEVKHLISQKGV</t>
+          <t>MLHTLHRSPWLTDFAALLRLLSEGDELLLLQDGVTAAVDGNRYLESLRNAPIKVYALNEDLIARGLTGQISNDIILIDYTDFVRLTVKHPSQMVW</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,11 +6927,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>DIQIPGIKKPTHRDIIIPNWNPNVRTQPWQRFGGNK</t>
+          <t>MNLNVVNRELKVGQIKMNGVSSSALFLIGDANLLILSSILDTPFETVTEGPFVPLVTDVPPTPG</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -6940,50 +6940,50 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>EHRKVLASVAIISTQAPLSSLSQTSTAHFEVHRGNALQIYSSPNQGPHEQTLKRNLKPTTELLLDQTDLKQSSNEQGIAAIILTP</t>
+          <t>DCPTRCPTTCANGWECCKGYPCVNKACSGCTHGK</t>
         </is>
       </c>
       <c r="B501" t="n">
         <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>MKKAKAIFLFILIVSGFLLVACQANYIRDVQGGTVAPSSSSELTGIAVQ</t>
+          <t>MQLAKVLGTVVSTSKTPNLTGVKLLLVQFLDTKGQPLERYEVAGDVVGAGLNEWVLVARGSAARKERGNGDRPLDAMVVGIIDTVNVASGSLYNKRDDGR</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>VTVVQYRSTNASSGYLNLRVYLLDTGLR</t>
+          <t>SVENSRPTGQQLESLDLSAPWEQSLPCTERKPSATARLSRRGASLSSPAESSGSPQRRGLSAPSSRQIPAPQGAVLVQREKDLPNYNW</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>MEHLYIVSYDIRNQRRWRRLFKTMHGFGCWLQLSVFQCRLDRIRIIKMEAAINEIVNHAEDHVLILDLGPAENVKPKVSSIGKTFDPILRQAVIV</t>
+          <t>MQPCVLWWLALGLLLGIPAGAKPTPEEADPNAQPPAMPYWPFSTSDFWNYVQYFQSQGAYPQIEDMARTFFAHFPLGSTLGFHVPYQED</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
         <v>0</v>
@@ -6992,24 +6992,24 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>VGRFKRFRKKLKRLWHKVGPFVGPILHYG</t>
+          <t>MAVFRSTLVLLLIIVCLTTYELHVHAADGAKVGEGVVKIDCGGRCKDRCSKSSRTKLCLRACNSCCSRCNCVPPGTSGNTHLCPCYASITTHGGRLKCP</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>MCAVAYRRSLHYDSWCSKEKTPSNHRVNCLLDPKLLLESPEKLGCYCIDHCNLHLKGQIVWTAPDGGD</t>
+          <t>MFKLLVVVFAALFAAALAVPAPVARANPAPIPIASPEPAPQYYYGASPYAYSGGYYDSPYSYYG</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,20 +7018,20 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>MATQKQVDYVMSLQEQLELEDCEKYTDEQVKAMSHKEVSNVIENYKTSIRNEELYYECMSFGLPNC</t>
+          <t>MASKTVLVLLLVSVLVSTFCTAKAYPASLEDNFDLDALDDLDDLDLEDFYDLEPADLVLLDMWASMLENSDFEDDFE</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>EGSGGSGSSGNFTTGSNVRMSSVTNTSNAGTGTSGGGNSAAASGASVNAPPVTVTLTESLLNK</t>
+          <t>MLVLLQAVCITVLTLLLIGRLQLLERLLLNHSFNLKTVDDFNILYRSLAETRLLKVVLRLIFLVLLGFCCYRLLVILM</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,11 +7044,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>MKTLPLVLAVVAFVYLDLAHTLKCRSGNVCILGDDCSEGENVCFQRKNGTGVFGMRVVRGCAASCPSPIGGEEVSCCSTDNCNNSFSRFF</t>
+          <t>MNFQQRLQSLWTLARPFCPPLLATASQMQMVVLPCLGFTLLLWSQVSG</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -7057,63 +7057,63 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>MSTGNVDQELIRRYLVVVKKLYEEPIPQTARQRRRRKQQLRTRRAQLRELEGRILKQILDRGPDQLCQGVANLALAEKSESSN</t>
+          <t>MPEQLSVRKWRLVRDLKQQEVADILGVNAKTVGHWEKDDTNLSNVTVYALAKLYDIEVDQIKV</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>LGEKGYSYSTGDSSVTVQHDTLPYSRYQGLYNYAHPGYNTYPYNQYQG</t>
+          <t>MAPLRGAELVQTPLQLYRYLLRCCRQLPTKGIQEHYKHAVRQSFQVHSDEDNPERIQQIIRRAIEDADWIMNKYKKQN</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>AGLTKRSLFDPSCTGVFDRQLLRRLRRVCDDCFNVFREPNVSTECRSNCYNNEVFRQCMEYLLPPHLHEEHRLAVQMVGK</t>
+          <t>MSKTVVRKNESLEDALRRFKRSVSKSGTIQEVRKREFYEKPSVKRKKKSEAARKRKFK</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>MELEAMTRYTSPVNPAVFPHLTVVLLAIGMFFKAWFFVYEVTSTKYTRDVYKELLIALVASLFMGFGVHFLLLWVGIFV</t>
+          <t>MQTGESMTKIIKFVYFMTIFISPFVVASLHEISGYVLGLPAGYCTSNHHCPVYNCTHPKQPWCKLVRLQLLFHGSLIGLCDCI</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>LVQRGRFGRFLSKIRRFRPKFTITIQGSGRFG</t>
+          <t>MSEVNAGEICYVKKQRKGTINPNKICQPIGAMWATVGVKGTIPFVQGSQGCTTYVRYAFNRHFREPVSIATASFHEHAA</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>MAELQERIRHFWKESRRAFLVTKKPNWATYKRAAKITGLGIILIGLIGMLIRIVGILILGG</t>
+          <t>MSLLDYFKSSKSKTASVAKERLQILVAHERYYRNKPSYLPQLQEELMQVIRKYVQVDQDAISVKFEQDDNQETLELNITLPDTQNPRNTQQDMIRNAL</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,24 +7135,24 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ADDYDDEVLPDARGHRPIDRKREELPSLRPAPPPISGGGYR</t>
+          <t>MSTLKMMLLILLLLLPLATFDSDGQAIPGGGIPSAVNSRVGRLLGGDEKSGRSLEKRCSSGKTCGSVEPVLCCARSDCYCRLIQTRSYWVPICVCP</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>MKKSLFAAALLSLALAACGGEKAAEAPAAEASSTEAPAAEAPAAEAPAAEAAAAEAPAAEAPAAEAPAAEAAATEAPAAEAPAAEAAK</t>
+          <t>MATEEVKIKALLENDKQYFPATHWKAINGIPYAGSSDIDGLPQDGIISVDDKNKLDKLKIGEAGIIQNSIVQKSPNGKLWKITVDDSGKLGTVLFY</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
         <v>0</v>
@@ -7161,50 +7161,50 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>MNIAKLLGVISFICWIVACVLTICIDASSVFSQALAQGMCAYLTFVLLSND</t>
+          <t>MAASKGNAAAAACALVLVLLAVGAEAQGGGGGECVPQLNRLLACRAYAVPGAGDPSAECCSALSSISQGCACSAISIMNSLPSRCHLSQINCSA</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>MELVVWKDGDNWRVFADDAVPALDGTVDRVAEGLATLYRKEKEPVVFTRRKTAFYDGQYWLMWKYYPTYGRAYGKEASDEMIKEPSAIALLAGY</t>
+          <t>AERLIGTSTKEFDESIRHTLVLRSLQDAYKDRQR</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>MLAFCYSLPNAGDVIKGRVYEKDYALYIYLFDYPHSEAILAESVKMHMDRYVEYRDKLVGKTVKVKVIRVDYTKGYIDVNYKRMCRHQ</t>
+          <t>MTNVYSLDGILVFGLLFVCTCAYFKKVPRLKTWLLSEKKGVWGVFYKAAVIGTRLHAAVAIACIVMAFYVLFIK</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>MLHLIKMVSKIVLLITLVFIVSAVTGSDTWVGECDYACENGKNAIDACCSQKGYAPRGYCPNGMHARCQYSVI</t>
+          <t>MEIKVEQPKEILLEVGWRYTSDWIVNSTTVSVEDNVYAYENACYKVLEELCESIDAKYIDICFVREATENA</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
         <v>1</v>
@@ -7213,50 +7213,50 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>MGLKPSCLKGFKMCVSSSNNNHDEAPVLNDKHLSVPNIIITPPTPTGMGLSRDSNKQVWMDELGSYQDDGELEPEA</t>
+          <t>MKKVLALVVAAAMGLSSAAFAAETATPAKTAAPAKTTQTTQHHKKQHKKTVEQKAQAAKKHQKKDGKKAPAKSTSKTTSQPAA</t>
         </is>
       </c>
       <c r="B522" t="n">
         <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>LILFIFSIITMLSMFLLYLFGMASVALIELGLLMGSQNDITKGAHSLLFTGVTLTVVTEITKQCLLLF</t>
+          <t>MSGIQLDKETILKYSSAALVALSAVVAVMMVSNNSESWKPILVGAVVAASGAAAYQSWWPKQS</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>MNKTDLINAVAEQADLTKKEAGSAVDAVFESIQNSLAKGEKVQLIGFGNFEVRERAARKGRNPQTGKEIDIPASKVPAFKAGKALKDAVK</t>
+          <t>MILVNVHAGNCDNTLKNFKKKLQRELYFRKMKEQRYYETPSAKRVRKAQEAARRQRKFARKKMFDE</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>MISMLRCTFFFLSVILITSYFVTPTMSIKCNCKRHVIKPHICRKICGKNG</t>
+          <t>MKEKDYWEEAWLTSCTSIHDHHCDCGSWRDHLWTLCALDDADLAAAADIIEREEADGGEDFGFVDGDPGDAGG</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -7265,37 +7265,37 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>MLVLLQAVCITVLTLLLIGRLQLLERLLLNHSFNLKTVDDFNILYRSLAETRLLKVVLRLIFLVLLGFCCYRLLVILM</t>
+          <t>MENLNLNQLENINGGYWKTIWAVGPGLYQRDTETGKYRWIQTQDNLSYTTNVIANGWAGSAAGGYFSGR</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>MLNIFYNVWGGFISHPVLITLSIVGIYVLGYALVKFIVGIVVLSNSLNTKWVIASAIFTTVLSIVFTIYSFLVEIYVVLVVISGLVVLLT</t>
+          <t>MFRIEGLAPKLDPEEMKRKMREDVISSIRNFLIYVALLRVTPFILKKLDSI</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>MKCPMRLFSTLLLLLLLLLATETGPMVAEARTCESLSHRFKGICVRNSNCAAICQTEGFQGGHCRGLRRRCFCTMYCNNHHSHPRDQNLKHI</t>
+          <t>KYKPTDATTNPSLILQAKFLEELQNSKKIYNYYKKESVVEHLSESSAKKLEMTEANFRWEMNEDKFAVDAVKLEK</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
         <v>1</v>
@@ -7304,11 +7304,11 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>MFKILNDIKTSLKNHPWGWKEHLPYLLMLTLSLVALIFGVLSAIL</t>
+          <t>MKRLLVLTLVSAILMAEFLDATDAVTTRRRRRRHLHKGAGKSQMLEEVNMEVKAKNFAQEMEREDGKLHFLGTYNEPVMNNDLFCGL</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C529" t="n">
         <v>1</v>
@@ -7317,59 +7317,59 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>MRGAAPRVADLNLELNDLVLPINLLSEEVLQPSDDESEAPEEELFPFRIDTCCYRCEVNVRITLFAVEFGLRALEQLIVDGKLTFCCTTCARTLRNGR</t>
+          <t>MDIEPEVPVVEKQMLAGNRGKQKTRRSVAKDAIRKPASDSTNGGNWVNVADKIEVHIHFNF</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>MSTLKMMLLILLLLLPLATFDSDGQAIPGGGIPSAVNSRVGRLLGGDEKSGRSLEKRCSSGKTCGSVEPVLCCARSDCYCRLIQTRSYWVPICVCP</t>
+          <t>CAKKRNWCGKTEDCCCPMKCVYAWYNEQGSCQSTISALWKKC</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>MAGSQSQASTLVARGGRSSSNAPTGAAGALRRRPVRGSGGSGTTKAQQAAMNFYTDDTPGWKMSPVVVITMSLSFIAFVTILHVVGKFQ</t>
+          <t>GKIAVSIVKALEHLHSKLSVIHRDVKPSNVLINKEGQVNMCDFGISGYLVDSVAKTMDAGCK</t>
         </is>
       </c>
       <c r="B532" t="n">
         <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>MIYRNWSLLSSTVVIWGGVATAGLAGIFLFGGKEKFQNYLCREGERLRQQDRAAMGKN</t>
+          <t>MENEKLESYFMKEIAPILDEIEMSEELIKGMENNNPSDMITVSFSKEEVDILLAMLDLELPRLDSGSELFSPNLVREAKLQLIKNKLTSK</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>MDQAIYTLHEFMLHTKNWTYILMGVTLLVYVGYWLFLTGRDEKIRKY</t>
+          <t>MCCGPLGFCGPCSPCGGPCGPCGPCGPCGSCCSPCGSCCAPCGPCGPCGPCCGGCGPCGPCGPCCGPCRPYCGC</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,98 +7382,98 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>MAMTKKFKVSFDVTAKMSSDVQAILEKDMLHLCKQVGSGAIVPNGKQKEMIVQFLTHGMEGLMTFVVRTSFREAIKDMHEEYADKDSFKQSPATVREVF</t>
+          <t>MNTKTMSQFEIMDTEMLACVEGGGCNWGDFAKAGVGGGAARGLQLGIKTRTWQGAATGAVGGAILGGVAYAATCWW</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>MQRRTQELIWKELVDNSHKLFCNCMDPQNHYRLICQNLNREPGEPWRTAGGIGEGGAGGDGAAAGGEGDVHGRPAGAEDGEDGADAAMAAALAAFEDATG</t>
+          <t>MDPMIAQGALIGGGLIMAGGAIGAGIGDGMAGNALVSGIARQPEAQSRLFTPFFITVGLVEAAYFINLAFMALFVFATPVK</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>AGLLAGSWIPDWTFVSVPPLVTLWYTLTKEPIPGEDVYYVDGACNRNSREGKAGYITQQGKQRVEKLENTTNQQAELTAIKMALEDSGPRVNIVTDSQYA</t>
+          <t>MQRGKHMVEILEFVYAMILFLPLFLVITEVDGVDIYCETDADCPQITDWFYVVKCVDHKCELTKKLRRLYEYQTQKSAETPYI</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>MSRLLLLCSSLLRHRAVLFSKPGHPGRLSHSESPQKKILSPTESAVGIVVFFTTFYIPAAYVLSSLKYFKGE</t>
+          <t>MSPEEIRRRLDTITERIANAVMIVNLIKEKSK</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>MGCLVVVKEILRLLFLLAMYELGKYVTEQVYIMMTANDDVEAPSDFAKLSDQSDLMRAEVSE</t>
+          <t>MSNQNIPQLSEYQTSVSQVAVTPPPKPETPQIFEYQTSDSIVNNPRPFYNSDLEFDDIDMYLLPN</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>MRLHGFFLALFAVFQVLHAISSALNFERPCYLRGGICLKQGTPNCEPFRGPCRAFTVCCKIRS</t>
+          <t>DAPGHPGKHYLQVNVPSDVRTIGVAGGGVQQCFRVTPGAWNDTRALVSNGAQVEVWGYTVADCANRTTANQKYYDKAAAP</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>QEFDALLERAKTLLNVHSDQYDDSIRQIVVK</t>
+          <t>MKTLFVFAVGIMLSMRASAFTCPECRPELCGDPGYCEYGTTKDACDCCPVCFQGPGGYCGGPEDVFGICADGFACVPLVGERDSQDPEIVGTCVKIP</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>MEEPTSSTNENKMKSPCESNKRKVDKKKKNLHRASAPEQSLKETEKAKYPTLVFYCRKNKKRNSNQLENNQPTESSTDPIKEKGDLDISAGSPQDGGQN</t>
+          <t>LLNRLPNGLFRVCLDLIINYVSGKIRHSFIRILPGDRVKIEVSPYDSTKGRIIYRLHNKDLKDSFFNFTIPFVGIQFEMKNFKKLIFFQEIDSELR</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>HIECKNDFDCPKNMCLAPRVAWCVNNKCECVLTYGPKYSTMKEKLLQKEKI</t>
+          <t>AQKLCAGVCRCKIASGLSCPKGFPKLALESNSDEPDTIEYCNLGCRSSVCDYMVNAAADDEEMKLYVENCGDACVSFCNGDAGLPSLDAY</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,11 +7499,11 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>MYKSFCDVVAKKDAKGRIKVRIKSAKDLRIPVWNNTKLNSGKIKWYAPGVKLAWYDNKKGYLELWYDKDGWYYTANYFLK</t>
+          <t>MATAFLPSILADASFLSSIFVPVIGWVVPIATFSFLFLYIEREDVA</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
         <v>1</v>
@@ -7512,11 +7512,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>MSKIQYPMTTAAIFDDVVYPLHFDNAGKVRQEMEGAVNWFCRWCNEEKAAVKARLLVSCWGQYLSHEQVIREAA</t>
+          <t>MEMMNNREQIEQSVISASAYNGNDTEGLLKEIEDVYKKARAFDEILDGMTNAIQHSVKEGIELDEAVGIMAGQVIYKYEEEQGK</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,20 +7525,20 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>MVGTCPECGAELRLENPELGELVVCEDCGAELEVVGLDPLRLEPAPEEAEDWGE</t>
+          <t>MAAALALVAGVLSGAVLPLWSALPQYKKKITDRCFHHSECYSGCCLMDLDSGGAFCAPRARITMICLPQTKGATNIICPCRMGLTCISKDLMCSRRCHMI</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>VAEKAKDERELLEKTSELIAGMGDKIGEHLGDKYKAIAKDIADNIKNFQGKTIRSFDDAM</t>
+          <t>LYIGCETDRDYPPLANKTFYLKCIDKKCEWTVTDSLSTRSGRMQKLSI</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,37 +7551,37 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>MCCGPLGFCGPCSPCGGPCGPCGPCGPCGSCCSPCGSCCAPCGPCGPCGPCCGGCGPCGPCGPCCGPCRPYCGC</t>
+          <t>MVKRTHGYRYKTRKLLRKKPREKGLSGLSRLLYEYKVGDKVIIDIDSTFISTAPHRRYQGKVGTVVGIRGRAYVIETFLGDKKKIIITTPEHLKPYQGGS</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>VSAPNNIFHKGMRVIVTKADRDDVRLGLHGDTIATVVGVH</t>
+          <t>MSMQPTDHIRLTAFVHGHVQGVGFRWWTRSQALELGLAGSATNLDDGRVCVVAEGPEDRCRELLTRLGEQPSRHRRVGTVSTVIEQWSEPRGVEGFTER</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>GPLPIPIVVNFNKLRKKISNRFKKLRKRLKKGFGRK</t>
+          <t>MHNIIQRPMAINGQVVIRPMMYLALSYDHRLIDGKEAVTFLVTIKNLLEDPSRLLLDI</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C550" t="n">
         <v>1</v>
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>MGLGGISIWQLLIVLVIVLLLFGTKRLKGLGGDLGGAIKGFKKAMSDDEAAKQEAEEAEQKKVAAEEAAAAKTAEQKEKTEAK</t>
+          <t>MLQEFNQNQKAKVAVCLNKTNSTDLAWWRTWTSSWWANVYF</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>QYYGYPYAAVLPQPVADTPEVASAKAAHFAAYNVAAAAAAAAPDYDAVGVVAPPYPGYSAYVGPLAGIPAIVNGVPADTPEVAAAKVAHFAAHAAANHY</t>
+          <t>MSSRYLLSPAAQAHLEEIWDCTYDRWGVDQAEQYLRELQHAIDRAAANPRIGRACDEIRPGYRKLSAGSHTLFYRVTGEGTIDVVRVLHQRMDVDRNL</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,11 +7616,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>MKKLAVILTLVGGLYFAFKKYQERVNQAPNIEY</t>
+          <t>MESVAKPATTKEGSAKQAAIVVGVLALGWFAIQVAFIPLFNKVRGGGSDKKDDDVNAFTPDT</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
         <v>1</v>
@@ -7629,20 +7629,20 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>MSGIQLDKETILKYSSAALVALSAVVAVMMVSNNSESWKPILVGAVVAASGAAAYQSWWPKQS</t>
+          <t>MQQDKFKNYEKKLFDMEIKKLETFHQMTIEKLAKVEGGKNNWQANVSGVIAAGSAGAAIGFPVCGVACGYIGAKTAITLWAGVTGATGGF</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>MKVYCLLLVFLVGLVSQAHGRLDKRCMTVCTMEYWPVCGSDGKTYPNKCHLTSTACTSQKDITVLHVGKC</t>
+          <t>MKKQILKGLVIVVCLSGATFFSTPQQASAAAPKITQKQKNCVNGQLGGMLAGALGGPGGVVLGGIGGAIAGGCFN</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,37 +7655,37 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>VIEPKCYKYEGKKCPPDINPVCGTDKRTYYNECALCVFIRQSTKKADKAI</t>
+          <t>MILQILGERKYDCKDSTEEPIVKPFIELIDGVQFLLEQENAFSLLNSKHEEITRVPNSPYEYRTEKEGYKTFVNSVYVLNDEGKTLRRLFERGL</t>
         </is>
       </c>
       <c r="B556" t="n">
         <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>MRINRTPAIFKFVYTIIIYLFLLRVVAKDLPFNICEKDEDCLEFCAHDKVAKCMLNICFCF</t>
+          <t>MKTLPLVLAVVAFVYLDLAHTLKCRSGNVCILGDDCSEGENVCFQRKNGTGVFGMRVVRGCAASCPSPIGGEEVSCCSTDNCNNSFSRFF</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>MEKQEQTFVSKISEEELKKLAGGYTEVSPQSTIVCVSLRICNWSLRFCPSFKVKCPM</t>
+          <t>MPQLELISWFFNFLLAWFFLFIVVTILLKINFPSTNYITVTHPQKLNIFNNWLWT</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,63 +7694,63 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>FLGSVESSEIDAATTTRLMLNEIAEKWYLRKMMSGVGSSETVDKIFKRETNGRLTGSHCGETCFFFGCYKPGCSCDELRQCYKNELPPAEESH</t>
+          <t>MEPLSIDKPFMYFDEINNELEYDPDSANEKHKKFPYQGQLKLLLCELFFLSKLQRHGILDGSTIVYIGS</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>MILVNVHAGNCDNTLKNFKKKLQRELYFRKMKEQRYYETPSAKRVRKAQEAARRQRKFARKKMFDE</t>
+          <t>MKGSSALLLVALSLLCVCGLTRAEDDNEFFMEFLQTLLVGTPEELYEGPLGKYNVNDMAKSALRELKSCIDELQPVHKEQLVKLLVQVLDAQEDT</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>MAAVAAASAELLIIGWYIFRVLLQVFLECCIYWVGFAFRNPPGTQPIARSEVFRYSLQKLAHTVSRTGRQVLGERRQRAPN</t>
+          <t>GLFEAIEGFIENGWEGMIDGWYGGGGRRRRRRRRRK</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>MFKLLVVVFAALFAAALAVPAPVARANPAPIPIASPEPAPQYYYGASPYAYSGGYYDSPYSYYG</t>
+          <t>QAIGPPYGLCFQCNQKTSSDCTEARRCSPFHEKCYTLYQPDENWMKSSGLSHFGCGKQCPTAGPEGRVTCCLTPRCN</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>LYSSLSSIYSITLIVISIYIYIVISYCSLFMFFILYSYTCSIQ</t>
+          <t>DEVDPDGKVLNSLIDTLMHLQKEFANLKYAFLTVHKARSFGSGSERLYVTNKEIKNFEPLGDI</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
         <v>1</v>
@@ -7759,37 +7759,37 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>AERIYRCLDHSHCPTFMCSPGLKPKCMNPKVCKCVPVQSRKYYALT</t>
+          <t>MELSADYLREKLRQDLEAEHVEVEDTTLNRCATSFRVLVVSAKFEGKPLLQRHRLVNECLAEELPHIHAFEQKTLTPEQWTRQRRE</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>MTWKLFICFLSFGVIFLRVSSLTEKSHTTSYTILHNNNFYSNSCSADTYVPSIKTFSSVWAILNVIIFFCASLFYLRHLCIVKFISNLTK</t>
+          <t>SSESFTLLEQWNNWKLQLAEQWLEQINEKHYLEDIS</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>MNAPLTDNIPWTREEFEQKLRDKGRGYHIYHPFHVMMYEGKLTREQLQCWVA</t>
+          <t>QEFDALLERAKTLLNVHSDQYDDSIRQIVVK</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -7798,11 +7798,11 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>MFLVAGALGVQTAAATTIVNVILNAGTLVTVLGIIASIASGGAGTLMTIGWATFKATVQKLAKQSMARAIAY</t>
+          <t>QAPNYSTASYNVVAVKINLFLSTNNKLYIHDTGVRAVYLAGMKVYLAANPTASSQTFNSDTLVYILDTGINEPNYYINLY</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
         <v>0</v>
@@ -7811,46 +7811,46 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>MYCLQWLLPVLLIPKPLNPALWFSHSMFMGFYLLSFLLERKPCTICALVFLAALFLICYSCWGNCFLYHCSDSPLPESAHDPGVVGT</t>
+          <t>SRSGRGSGKGGRGGSRGSSGSRGSKGPSGSRGSSGSRGSKGSRGGRSGRGSTIAGNGNRN</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>MVTPTKHAIGLRSASGVELLAHIGLDTVTFDGTPFSLKVKEGDTVKKGEVLVEFDKAFIEDIEESALHQKIFTVVS</t>
+          <t>MIIDGTKLRCINDKGQRIVKEGSLYTAWVRDGIGIDGRIFIKEHKRFALLITRFEVVE</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>MNHNVIIVIALIIVVISMLAMLIRVVLGPSLADRVVALDAIGLQLMAVIALFSILLNIKYMIVVIMMIGILAFLGTAVFSKFMDKGKVIEHDQNHTD</t>
+          <t>MKYFLSATFLIIVFMYLMYFCISIVVNNARVQQDLFYHYNYVPDTLLNTVRVHKLK</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>MEKNREIISKNNINVEVFLIRSLIGKLNKKVKVLKALGLNKIGDKKVHFLNQSIKGMLNETINMILLSEVSNV</t>
+          <t>MKMFFTVLVTLFVCSMIIGICEGREIPVKCKGSKQCLQSCKEAGMTYGKCMNGKCNCTPKG</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SKFELVNYASGCSCGADCKCASETECKCASKK</t>
+          <t>YLAFRCGRYSPCLDDGPNVNLYSCCSFYNCHKCLARLENCPKGLHYNAYL</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,24 +7876,24 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>MPIVNVKLLEGRSDEQLKNLVSEVTDAVEKTTGANRQAIHVVIEEMKPNHYGVAGVRKSDQ</t>
+          <t>MYKSFCDVVAKKDAKGRIKVRIKSAKDLRIPVWNNTKLNSGKIKWYAPGVKLAWYDNKKGYLELWYDKDGWYYTANYFLK</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>MKLAILSLFLVFQIGVESKKNGFALDHYGKPWECNLFNVFGPYCNNQCTENKARKGYCCTFTCYCFDLPDDAKILEIGDSRKNYCDVSLTDVLG</t>
+          <t>PHAFPFLTPEQKKELSDIAHKIVAPGKGILAADESTG</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
         <v>1</v>
@@ -7902,37 +7902,37 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>MPVVTGRLRDPDINPCLSESDASTRCLDENNYDKERCSTYFLKYKNCRKFWHSIMMQRRRNGVKPCMPTAAERDEILRAMGKMPY</t>
+          <t>MFREYKMYKFFEQVKQETYKVFWPNRKELIASTLVVVAAVFIFSLICLVLDYSIHNIMQLLLTIGK</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>MAHEVTKIADLINPEVIGAFLHQKMLDNLVLAPFAEIDRTLQGRPGDTLTLPQWNFIGLAEDLAEGEELQSVKLTAEDRKATVKKGC</t>
+          <t>DCKHQNDSCAEEGEECCSDLRCMTSGAGAICVT</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>MFKLICIVFIATILSITSAADNEDELTIEDFLSYECNESMDIEELKEKDKVCSRCANLHKTQSVIERCRLNCFTSEYFKNCEDNLQAKEEEPEEETL</t>
+          <t>MTTIYKELVAHFGTQDETAAKLGVDQSTVSGWVRGKHGMSPVVAKRAQVLTDGKFKKEDLCPAFPWEVLSAVA</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -7941,46 +7941,46 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>MVKGQSLQDPFLNALRRERVPVSIYLVNGIKLQGQIESFDQFVILLKNTVSQMVYKHAISTVVPSRPVSHHSNNPGGSNNYHGSNTTAQQQSQEADDAE</t>
+          <t>MEKNREIISKNNINVEVFLIRSLIGKLNKKVKVLKALGLNKIGDKKVHFLNQSIKGMLNETINMILLSEVSNV</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>MKTFSVAVTVAVVLVFICIQQSSATFPEMPYNRQKRGFKCKFCCGCCGAGVCGMCCKF</t>
+          <t>MGSFSITHWLILLVVVVVVFGTSKLRNAGKDLGGAVKGFKEAVKDENTEHAKKHVVLDHDAGTNPPNITGTQSDTTSANKVDDTHNV</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>MAKPLGTTGEFFRRRDEWRKHPMLSNQMRHALPGLGIGVAAFCVYLVGEQIYNKALAPSKSSHHHQEQTAPSH</t>
+          <t>MRDLKTYLSVAPVLSTLWFGSLAGLLIEINRFFPDALTFPFFLIRVIVAGRGEKD</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>MVILFQLALLLLVVMSFVLIVGVPVLYATNGDRVQSNRLILVGGLAWTALVVLVGVLNYFVV</t>
+          <t>MFSRVALRAAPRQQPFSLVARRTFQTTRAQLSSPYHYPEGPRSNLPFNPKTRFFWFRYLMYCVVGFGSPVAIAVWQTYRPRS</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,11 +7993,11 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>MPMATTIDGTDYTNIMPITVFTTVYLGVFIGIDTSTTGFTCFSRY</t>
+          <t>SAFTVWSGPGCNNRAERYSKCGCSAIHQKGGYDFSYTGQTAALYNQAGCS</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
         <v>1</v>
@@ -8006,20 +8006,20 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>MLKLLTEERRRQTESYLADEASDRKNKEFSQKQMWAVATALVTGVGSALVTIVKLIMS</t>
+          <t>SGDLGAERYAKMCKSCHGADGSNAAMSRALKGLPAEEVKAALIGYKEQTYGGKKKGMMERVVKSLTDEDIEVLATHIGTF</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>MCRIFIVLLVVAALAIIIEGQLTFSSGWGNGKRSISSEQINDDCNPEEAIFQIYKLIVSEGERIRACQRDGKM</t>
+          <t>DDDDEGGGGGGGGGGGGERRRPRPPYLPRPRPPPFFPPRLPPRIPPGFPPRFPPRFP</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>MAAFVESARAGAGADEVIQLVSDGVNEYSEKMMEGVVACPRILMPCKVNDDCLRGCKCLSNGYCG</t>
+          <t>MATQKQVDYVMSLQEQLELEDCEKYTDEQVKAMSHKEVSNVIENYKTSIRNEELYYECMSFGLPNC</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,24 +8045,24 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>EIKEALAKIRELDSPLFKEFEKDSRSGVQKEIEKRKKSIQAEIDENLRLEGMLAYEKELYA</t>
+          <t>MSTRRQAITLYRNLLRESEKLPSYNFRMYAARKIRDTFRANRSTRDFAEIDRQMAEGQQNLELIRRQVIIGHLYSADKLVIENKKTLKPSDD</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>MFRFIKDSILELKKVTWPKYNEVVGNGKQVFWLVLFVSIFLGIVDYLMFLVVTYVF</t>
+          <t>KKKRYIECETHEDCSQVFMPPFVMRCVIHECKIFNGEHLRY</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
         <v>1</v>
@@ -8071,33 +8071,33 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>MKGLSLVLLVLLLMLAAGEDSDSEMQYWTCGYRGLCRRFCYAQEYTVGHHGCPRRYRCCATRP</t>
+          <t>MTSSSTPRMHTYKRTSSPRSPTNTGELFTPAHEENVRFIHDTWLCVLRDIKCPQNHERNDRGPQEYVEKNPNPNLHSFIPVDLSDLKKRNTQDSKKS</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>MIRRSCALLSSSWRDHGISYLKYLNVCTETLHSTVKESRRAKYERWSKPCYTAQRPDGAGGQETIDKVPIHTKDY</t>
+          <t>MATIFDILNTHNNNNNFENCKRQCSTNKSNKTIIDILPSMDVTMTNDKLIIETELAGISKDHIEIDIKDSILTI</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>MATIQIIIEEDNVTINVKKNQVPPIEVSPKIPPIEIENVKKNVLCPICLIAKVNTVLECTHVLCSNCVKKINVCPICRKTFQSINFFRL</t>
+          <t>MSETQADSIAKSSVETTIQPLHQESATLRQQVLQKHELPKHALNVASPTDSLMSPCTAKLQAHKKKYYMKRKPPVMSLQNTLQSVQTEKE</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,76 +8110,76 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>MKTYLMTIVILLILVHKTSGSMKNLPRRQTMEKEKKCENNEGFCRKKCKAEEVELRYCLSGKMCCISTYSTLITYLEKETVHMKHFHTTSSQHVY</t>
+          <t>MSSSRRSRQASSSSRISDDQITDLISKLRQSIPEIRQNRRSNTVSASKVLQETCNYIRNLNKEADDLSDRLTQLLESIDPNSPQAAVIRSLING</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>MAEIIKFVYIMILCVSLLLIEVAGEECVTDADCDKLYPDIRKPLMCSIGECYSLYKGKFSLSIISKTSFSLMVYNVVTLVICLRLAYISLLLKFL</t>
+          <t>MPMSLDSLAVGMVALLVDYYSKALRASLNSTGIDRRWGDQWPSTVELTGRGVIEWESPTFCICSSSRSTAIV</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>MKKQILKGLVIVVCLSGATFFSTPQQASAAAPKITQKQKNCVNGQLGGMLAGALGGPGGVVLGGIGGAIAGGCFN</t>
+          <t>GWTVERCWKNNIGHCRKRCFHVERYKLLCMNKLTCCIPIKEDHGYTKTPPRLVPFEEEITIDINTWELFSNSPASFFNDEFIAEPTKATESTVTET</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>CFLWHVRKRVADQELGDAPFLDRLRRDQKSLRGRGSTLGLDIKTATRAGKQIVERILKEESDEALKMTMASVPASRYLTDMTLEEMSRDW</t>
+          <t>GFKLKGMARISCLPNGQWSNFPPKCIRECAMV</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>MLVIAPKQVAKDTWVDEVDKWNHLNHLKVSLILGTPKERNDALNTEADIYVTNKENTKWLCDQYKKRMAI</t>
+          <t>MPPRSIEEWFYYKLLSSPGFHRFVRKVYRKVNGIKEDPFTDQSTAFQYLYKPTPRQKFKALRLLFWDEMRSTFGFRRRLGDRFKKD</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>MFTLKKSLLLLFFLGTINLSLCRDETNAEEERRDEEVAKMEEIKRGLLSGILGAGKHIVCGLSGPCQSLNRKSSDVEYHLAKC</t>
+          <t>MDPNQTNVVPPALHLVDPQIQLTITRMEDAMGQGQNSADPKVYPIILRLGSQLSLSMARRNLDSLEARAFQSTPIVVQMTKLATTEELPDEFVVVTAK</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
         <v>0</v>
@@ -8188,11 +8188,11 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>MIDTLKGWAEYLVEWAAKDPYGFLITVLLALTPLFLASAVLSWKMAKMIEAKERDQKKKQKRQENIAKAKRTKKD</t>
+          <t>TSQGTTPDKVQLEVNCISNLPNNEVEETDLLRELEMIEENLFGKELSFVPEENRNSRHKRCMGYDIECNERLHCCADLECVKTSGRWWYKKTYCRRKSG</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
         <v>0</v>
@@ -8201,7 +8201,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>MWRWSNIYRIGTLSRYYRYAEHSKDTTMSIFSGGVLPNTPSLEKSLYYDAFPYGLTCKNS</t>
+          <t>SGYSGAALDFPVAPSLAGHYSLTNCGQPSGASKCAEGTVPQAAFEKGTCYRELYASSCHHEETQIFQYPAV</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,11 +8214,11 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>MPTRSTNPNKQPVELNRTSLFLGLLLVFVLGILSPATSLTS</t>
+          <t>MIIYRQYHHEGAPVYEIITKTFQHVSIKCDDSFSDTEIFKLLSLLQDDIDHMKVS</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -8227,76 +8227,76 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>MQKRKNMAQIIFYVYALIILFSPFLAARLVFVNPEKPCVTDADCDRYRHESAIYSDMFCKDGYCFIDYHHDPYP</t>
+          <t>MTTVGVSLFRRSPEKITMKIAAFLGLSFLLIASYVLICEAQHPGFQELLILEENMRDPENSKERSCAKPRENCNRMNILCCRGECVCPTFGDCFCYGD</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>MKSSHFDEYDKTLKQAELAIADSDHRAKLLQEMCADIGLTPEAVMKIFAGRSAEEIKPAERELLDEIKRQRERQPQHPYDGKRPRKPTMMRGQII</t>
+          <t>HVTCFYVKFGCKHTECITTIVFCWQTASDISSV</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>MALKATALFAMLGLSFVLSPSIEANVDPHFDKFMESGIRHVYMLFENKSVESSEQFYSFMRTTYKNDPCSSDFECIERGAEMAQSYARIMNIKLETE</t>
+          <t>MEKNTVTVPKTLFSQVIHIFKYAAINLGLPFLNGVMLGFGEIFAHAFIHSLGWAPGHTRIYSIQRHQYIQA</t>
         </is>
       </c>
       <c r="B602" t="n">
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>MQALSSRVNIAAKPQRAQRLVVRAEEVKAAPKKEVGPKRGSLVKILRPESYWFNQVGKVVSVDQSGVRYPVVVRFENQNYAGVTTNNYALDEVVAAK</t>
+          <t>GCVGHRKSCEHDKKNGCCYFMTCNCWHPMGQ</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>MEKTYGKTVLPLSRVKRIIKQDEDVHYCSNASALLISVATELFVEKLATEAYQLAKLQKRKGIRYRDVEDVVRKDDQFEFLSDLFSI</t>
+          <t>MNYKRIFFSFIAILFISMVASSPAPKWKPFKKLEKIGQRVRDGIIKAGPAVQVVGEAAAILKPAQG</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>MGDPEVLLEVYEVIRNRIEERPEGSYVAELTEDDDTKPAINKICEKIIEESGELILAAKDGDREGVVYESTDLIFHVLVLLAYLGIEIGEVFDEFERRRK</t>
+          <t>MLNIFYNVWGGFISHPVLITLSIVGIYVLGYALVKFIVGIVVLSNSLNTKWVIASAIFTTVLSIVFTIYSFLVEIYVVLVVISGLVVLLT</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="n">
         <v>0</v>
@@ -8305,11 +8305,11 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>MNQGKVWRVVKPTVGVPVYLGAVAVTALILHGGLLAKTDWFGAYWNGGKKAAAAAAAVAPAPVAAPQAPAQ</t>
+          <t>LATRNKIGTYTNDEGNVVVQMAGSKAELLELLSFLNAKYLLEVTDTPEEYQKVFNRLQVETGKNYSVLLLDKVTNKSQESEDFLGDKV</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C606" t="n">
         <v>0</v>
@@ -8318,20 +8318,20 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>MPANQPPLYLTFLLLILLYLIITLYVWTILTINHKTAVRYAALYQRSCSRWGFDQSL</t>
+          <t>MCAVAYRRSLHYDSWCSKEKTPSNHRVNCLLDPKLLLESPEKLGCYCIDHCNLHLKGQIVWTAPDGGD</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>MQRLILLLLSISLLLDRDLPVRSEFELHRICGYGTARCRKKCQNQEYKIGRCHNTYACCLKKWDESLLNLTKH</t>
+          <t>MKLFYVLIYFISLFLVINVQAFFDCENHDDCKNKIKYVLPRIAECRDYKCNCFPLNLSKTLWSASTKRVHKSLAQTNDFLH</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,63 +8344,63 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>MPPRWASLLLLACSLLLLAVPPGTAGPSQPTYPGDDAPVEDLIRFYNDLQQYLNVVTRHRYGRRSSSRVLCEEPMGAAGC</t>
+          <t>MSKIQYPMTTAAIFDDVVYPLHFDNAGKVRQEMEGAVNWFCRWCNEEKAAVKARLLVSCWGQYLSHEQVIREAA</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>MSNQNIPQLSEYQTSVSQVAVTPPPKPETPQIFEYQTSDSIVNNPRPFYNSDLEFDDIDMYLLPN</t>
+          <t>MAQLLKFVYAIIFLFSLCLAATKEKFHSCVNANDCPYDFCSPPKYAKCVYNSCYCEDQGRL</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>MQQDKFKNYEKKLFDMEIKKLETFHQMTIEKLAKVEGGKNNWQANVSGVIAAGSAGAAIGFPVCGVACGYIGAKTAITLWAGVTGATGGF</t>
+          <t>MGESQPVKTFDALFDELTERARTRPEGSGTVAALDGGVHGLGKKILEEAGEVWLAAEHESDEALAEEISQLLYWTQVLMIARGLSPDDVYRKL</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>IWDAIFHGAKHFLHRLVNPGGKDAVKDVQQK</t>
+          <t>MSISSRVKSKRIQLGLNQAELAQKVGTTQQSIEQLENGKTKRPRFLPELASALGVSVDWLLNGTSDSNVRFVGHVEPKGKYPLISMVRAGSWCEA</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>MKLNVIHLLFCLFQEQESYSILSYESIDEFYSRLGYDLESEWLLRDLGINGTSGLAELLTDYNNLLENEITKAVFSDKWL</t>
+          <t>MTILSAITSISRPNKASKSSVSSFGGASLSMGSNSVACGGCGGGSSGPRGPGGVAVGVAVDVNINLGVVVGGVLGLVGGILGGGGSSGSCGCH</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,11 +8409,11 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>MQFSDLSPVEQKLYPTHSSLKEALEEARHLLPGGSHHDFMRAMMGYHNTFLLFVGEWTPSE</t>
+          <t>MQPMTKKKHTTASKRSPARPPSLSPPLESRRRVGGKSPERLHGNAPPTPPRSPLPPSPSPEHTRRLSPQRRRPQRQRKL</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>MFSRVALRAAPRQQPFSLVARRTFQTTRAQLSSPYHYPEGPRSNLPFNPKTRFFWFRYLMYCVVGFGSPVAIAVWQTYRPRS</t>
+          <t>MGKLVKHCHTSLHSELVILFYAKNRFCISIDHLRPLKSHRTHGHYCLLNFSLRENKNYLIIVYLPIEGFSANHMCISHGTSFNIK</t>
         </is>
       </c>
       <c r="B615" t="n">
